--- a/document/01_画面設計書.xlsx
+++ b/document/01_画面設計書.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10409"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\Web\school_develop_1\document\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dorae/Develop/school_develop_1/document/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA59CD25-98FE-4226-8C7A-00BFBC73209E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{434D8331-43CD-5847-A766-7547CCF785E5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="740" windowWidth="29400" windowHeight="17040" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="表紙" sheetId="3" r:id="rId1"/>
@@ -20,6 +20,8 @@
     <sheet name="画面遷移図 (2)" sheetId="76" r:id="rId5"/>
     <sheet name="(Gxx)PC画面フォーム" sheetId="72" r:id="rId6"/>
     <sheet name="(Gxx)モバイル画面フォーム" sheetId="73" r:id="rId7"/>
+    <sheet name="sample" sheetId="77" r:id="rId8"/>
+    <sheet name="G6-1" sheetId="78" r:id="rId9"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm.Print_Area" localSheetId="5">'(Gxx)PC画面フォーム'!$A$1:$T$38</definedName>
@@ -106,7 +108,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="332" uniqueCount="133">
   <si>
     <t>作成日</t>
     <rPh sb="0" eb="3">
@@ -741,6 +743,169 @@
 省略しています</t>
     </r>
   </si>
+  <si>
+    <t>画面レイアウト定義</t>
+  </si>
+  <si>
+    <t>共通情報</t>
+  </si>
+  <si>
+    <t>システム名</t>
+  </si>
+  <si>
+    <t>作成者</t>
+  </si>
+  <si>
+    <t>野中流斗</t>
+  </si>
+  <si>
+    <t>工程名</t>
+  </si>
+  <si>
+    <t>作成日付</t>
+  </si>
+  <si>
+    <t>ドキュメント名</t>
+  </si>
+  <si>
+    <t>バージョン</t>
+  </si>
+  <si>
+    <t>書誌情報</t>
+  </si>
+  <si>
+    <t>書誌名</t>
+  </si>
+  <si>
+    <t>更新者</t>
+  </si>
+  <si>
+    <t>画面ID</t>
+  </si>
+  <si>
+    <t>G-1-1</t>
+  </si>
+  <si>
+    <t>画面の名称</t>
+  </si>
+  <si>
+    <t>ログイン画面</t>
+  </si>
+  <si>
+    <t>更新日付</t>
+  </si>
+  <si>
+    <t>概要</t>
+  </si>
+  <si>
+    <t>アカウントを持ってる人がサイトにログインするための画面</t>
+  </si>
+  <si>
+    <t>レイアウト図</t>
+  </si>
+  <si>
+    <t>操作手順</t>
+  </si>
+  <si>
+    <t>①アカウントのメールアドレスを入力する</t>
+  </si>
+  <si>
+    <t>②アカウントのパスワードを入力する</t>
+  </si>
+  <si>
+    <t>③ログインを確定する</t>
+  </si>
+  <si>
+    <t>④アカウントを持ってなければ新規登録画面に移動する</t>
+  </si>
+  <si>
+    <t>使用する部品</t>
+  </si>
+  <si>
+    <t>識別ID</t>
+  </si>
+  <si>
+    <t>ラベル</t>
+  </si>
+  <si>
+    <t>入力／表示</t>
+  </si>
+  <si>
+    <t>部品の種類</t>
+  </si>
+  <si>
+    <t>表示桁数</t>
+  </si>
+  <si>
+    <t>入力桁数</t>
+  </si>
+  <si>
+    <t>データ型</t>
+  </si>
+  <si>
+    <t>文字種</t>
+  </si>
+  <si>
+    <t>初期表示</t>
+  </si>
+  <si>
+    <t>説明</t>
+  </si>
+  <si>
+    <t>①</t>
+  </si>
+  <si>
+    <t>メールアドレス入力</t>
+  </si>
+  <si>
+    <t>入力</t>
+  </si>
+  <si>
+    <t>テキストボックス</t>
+  </si>
+  <si>
+    <t>ー</t>
+  </si>
+  <si>
+    <t>メールアドレスを入力するテキストボックス</t>
+  </si>
+  <si>
+    <t>②</t>
+  </si>
+  <si>
+    <t>パスワード入力</t>
+  </si>
+  <si>
+    <t>パスワードを入力するテキストボックス</t>
+  </si>
+  <si>
+    <t>③</t>
+  </si>
+  <si>
+    <t>ログイン</t>
+  </si>
+  <si>
+    <t>ボタン</t>
+  </si>
+  <si>
+    <t>ログインを確定するボタン</t>
+  </si>
+  <si>
+    <t>④</t>
+  </si>
+  <si>
+    <t>新規登録</t>
+  </si>
+  <si>
+    <t>新規登録画面へ移動するボタン</t>
+  </si>
+  <si>
+    <t>上田匡成</t>
+    <rPh sb="0" eb="4">
+      <t>ウエ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
 </sst>
 </file>
 
@@ -750,7 +915,7 @@
     <numFmt numFmtId="176" formatCode="m&quot;月&quot;d&quot;日&quot;;@"/>
     <numFmt numFmtId="177" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
   </numFmts>
-  <fonts count="24">
+  <fonts count="26">
     <font>
       <sz val="11"/>
       <name val="ＭＳ Ｐゴシック"/>
@@ -910,8 +1075,21 @@
       <family val="2"/>
       <charset val="128"/>
     </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="2"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="2"/>
+      <charset val="128"/>
+    </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -936,8 +1114,14 @@
         <bgColor rgb="FF000000"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92CDDC"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="16">
+  <borders count="21">
     <border>
       <left/>
       <right/>
@@ -1114,6 +1298,63 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -1125,7 +1366,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="200">
+  <cellXfs count="254">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="4" applyFont="1"/>
@@ -1442,23 +1683,44 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="177" fontId="4" fillId="0" borderId="11" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="177" fontId="4" fillId="0" borderId="7" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="177" fontId="4" fillId="0" borderId="6" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="13" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1484,24 +1746,6 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="4" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1514,26 +1758,23 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="13" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="177" fontId="4" fillId="0" borderId="11" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="177" fontId="4" fillId="0" borderId="7" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="177" fontId="4" fillId="0" borderId="6" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1616,15 +1857,6 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -1656,6 +1888,177 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="5" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="5" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="5" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="5" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="5" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="5" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="56" fontId="25" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="56" fontId="25" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -12093,6 +12496,3190 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>546100</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>88900</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>546100</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>77391</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="図 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0ED3B2BD-BA7A-ADE7-2526-085372F0F6D4}"/>
+            </a:ext>
+            <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
+              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{E9B53DC1-7B20-431A-A054-98CFF993FC02}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2197100" y="1524000"/>
+          <a:ext cx="4953000" cy="3544491"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>114300</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>127000</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>257175</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>41275</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="四角形 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C28CC1F3-A2E8-45E5-A3BF-D42A026D5A83}"/>
+            </a:ext>
+            <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
+              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{0ED3B2BD-BA7A-ADE7-2526-085372F0F6D4}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3416300" y="2451100"/>
+          <a:ext cx="2619375" cy="447675"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="28575" cmpd="sng">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+          <a:prstDash val="dash"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rtlCol="0" anchor="ctr"/>
+        <a:lstStyle>
+          <a:lvl1pPr marL="0" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p>
+          <a:pPr marL="0" indent="0"/>
+          <a:endParaRPr lang="en-US" sz="1100">
+            <a:solidFill>
+              <a:schemeClr val="lt1"/>
+            </a:solidFill>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-lt"/>
+            <a:cs typeface="+mn-lt"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>292100</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>256099</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>81357</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="4" name="直線コネクタ 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F60E3DE6-D874-4F15-92B7-7E3BA49F5545}"/>
+            </a:ext>
+            <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
+              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{C28CC1F3-A2E8-45E5-A3BF-D42A026D5A83}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="6070600" y="2184400"/>
+          <a:ext cx="789499" cy="576657"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="19050" cmpd="sng">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>63500</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>25400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>609624</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>67061</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="5" name="四角形 11">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2095A9A2-545E-45DA-A3E2-0CEA0EC7632B}"/>
+            </a:ext>
+            <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
+              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{F60E3DE6-D874-4F15-92B7-7E3BA49F5545}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6667500" y="1816100"/>
+          <a:ext cx="546124" cy="575061"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="12700">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rtlCol="0" anchor="ctr"/>
+        <a:lstStyle>
+          <a:lvl1pPr marL="0" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2000" b="1">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>①</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>101600</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>215900</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="6" name="四角形 15">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{132277A0-1663-4024-93BA-69707A28E990}"/>
+            </a:ext>
+            <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
+              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{2095A9A2-545E-45DA-A3E2-0CEA0EC7632B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3403600" y="3009900"/>
+          <a:ext cx="2590800" cy="400050"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="28575" cmpd="sng">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+          <a:prstDash val="dash"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rtlCol="0" anchor="ctr"/>
+        <a:lstStyle>
+          <a:lvl1pPr marL="0" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p>
+          <a:endParaRPr lang="ja-JP" altLang="en-US"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>228600</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>127000</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>192599</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>170257</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="7" name="直線コネクタ 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F161B678-E64C-4954-93A4-424BE35FA8AC}"/>
+            </a:ext>
+            <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
+              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{132277A0-1663-4024-93BA-69707A28E990}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="6007100" y="2628900"/>
+          <a:ext cx="789499" cy="576657"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="19050" cmpd="sng">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>127000</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>127000</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>146050</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="8" name="四角形 29">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{94E4614B-F2ED-45C1-97C2-98573290A6B8}"/>
+            </a:ext>
+            <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
+              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{F161B678-E64C-4954-93A4-424BE35FA8AC}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3429000" y="3517900"/>
+          <a:ext cx="2495550" cy="381000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="28575" cmpd="sng">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+          <a:prstDash val="dash"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rtlCol="0" anchor="ctr"/>
+        <a:lstStyle>
+          <a:lvl1pPr marL="0" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p>
+          <a:endParaRPr lang="ja-JP" altLang="en-US"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>88900</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>107950</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>63500</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="9" name="四角形 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1E56E5F2-849F-4CFB-A36C-59B32E6D2275}"/>
+            </a:ext>
+            <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
+              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{94E4614B-F2ED-45C1-97C2-98573290A6B8}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3390900" y="4495800"/>
+          <a:ext cx="2495550" cy="381000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="28575" cmpd="sng">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+          <a:prstDash val="dash"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rtlCol="0" anchor="ctr"/>
+        <a:lstStyle>
+          <a:lvl1pPr marL="0" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p>
+          <a:endParaRPr lang="ja-JP" altLang="en-US"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>203200</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>167199</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>43257</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="10" name="直線コネクタ 9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{801B4EE0-9285-4F5A-A530-73309E300B8A}"/>
+            </a:ext>
+            <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
+              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{1E56E5F2-849F-4CFB-A36C-59B32E6D2275}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="5981700" y="3213100"/>
+          <a:ext cx="789499" cy="576657"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="19050" cmpd="sng">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>127000</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>50800</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>90999</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>94057</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="11" name="直線コネクタ 10">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AEB07FD8-A439-479A-8F27-4F46FFCDC3A7}"/>
+            </a:ext>
+            <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
+              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{801B4EE0-9285-4F5A-A530-73309E300B8A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="5905500" y="4152900"/>
+          <a:ext cx="789499" cy="576657"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="19050" cmpd="sng">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>25400</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>571524</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>16261</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="12" name="四角形 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EC438E9C-6F0A-4C8C-B55A-CC4824F2D3DF}"/>
+            </a:ext>
+            <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
+              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{AEB07FD8-A439-479A-8F27-4F46FFCDC3A7}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6629400" y="2298700"/>
+          <a:ext cx="546124" cy="575061"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="12700">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rtlCol="0" anchor="ctr"/>
+        <a:lstStyle>
+          <a:lvl1pPr marL="0" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2000" b="1">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>②</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>812800</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>25400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>525046</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>67061</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="13" name="四角形 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00796423-FA91-451E-8159-C73D85ACC259}"/>
+            </a:ext>
+            <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
+              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{EC438E9C-6F0A-4C8C-B55A-CC4824F2D3DF}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6591300" y="2882900"/>
+          <a:ext cx="537746" cy="575061"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="12700">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rtlCol="0" anchor="ctr"/>
+        <a:lstStyle>
+          <a:lvl1pPr marL="0" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2000" b="1">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>③</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>749300</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>88900</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>469924</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>126328</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="14" name="四角形 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C3B191D6-D5A5-462B-8018-773B2F768DF8}"/>
+            </a:ext>
+            <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
+              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{00796423-FA91-451E-8159-C73D85ACC259}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6527800" y="3835400"/>
+          <a:ext cx="546124" cy="570828"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="12700">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rtlCol="0" anchor="ctr"/>
+        <a:lstStyle>
+          <a:lvl1pPr marL="0" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2000" b="1">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>④</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>546100</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>88900</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>546100</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>77391</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="図 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1F19EFEE-7CC8-A541-AB8D-856DFAECE169}"/>
+            </a:ext>
+            <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
+              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{E9B53DC1-7B20-431A-A054-98CFF993FC02}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2197100" y="1524000"/>
+          <a:ext cx="4953000" cy="3544491"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>114300</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>127000</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>257175</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>41275</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="四角形 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F279265F-20D0-AF49-925C-284E72B51D3A}"/>
+            </a:ext>
+            <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
+              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{0ED3B2BD-BA7A-ADE7-2526-085372F0F6D4}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3416300" y="2451100"/>
+          <a:ext cx="2619375" cy="447675"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="28575" cmpd="sng">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+          <a:prstDash val="dash"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rtlCol="0" anchor="ctr"/>
+        <a:lstStyle>
+          <a:lvl1pPr marL="0" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p>
+          <a:pPr marL="0" indent="0"/>
+          <a:endParaRPr lang="en-US" sz="1100">
+            <a:solidFill>
+              <a:schemeClr val="lt1"/>
+            </a:solidFill>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-lt"/>
+            <a:cs typeface="+mn-lt"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>292100</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>256099</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>81357</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="4" name="直線コネクタ 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0B114F5A-9FE7-3142-9889-CFFB2963904D}"/>
+            </a:ext>
+            <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
+              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{C28CC1F3-A2E8-45E5-A3BF-D42A026D5A83}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="6070600" y="2184400"/>
+          <a:ext cx="789499" cy="576657"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="19050" cmpd="sng">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>63500</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>25400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>609624</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>67061</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="5" name="四角形 11">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8F7E056B-F16C-744C-BE61-C68AF71080CE}"/>
+            </a:ext>
+            <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
+              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{F60E3DE6-D874-4F15-92B7-7E3BA49F5545}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6667500" y="1816100"/>
+          <a:ext cx="546124" cy="575061"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="12700">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rtlCol="0" anchor="ctr"/>
+        <a:lstStyle>
+          <a:lvl1pPr marL="0" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2000" b="1">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>①</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>101600</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>215900</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="6" name="四角形 15">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E9337118-666C-5445-9F07-048B24A385AF}"/>
+            </a:ext>
+            <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
+              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{2095A9A2-545E-45DA-A3E2-0CEA0EC7632B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3403600" y="3009900"/>
+          <a:ext cx="2590800" cy="400050"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="28575" cmpd="sng">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+          <a:prstDash val="dash"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rtlCol="0" anchor="ctr"/>
+        <a:lstStyle>
+          <a:lvl1pPr marL="0" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p>
+          <a:endParaRPr lang="ja-JP" altLang="en-US"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>228600</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>127000</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>192599</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>170257</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="7" name="直線コネクタ 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7838E937-E744-0944-B13F-804179BFD4B5}"/>
+            </a:ext>
+            <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
+              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{132277A0-1663-4024-93BA-69707A28E990}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="6007100" y="2628900"/>
+          <a:ext cx="789499" cy="576657"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="19050" cmpd="sng">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>127000</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>127000</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>146050</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="8" name="四角形 29">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0E51647B-D8C6-0344-991C-640C2DFC6666}"/>
+            </a:ext>
+            <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
+              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{F161B678-E64C-4954-93A4-424BE35FA8AC}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3429000" y="3517900"/>
+          <a:ext cx="2495550" cy="381000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="28575" cmpd="sng">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+          <a:prstDash val="dash"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rtlCol="0" anchor="ctr"/>
+        <a:lstStyle>
+          <a:lvl1pPr marL="0" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p>
+          <a:endParaRPr lang="ja-JP" altLang="en-US"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>88900</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>107950</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>63500</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="9" name="四角形 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{912F6388-A69C-E74C-8CC7-157FE64BA42B}"/>
+            </a:ext>
+            <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
+              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{94E4614B-F2ED-45C1-97C2-98573290A6B8}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3390900" y="4495800"/>
+          <a:ext cx="2495550" cy="381000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="28575" cmpd="sng">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+          <a:prstDash val="dash"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rtlCol="0" anchor="ctr"/>
+        <a:lstStyle>
+          <a:lvl1pPr marL="0" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p>
+          <a:endParaRPr lang="ja-JP" altLang="en-US"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>203200</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>167199</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>43257</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="10" name="直線コネクタ 9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FE7F3610-DAD1-7949-9FBF-A4362B005753}"/>
+            </a:ext>
+            <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
+              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{1E56E5F2-849F-4CFB-A36C-59B32E6D2275}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="5981700" y="3213100"/>
+          <a:ext cx="789499" cy="576657"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="19050" cmpd="sng">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>127000</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>50800</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>90999</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>94057</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="11" name="直線コネクタ 10">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CB41E9C1-AA84-274D-8C98-946CC25A4EA0}"/>
+            </a:ext>
+            <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
+              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{801B4EE0-9285-4F5A-A530-73309E300B8A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="5905500" y="4152900"/>
+          <a:ext cx="789499" cy="576657"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="19050" cmpd="sng">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>25400</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>571524</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>16261</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="12" name="四角形 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{245D14F0-EE31-CA4B-8A93-25A107F9A406}"/>
+            </a:ext>
+            <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
+              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{AEB07FD8-A439-479A-8F27-4F46FFCDC3A7}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6629400" y="2298700"/>
+          <a:ext cx="546124" cy="575061"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="12700">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rtlCol="0" anchor="ctr"/>
+        <a:lstStyle>
+          <a:lvl1pPr marL="0" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2000" b="1">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>②</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>812800</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>25400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>525046</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>67061</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="13" name="四角形 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{04820264-E947-8E48-91FD-D5F74DD1A62C}"/>
+            </a:ext>
+            <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
+              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{EC438E9C-6F0A-4C8C-B55A-CC4824F2D3DF}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6591300" y="2882900"/>
+          <a:ext cx="537746" cy="575061"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="12700">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rtlCol="0" anchor="ctr"/>
+        <a:lstStyle>
+          <a:lvl1pPr marL="0" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2000" b="1">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>③</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>749300</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>88900</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>469924</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>126328</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="14" name="四角形 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9AFDF8E0-FF10-B445-9C3F-83EC7AA8A719}"/>
+            </a:ext>
+            <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
+              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{00796423-FA91-451E-8159-C73D85ACC259}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6527800" y="3835400"/>
+          <a:ext cx="546124" cy="570828"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="12700">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rtlCol="0" anchor="ctr"/>
+        <a:lstStyle>
+          <a:lvl1pPr marL="0" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2000" b="1">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>④</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="ホワイト">
   <a:themeElements>
@@ -12424,11 +16011,11 @@
       <selection activeCell="H36" sqref="H36"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="13" defaultRowHeight="12.75" customHeight="1"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="13" defaultRowHeight="12.75" customHeight="1"/>
   <cols>
-    <col min="1" max="4" width="4.109375" style="1" customWidth="1"/>
-    <col min="5" max="8" width="4.109375" style="10" customWidth="1"/>
-    <col min="9" max="32" width="4.109375" style="1" customWidth="1"/>
+    <col min="1" max="4" width="4.1640625" style="1" customWidth="1"/>
+    <col min="5" max="8" width="4.1640625" style="10" customWidth="1"/>
+    <col min="9" max="32" width="4.1640625" style="1" customWidth="1"/>
     <col min="33" max="36" width="4" style="1" customWidth="1"/>
     <col min="37" max="16384" width="13" style="1"/>
   </cols>
@@ -12636,10 +16223,10 @@
       <c r="V2" s="2"/>
       <c r="W2" s="2"/>
       <c r="X2" s="2"/>
-      <c r="Y2" s="134" t="s">
+      <c r="Y2" s="141" t="s">
         <v>0</v>
       </c>
-      <c r="Z2" s="135"/>
+      <c r="Z2" s="142"/>
       <c r="AA2" s="64" t="s">
         <v>1</v>
       </c>
@@ -12765,16 +16352,16 @@
       <c r="C6" s="73"/>
       <c r="D6" s="73"/>
       <c r="E6" s="74"/>
-      <c r="F6" s="149" t="s">
+      <c r="F6" s="150" t="s">
         <v>5</v>
       </c>
-      <c r="G6" s="150"/>
-      <c r="H6" s="150"/>
-      <c r="I6" s="151"/>
-      <c r="J6" s="151"/>
-      <c r="K6" s="151"/>
-      <c r="L6" s="151"/>
-      <c r="M6" s="151"/>
+      <c r="G6" s="151"/>
+      <c r="H6" s="151"/>
+      <c r="I6" s="152"/>
+      <c r="J6" s="152"/>
+      <c r="K6" s="152"/>
+      <c r="L6" s="152"/>
+      <c r="M6" s="152"/>
       <c r="N6" s="75"/>
       <c r="O6" s="75"/>
       <c r="P6" s="75"/>
@@ -12797,24 +16384,24 @@
     </row>
     <row r="7" spans="1:176" ht="15" customHeight="1">
       <c r="A7" s="2"/>
-      <c r="B7" s="152" t="s">
+      <c r="B7" s="134" t="s">
         <v>6</v>
       </c>
-      <c r="C7" s="153"/>
-      <c r="D7" s="154"/>
-      <c r="E7" s="155"/>
-      <c r="F7" s="136"/>
-      <c r="G7" s="137"/>
-      <c r="H7" s="137"/>
-      <c r="I7" s="137"/>
-      <c r="J7" s="137"/>
-      <c r="K7" s="137"/>
-      <c r="L7" s="137"/>
-      <c r="M7" s="137"/>
-      <c r="N7" s="137"/>
-      <c r="O7" s="137"/>
-      <c r="P7" s="137"/>
-      <c r="Q7" s="138"/>
+      <c r="C7" s="135"/>
+      <c r="D7" s="136"/>
+      <c r="E7" s="137"/>
+      <c r="F7" s="143"/>
+      <c r="G7" s="144"/>
+      <c r="H7" s="144"/>
+      <c r="I7" s="144"/>
+      <c r="J7" s="144"/>
+      <c r="K7" s="144"/>
+      <c r="L7" s="144"/>
+      <c r="M7" s="144"/>
+      <c r="N7" s="144"/>
+      <c r="O7" s="144"/>
+      <c r="P7" s="144"/>
+      <c r="Q7" s="145"/>
       <c r="R7" s="2"/>
       <c r="S7" s="2"/>
       <c r="T7" s="2"/>
@@ -12822,40 +16409,40 @@
       <c r="V7" s="2"/>
       <c r="W7" s="2"/>
       <c r="X7" s="2"/>
-      <c r="Y7" s="134" t="s">
+      <c r="Y7" s="141" t="s">
         <v>7</v>
       </c>
-      <c r="Z7" s="135"/>
-      <c r="AA7" s="134" t="s">
+      <c r="Z7" s="142"/>
+      <c r="AA7" s="141" t="s">
         <v>8</v>
       </c>
-      <c r="AB7" s="135"/>
-      <c r="AC7" s="134" t="s">
+      <c r="AB7" s="142"/>
+      <c r="AC7" s="141" t="s">
         <v>9</v>
       </c>
-      <c r="AD7" s="135"/>
+      <c r="AD7" s="142"/>
       <c r="AE7" s="23"/>
       <c r="AF7" s="71"/>
       <c r="AG7" s="2"/>
     </row>
     <row r="8" spans="1:176" ht="15" customHeight="1">
       <c r="A8" s="2"/>
-      <c r="B8" s="156"/>
-      <c r="C8" s="157"/>
-      <c r="D8" s="157"/>
-      <c r="E8" s="158"/>
-      <c r="F8" s="139"/>
-      <c r="G8" s="140"/>
-      <c r="H8" s="140"/>
-      <c r="I8" s="140"/>
-      <c r="J8" s="140"/>
-      <c r="K8" s="140"/>
-      <c r="L8" s="140"/>
-      <c r="M8" s="140"/>
-      <c r="N8" s="140"/>
-      <c r="O8" s="140"/>
-      <c r="P8" s="140"/>
-      <c r="Q8" s="141"/>
+      <c r="B8" s="138"/>
+      <c r="C8" s="139"/>
+      <c r="D8" s="139"/>
+      <c r="E8" s="140"/>
+      <c r="F8" s="146"/>
+      <c r="G8" s="147"/>
+      <c r="H8" s="147"/>
+      <c r="I8" s="147"/>
+      <c r="J8" s="147"/>
+      <c r="K8" s="147"/>
+      <c r="L8" s="147"/>
+      <c r="M8" s="147"/>
+      <c r="N8" s="147"/>
+      <c r="O8" s="147"/>
+      <c r="P8" s="147"/>
+      <c r="Q8" s="148"/>
       <c r="R8" s="2"/>
       <c r="S8" s="2"/>
       <c r="T8" s="2"/>
@@ -12863,12 +16450,12 @@
       <c r="V8" s="2"/>
       <c r="W8" s="2"/>
       <c r="X8" s="2"/>
-      <c r="Y8" s="142"/>
-      <c r="Z8" s="143"/>
-      <c r="AA8" s="142"/>
-      <c r="AB8" s="143"/>
-      <c r="AC8" s="142"/>
-      <c r="AD8" s="143"/>
+      <c r="Y8" s="128"/>
+      <c r="Z8" s="129"/>
+      <c r="AA8" s="128"/>
+      <c r="AB8" s="129"/>
+      <c r="AC8" s="128"/>
+      <c r="AD8" s="129"/>
       <c r="AE8" s="21"/>
       <c r="AF8" s="71"/>
       <c r="AG8" s="2"/>
@@ -12898,12 +16485,12 @@
       <c r="V9" s="2"/>
       <c r="W9" s="2"/>
       <c r="X9" s="2"/>
-      <c r="Y9" s="144"/>
-      <c r="Z9" s="145"/>
-      <c r="AA9" s="144"/>
-      <c r="AB9" s="145"/>
-      <c r="AC9" s="144"/>
-      <c r="AD9" s="145"/>
+      <c r="Y9" s="130"/>
+      <c r="Z9" s="131"/>
+      <c r="AA9" s="130"/>
+      <c r="AB9" s="131"/>
+      <c r="AC9" s="130"/>
+      <c r="AD9" s="131"/>
       <c r="AE9" s="21"/>
       <c r="AF9" s="71"/>
       <c r="AG9" s="2"/>
@@ -12933,12 +16520,12 @@
       <c r="V10" s="12"/>
       <c r="W10" s="12"/>
       <c r="X10" s="12"/>
-      <c r="Y10" s="146"/>
-      <c r="Z10" s="147"/>
-      <c r="AA10" s="146"/>
-      <c r="AB10" s="147"/>
-      <c r="AC10" s="146"/>
-      <c r="AD10" s="147"/>
+      <c r="Y10" s="132"/>
+      <c r="Z10" s="133"/>
+      <c r="AA10" s="132"/>
+      <c r="AB10" s="133"/>
+      <c r="AC10" s="132"/>
+      <c r="AD10" s="133"/>
       <c r="AE10" s="21"/>
       <c r="AF10" s="71"/>
       <c r="AG10" s="12"/>
@@ -12979,105 +16566,105 @@
     </row>
     <row r="12" spans="1:176" ht="15" customHeight="1">
       <c r="A12" s="2"/>
-      <c r="B12" s="148" t="s">
+      <c r="B12" s="149" t="s">
         <v>10</v>
       </c>
-      <c r="C12" s="148"/>
-      <c r="D12" s="148"/>
-      <c r="E12" s="148"/>
-      <c r="F12" s="148"/>
-      <c r="G12" s="148"/>
-      <c r="H12" s="148"/>
-      <c r="I12" s="148"/>
-      <c r="J12" s="148"/>
-      <c r="K12" s="148"/>
-      <c r="L12" s="148"/>
-      <c r="M12" s="148"/>
-      <c r="N12" s="148"/>
-      <c r="O12" s="148"/>
-      <c r="P12" s="148"/>
-      <c r="Q12" s="148"/>
-      <c r="R12" s="148"/>
-      <c r="S12" s="148"/>
-      <c r="T12" s="148"/>
-      <c r="U12" s="148"/>
-      <c r="V12" s="148"/>
-      <c r="W12" s="148"/>
-      <c r="X12" s="148"/>
-      <c r="Y12" s="148"/>
-      <c r="Z12" s="148"/>
-      <c r="AA12" s="148"/>
-      <c r="AB12" s="148"/>
-      <c r="AC12" s="148"/>
-      <c r="AD12" s="148"/>
+      <c r="C12" s="149"/>
+      <c r="D12" s="149"/>
+      <c r="E12" s="149"/>
+      <c r="F12" s="149"/>
+      <c r="G12" s="149"/>
+      <c r="H12" s="149"/>
+      <c r="I12" s="149"/>
+      <c r="J12" s="149"/>
+      <c r="K12" s="149"/>
+      <c r="L12" s="149"/>
+      <c r="M12" s="149"/>
+      <c r="N12" s="149"/>
+      <c r="O12" s="149"/>
+      <c r="P12" s="149"/>
+      <c r="Q12" s="149"/>
+      <c r="R12" s="149"/>
+      <c r="S12" s="149"/>
+      <c r="T12" s="149"/>
+      <c r="U12" s="149"/>
+      <c r="V12" s="149"/>
+      <c r="W12" s="149"/>
+      <c r="X12" s="149"/>
+      <c r="Y12" s="149"/>
+      <c r="Z12" s="149"/>
+      <c r="AA12" s="149"/>
+      <c r="AB12" s="149"/>
+      <c r="AC12" s="149"/>
+      <c r="AD12" s="149"/>
       <c r="AE12" s="17"/>
       <c r="AF12" s="2"/>
     </row>
     <row r="13" spans="1:176" ht="15" customHeight="1">
       <c r="A13" s="2"/>
-      <c r="B13" s="148"/>
-      <c r="C13" s="148"/>
-      <c r="D13" s="148"/>
-      <c r="E13" s="148"/>
-      <c r="F13" s="148"/>
-      <c r="G13" s="148"/>
-      <c r="H13" s="148"/>
-      <c r="I13" s="148"/>
-      <c r="J13" s="148"/>
-      <c r="K13" s="148"/>
-      <c r="L13" s="148"/>
-      <c r="M13" s="148"/>
-      <c r="N13" s="148"/>
-      <c r="O13" s="148"/>
-      <c r="P13" s="148"/>
-      <c r="Q13" s="148"/>
-      <c r="R13" s="148"/>
-      <c r="S13" s="148"/>
-      <c r="T13" s="148"/>
-      <c r="U13" s="148"/>
-      <c r="V13" s="148"/>
-      <c r="W13" s="148"/>
-      <c r="X13" s="148"/>
-      <c r="Y13" s="148"/>
-      <c r="Z13" s="148"/>
-      <c r="AA13" s="148"/>
-      <c r="AB13" s="148"/>
-      <c r="AC13" s="148"/>
-      <c r="AD13" s="148"/>
+      <c r="B13" s="149"/>
+      <c r="C13" s="149"/>
+      <c r="D13" s="149"/>
+      <c r="E13" s="149"/>
+      <c r="F13" s="149"/>
+      <c r="G13" s="149"/>
+      <c r="H13" s="149"/>
+      <c r="I13" s="149"/>
+      <c r="J13" s="149"/>
+      <c r="K13" s="149"/>
+      <c r="L13" s="149"/>
+      <c r="M13" s="149"/>
+      <c r="N13" s="149"/>
+      <c r="O13" s="149"/>
+      <c r="P13" s="149"/>
+      <c r="Q13" s="149"/>
+      <c r="R13" s="149"/>
+      <c r="S13" s="149"/>
+      <c r="T13" s="149"/>
+      <c r="U13" s="149"/>
+      <c r="V13" s="149"/>
+      <c r="W13" s="149"/>
+      <c r="X13" s="149"/>
+      <c r="Y13" s="149"/>
+      <c r="Z13" s="149"/>
+      <c r="AA13" s="149"/>
+      <c r="AB13" s="149"/>
+      <c r="AC13" s="149"/>
+      <c r="AD13" s="149"/>
       <c r="AE13" s="17"/>
       <c r="AF13" s="2"/>
     </row>
     <row r="14" spans="1:176" ht="15" customHeight="1">
       <c r="A14" s="2"/>
-      <c r="B14" s="148"/>
-      <c r="C14" s="148"/>
-      <c r="D14" s="148"/>
-      <c r="E14" s="148"/>
-      <c r="F14" s="148"/>
-      <c r="G14" s="148"/>
-      <c r="H14" s="148"/>
-      <c r="I14" s="148"/>
-      <c r="J14" s="148"/>
-      <c r="K14" s="148"/>
-      <c r="L14" s="148"/>
-      <c r="M14" s="148"/>
-      <c r="N14" s="148"/>
-      <c r="O14" s="148"/>
-      <c r="P14" s="148"/>
-      <c r="Q14" s="148"/>
-      <c r="R14" s="148"/>
-      <c r="S14" s="148"/>
-      <c r="T14" s="148"/>
-      <c r="U14" s="148"/>
-      <c r="V14" s="148"/>
-      <c r="W14" s="148"/>
-      <c r="X14" s="148"/>
-      <c r="Y14" s="148"/>
-      <c r="Z14" s="148"/>
-      <c r="AA14" s="148"/>
-      <c r="AB14" s="148"/>
-      <c r="AC14" s="148"/>
-      <c r="AD14" s="148"/>
+      <c r="B14" s="149"/>
+      <c r="C14" s="149"/>
+      <c r="D14" s="149"/>
+      <c r="E14" s="149"/>
+      <c r="F14" s="149"/>
+      <c r="G14" s="149"/>
+      <c r="H14" s="149"/>
+      <c r="I14" s="149"/>
+      <c r="J14" s="149"/>
+      <c r="K14" s="149"/>
+      <c r="L14" s="149"/>
+      <c r="M14" s="149"/>
+      <c r="N14" s="149"/>
+      <c r="O14" s="149"/>
+      <c r="P14" s="149"/>
+      <c r="Q14" s="149"/>
+      <c r="R14" s="149"/>
+      <c r="S14" s="149"/>
+      <c r="T14" s="149"/>
+      <c r="U14" s="149"/>
+      <c r="V14" s="149"/>
+      <c r="W14" s="149"/>
+      <c r="X14" s="149"/>
+      <c r="Y14" s="149"/>
+      <c r="Z14" s="149"/>
+      <c r="AA14" s="149"/>
+      <c r="AB14" s="149"/>
+      <c r="AC14" s="149"/>
+      <c r="AD14" s="149"/>
       <c r="AE14" s="17"/>
       <c r="AF14" s="2"/>
     </row>
@@ -13335,28 +16922,28 @@
       <c r="C22" s="126"/>
       <c r="D22" s="126"/>
       <c r="E22" s="127"/>
-      <c r="F22" s="131"/>
-      <c r="G22" s="132"/>
-      <c r="H22" s="132"/>
-      <c r="I22" s="132"/>
-      <c r="J22" s="133"/>
-      <c r="K22" s="128"/>
-      <c r="L22" s="129"/>
-      <c r="M22" s="129"/>
-      <c r="N22" s="129"/>
-      <c r="O22" s="129"/>
-      <c r="P22" s="129"/>
-      <c r="Q22" s="129"/>
-      <c r="R22" s="129"/>
-      <c r="S22" s="129"/>
-      <c r="T22" s="129"/>
-      <c r="U22" s="129"/>
-      <c r="V22" s="129"/>
-      <c r="W22" s="129"/>
-      <c r="X22" s="129"/>
-      <c r="Y22" s="129"/>
-      <c r="Z22" s="129"/>
-      <c r="AA22" s="130"/>
+      <c r="F22" s="156"/>
+      <c r="G22" s="157"/>
+      <c r="H22" s="157"/>
+      <c r="I22" s="157"/>
+      <c r="J22" s="158"/>
+      <c r="K22" s="153"/>
+      <c r="L22" s="154"/>
+      <c r="M22" s="154"/>
+      <c r="N22" s="154"/>
+      <c r="O22" s="154"/>
+      <c r="P22" s="154"/>
+      <c r="Q22" s="154"/>
+      <c r="R22" s="154"/>
+      <c r="S22" s="154"/>
+      <c r="T22" s="154"/>
+      <c r="U22" s="154"/>
+      <c r="V22" s="154"/>
+      <c r="W22" s="154"/>
+      <c r="X22" s="154"/>
+      <c r="Y22" s="154"/>
+      <c r="Z22" s="154"/>
+      <c r="AA22" s="155"/>
       <c r="AB22" s="125"/>
       <c r="AC22" s="126"/>
       <c r="AD22" s="127"/>
@@ -13369,28 +16956,28 @@
       <c r="C23" s="126"/>
       <c r="D23" s="126"/>
       <c r="E23" s="127"/>
-      <c r="F23" s="131"/>
-      <c r="G23" s="132"/>
-      <c r="H23" s="132"/>
-      <c r="I23" s="132"/>
-      <c r="J23" s="133"/>
-      <c r="K23" s="128"/>
-      <c r="L23" s="129"/>
-      <c r="M23" s="129"/>
-      <c r="N23" s="129"/>
-      <c r="O23" s="129"/>
-      <c r="P23" s="129"/>
-      <c r="Q23" s="129"/>
-      <c r="R23" s="129"/>
-      <c r="S23" s="129"/>
-      <c r="T23" s="129"/>
-      <c r="U23" s="129"/>
-      <c r="V23" s="129"/>
-      <c r="W23" s="129"/>
-      <c r="X23" s="129"/>
-      <c r="Y23" s="129"/>
-      <c r="Z23" s="129"/>
-      <c r="AA23" s="130"/>
+      <c r="F23" s="156"/>
+      <c r="G23" s="157"/>
+      <c r="H23" s="157"/>
+      <c r="I23" s="157"/>
+      <c r="J23" s="158"/>
+      <c r="K23" s="153"/>
+      <c r="L23" s="154"/>
+      <c r="M23" s="154"/>
+      <c r="N23" s="154"/>
+      <c r="O23" s="154"/>
+      <c r="P23" s="154"/>
+      <c r="Q23" s="154"/>
+      <c r="R23" s="154"/>
+      <c r="S23" s="154"/>
+      <c r="T23" s="154"/>
+      <c r="U23" s="154"/>
+      <c r="V23" s="154"/>
+      <c r="W23" s="154"/>
+      <c r="X23" s="154"/>
+      <c r="Y23" s="154"/>
+      <c r="Z23" s="154"/>
+      <c r="AA23" s="155"/>
       <c r="AB23" s="125"/>
       <c r="AC23" s="126"/>
       <c r="AD23" s="127"/>
@@ -13403,28 +16990,28 @@
       <c r="C24" s="126"/>
       <c r="D24" s="126"/>
       <c r="E24" s="127"/>
-      <c r="F24" s="131"/>
-      <c r="G24" s="132"/>
-      <c r="H24" s="132"/>
-      <c r="I24" s="132"/>
-      <c r="J24" s="133"/>
-      <c r="K24" s="128"/>
-      <c r="L24" s="129"/>
-      <c r="M24" s="129"/>
-      <c r="N24" s="129"/>
-      <c r="O24" s="129"/>
-      <c r="P24" s="129"/>
-      <c r="Q24" s="129"/>
-      <c r="R24" s="129"/>
-      <c r="S24" s="129"/>
-      <c r="T24" s="129"/>
-      <c r="U24" s="129"/>
-      <c r="V24" s="129"/>
-      <c r="W24" s="129"/>
-      <c r="X24" s="129"/>
-      <c r="Y24" s="129"/>
-      <c r="Z24" s="129"/>
-      <c r="AA24" s="130"/>
+      <c r="F24" s="156"/>
+      <c r="G24" s="157"/>
+      <c r="H24" s="157"/>
+      <c r="I24" s="157"/>
+      <c r="J24" s="158"/>
+      <c r="K24" s="153"/>
+      <c r="L24" s="154"/>
+      <c r="M24" s="154"/>
+      <c r="N24" s="154"/>
+      <c r="O24" s="154"/>
+      <c r="P24" s="154"/>
+      <c r="Q24" s="154"/>
+      <c r="R24" s="154"/>
+      <c r="S24" s="154"/>
+      <c r="T24" s="154"/>
+      <c r="U24" s="154"/>
+      <c r="V24" s="154"/>
+      <c r="W24" s="154"/>
+      <c r="X24" s="154"/>
+      <c r="Y24" s="154"/>
+      <c r="Z24" s="154"/>
+      <c r="AA24" s="155"/>
       <c r="AB24" s="125"/>
       <c r="AC24" s="126"/>
       <c r="AD24" s="127"/>
@@ -13437,28 +17024,28 @@
       <c r="C25" s="126"/>
       <c r="D25" s="126"/>
       <c r="E25" s="127"/>
-      <c r="F25" s="131"/>
-      <c r="G25" s="132"/>
-      <c r="H25" s="132"/>
-      <c r="I25" s="132"/>
-      <c r="J25" s="133"/>
-      <c r="K25" s="128"/>
-      <c r="L25" s="129"/>
-      <c r="M25" s="129"/>
-      <c r="N25" s="129"/>
-      <c r="O25" s="129"/>
-      <c r="P25" s="129"/>
-      <c r="Q25" s="129"/>
-      <c r="R25" s="129"/>
-      <c r="S25" s="129"/>
-      <c r="T25" s="129"/>
-      <c r="U25" s="129"/>
-      <c r="V25" s="129"/>
-      <c r="W25" s="129"/>
-      <c r="X25" s="129"/>
-      <c r="Y25" s="129"/>
-      <c r="Z25" s="129"/>
-      <c r="AA25" s="130"/>
+      <c r="F25" s="156"/>
+      <c r="G25" s="157"/>
+      <c r="H25" s="157"/>
+      <c r="I25" s="157"/>
+      <c r="J25" s="158"/>
+      <c r="K25" s="153"/>
+      <c r="L25" s="154"/>
+      <c r="M25" s="154"/>
+      <c r="N25" s="154"/>
+      <c r="O25" s="154"/>
+      <c r="P25" s="154"/>
+      <c r="Q25" s="154"/>
+      <c r="R25" s="154"/>
+      <c r="S25" s="154"/>
+      <c r="T25" s="154"/>
+      <c r="U25" s="154"/>
+      <c r="V25" s="154"/>
+      <c r="W25" s="154"/>
+      <c r="X25" s="154"/>
+      <c r="Y25" s="154"/>
+      <c r="Z25" s="154"/>
+      <c r="AA25" s="155"/>
       <c r="AB25" s="125"/>
       <c r="AC25" s="126"/>
       <c r="AD25" s="127"/>
@@ -13471,28 +17058,28 @@
       <c r="C26" s="126"/>
       <c r="D26" s="126"/>
       <c r="E26" s="127"/>
-      <c r="F26" s="131"/>
-      <c r="G26" s="132"/>
-      <c r="H26" s="132"/>
-      <c r="I26" s="132"/>
-      <c r="J26" s="133"/>
-      <c r="K26" s="128"/>
-      <c r="L26" s="129"/>
-      <c r="M26" s="129"/>
-      <c r="N26" s="129"/>
-      <c r="O26" s="129"/>
-      <c r="P26" s="129"/>
-      <c r="Q26" s="129"/>
-      <c r="R26" s="129"/>
-      <c r="S26" s="129"/>
-      <c r="T26" s="129"/>
-      <c r="U26" s="129"/>
-      <c r="V26" s="129"/>
-      <c r="W26" s="129"/>
-      <c r="X26" s="129"/>
-      <c r="Y26" s="129"/>
-      <c r="Z26" s="129"/>
-      <c r="AA26" s="130"/>
+      <c r="F26" s="156"/>
+      <c r="G26" s="157"/>
+      <c r="H26" s="157"/>
+      <c r="I26" s="157"/>
+      <c r="J26" s="158"/>
+      <c r="K26" s="153"/>
+      <c r="L26" s="154"/>
+      <c r="M26" s="154"/>
+      <c r="N26" s="154"/>
+      <c r="O26" s="154"/>
+      <c r="P26" s="154"/>
+      <c r="Q26" s="154"/>
+      <c r="R26" s="154"/>
+      <c r="S26" s="154"/>
+      <c r="T26" s="154"/>
+      <c r="U26" s="154"/>
+      <c r="V26" s="154"/>
+      <c r="W26" s="154"/>
+      <c r="X26" s="154"/>
+      <c r="Y26" s="154"/>
+      <c r="Z26" s="154"/>
+      <c r="AA26" s="155"/>
       <c r="AB26" s="125"/>
       <c r="AC26" s="126"/>
       <c r="AD26" s="127"/>
@@ -13505,28 +17092,28 @@
       <c r="C27" s="126"/>
       <c r="D27" s="126"/>
       <c r="E27" s="127"/>
-      <c r="F27" s="131"/>
-      <c r="G27" s="132"/>
-      <c r="H27" s="132"/>
-      <c r="I27" s="132"/>
-      <c r="J27" s="133"/>
-      <c r="K27" s="128"/>
-      <c r="L27" s="129"/>
-      <c r="M27" s="129"/>
-      <c r="N27" s="129"/>
-      <c r="O27" s="129"/>
-      <c r="P27" s="129"/>
-      <c r="Q27" s="129"/>
-      <c r="R27" s="129"/>
-      <c r="S27" s="129"/>
-      <c r="T27" s="129"/>
-      <c r="U27" s="129"/>
-      <c r="V27" s="129"/>
-      <c r="W27" s="129"/>
-      <c r="X27" s="129"/>
-      <c r="Y27" s="129"/>
-      <c r="Z27" s="129"/>
-      <c r="AA27" s="130"/>
+      <c r="F27" s="156"/>
+      <c r="G27" s="157"/>
+      <c r="H27" s="157"/>
+      <c r="I27" s="157"/>
+      <c r="J27" s="158"/>
+      <c r="K27" s="153"/>
+      <c r="L27" s="154"/>
+      <c r="M27" s="154"/>
+      <c r="N27" s="154"/>
+      <c r="O27" s="154"/>
+      <c r="P27" s="154"/>
+      <c r="Q27" s="154"/>
+      <c r="R27" s="154"/>
+      <c r="S27" s="154"/>
+      <c r="T27" s="154"/>
+      <c r="U27" s="154"/>
+      <c r="V27" s="154"/>
+      <c r="W27" s="154"/>
+      <c r="X27" s="154"/>
+      <c r="Y27" s="154"/>
+      <c r="Z27" s="154"/>
+      <c r="AA27" s="155"/>
       <c r="AB27" s="125"/>
       <c r="AC27" s="126"/>
       <c r="AD27" s="127"/>
@@ -13637,20 +17224,15 @@
     </row>
   </sheetData>
   <mergeCells count="39">
-    <mergeCell ref="AB22:AD22"/>
-    <mergeCell ref="AC8:AD10"/>
-    <mergeCell ref="B7:E8"/>
-    <mergeCell ref="AA7:AB7"/>
-    <mergeCell ref="AA8:AB10"/>
-    <mergeCell ref="AC7:AD7"/>
-    <mergeCell ref="Y7:Z7"/>
-    <mergeCell ref="Y2:Z2"/>
-    <mergeCell ref="F7:Q8"/>
-    <mergeCell ref="Y8:Z10"/>
-    <mergeCell ref="B12:AD14"/>
-    <mergeCell ref="AB21:AD21"/>
-    <mergeCell ref="B21:E21"/>
-    <mergeCell ref="F6:M6"/>
+    <mergeCell ref="B25:E25"/>
+    <mergeCell ref="K21:AA21"/>
+    <mergeCell ref="K22:AA22"/>
+    <mergeCell ref="F23:J23"/>
+    <mergeCell ref="F25:J25"/>
+    <mergeCell ref="K25:AA25"/>
+    <mergeCell ref="F21:J21"/>
+    <mergeCell ref="B22:E22"/>
+    <mergeCell ref="F22:J22"/>
     <mergeCell ref="AB27:AD27"/>
     <mergeCell ref="B26:E26"/>
     <mergeCell ref="K23:AA23"/>
@@ -13667,20 +17249,25 @@
     <mergeCell ref="K27:AA27"/>
     <mergeCell ref="B24:E24"/>
     <mergeCell ref="F24:J24"/>
-    <mergeCell ref="B25:E25"/>
-    <mergeCell ref="K21:AA21"/>
-    <mergeCell ref="K22:AA22"/>
-    <mergeCell ref="F23:J23"/>
-    <mergeCell ref="F25:J25"/>
-    <mergeCell ref="K25:AA25"/>
-    <mergeCell ref="F21:J21"/>
-    <mergeCell ref="B22:E22"/>
-    <mergeCell ref="F22:J22"/>
+    <mergeCell ref="Y2:Z2"/>
+    <mergeCell ref="F7:Q8"/>
+    <mergeCell ref="Y8:Z10"/>
+    <mergeCell ref="B12:AD14"/>
+    <mergeCell ref="AB21:AD21"/>
+    <mergeCell ref="B21:E21"/>
+    <mergeCell ref="F6:M6"/>
+    <mergeCell ref="AB22:AD22"/>
+    <mergeCell ref="AC8:AD10"/>
+    <mergeCell ref="B7:E8"/>
+    <mergeCell ref="AA7:AB7"/>
+    <mergeCell ref="AA8:AB10"/>
+    <mergeCell ref="AC7:AD7"/>
+    <mergeCell ref="Y7:Z7"/>
   </mergeCells>
   <phoneticPr fontId="3"/>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.98425196850393704" right="0.39370078740157483" top="0.59055118110236227" bottom="0.39370078740157483" header="0.51181102362204722" footer="0.31496062992125984"/>
-  <pageSetup paperSize="9" orientation="landscape" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="94" orientation="landscape" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
   <headerFooter alignWithMargins="0"/>
 </worksheet>
 </file>
@@ -13693,11 +17280,11 @@
       <selection activeCell="X19" sqref="X19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="13" defaultRowHeight="12.75" customHeight="1"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="13" defaultRowHeight="12.75" customHeight="1"/>
   <cols>
-    <col min="1" max="4" width="4.21875" style="1" customWidth="1"/>
-    <col min="5" max="6" width="4.21875" style="10" customWidth="1"/>
-    <col min="7" max="33" width="4.21875" style="1" customWidth="1"/>
+    <col min="1" max="4" width="4.1640625" style="1" customWidth="1"/>
+    <col min="5" max="6" width="4.1640625" style="10" customWidth="1"/>
+    <col min="7" max="33" width="4.1640625" style="1" customWidth="1"/>
     <col min="34" max="37" width="4" style="1" customWidth="1"/>
     <col min="38" max="16384" width="13" style="1"/>
   </cols>
@@ -15227,15 +18814,15 @@
       <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="13.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14"/>
   <cols>
     <col min="1" max="1" width="12.6640625" customWidth="1"/>
-    <col min="2" max="2" width="23.109375" customWidth="1"/>
+    <col min="2" max="2" width="23.1640625" customWidth="1"/>
     <col min="3" max="3" width="21.33203125" customWidth="1"/>
     <col min="4" max="6" width="12.6640625" customWidth="1"/>
-    <col min="7" max="7" width="46.21875" customWidth="1"/>
-    <col min="8" max="8" width="10.109375" customWidth="1"/>
-    <col min="9" max="9" width="22.109375" customWidth="1"/>
+    <col min="7" max="7" width="46.1640625" customWidth="1"/>
+    <col min="8" max="8" width="10.1640625" customWidth="1"/>
+    <col min="9" max="9" width="22.1640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="19.5" customHeight="1">
@@ -15715,7 +19302,7 @@
   </mergeCells>
   <phoneticPr fontId="3"/>
   <pageMargins left="0.74803149606299213" right="0.74803149606299213" top="0.98425196850393704" bottom="0.98425196850393704" header="0.31496062992125984" footer="0.31496062992125984"/>
-  <pageSetup paperSize="9" scale="58" orientation="landscape" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="56" orientation="landscape" r:id="rId1"/>
   <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
@@ -15728,11 +19315,11 @@
       <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="13" defaultRowHeight="12.75" customHeight="1"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="13" defaultRowHeight="12.75" customHeight="1"/>
   <cols>
-    <col min="1" max="4" width="4.21875" style="1" customWidth="1"/>
-    <col min="5" max="6" width="4.21875" style="10" customWidth="1"/>
-    <col min="7" max="33" width="4.21875" style="1" customWidth="1"/>
+    <col min="1" max="4" width="4.1640625" style="1" customWidth="1"/>
+    <col min="5" max="6" width="4.1640625" style="10" customWidth="1"/>
+    <col min="7" max="33" width="4.1640625" style="1" customWidth="1"/>
     <col min="34" max="37" width="4" style="1" customWidth="1"/>
     <col min="38" max="16384" width="13" style="1"/>
   </cols>
@@ -17255,15 +20842,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F3812508-6456-45F6-81F0-08D0892D0993}">
   <dimension ref="A1:AG45"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="87" zoomScaleNormal="100" zoomScaleSheetLayoutView="87" workbookViewId="0">
+    <sheetView view="pageBreakPreview" zoomScale="87" zoomScaleNormal="100" zoomScaleSheetLayoutView="87" workbookViewId="0">
       <selection activeCell="AB20" sqref="AB20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="13" defaultRowHeight="12.75" customHeight="1"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="13" defaultRowHeight="12.75" customHeight="1"/>
   <cols>
-    <col min="1" max="4" width="4.109375" style="1" customWidth="1"/>
-    <col min="5" max="6" width="4.109375" style="10" customWidth="1"/>
-    <col min="7" max="33" width="4.109375" style="1" customWidth="1"/>
+    <col min="1" max="4" width="4.1640625" style="1" customWidth="1"/>
+    <col min="5" max="6" width="4.1640625" style="10" customWidth="1"/>
+    <col min="7" max="33" width="4.1640625" style="1" customWidth="1"/>
     <col min="34" max="37" width="4" style="1" customWidth="1"/>
     <col min="38" max="16384" width="13" style="1"/>
   </cols>
@@ -18815,46 +22402,46 @@
       <selection activeCell="A2" sqref="A2:B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="13.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14"/>
   <cols>
-    <col min="1" max="1" width="6.88671875" customWidth="1"/>
+    <col min="1" max="1" width="6.83203125" customWidth="1"/>
     <col min="2" max="2" width="6.6640625" customWidth="1"/>
     <col min="3" max="3" width="13" customWidth="1"/>
     <col min="4" max="4" width="9.6640625" customWidth="1"/>
     <col min="5" max="10" width="8.6640625" customWidth="1"/>
-    <col min="11" max="14" width="8.109375" customWidth="1"/>
+    <col min="11" max="14" width="8.1640625" customWidth="1"/>
     <col min="15" max="20" width="8" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:20" s="44" customFormat="1" ht="18" customHeight="1">
-      <c r="A1" s="186" t="s">
+      <c r="A1" s="197" t="s">
         <v>39</v>
       </c>
-      <c r="B1" s="187"/>
-      <c r="C1" s="187"/>
-      <c r="D1" s="187"/>
-      <c r="E1" s="187"/>
-      <c r="F1" s="187"/>
-      <c r="G1" s="187"/>
-      <c r="H1" s="187"/>
-      <c r="I1" s="187"/>
-      <c r="J1" s="187"/>
-      <c r="K1" s="187"/>
-      <c r="L1" s="187"/>
-      <c r="M1" s="187"/>
-      <c r="N1" s="187"/>
-      <c r="O1" s="187"/>
-      <c r="P1" s="187"/>
-      <c r="Q1" s="187"/>
-      <c r="R1" s="187"/>
-      <c r="S1" s="187"/>
-      <c r="T1" s="188"/>
+      <c r="B1" s="198"/>
+      <c r="C1" s="198"/>
+      <c r="D1" s="198"/>
+      <c r="E1" s="198"/>
+      <c r="F1" s="198"/>
+      <c r="G1" s="198"/>
+      <c r="H1" s="198"/>
+      <c r="I1" s="198"/>
+      <c r="J1" s="198"/>
+      <c r="K1" s="198"/>
+      <c r="L1" s="198"/>
+      <c r="M1" s="198"/>
+      <c r="N1" s="198"/>
+      <c r="O1" s="198"/>
+      <c r="P1" s="198"/>
+      <c r="Q1" s="198"/>
+      <c r="R1" s="198"/>
+      <c r="S1" s="198"/>
+      <c r="T1" s="199"/>
     </row>
     <row r="2" spans="1:20" s="44" customFormat="1" ht="18" customHeight="1">
-      <c r="A2" s="189" t="s">
+      <c r="A2" s="186" t="s">
         <v>40</v>
       </c>
-      <c r="B2" s="190"/>
+      <c r="B2" s="187"/>
       <c r="C2" s="25" t="s">
         <v>41</v>
       </c>
@@ -18871,16 +22458,16 @@
       <c r="N2" s="92"/>
       <c r="O2" s="92"/>
       <c r="P2" s="92"/>
-      <c r="Q2" s="195" t="s">
+      <c r="Q2" s="192" t="s">
         <v>42</v>
       </c>
-      <c r="R2" s="196"/>
+      <c r="R2" s="193"/>
       <c r="S2" s="92"/>
       <c r="T2" s="93"/>
     </row>
     <row r="3" spans="1:20" s="44" customFormat="1" ht="18" customHeight="1">
-      <c r="A3" s="191"/>
-      <c r="B3" s="192"/>
+      <c r="A3" s="188"/>
+      <c r="B3" s="189"/>
       <c r="C3" s="25" t="s">
         <v>43</v>
       </c>
@@ -18897,16 +22484,16 @@
       <c r="N3" s="92"/>
       <c r="O3" s="92"/>
       <c r="P3" s="92"/>
-      <c r="Q3" s="195" t="s">
+      <c r="Q3" s="192" t="s">
         <v>44</v>
       </c>
-      <c r="R3" s="196"/>
+      <c r="R3" s="193"/>
       <c r="S3" s="92"/>
       <c r="T3" s="93"/>
     </row>
     <row r="4" spans="1:20" s="44" customFormat="1" ht="18" customHeight="1">
-      <c r="A4" s="193"/>
-      <c r="B4" s="194"/>
+      <c r="A4" s="190"/>
+      <c r="B4" s="191"/>
       <c r="C4" s="25" t="s">
         <v>45</v>
       </c>
@@ -18923,18 +22510,18 @@
       <c r="N4" s="92"/>
       <c r="O4" s="92"/>
       <c r="P4" s="92"/>
-      <c r="Q4" s="195" t="s">
+      <c r="Q4" s="192" t="s">
         <v>12</v>
       </c>
-      <c r="R4" s="196"/>
+      <c r="R4" s="193"/>
       <c r="S4" s="92"/>
       <c r="T4" s="93"/>
     </row>
     <row r="5" spans="1:20" s="44" customFormat="1" ht="18" customHeight="1">
-      <c r="A5" s="189" t="s">
+      <c r="A5" s="186" t="s">
         <v>46</v>
       </c>
-      <c r="B5" s="190"/>
+      <c r="B5" s="187"/>
       <c r="C5" s="25" t="s">
         <v>47</v>
       </c>
@@ -18951,25 +22538,25 @@
       <c r="N5" s="92"/>
       <c r="O5" s="92"/>
       <c r="P5" s="92"/>
-      <c r="Q5" s="195" t="s">
+      <c r="Q5" s="192" t="s">
         <v>48</v>
       </c>
-      <c r="R5" s="196"/>
+      <c r="R5" s="193"/>
       <c r="S5" s="92"/>
       <c r="T5" s="93"/>
     </row>
     <row r="6" spans="1:20" s="44" customFormat="1" ht="18" customHeight="1">
-      <c r="A6" s="191"/>
-      <c r="B6" s="192"/>
+      <c r="A6" s="188"/>
+      <c r="B6" s="189"/>
       <c r="C6" s="25" t="s">
         <v>49</v>
       </c>
-      <c r="D6" s="197"/>
-      <c r="E6" s="198"/>
-      <c r="F6" s="199" t="s">
+      <c r="D6" s="194"/>
+      <c r="E6" s="195"/>
+      <c r="F6" s="196" t="s">
         <v>50</v>
       </c>
-      <c r="G6" s="199"/>
+      <c r="G6" s="196"/>
       <c r="H6" s="92"/>
       <c r="I6" s="92"/>
       <c r="J6" s="92"/>
@@ -18987,8 +22574,8 @@
       <c r="T6" s="93"/>
     </row>
     <row r="7" spans="1:20" s="44" customFormat="1" ht="18" customHeight="1">
-      <c r="A7" s="193"/>
-      <c r="B7" s="194"/>
+      <c r="A7" s="190"/>
+      <c r="B7" s="191"/>
       <c r="C7" s="25" t="s">
         <v>52</v>
       </c>
@@ -19005,8 +22592,8 @@
       <c r="N7" s="92"/>
       <c r="O7" s="92"/>
       <c r="P7" s="92"/>
-      <c r="Q7" s="195"/>
-      <c r="R7" s="196"/>
+      <c r="Q7" s="192"/>
+      <c r="R7" s="193"/>
       <c r="S7" s="92"/>
       <c r="T7" s="93"/>
     </row>
@@ -19724,12 +23311,6 @@
     </row>
   </sheetData>
   <mergeCells count="14">
-    <mergeCell ref="A5:B7"/>
-    <mergeCell ref="D5:K5"/>
-    <mergeCell ref="Q5:R5"/>
-    <mergeCell ref="D6:E6"/>
-    <mergeCell ref="F6:G6"/>
-    <mergeCell ref="Q7:R7"/>
     <mergeCell ref="A1:T1"/>
     <mergeCell ref="A2:B4"/>
     <mergeCell ref="D2:K2"/>
@@ -19738,6 +23319,12 @@
     <mergeCell ref="Q3:R3"/>
     <mergeCell ref="D4:K4"/>
     <mergeCell ref="Q4:R4"/>
+    <mergeCell ref="A5:B7"/>
+    <mergeCell ref="D5:K5"/>
+    <mergeCell ref="Q5:R5"/>
+    <mergeCell ref="D6:E6"/>
+    <mergeCell ref="F6:G6"/>
+    <mergeCell ref="Q7:R7"/>
   </mergeCells>
   <phoneticPr fontId="3"/>
   <pageMargins left="0.74803149606299213" right="0.74803149606299213" top="0.78740157480314965" bottom="0.78740157480314965" header="0.31496062992125984" footer="0.31496062992125984"/>
@@ -19754,14 +23341,14 @@
       <selection activeCell="H43" sqref="H43"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="13.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14"/>
   <cols>
-    <col min="1" max="1" width="11.109375" customWidth="1"/>
+    <col min="1" max="1" width="11.1640625" customWidth="1"/>
     <col min="2" max="7" width="13" customWidth="1"/>
-    <col min="8" max="8" width="26.88671875" customWidth="1"/>
-    <col min="9" max="9" width="18.109375" customWidth="1"/>
-    <col min="10" max="10" width="15.44140625" customWidth="1"/>
-    <col min="11" max="11" width="43.109375" customWidth="1"/>
+    <col min="8" max="8" width="26.83203125" customWidth="1"/>
+    <col min="9" max="9" width="18.1640625" customWidth="1"/>
+    <col min="10" max="10" width="15.5" customWidth="1"/>
+    <col min="11" max="11" width="43.1640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="15" customHeight="1">
@@ -20457,22 +24044,2139 @@
 </worksheet>
 </file>
 
-<file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{87F9F930-303C-0545-B3CE-AEFB6954AFBB}">
+  <dimension ref="A1:T38"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K18" sqref="K18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14"/>
+  <sheetData>
+    <row r="1" spans="1:20" ht="15">
+      <c r="A1" s="235" t="s">
+        <v>80</v>
+      </c>
+      <c r="B1" s="236"/>
+      <c r="C1" s="236"/>
+      <c r="D1" s="236"/>
+      <c r="E1" s="236"/>
+      <c r="F1" s="236"/>
+      <c r="G1" s="236"/>
+      <c r="H1" s="236"/>
+      <c r="I1" s="236"/>
+      <c r="J1" s="236"/>
+      <c r="K1" s="236"/>
+      <c r="L1" s="236"/>
+      <c r="M1" s="236"/>
+      <c r="N1" s="236"/>
+      <c r="O1" s="236"/>
+      <c r="P1" s="236"/>
+      <c r="Q1" s="236"/>
+      <c r="R1" s="236"/>
+      <c r="S1" s="236"/>
+      <c r="T1" s="237"/>
+    </row>
+    <row r="2" spans="1:20">
+      <c r="A2" s="238" t="s">
+        <v>81</v>
+      </c>
+      <c r="B2" s="239"/>
+      <c r="C2" s="200" t="s">
+        <v>82</v>
+      </c>
+      <c r="D2" s="245" t="s">
+        <v>72</v>
+      </c>
+      <c r="E2" s="244"/>
+      <c r="F2" s="244"/>
+      <c r="G2" s="244"/>
+      <c r="H2" s="244"/>
+      <c r="I2" s="244"/>
+      <c r="J2" s="244"/>
+      <c r="K2" s="244"/>
+      <c r="L2" s="202"/>
+      <c r="M2" s="203"/>
+      <c r="N2" s="203"/>
+      <c r="O2" s="203"/>
+      <c r="P2" s="203"/>
+      <c r="Q2" s="246" t="s">
+        <v>83</v>
+      </c>
+      <c r="R2" s="247"/>
+      <c r="S2" s="206" t="s">
+        <v>84</v>
+      </c>
+      <c r="T2" s="207"/>
+    </row>
+    <row r="3" spans="1:20">
+      <c r="A3" s="240"/>
+      <c r="B3" s="241"/>
+      <c r="C3" s="200" t="s">
+        <v>85</v>
+      </c>
+      <c r="D3" s="245" t="s">
+        <v>74</v>
+      </c>
+      <c r="E3" s="244"/>
+      <c r="F3" s="244"/>
+      <c r="G3" s="244"/>
+      <c r="H3" s="244"/>
+      <c r="I3" s="244"/>
+      <c r="J3" s="244"/>
+      <c r="K3" s="244"/>
+      <c r="L3" s="202"/>
+      <c r="M3" s="203"/>
+      <c r="N3" s="203"/>
+      <c r="O3" s="203"/>
+      <c r="P3" s="203"/>
+      <c r="Q3" s="246" t="s">
+        <v>86</v>
+      </c>
+      <c r="R3" s="247"/>
+      <c r="S3" s="248">
+        <v>45204</v>
+      </c>
+      <c r="T3" s="249"/>
+    </row>
+    <row r="4" spans="1:20">
+      <c r="A4" s="242"/>
+      <c r="B4" s="243"/>
+      <c r="C4" s="200" t="s">
+        <v>87</v>
+      </c>
+      <c r="D4" s="245" t="s">
+        <v>75</v>
+      </c>
+      <c r="E4" s="244"/>
+      <c r="F4" s="244"/>
+      <c r="G4" s="244"/>
+      <c r="H4" s="244"/>
+      <c r="I4" s="244"/>
+      <c r="J4" s="244"/>
+      <c r="K4" s="244"/>
+      <c r="L4" s="202"/>
+      <c r="M4" s="203"/>
+      <c r="N4" s="203"/>
+      <c r="O4" s="203"/>
+      <c r="P4" s="203"/>
+      <c r="Q4" s="246" t="s">
+        <v>88</v>
+      </c>
+      <c r="R4" s="247"/>
+      <c r="S4" s="203" t="s">
+        <v>76</v>
+      </c>
+      <c r="T4" s="200"/>
+    </row>
+    <row r="5" spans="1:20">
+      <c r="A5" s="238" t="s">
+        <v>89</v>
+      </c>
+      <c r="B5" s="239"/>
+      <c r="C5" s="200" t="s">
+        <v>90</v>
+      </c>
+      <c r="D5" s="245" t="s">
+        <v>77</v>
+      </c>
+      <c r="E5" s="244"/>
+      <c r="F5" s="244"/>
+      <c r="G5" s="244"/>
+      <c r="H5" s="244"/>
+      <c r="I5" s="244"/>
+      <c r="J5" s="244"/>
+      <c r="K5" s="244"/>
+      <c r="L5" s="202"/>
+      <c r="M5" s="203"/>
+      <c r="N5" s="203"/>
+      <c r="O5" s="203"/>
+      <c r="P5" s="203"/>
+      <c r="Q5" s="246" t="s">
+        <v>91</v>
+      </c>
+      <c r="R5" s="247"/>
+      <c r="S5" s="203"/>
+      <c r="T5" s="200"/>
+    </row>
+    <row r="6" spans="1:20">
+      <c r="A6" s="240"/>
+      <c r="B6" s="241"/>
+      <c r="C6" s="200" t="s">
+        <v>92</v>
+      </c>
+      <c r="D6" s="250" t="s">
+        <v>93</v>
+      </c>
+      <c r="E6" s="251"/>
+      <c r="F6" s="252" t="s">
+        <v>94</v>
+      </c>
+      <c r="G6" s="253"/>
+      <c r="H6" s="206" t="s">
+        <v>95</v>
+      </c>
+      <c r="I6" s="206"/>
+      <c r="J6" s="203"/>
+      <c r="K6" s="203"/>
+      <c r="L6" s="202"/>
+      <c r="M6" s="203"/>
+      <c r="N6" s="203"/>
+      <c r="O6" s="203"/>
+      <c r="P6" s="203"/>
+      <c r="Q6" s="204" t="s">
+        <v>96</v>
+      </c>
+      <c r="R6" s="208"/>
+      <c r="S6" s="203"/>
+      <c r="T6" s="200"/>
+    </row>
+    <row r="7" spans="1:20">
+      <c r="A7" s="242"/>
+      <c r="B7" s="243"/>
+      <c r="C7" s="200" t="s">
+        <v>97</v>
+      </c>
+      <c r="D7" s="209" t="s">
+        <v>98</v>
+      </c>
+      <c r="E7" s="206"/>
+      <c r="F7" s="206"/>
+      <c r="G7" s="206"/>
+      <c r="H7" s="206"/>
+      <c r="I7" s="206"/>
+      <c r="J7" s="203"/>
+      <c r="K7" s="203"/>
+      <c r="L7" s="203"/>
+      <c r="M7" s="203"/>
+      <c r="N7" s="203"/>
+      <c r="O7" s="203"/>
+      <c r="P7" s="203"/>
+      <c r="Q7" s="246"/>
+      <c r="R7" s="247"/>
+      <c r="S7" s="203"/>
+      <c r="T7" s="200"/>
+    </row>
+    <row r="8" spans="1:20">
+      <c r="A8" s="210" t="s">
+        <v>99</v>
+      </c>
+      <c r="B8" s="211"/>
+      <c r="C8" s="212"/>
+      <c r="D8" s="212"/>
+      <c r="E8" s="212"/>
+      <c r="F8" s="212"/>
+      <c r="G8" s="212"/>
+      <c r="H8" s="212"/>
+      <c r="I8" s="212"/>
+      <c r="J8" s="212"/>
+      <c r="K8" s="212"/>
+      <c r="L8" s="212"/>
+      <c r="M8" s="213" t="s">
+        <v>100</v>
+      </c>
+      <c r="N8" s="212"/>
+      <c r="O8" s="212"/>
+      <c r="P8" s="212"/>
+      <c r="Q8" s="212"/>
+      <c r="R8" s="212"/>
+      <c r="S8" s="212"/>
+      <c r="T8" s="214"/>
+    </row>
+    <row r="9" spans="1:20">
+      <c r="A9" s="215"/>
+      <c r="B9" s="205"/>
+      <c r="C9" s="205"/>
+      <c r="D9" s="205"/>
+      <c r="E9" s="205"/>
+      <c r="F9" s="205"/>
+      <c r="G9" s="205"/>
+      <c r="H9" s="205"/>
+      <c r="I9" s="205"/>
+      <c r="J9" s="205"/>
+      <c r="K9" s="205"/>
+      <c r="L9" s="205"/>
+      <c r="M9" s="215"/>
+      <c r="N9" s="205"/>
+      <c r="O9" s="205"/>
+      <c r="P9" s="205"/>
+      <c r="Q9" s="205"/>
+      <c r="R9" s="205"/>
+      <c r="S9" s="205"/>
+      <c r="T9" s="216"/>
+    </row>
+    <row r="10" spans="1:20">
+      <c r="A10" s="215"/>
+      <c r="B10" s="205"/>
+      <c r="C10" s="205"/>
+      <c r="D10" s="205"/>
+      <c r="E10" s="205"/>
+      <c r="F10" s="205"/>
+      <c r="G10" s="205"/>
+      <c r="H10" s="205"/>
+      <c r="I10" s="205"/>
+      <c r="J10" s="205"/>
+      <c r="K10" s="205"/>
+      <c r="L10" s="205"/>
+      <c r="M10" s="215"/>
+      <c r="N10" s="205"/>
+      <c r="O10" s="205"/>
+      <c r="P10" s="205"/>
+      <c r="Q10" s="205"/>
+      <c r="R10" s="205"/>
+      <c r="S10" s="205"/>
+      <c r="T10" s="216"/>
+    </row>
+    <row r="11" spans="1:20">
+      <c r="A11" s="215"/>
+      <c r="B11" s="205"/>
+      <c r="C11" s="205"/>
+      <c r="D11" s="205"/>
+      <c r="E11" s="205"/>
+      <c r="F11" s="205"/>
+      <c r="G11" s="205"/>
+      <c r="H11" s="205"/>
+      <c r="I11" s="205"/>
+      <c r="J11" s="205"/>
+      <c r="K11" s="205"/>
+      <c r="L11" s="205"/>
+      <c r="M11" s="215"/>
+      <c r="N11" s="205"/>
+      <c r="O11" s="205"/>
+      <c r="P11" s="205"/>
+      <c r="Q11" s="205"/>
+      <c r="R11" s="205"/>
+      <c r="S11" s="205"/>
+      <c r="T11" s="216"/>
+    </row>
+    <row r="12" spans="1:20">
+      <c r="A12" s="215"/>
+      <c r="B12" s="205"/>
+      <c r="C12" s="205"/>
+      <c r="D12" s="205"/>
+      <c r="E12" s="205"/>
+      <c r="F12" s="205"/>
+      <c r="G12" s="205"/>
+      <c r="H12" s="205"/>
+      <c r="I12" s="205"/>
+      <c r="J12" s="205"/>
+      <c r="K12" s="205"/>
+      <c r="L12" s="205"/>
+      <c r="M12" s="215"/>
+      <c r="N12" s="205"/>
+      <c r="O12" s="205"/>
+      <c r="P12" s="205"/>
+      <c r="Q12" s="205"/>
+      <c r="R12" s="205"/>
+      <c r="S12" s="205"/>
+      <c r="T12" s="216"/>
+    </row>
+    <row r="13" spans="1:20">
+      <c r="A13" s="215"/>
+      <c r="B13" s="205"/>
+      <c r="C13" s="205"/>
+      <c r="D13" s="205"/>
+      <c r="E13" s="205"/>
+      <c r="F13" s="205"/>
+      <c r="G13" s="205"/>
+      <c r="H13" s="205"/>
+      <c r="I13" s="205"/>
+      <c r="J13" s="205"/>
+      <c r="K13" s="205"/>
+      <c r="L13" s="205"/>
+      <c r="M13" s="215"/>
+      <c r="N13" s="205" t="s">
+        <v>101</v>
+      </c>
+      <c r="O13" s="205"/>
+      <c r="P13" s="205"/>
+      <c r="Q13" s="205"/>
+      <c r="R13" s="205"/>
+      <c r="S13" s="205"/>
+      <c r="T13" s="216"/>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" s="215"/>
+      <c r="B14" s="205"/>
+      <c r="C14" s="205"/>
+      <c r="D14" s="205"/>
+      <c r="E14" s="205"/>
+      <c r="F14" s="205"/>
+      <c r="G14" s="205"/>
+      <c r="H14" s="205"/>
+      <c r="I14" s="205"/>
+      <c r="J14" s="205"/>
+      <c r="K14" s="205"/>
+      <c r="L14" s="205"/>
+      <c r="M14" s="215"/>
+      <c r="N14" s="205" t="s">
+        <v>102</v>
+      </c>
+      <c r="O14" s="205"/>
+      <c r="P14" s="205"/>
+      <c r="Q14" s="205"/>
+      <c r="R14" s="205"/>
+      <c r="S14" s="205"/>
+      <c r="T14" s="216"/>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" s="215"/>
+      <c r="B15" s="205"/>
+      <c r="C15" s="205"/>
+      <c r="D15" s="205"/>
+      <c r="E15" s="205"/>
+      <c r="F15" s="205"/>
+      <c r="G15" s="205"/>
+      <c r="H15" s="205"/>
+      <c r="I15" s="205"/>
+      <c r="J15" s="205"/>
+      <c r="K15" s="205"/>
+      <c r="L15" s="205"/>
+      <c r="M15" s="215"/>
+      <c r="N15" s="205" t="s">
+        <v>103</v>
+      </c>
+      <c r="O15" s="205"/>
+      <c r="P15" s="205"/>
+      <c r="Q15" s="205"/>
+      <c r="R15" s="205"/>
+      <c r="S15" s="205"/>
+      <c r="T15" s="216"/>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" s="215"/>
+      <c r="B16" s="205"/>
+      <c r="C16" s="205"/>
+      <c r="D16" s="205"/>
+      <c r="E16" s="205"/>
+      <c r="F16" s="205"/>
+      <c r="G16" s="205"/>
+      <c r="H16" s="205"/>
+      <c r="I16" s="205"/>
+      <c r="J16" s="205"/>
+      <c r="K16" s="205"/>
+      <c r="L16" s="205"/>
+      <c r="M16" s="215"/>
+      <c r="N16" s="205" t="s">
+        <v>104</v>
+      </c>
+      <c r="O16" s="205"/>
+      <c r="P16" s="205"/>
+      <c r="Q16" s="205"/>
+      <c r="R16" s="205"/>
+      <c r="S16" s="205"/>
+      <c r="T16" s="216"/>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" s="215"/>
+      <c r="B17" s="205"/>
+      <c r="C17" s="205"/>
+      <c r="D17" s="205"/>
+      <c r="E17" s="205"/>
+      <c r="F17" s="205"/>
+      <c r="G17" s="205"/>
+      <c r="H17" s="205"/>
+      <c r="I17" s="205"/>
+      <c r="J17" s="205"/>
+      <c r="K17" s="205"/>
+      <c r="L17" s="205"/>
+      <c r="M17" s="215"/>
+      <c r="N17" s="205"/>
+      <c r="O17" s="205"/>
+      <c r="P17" s="205"/>
+      <c r="Q17" s="205"/>
+      <c r="R17" s="205"/>
+      <c r="S17" s="205"/>
+      <c r="T17" s="216"/>
+    </row>
+    <row r="18" spans="1:20">
+      <c r="A18" s="215"/>
+      <c r="B18" s="205"/>
+      <c r="C18" s="205"/>
+      <c r="D18" s="205"/>
+      <c r="E18" s="205"/>
+      <c r="F18" s="205"/>
+      <c r="G18" s="205"/>
+      <c r="H18" s="205"/>
+      <c r="I18" s="205"/>
+      <c r="J18" s="205"/>
+      <c r="K18" s="205"/>
+      <c r="L18" s="205"/>
+      <c r="M18" s="215"/>
+      <c r="N18" s="205"/>
+      <c r="O18" s="205"/>
+      <c r="P18" s="205"/>
+      <c r="Q18" s="205"/>
+      <c r="R18" s="205"/>
+      <c r="S18" s="205"/>
+      <c r="T18" s="216"/>
+    </row>
+    <row r="19" spans="1:20">
+      <c r="A19" s="215"/>
+      <c r="B19" s="205"/>
+      <c r="C19" s="205"/>
+      <c r="D19" s="205"/>
+      <c r="E19" s="205"/>
+      <c r="F19" s="205"/>
+      <c r="G19" s="205"/>
+      <c r="H19" s="205"/>
+      <c r="I19" s="205"/>
+      <c r="J19" s="205"/>
+      <c r="K19" s="205"/>
+      <c r="L19" s="205"/>
+      <c r="M19" s="215"/>
+      <c r="N19" s="205"/>
+      <c r="O19" s="205"/>
+      <c r="P19" s="205"/>
+      <c r="Q19" s="205"/>
+      <c r="R19" s="205"/>
+      <c r="S19" s="205"/>
+      <c r="T19" s="216"/>
+    </row>
+    <row r="20" spans="1:20">
+      <c r="A20" s="215"/>
+      <c r="B20" s="205"/>
+      <c r="C20" s="205"/>
+      <c r="D20" s="205"/>
+      <c r="E20" s="205"/>
+      <c r="F20" s="205"/>
+      <c r="G20" s="205"/>
+      <c r="H20" s="205"/>
+      <c r="I20" s="205"/>
+      <c r="J20" s="205"/>
+      <c r="K20" s="205"/>
+      <c r="L20" s="205"/>
+      <c r="M20" s="215"/>
+      <c r="N20" s="205"/>
+      <c r="O20" s="205"/>
+      <c r="P20" s="205"/>
+      <c r="Q20" s="205"/>
+      <c r="R20" s="205"/>
+      <c r="S20" s="205"/>
+      <c r="T20" s="216"/>
+    </row>
+    <row r="21" spans="1:20">
+      <c r="A21" s="215"/>
+      <c r="B21" s="205"/>
+      <c r="C21" s="205"/>
+      <c r="D21" s="205"/>
+      <c r="E21" s="205"/>
+      <c r="F21" s="205"/>
+      <c r="G21" s="205"/>
+      <c r="H21" s="205"/>
+      <c r="I21" s="205"/>
+      <c r="J21" s="205"/>
+      <c r="K21" s="205"/>
+      <c r="L21" s="205"/>
+      <c r="M21" s="215"/>
+      <c r="N21" s="205"/>
+      <c r="O21" s="205"/>
+      <c r="P21" s="205"/>
+      <c r="Q21" s="205"/>
+      <c r="R21" s="205"/>
+      <c r="S21" s="205"/>
+      <c r="T21" s="216"/>
+    </row>
+    <row r="22" spans="1:20">
+      <c r="A22" s="215"/>
+      <c r="B22" s="205"/>
+      <c r="C22" s="205"/>
+      <c r="D22" s="205"/>
+      <c r="E22" s="205"/>
+      <c r="F22" s="205"/>
+      <c r="G22" s="205"/>
+      <c r="H22" s="205"/>
+      <c r="I22" s="205"/>
+      <c r="J22" s="205"/>
+      <c r="K22" s="205"/>
+      <c r="L22" s="205"/>
+      <c r="M22" s="215"/>
+      <c r="N22" s="205"/>
+      <c r="O22" s="205"/>
+      <c r="P22" s="205"/>
+      <c r="Q22" s="205"/>
+      <c r="R22" s="205"/>
+      <c r="S22" s="205"/>
+      <c r="T22" s="216"/>
+    </row>
+    <row r="23" spans="1:20">
+      <c r="A23" s="215"/>
+      <c r="B23" s="205"/>
+      <c r="C23" s="205"/>
+      <c r="D23" s="205"/>
+      <c r="E23" s="205"/>
+      <c r="F23" s="205"/>
+      <c r="G23" s="205"/>
+      <c r="H23" s="205"/>
+      <c r="I23" s="205"/>
+      <c r="J23" s="205"/>
+      <c r="K23" s="205"/>
+      <c r="L23" s="205"/>
+      <c r="M23" s="215"/>
+      <c r="N23" s="205"/>
+      <c r="O23" s="205"/>
+      <c r="P23" s="205"/>
+      <c r="Q23" s="205"/>
+      <c r="R23" s="205"/>
+      <c r="S23" s="205"/>
+      <c r="T23" s="216"/>
+    </row>
+    <row r="24" spans="1:20">
+      <c r="A24" s="215"/>
+      <c r="B24" s="205"/>
+      <c r="C24" s="205"/>
+      <c r="D24" s="205"/>
+      <c r="E24" s="205"/>
+      <c r="F24" s="205"/>
+      <c r="G24" s="205"/>
+      <c r="H24" s="205"/>
+      <c r="I24" s="205"/>
+      <c r="J24" s="205"/>
+      <c r="K24" s="205"/>
+      <c r="L24" s="205"/>
+      <c r="M24" s="215"/>
+      <c r="N24" s="205"/>
+      <c r="O24" s="205"/>
+      <c r="P24" s="205"/>
+      <c r="Q24" s="205"/>
+      <c r="R24" s="205"/>
+      <c r="S24" s="205"/>
+      <c r="T24" s="216"/>
+    </row>
+    <row r="25" spans="1:20">
+      <c r="A25" s="215"/>
+      <c r="B25" s="205"/>
+      <c r="C25" s="205"/>
+      <c r="D25" s="205"/>
+      <c r="E25" s="205"/>
+      <c r="F25" s="205"/>
+      <c r="G25" s="205"/>
+      <c r="H25" s="205"/>
+      <c r="I25" s="205"/>
+      <c r="J25" s="205"/>
+      <c r="K25" s="205"/>
+      <c r="L25" s="205"/>
+      <c r="M25" s="215"/>
+      <c r="N25" s="205"/>
+      <c r="O25" s="205"/>
+      <c r="P25" s="205"/>
+      <c r="Q25" s="205"/>
+      <c r="R25" s="205"/>
+      <c r="S25" s="205"/>
+      <c r="T25" s="216"/>
+    </row>
+    <row r="26" spans="1:20">
+      <c r="A26" s="215"/>
+      <c r="B26" s="205"/>
+      <c r="C26" s="205"/>
+      <c r="D26" s="205"/>
+      <c r="E26" s="205"/>
+      <c r="F26" s="205"/>
+      <c r="G26" s="205"/>
+      <c r="H26" s="205"/>
+      <c r="I26" s="205"/>
+      <c r="J26" s="205"/>
+      <c r="K26" s="205"/>
+      <c r="L26" s="205"/>
+      <c r="M26" s="215"/>
+      <c r="N26" s="205"/>
+      <c r="O26" s="205"/>
+      <c r="P26" s="205"/>
+      <c r="Q26" s="205"/>
+      <c r="R26" s="205"/>
+      <c r="S26" s="205"/>
+      <c r="T26" s="216"/>
+    </row>
+    <row r="27" spans="1:20">
+      <c r="A27" s="215"/>
+      <c r="B27" s="205"/>
+      <c r="C27" s="205"/>
+      <c r="D27" s="205"/>
+      <c r="E27" s="205"/>
+      <c r="F27" s="205"/>
+      <c r="G27" s="205"/>
+      <c r="H27" s="205"/>
+      <c r="I27" s="205"/>
+      <c r="J27" s="205"/>
+      <c r="K27" s="205"/>
+      <c r="L27" s="205"/>
+      <c r="M27" s="215"/>
+      <c r="N27" s="205"/>
+      <c r="O27" s="205"/>
+      <c r="P27" s="205"/>
+      <c r="Q27" s="205"/>
+      <c r="R27" s="205"/>
+      <c r="S27" s="205"/>
+      <c r="T27" s="216"/>
+    </row>
+    <row r="28" spans="1:20">
+      <c r="A28" s="215"/>
+      <c r="B28" s="205"/>
+      <c r="C28" s="205"/>
+      <c r="D28" s="205"/>
+      <c r="E28" s="205"/>
+      <c r="F28" s="205"/>
+      <c r="G28" s="205"/>
+      <c r="H28" s="205"/>
+      <c r="I28" s="205"/>
+      <c r="J28" s="205"/>
+      <c r="K28" s="205"/>
+      <c r="L28" s="205"/>
+      <c r="M28" s="215"/>
+      <c r="N28" s="205"/>
+      <c r="O28" s="205"/>
+      <c r="P28" s="205"/>
+      <c r="Q28" s="205"/>
+      <c r="R28" s="205"/>
+      <c r="S28" s="205"/>
+      <c r="T28" s="216"/>
+    </row>
+    <row r="29" spans="1:20">
+      <c r="A29" s="217"/>
+      <c r="B29" s="203"/>
+      <c r="C29" s="203"/>
+      <c r="D29" s="203"/>
+      <c r="E29" s="203"/>
+      <c r="F29" s="203"/>
+      <c r="G29" s="203"/>
+      <c r="H29" s="203"/>
+      <c r="I29" s="203"/>
+      <c r="J29" s="203"/>
+      <c r="K29" s="203"/>
+      <c r="L29" s="203"/>
+      <c r="M29" s="217"/>
+      <c r="N29" s="203"/>
+      <c r="O29" s="203"/>
+      <c r="P29" s="203"/>
+      <c r="Q29" s="203"/>
+      <c r="R29" s="203"/>
+      <c r="S29" s="203"/>
+      <c r="T29" s="200"/>
+    </row>
+    <row r="30" spans="1:20">
+      <c r="A30" s="218" t="s">
+        <v>105</v>
+      </c>
+      <c r="B30" s="219"/>
+      <c r="C30" s="220"/>
+      <c r="D30" s="220"/>
+      <c r="E30" s="220"/>
+      <c r="F30" s="220"/>
+      <c r="G30" s="220"/>
+      <c r="H30" s="220"/>
+      <c r="I30" s="220"/>
+      <c r="J30" s="220"/>
+      <c r="K30" s="220"/>
+      <c r="L30" s="220"/>
+      <c r="M30" s="220"/>
+      <c r="N30" s="220"/>
+      <c r="O30" s="220"/>
+      <c r="P30" s="220"/>
+      <c r="Q30" s="220"/>
+      <c r="R30" s="220"/>
+      <c r="S30" s="220"/>
+      <c r="T30" s="221"/>
+    </row>
+    <row r="31" spans="1:20">
+      <c r="A31" s="222" t="s">
+        <v>106</v>
+      </c>
+      <c r="B31" s="223" t="s">
+        <v>107</v>
+      </c>
+      <c r="C31" s="224"/>
+      <c r="D31" s="224" t="s">
+        <v>108</v>
+      </c>
+      <c r="E31" s="225" t="s">
+        <v>109</v>
+      </c>
+      <c r="F31" s="226"/>
+      <c r="G31" s="222" t="s">
+        <v>110</v>
+      </c>
+      <c r="H31" s="224" t="s">
+        <v>111</v>
+      </c>
+      <c r="I31" s="223" t="s">
+        <v>112</v>
+      </c>
+      <c r="J31" s="227" t="s">
+        <v>113</v>
+      </c>
+      <c r="K31" s="227" t="s">
+        <v>114</v>
+      </c>
+      <c r="L31" s="227" t="s">
+        <v>65</v>
+      </c>
+      <c r="M31" s="224"/>
+      <c r="N31" s="223" t="s">
+        <v>66</v>
+      </c>
+      <c r="O31" s="224"/>
+      <c r="P31" s="223" t="s">
+        <v>115</v>
+      </c>
+      <c r="Q31" s="223"/>
+      <c r="R31" s="223"/>
+      <c r="S31" s="223"/>
+      <c r="T31" s="224"/>
+    </row>
+    <row r="32" spans="1:20">
+      <c r="A32" s="228" t="s">
+        <v>116</v>
+      </c>
+      <c r="B32" s="209" t="s">
+        <v>117</v>
+      </c>
+      <c r="C32" s="207"/>
+      <c r="D32" s="229" t="s">
+        <v>118</v>
+      </c>
+      <c r="E32" s="209" t="s">
+        <v>119</v>
+      </c>
+      <c r="F32" s="206"/>
+      <c r="G32" s="228" t="s">
+        <v>120</v>
+      </c>
+      <c r="H32" s="229" t="s">
+        <v>120</v>
+      </c>
+      <c r="I32" s="229" t="s">
+        <v>120</v>
+      </c>
+      <c r="J32" s="229" t="s">
+        <v>120</v>
+      </c>
+      <c r="K32" s="229" t="s">
+        <v>120</v>
+      </c>
+      <c r="L32" s="229" t="s">
+        <v>120</v>
+      </c>
+      <c r="M32" s="229" t="s">
+        <v>120</v>
+      </c>
+      <c r="N32" s="229" t="s">
+        <v>120</v>
+      </c>
+      <c r="O32" s="229" t="s">
+        <v>120</v>
+      </c>
+      <c r="P32" s="230" t="s">
+        <v>121</v>
+      </c>
+      <c r="Q32" s="201"/>
+      <c r="R32" s="201"/>
+      <c r="S32" s="201"/>
+      <c r="T32" s="231"/>
+    </row>
+    <row r="33" spans="1:20">
+      <c r="A33" s="228" t="s">
+        <v>122</v>
+      </c>
+      <c r="B33" s="209" t="s">
+        <v>123</v>
+      </c>
+      <c r="C33" s="207"/>
+      <c r="D33" s="229" t="s">
+        <v>118</v>
+      </c>
+      <c r="E33" s="209" t="s">
+        <v>119</v>
+      </c>
+      <c r="F33" s="206"/>
+      <c r="G33" s="228" t="s">
+        <v>120</v>
+      </c>
+      <c r="H33" s="229" t="s">
+        <v>120</v>
+      </c>
+      <c r="I33" s="229" t="s">
+        <v>120</v>
+      </c>
+      <c r="J33" s="229" t="s">
+        <v>120</v>
+      </c>
+      <c r="K33" s="229" t="s">
+        <v>120</v>
+      </c>
+      <c r="L33" s="229" t="s">
+        <v>120</v>
+      </c>
+      <c r="M33" s="229" t="s">
+        <v>120</v>
+      </c>
+      <c r="N33" s="229" t="s">
+        <v>120</v>
+      </c>
+      <c r="O33" s="229" t="s">
+        <v>120</v>
+      </c>
+      <c r="P33" s="230" t="s">
+        <v>124</v>
+      </c>
+      <c r="Q33" s="201"/>
+      <c r="R33" s="201"/>
+      <c r="S33" s="201"/>
+      <c r="T33" s="232"/>
+    </row>
+    <row r="34" spans="1:20">
+      <c r="A34" s="228" t="s">
+        <v>125</v>
+      </c>
+      <c r="B34" s="209" t="s">
+        <v>126</v>
+      </c>
+      <c r="C34" s="207"/>
+      <c r="D34" s="229"/>
+      <c r="E34" s="203" t="s">
+        <v>127</v>
+      </c>
+      <c r="F34" s="203"/>
+      <c r="G34" s="228" t="s">
+        <v>120</v>
+      </c>
+      <c r="H34" s="229" t="s">
+        <v>120</v>
+      </c>
+      <c r="I34" s="229" t="s">
+        <v>120</v>
+      </c>
+      <c r="J34" s="229" t="s">
+        <v>120</v>
+      </c>
+      <c r="K34" s="229" t="s">
+        <v>120</v>
+      </c>
+      <c r="L34" s="229" t="s">
+        <v>120</v>
+      </c>
+      <c r="M34" s="229" t="s">
+        <v>120</v>
+      </c>
+      <c r="N34" s="229" t="s">
+        <v>120</v>
+      </c>
+      <c r="O34" s="229" t="s">
+        <v>120</v>
+      </c>
+      <c r="P34" s="230" t="s">
+        <v>128</v>
+      </c>
+      <c r="Q34" s="201"/>
+      <c r="R34" s="201"/>
+      <c r="S34" s="202"/>
+      <c r="T34" s="232"/>
+    </row>
+    <row r="35" spans="1:20">
+      <c r="A35" s="228" t="s">
+        <v>129</v>
+      </c>
+      <c r="B35" s="209" t="s">
+        <v>130</v>
+      </c>
+      <c r="C35" s="207"/>
+      <c r="D35" s="229"/>
+      <c r="E35" s="203" t="s">
+        <v>127</v>
+      </c>
+      <c r="F35" s="203"/>
+      <c r="G35" s="228" t="s">
+        <v>120</v>
+      </c>
+      <c r="H35" s="229" t="s">
+        <v>120</v>
+      </c>
+      <c r="I35" s="229" t="s">
+        <v>120</v>
+      </c>
+      <c r="J35" s="229" t="s">
+        <v>120</v>
+      </c>
+      <c r="K35" s="229" t="s">
+        <v>120</v>
+      </c>
+      <c r="L35" s="229" t="s">
+        <v>120</v>
+      </c>
+      <c r="M35" s="229" t="s">
+        <v>120</v>
+      </c>
+      <c r="N35" s="229" t="s">
+        <v>120</v>
+      </c>
+      <c r="O35" s="229" t="s">
+        <v>120</v>
+      </c>
+      <c r="P35" s="230" t="s">
+        <v>131</v>
+      </c>
+      <c r="Q35" s="201"/>
+      <c r="R35" s="201"/>
+      <c r="S35" s="201"/>
+      <c r="T35" s="232"/>
+    </row>
+    <row r="36" spans="1:20">
+      <c r="A36" s="228"/>
+      <c r="B36" s="203"/>
+      <c r="C36" s="200"/>
+      <c r="D36" s="229"/>
+      <c r="E36" s="203"/>
+      <c r="F36" s="203"/>
+      <c r="G36" s="228"/>
+      <c r="H36" s="229"/>
+      <c r="I36" s="229"/>
+      <c r="J36" s="229"/>
+      <c r="K36" s="233"/>
+      <c r="L36" s="234"/>
+      <c r="M36" s="232"/>
+      <c r="N36" s="202"/>
+      <c r="O36" s="232"/>
+      <c r="P36" s="202"/>
+      <c r="Q36" s="202"/>
+      <c r="R36" s="202"/>
+      <c r="S36" s="202"/>
+      <c r="T36" s="232"/>
+    </row>
+    <row r="37" spans="1:20">
+      <c r="A37" s="228"/>
+      <c r="B37" s="203"/>
+      <c r="C37" s="200"/>
+      <c r="D37" s="229"/>
+      <c r="E37" s="203"/>
+      <c r="F37" s="203"/>
+      <c r="G37" s="228"/>
+      <c r="H37" s="229"/>
+      <c r="I37" s="229"/>
+      <c r="J37" s="229"/>
+      <c r="K37" s="233"/>
+      <c r="L37" s="234"/>
+      <c r="M37" s="232"/>
+      <c r="N37" s="202"/>
+      <c r="O37" s="232"/>
+      <c r="P37" s="202"/>
+      <c r="Q37" s="202"/>
+      <c r="R37" s="202"/>
+      <c r="S37" s="202"/>
+      <c r="T37" s="232"/>
+    </row>
+    <row r="38" spans="1:20">
+      <c r="A38" s="228"/>
+      <c r="B38" s="203"/>
+      <c r="C38" s="200"/>
+      <c r="D38" s="229"/>
+      <c r="E38" s="203"/>
+      <c r="F38" s="203"/>
+      <c r="G38" s="228"/>
+      <c r="H38" s="229"/>
+      <c r="I38" s="229"/>
+      <c r="J38" s="229"/>
+      <c r="K38" s="233"/>
+      <c r="L38" s="234"/>
+      <c r="M38" s="232"/>
+      <c r="N38" s="202"/>
+      <c r="O38" s="232"/>
+      <c r="P38" s="202"/>
+      <c r="Q38" s="202"/>
+      <c r="R38" s="202"/>
+      <c r="S38" s="202"/>
+      <c r="T38" s="232"/>
+    </row>
+  </sheetData>
+  <mergeCells count="15">
+    <mergeCell ref="A5:B7"/>
+    <mergeCell ref="D5:K5"/>
+    <mergeCell ref="Q5:R5"/>
+    <mergeCell ref="D6:E6"/>
+    <mergeCell ref="F6:G6"/>
+    <mergeCell ref="Q7:R7"/>
+    <mergeCell ref="A1:T1"/>
+    <mergeCell ref="A2:B4"/>
+    <mergeCell ref="D2:K2"/>
+    <mergeCell ref="Q2:R2"/>
+    <mergeCell ref="D3:K3"/>
+    <mergeCell ref="Q3:R3"/>
+    <mergeCell ref="S3:T3"/>
+    <mergeCell ref="D4:K4"/>
+    <mergeCell ref="Q4:R4"/>
+  </mergeCells>
+  <phoneticPr fontId="3"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{01B61871-50B0-514C-B040-A24D9240679B}">
+  <dimension ref="A1:T38"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K18" sqref="K18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14"/>
+  <sheetData>
+    <row r="1" spans="1:20" ht="15">
+      <c r="A1" s="235" t="s">
+        <v>80</v>
+      </c>
+      <c r="B1" s="236"/>
+      <c r="C1" s="236"/>
+      <c r="D1" s="236"/>
+      <c r="E1" s="236"/>
+      <c r="F1" s="236"/>
+      <c r="G1" s="236"/>
+      <c r="H1" s="236"/>
+      <c r="I1" s="236"/>
+      <c r="J1" s="236"/>
+      <c r="K1" s="236"/>
+      <c r="L1" s="236"/>
+      <c r="M1" s="236"/>
+      <c r="N1" s="236"/>
+      <c r="O1" s="236"/>
+      <c r="P1" s="236"/>
+      <c r="Q1" s="236"/>
+      <c r="R1" s="236"/>
+      <c r="S1" s="236"/>
+      <c r="T1" s="237"/>
+    </row>
+    <row r="2" spans="1:20">
+      <c r="A2" s="238" t="s">
+        <v>81</v>
+      </c>
+      <c r="B2" s="239"/>
+      <c r="C2" s="200" t="s">
+        <v>82</v>
+      </c>
+      <c r="D2" s="245" t="s">
+        <v>72</v>
+      </c>
+      <c r="E2" s="244"/>
+      <c r="F2" s="244"/>
+      <c r="G2" s="244"/>
+      <c r="H2" s="244"/>
+      <c r="I2" s="244"/>
+      <c r="J2" s="244"/>
+      <c r="K2" s="244"/>
+      <c r="L2" s="202"/>
+      <c r="M2" s="203"/>
+      <c r="N2" s="203"/>
+      <c r="O2" s="203"/>
+      <c r="P2" s="203"/>
+      <c r="Q2" s="246" t="s">
+        <v>83</v>
+      </c>
+      <c r="R2" s="247"/>
+      <c r="S2" s="206" t="s">
+        <v>132</v>
+      </c>
+      <c r="T2" s="207"/>
+    </row>
+    <row r="3" spans="1:20">
+      <c r="A3" s="240"/>
+      <c r="B3" s="241"/>
+      <c r="C3" s="200" t="s">
+        <v>85</v>
+      </c>
+      <c r="D3" s="245" t="s">
+        <v>74</v>
+      </c>
+      <c r="E3" s="244"/>
+      <c r="F3" s="244"/>
+      <c r="G3" s="244"/>
+      <c r="H3" s="244"/>
+      <c r="I3" s="244"/>
+      <c r="J3" s="244"/>
+      <c r="K3" s="244"/>
+      <c r="L3" s="202"/>
+      <c r="M3" s="203"/>
+      <c r="N3" s="203"/>
+      <c r="O3" s="203"/>
+      <c r="P3" s="203"/>
+      <c r="Q3" s="246" t="s">
+        <v>86</v>
+      </c>
+      <c r="R3" s="247"/>
+      <c r="S3" s="248">
+        <v>45204</v>
+      </c>
+      <c r="T3" s="249"/>
+    </row>
+    <row r="4" spans="1:20">
+      <c r="A4" s="242"/>
+      <c r="B4" s="243"/>
+      <c r="C4" s="200" t="s">
+        <v>87</v>
+      </c>
+      <c r="D4" s="245" t="s">
+        <v>75</v>
+      </c>
+      <c r="E4" s="244"/>
+      <c r="F4" s="244"/>
+      <c r="G4" s="244"/>
+      <c r="H4" s="244"/>
+      <c r="I4" s="244"/>
+      <c r="J4" s="244"/>
+      <c r="K4" s="244"/>
+      <c r="L4" s="202"/>
+      <c r="M4" s="203"/>
+      <c r="N4" s="203"/>
+      <c r="O4" s="203"/>
+      <c r="P4" s="203"/>
+      <c r="Q4" s="246" t="s">
+        <v>88</v>
+      </c>
+      <c r="R4" s="247"/>
+      <c r="S4" s="203" t="s">
+        <v>76</v>
+      </c>
+      <c r="T4" s="200"/>
+    </row>
+    <row r="5" spans="1:20">
+      <c r="A5" s="238" t="s">
+        <v>89</v>
+      </c>
+      <c r="B5" s="239"/>
+      <c r="C5" s="200" t="s">
+        <v>90</v>
+      </c>
+      <c r="D5" s="245" t="s">
+        <v>77</v>
+      </c>
+      <c r="E5" s="244"/>
+      <c r="F5" s="244"/>
+      <c r="G5" s="244"/>
+      <c r="H5" s="244"/>
+      <c r="I5" s="244"/>
+      <c r="J5" s="244"/>
+      <c r="K5" s="244"/>
+      <c r="L5" s="202"/>
+      <c r="M5" s="203"/>
+      <c r="N5" s="203"/>
+      <c r="O5" s="203"/>
+      <c r="P5" s="203"/>
+      <c r="Q5" s="246" t="s">
+        <v>91</v>
+      </c>
+      <c r="R5" s="247"/>
+      <c r="S5" s="203"/>
+      <c r="T5" s="200"/>
+    </row>
+    <row r="6" spans="1:20">
+      <c r="A6" s="240"/>
+      <c r="B6" s="241"/>
+      <c r="C6" s="200" t="s">
+        <v>92</v>
+      </c>
+      <c r="D6" s="250" t="s">
+        <v>93</v>
+      </c>
+      <c r="E6" s="251"/>
+      <c r="F6" s="252" t="s">
+        <v>94</v>
+      </c>
+      <c r="G6" s="253"/>
+      <c r="H6" s="206" t="s">
+        <v>95</v>
+      </c>
+      <c r="I6" s="206"/>
+      <c r="J6" s="203"/>
+      <c r="K6" s="203"/>
+      <c r="L6" s="202"/>
+      <c r="M6" s="203"/>
+      <c r="N6" s="203"/>
+      <c r="O6" s="203"/>
+      <c r="P6" s="203"/>
+      <c r="Q6" s="204" t="s">
+        <v>96</v>
+      </c>
+      <c r="R6" s="208"/>
+      <c r="S6" s="203"/>
+      <c r="T6" s="200"/>
+    </row>
+    <row r="7" spans="1:20">
+      <c r="A7" s="242"/>
+      <c r="B7" s="243"/>
+      <c r="C7" s="200" t="s">
+        <v>97</v>
+      </c>
+      <c r="D7" s="209" t="s">
+        <v>98</v>
+      </c>
+      <c r="E7" s="206"/>
+      <c r="F7" s="206"/>
+      <c r="G7" s="206"/>
+      <c r="H7" s="206"/>
+      <c r="I7" s="206"/>
+      <c r="J7" s="203"/>
+      <c r="K7" s="203"/>
+      <c r="L7" s="203"/>
+      <c r="M7" s="203"/>
+      <c r="N7" s="203"/>
+      <c r="O7" s="203"/>
+      <c r="P7" s="203"/>
+      <c r="Q7" s="246"/>
+      <c r="R7" s="247"/>
+      <c r="S7" s="203"/>
+      <c r="T7" s="200"/>
+    </row>
+    <row r="8" spans="1:20">
+      <c r="A8" s="210" t="s">
+        <v>99</v>
+      </c>
+      <c r="B8" s="211"/>
+      <c r="C8" s="212"/>
+      <c r="D8" s="212"/>
+      <c r="E8" s="212"/>
+      <c r="F8" s="212"/>
+      <c r="G8" s="212"/>
+      <c r="H8" s="212"/>
+      <c r="I8" s="212"/>
+      <c r="J8" s="212"/>
+      <c r="K8" s="212"/>
+      <c r="L8" s="212"/>
+      <c r="M8" s="213" t="s">
+        <v>100</v>
+      </c>
+      <c r="N8" s="212"/>
+      <c r="O8" s="212"/>
+      <c r="P8" s="212"/>
+      <c r="Q8" s="212"/>
+      <c r="R8" s="212"/>
+      <c r="S8" s="212"/>
+      <c r="T8" s="214"/>
+    </row>
+    <row r="9" spans="1:20">
+      <c r="A9" s="215"/>
+      <c r="B9" s="205"/>
+      <c r="C9" s="205"/>
+      <c r="D9" s="205"/>
+      <c r="E9" s="205"/>
+      <c r="F9" s="205"/>
+      <c r="G9" s="205"/>
+      <c r="H9" s="205"/>
+      <c r="I9" s="205"/>
+      <c r="J9" s="205"/>
+      <c r="K9" s="205"/>
+      <c r="L9" s="205"/>
+      <c r="M9" s="215"/>
+      <c r="N9" s="205"/>
+      <c r="O9" s="205"/>
+      <c r="P9" s="205"/>
+      <c r="Q9" s="205"/>
+      <c r="R9" s="205"/>
+      <c r="S9" s="205"/>
+      <c r="T9" s="216"/>
+    </row>
+    <row r="10" spans="1:20">
+      <c r="A10" s="215"/>
+      <c r="B10" s="205"/>
+      <c r="C10" s="205"/>
+      <c r="D10" s="205"/>
+      <c r="E10" s="205"/>
+      <c r="F10" s="205"/>
+      <c r="G10" s="205"/>
+      <c r="H10" s="205"/>
+      <c r="I10" s="205"/>
+      <c r="J10" s="205"/>
+      <c r="K10" s="205"/>
+      <c r="L10" s="205"/>
+      <c r="M10" s="215"/>
+      <c r="N10" s="205"/>
+      <c r="O10" s="205"/>
+      <c r="P10" s="205"/>
+      <c r="Q10" s="205"/>
+      <c r="R10" s="205"/>
+      <c r="S10" s="205"/>
+      <c r="T10" s="216"/>
+    </row>
+    <row r="11" spans="1:20">
+      <c r="A11" s="215"/>
+      <c r="B11" s="205"/>
+      <c r="C11" s="205"/>
+      <c r="D11" s="205"/>
+      <c r="E11" s="205"/>
+      <c r="F11" s="205"/>
+      <c r="G11" s="205"/>
+      <c r="H11" s="205"/>
+      <c r="I11" s="205"/>
+      <c r="J11" s="205"/>
+      <c r="K11" s="205"/>
+      <c r="L11" s="205"/>
+      <c r="M11" s="215"/>
+      <c r="N11" s="205"/>
+      <c r="O11" s="205"/>
+      <c r="P11" s="205"/>
+      <c r="Q11" s="205"/>
+      <c r="R11" s="205"/>
+      <c r="S11" s="205"/>
+      <c r="T11" s="216"/>
+    </row>
+    <row r="12" spans="1:20">
+      <c r="A12" s="215"/>
+      <c r="B12" s="205"/>
+      <c r="C12" s="205"/>
+      <c r="D12" s="205"/>
+      <c r="E12" s="205"/>
+      <c r="F12" s="205"/>
+      <c r="G12" s="205"/>
+      <c r="H12" s="205"/>
+      <c r="I12" s="205"/>
+      <c r="J12" s="205"/>
+      <c r="K12" s="205"/>
+      <c r="L12" s="205"/>
+      <c r="M12" s="215"/>
+      <c r="N12" s="205"/>
+      <c r="O12" s="205"/>
+      <c r="P12" s="205"/>
+      <c r="Q12" s="205"/>
+      <c r="R12" s="205"/>
+      <c r="S12" s="205"/>
+      <c r="T12" s="216"/>
+    </row>
+    <row r="13" spans="1:20">
+      <c r="A13" s="215"/>
+      <c r="B13" s="205"/>
+      <c r="C13" s="205"/>
+      <c r="D13" s="205"/>
+      <c r="E13" s="205"/>
+      <c r="F13" s="205"/>
+      <c r="G13" s="205"/>
+      <c r="H13" s="205"/>
+      <c r="I13" s="205"/>
+      <c r="J13" s="205"/>
+      <c r="K13" s="205"/>
+      <c r="L13" s="205"/>
+      <c r="M13" s="215"/>
+      <c r="N13" s="205" t="s">
+        <v>101</v>
+      </c>
+      <c r="O13" s="205"/>
+      <c r="P13" s="205"/>
+      <c r="Q13" s="205"/>
+      <c r="R13" s="205"/>
+      <c r="S13" s="205"/>
+      <c r="T13" s="216"/>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" s="215"/>
+      <c r="B14" s="205"/>
+      <c r="C14" s="205"/>
+      <c r="D14" s="205"/>
+      <c r="E14" s="205"/>
+      <c r="F14" s="205"/>
+      <c r="G14" s="205"/>
+      <c r="H14" s="205"/>
+      <c r="I14" s="205"/>
+      <c r="J14" s="205"/>
+      <c r="K14" s="205"/>
+      <c r="L14" s="205"/>
+      <c r="M14" s="215"/>
+      <c r="N14" s="205" t="s">
+        <v>102</v>
+      </c>
+      <c r="O14" s="205"/>
+      <c r="P14" s="205"/>
+      <c r="Q14" s="205"/>
+      <c r="R14" s="205"/>
+      <c r="S14" s="205"/>
+      <c r="T14" s="216"/>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" s="215"/>
+      <c r="B15" s="205"/>
+      <c r="C15" s="205"/>
+      <c r="D15" s="205"/>
+      <c r="E15" s="205"/>
+      <c r="F15" s="205"/>
+      <c r="G15" s="205"/>
+      <c r="H15" s="205"/>
+      <c r="I15" s="205"/>
+      <c r="J15" s="205"/>
+      <c r="K15" s="205"/>
+      <c r="L15" s="205"/>
+      <c r="M15" s="215"/>
+      <c r="N15" s="205" t="s">
+        <v>103</v>
+      </c>
+      <c r="O15" s="205"/>
+      <c r="P15" s="205"/>
+      <c r="Q15" s="205"/>
+      <c r="R15" s="205"/>
+      <c r="S15" s="205"/>
+      <c r="T15" s="216"/>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" s="215"/>
+      <c r="B16" s="205"/>
+      <c r="C16" s="205"/>
+      <c r="D16" s="205"/>
+      <c r="E16" s="205"/>
+      <c r="F16" s="205"/>
+      <c r="G16" s="205"/>
+      <c r="H16" s="205"/>
+      <c r="I16" s="205"/>
+      <c r="J16" s="205"/>
+      <c r="K16" s="205"/>
+      <c r="L16" s="205"/>
+      <c r="M16" s="215"/>
+      <c r="N16" s="205" t="s">
+        <v>104</v>
+      </c>
+      <c r="O16" s="205"/>
+      <c r="P16" s="205"/>
+      <c r="Q16" s="205"/>
+      <c r="R16" s="205"/>
+      <c r="S16" s="205"/>
+      <c r="T16" s="216"/>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" s="215"/>
+      <c r="B17" s="205"/>
+      <c r="C17" s="205"/>
+      <c r="D17" s="205"/>
+      <c r="E17" s="205"/>
+      <c r="F17" s="205"/>
+      <c r="G17" s="205"/>
+      <c r="H17" s="205"/>
+      <c r="I17" s="205"/>
+      <c r="J17" s="205"/>
+      <c r="K17" s="205"/>
+      <c r="L17" s="205"/>
+      <c r="M17" s="215"/>
+      <c r="N17" s="205"/>
+      <c r="O17" s="205"/>
+      <c r="P17" s="205"/>
+      <c r="Q17" s="205"/>
+      <c r="R17" s="205"/>
+      <c r="S17" s="205"/>
+      <c r="T17" s="216"/>
+    </row>
+    <row r="18" spans="1:20">
+      <c r="A18" s="215"/>
+      <c r="B18" s="205"/>
+      <c r="C18" s="205"/>
+      <c r="D18" s="205"/>
+      <c r="E18" s="205"/>
+      <c r="F18" s="205"/>
+      <c r="G18" s="205"/>
+      <c r="H18" s="205"/>
+      <c r="I18" s="205"/>
+      <c r="J18" s="205"/>
+      <c r="K18" s="205"/>
+      <c r="L18" s="205"/>
+      <c r="M18" s="215"/>
+      <c r="N18" s="205"/>
+      <c r="O18" s="205"/>
+      <c r="P18" s="205"/>
+      <c r="Q18" s="205"/>
+      <c r="R18" s="205"/>
+      <c r="S18" s="205"/>
+      <c r="T18" s="216"/>
+    </row>
+    <row r="19" spans="1:20">
+      <c r="A19" s="215"/>
+      <c r="B19" s="205"/>
+      <c r="C19" s="205"/>
+      <c r="D19" s="205"/>
+      <c r="E19" s="205"/>
+      <c r="F19" s="205"/>
+      <c r="G19" s="205"/>
+      <c r="H19" s="205"/>
+      <c r="I19" s="205"/>
+      <c r="J19" s="205"/>
+      <c r="K19" s="205"/>
+      <c r="L19" s="205"/>
+      <c r="M19" s="215"/>
+      <c r="N19" s="205"/>
+      <c r="O19" s="205"/>
+      <c r="P19" s="205"/>
+      <c r="Q19" s="205"/>
+      <c r="R19" s="205"/>
+      <c r="S19" s="205"/>
+      <c r="T19" s="216"/>
+    </row>
+    <row r="20" spans="1:20">
+      <c r="A20" s="215"/>
+      <c r="B20" s="205"/>
+      <c r="C20" s="205"/>
+      <c r="D20" s="205"/>
+      <c r="E20" s="205"/>
+      <c r="F20" s="205"/>
+      <c r="G20" s="205"/>
+      <c r="H20" s="205"/>
+      <c r="I20" s="205"/>
+      <c r="J20" s="205"/>
+      <c r="K20" s="205"/>
+      <c r="L20" s="205"/>
+      <c r="M20" s="215"/>
+      <c r="N20" s="205"/>
+      <c r="O20" s="205"/>
+      <c r="P20" s="205"/>
+      <c r="Q20" s="205"/>
+      <c r="R20" s="205"/>
+      <c r="S20" s="205"/>
+      <c r="T20" s="216"/>
+    </row>
+    <row r="21" spans="1:20">
+      <c r="A21" s="215"/>
+      <c r="B21" s="205"/>
+      <c r="C21" s="205"/>
+      <c r="D21" s="205"/>
+      <c r="E21" s="205"/>
+      <c r="F21" s="205"/>
+      <c r="G21" s="205"/>
+      <c r="H21" s="205"/>
+      <c r="I21" s="205"/>
+      <c r="J21" s="205"/>
+      <c r="K21" s="205"/>
+      <c r="L21" s="205"/>
+      <c r="M21" s="215"/>
+      <c r="N21" s="205"/>
+      <c r="O21" s="205"/>
+      <c r="P21" s="205"/>
+      <c r="Q21" s="205"/>
+      <c r="R21" s="205"/>
+      <c r="S21" s="205"/>
+      <c r="T21" s="216"/>
+    </row>
+    <row r="22" spans="1:20">
+      <c r="A22" s="215"/>
+      <c r="B22" s="205"/>
+      <c r="C22" s="205"/>
+      <c r="D22" s="205"/>
+      <c r="E22" s="205"/>
+      <c r="F22" s="205"/>
+      <c r="G22" s="205"/>
+      <c r="H22" s="205"/>
+      <c r="I22" s="205"/>
+      <c r="J22" s="205"/>
+      <c r="K22" s="205"/>
+      <c r="L22" s="205"/>
+      <c r="M22" s="215"/>
+      <c r="N22" s="205"/>
+      <c r="O22" s="205"/>
+      <c r="P22" s="205"/>
+      <c r="Q22" s="205"/>
+      <c r="R22" s="205"/>
+      <c r="S22" s="205"/>
+      <c r="T22" s="216"/>
+    </row>
+    <row r="23" spans="1:20">
+      <c r="A23" s="215"/>
+      <c r="B23" s="205"/>
+      <c r="C23" s="205"/>
+      <c r="D23" s="205"/>
+      <c r="E23" s="205"/>
+      <c r="F23" s="205"/>
+      <c r="G23" s="205"/>
+      <c r="H23" s="205"/>
+      <c r="I23" s="205"/>
+      <c r="J23" s="205"/>
+      <c r="K23" s="205"/>
+      <c r="L23" s="205"/>
+      <c r="M23" s="215"/>
+      <c r="N23" s="205"/>
+      <c r="O23" s="205"/>
+      <c r="P23" s="205"/>
+      <c r="Q23" s="205"/>
+      <c r="R23" s="205"/>
+      <c r="S23" s="205"/>
+      <c r="T23" s="216"/>
+    </row>
+    <row r="24" spans="1:20">
+      <c r="A24" s="215"/>
+      <c r="B24" s="205"/>
+      <c r="C24" s="205"/>
+      <c r="D24" s="205"/>
+      <c r="E24" s="205"/>
+      <c r="F24" s="205"/>
+      <c r="G24" s="205"/>
+      <c r="H24" s="205"/>
+      <c r="I24" s="205"/>
+      <c r="J24" s="205"/>
+      <c r="K24" s="205"/>
+      <c r="L24" s="205"/>
+      <c r="M24" s="215"/>
+      <c r="N24" s="205"/>
+      <c r="O24" s="205"/>
+      <c r="P24" s="205"/>
+      <c r="Q24" s="205"/>
+      <c r="R24" s="205"/>
+      <c r="S24" s="205"/>
+      <c r="T24" s="216"/>
+    </row>
+    <row r="25" spans="1:20">
+      <c r="A25" s="215"/>
+      <c r="B25" s="205"/>
+      <c r="C25" s="205"/>
+      <c r="D25" s="205"/>
+      <c r="E25" s="205"/>
+      <c r="F25" s="205"/>
+      <c r="G25" s="205"/>
+      <c r="H25" s="205"/>
+      <c r="I25" s="205"/>
+      <c r="J25" s="205"/>
+      <c r="K25" s="205"/>
+      <c r="L25" s="205"/>
+      <c r="M25" s="215"/>
+      <c r="N25" s="205"/>
+      <c r="O25" s="205"/>
+      <c r="P25" s="205"/>
+      <c r="Q25" s="205"/>
+      <c r="R25" s="205"/>
+      <c r="S25" s="205"/>
+      <c r="T25" s="216"/>
+    </row>
+    <row r="26" spans="1:20">
+      <c r="A26" s="215"/>
+      <c r="B26" s="205"/>
+      <c r="C26" s="205"/>
+      <c r="D26" s="205"/>
+      <c r="E26" s="205"/>
+      <c r="F26" s="205"/>
+      <c r="G26" s="205"/>
+      <c r="H26" s="205"/>
+      <c r="I26" s="205"/>
+      <c r="J26" s="205"/>
+      <c r="K26" s="205"/>
+      <c r="L26" s="205"/>
+      <c r="M26" s="215"/>
+      <c r="N26" s="205"/>
+      <c r="O26" s="205"/>
+      <c r="P26" s="205"/>
+      <c r="Q26" s="205"/>
+      <c r="R26" s="205"/>
+      <c r="S26" s="205"/>
+      <c r="T26" s="216"/>
+    </row>
+    <row r="27" spans="1:20">
+      <c r="A27" s="215"/>
+      <c r="B27" s="205"/>
+      <c r="C27" s="205"/>
+      <c r="D27" s="205"/>
+      <c r="E27" s="205"/>
+      <c r="F27" s="205"/>
+      <c r="G27" s="205"/>
+      <c r="H27" s="205"/>
+      <c r="I27" s="205"/>
+      <c r="J27" s="205"/>
+      <c r="K27" s="205"/>
+      <c r="L27" s="205"/>
+      <c r="M27" s="215"/>
+      <c r="N27" s="205"/>
+      <c r="O27" s="205"/>
+      <c r="P27" s="205"/>
+      <c r="Q27" s="205"/>
+      <c r="R27" s="205"/>
+      <c r="S27" s="205"/>
+      <c r="T27" s="216"/>
+    </row>
+    <row r="28" spans="1:20">
+      <c r="A28" s="215"/>
+      <c r="B28" s="205"/>
+      <c r="C28" s="205"/>
+      <c r="D28" s="205"/>
+      <c r="E28" s="205"/>
+      <c r="F28" s="205"/>
+      <c r="G28" s="205"/>
+      <c r="H28" s="205"/>
+      <c r="I28" s="205"/>
+      <c r="J28" s="205"/>
+      <c r="K28" s="205"/>
+      <c r="L28" s="205"/>
+      <c r="M28" s="215"/>
+      <c r="N28" s="205"/>
+      <c r="O28" s="205"/>
+      <c r="P28" s="205"/>
+      <c r="Q28" s="205"/>
+      <c r="R28" s="205"/>
+      <c r="S28" s="205"/>
+      <c r="T28" s="216"/>
+    </row>
+    <row r="29" spans="1:20">
+      <c r="A29" s="217"/>
+      <c r="B29" s="203"/>
+      <c r="C29" s="203"/>
+      <c r="D29" s="203"/>
+      <c r="E29" s="203"/>
+      <c r="F29" s="203"/>
+      <c r="G29" s="203"/>
+      <c r="H29" s="203"/>
+      <c r="I29" s="203"/>
+      <c r="J29" s="203"/>
+      <c r="K29" s="203"/>
+      <c r="L29" s="203"/>
+      <c r="M29" s="217"/>
+      <c r="N29" s="203"/>
+      <c r="O29" s="203"/>
+      <c r="P29" s="203"/>
+      <c r="Q29" s="203"/>
+      <c r="R29" s="203"/>
+      <c r="S29" s="203"/>
+      <c r="T29" s="200"/>
+    </row>
+    <row r="30" spans="1:20">
+      <c r="A30" s="218" t="s">
+        <v>105</v>
+      </c>
+      <c r="B30" s="219"/>
+      <c r="C30" s="220"/>
+      <c r="D30" s="220"/>
+      <c r="E30" s="220"/>
+      <c r="F30" s="220"/>
+      <c r="G30" s="220"/>
+      <c r="H30" s="220"/>
+      <c r="I30" s="220"/>
+      <c r="J30" s="220"/>
+      <c r="K30" s="220"/>
+      <c r="L30" s="220"/>
+      <c r="M30" s="220"/>
+      <c r="N30" s="220"/>
+      <c r="O30" s="220"/>
+      <c r="P30" s="220"/>
+      <c r="Q30" s="220"/>
+      <c r="R30" s="220"/>
+      <c r="S30" s="220"/>
+      <c r="T30" s="221"/>
+    </row>
+    <row r="31" spans="1:20">
+      <c r="A31" s="222" t="s">
+        <v>106</v>
+      </c>
+      <c r="B31" s="223" t="s">
+        <v>107</v>
+      </c>
+      <c r="C31" s="224"/>
+      <c r="D31" s="224" t="s">
+        <v>108</v>
+      </c>
+      <c r="E31" s="225" t="s">
+        <v>109</v>
+      </c>
+      <c r="F31" s="226"/>
+      <c r="G31" s="222" t="s">
+        <v>110</v>
+      </c>
+      <c r="H31" s="224" t="s">
+        <v>111</v>
+      </c>
+      <c r="I31" s="223" t="s">
+        <v>112</v>
+      </c>
+      <c r="J31" s="227" t="s">
+        <v>113</v>
+      </c>
+      <c r="K31" s="227" t="s">
+        <v>114</v>
+      </c>
+      <c r="L31" s="227" t="s">
+        <v>65</v>
+      </c>
+      <c r="M31" s="224"/>
+      <c r="N31" s="223" t="s">
+        <v>66</v>
+      </c>
+      <c r="O31" s="224"/>
+      <c r="P31" s="223" t="s">
+        <v>115</v>
+      </c>
+      <c r="Q31" s="223"/>
+      <c r="R31" s="223"/>
+      <c r="S31" s="223"/>
+      <c r="T31" s="224"/>
+    </row>
+    <row r="32" spans="1:20">
+      <c r="A32" s="228" t="s">
+        <v>116</v>
+      </c>
+      <c r="B32" s="209" t="s">
+        <v>117</v>
+      </c>
+      <c r="C32" s="207"/>
+      <c r="D32" s="229" t="s">
+        <v>118</v>
+      </c>
+      <c r="E32" s="209" t="s">
+        <v>119</v>
+      </c>
+      <c r="F32" s="206"/>
+      <c r="G32" s="228" t="s">
+        <v>120</v>
+      </c>
+      <c r="H32" s="229" t="s">
+        <v>120</v>
+      </c>
+      <c r="I32" s="229" t="s">
+        <v>120</v>
+      </c>
+      <c r="J32" s="229" t="s">
+        <v>120</v>
+      </c>
+      <c r="K32" s="229" t="s">
+        <v>120</v>
+      </c>
+      <c r="L32" s="229" t="s">
+        <v>120</v>
+      </c>
+      <c r="M32" s="229" t="s">
+        <v>120</v>
+      </c>
+      <c r="N32" s="229" t="s">
+        <v>120</v>
+      </c>
+      <c r="O32" s="229" t="s">
+        <v>120</v>
+      </c>
+      <c r="P32" s="230" t="s">
+        <v>121</v>
+      </c>
+      <c r="Q32" s="201"/>
+      <c r="R32" s="201"/>
+      <c r="S32" s="201"/>
+      <c r="T32" s="231"/>
+    </row>
+    <row r="33" spans="1:20">
+      <c r="A33" s="228" t="s">
+        <v>122</v>
+      </c>
+      <c r="B33" s="209" t="s">
+        <v>123</v>
+      </c>
+      <c r="C33" s="207"/>
+      <c r="D33" s="229" t="s">
+        <v>118</v>
+      </c>
+      <c r="E33" s="209" t="s">
+        <v>119</v>
+      </c>
+      <c r="F33" s="206"/>
+      <c r="G33" s="228" t="s">
+        <v>120</v>
+      </c>
+      <c r="H33" s="229" t="s">
+        <v>120</v>
+      </c>
+      <c r="I33" s="229" t="s">
+        <v>120</v>
+      </c>
+      <c r="J33" s="229" t="s">
+        <v>120</v>
+      </c>
+      <c r="K33" s="229" t="s">
+        <v>120</v>
+      </c>
+      <c r="L33" s="229" t="s">
+        <v>120</v>
+      </c>
+      <c r="M33" s="229" t="s">
+        <v>120</v>
+      </c>
+      <c r="N33" s="229" t="s">
+        <v>120</v>
+      </c>
+      <c r="O33" s="229" t="s">
+        <v>120</v>
+      </c>
+      <c r="P33" s="230" t="s">
+        <v>124</v>
+      </c>
+      <c r="Q33" s="201"/>
+      <c r="R33" s="201"/>
+      <c r="S33" s="201"/>
+      <c r="T33" s="232"/>
+    </row>
+    <row r="34" spans="1:20">
+      <c r="A34" s="228" t="s">
+        <v>125</v>
+      </c>
+      <c r="B34" s="209" t="s">
+        <v>126</v>
+      </c>
+      <c r="C34" s="207"/>
+      <c r="D34" s="229"/>
+      <c r="E34" s="203" t="s">
+        <v>127</v>
+      </c>
+      <c r="F34" s="203"/>
+      <c r="G34" s="228" t="s">
+        <v>120</v>
+      </c>
+      <c r="H34" s="229" t="s">
+        <v>120</v>
+      </c>
+      <c r="I34" s="229" t="s">
+        <v>120</v>
+      </c>
+      <c r="J34" s="229" t="s">
+        <v>120</v>
+      </c>
+      <c r="K34" s="229" t="s">
+        <v>120</v>
+      </c>
+      <c r="L34" s="229" t="s">
+        <v>120</v>
+      </c>
+      <c r="M34" s="229" t="s">
+        <v>120</v>
+      </c>
+      <c r="N34" s="229" t="s">
+        <v>120</v>
+      </c>
+      <c r="O34" s="229" t="s">
+        <v>120</v>
+      </c>
+      <c r="P34" s="230" t="s">
+        <v>128</v>
+      </c>
+      <c r="Q34" s="201"/>
+      <c r="R34" s="201"/>
+      <c r="S34" s="202"/>
+      <c r="T34" s="232"/>
+    </row>
+    <row r="35" spans="1:20">
+      <c r="A35" s="228" t="s">
+        <v>129</v>
+      </c>
+      <c r="B35" s="209" t="s">
+        <v>130</v>
+      </c>
+      <c r="C35" s="207"/>
+      <c r="D35" s="229"/>
+      <c r="E35" s="203" t="s">
+        <v>127</v>
+      </c>
+      <c r="F35" s="203"/>
+      <c r="G35" s="228" t="s">
+        <v>120</v>
+      </c>
+      <c r="H35" s="229" t="s">
+        <v>120</v>
+      </c>
+      <c r="I35" s="229" t="s">
+        <v>120</v>
+      </c>
+      <c r="J35" s="229" t="s">
+        <v>120</v>
+      </c>
+      <c r="K35" s="229" t="s">
+        <v>120</v>
+      </c>
+      <c r="L35" s="229" t="s">
+        <v>120</v>
+      </c>
+      <c r="M35" s="229" t="s">
+        <v>120</v>
+      </c>
+      <c r="N35" s="229" t="s">
+        <v>120</v>
+      </c>
+      <c r="O35" s="229" t="s">
+        <v>120</v>
+      </c>
+      <c r="P35" s="230" t="s">
+        <v>131</v>
+      </c>
+      <c r="Q35" s="201"/>
+      <c r="R35" s="201"/>
+      <c r="S35" s="201"/>
+      <c r="T35" s="232"/>
+    </row>
+    <row r="36" spans="1:20">
+      <c r="A36" s="228"/>
+      <c r="B36" s="203"/>
+      <c r="C36" s="200"/>
+      <c r="D36" s="229"/>
+      <c r="E36" s="203"/>
+      <c r="F36" s="203"/>
+      <c r="G36" s="228"/>
+      <c r="H36" s="229"/>
+      <c r="I36" s="229"/>
+      <c r="J36" s="229"/>
+      <c r="K36" s="233"/>
+      <c r="L36" s="234"/>
+      <c r="M36" s="232"/>
+      <c r="N36" s="202"/>
+      <c r="O36" s="232"/>
+      <c r="P36" s="202"/>
+      <c r="Q36" s="202"/>
+      <c r="R36" s="202"/>
+      <c r="S36" s="202"/>
+      <c r="T36" s="232"/>
+    </row>
+    <row r="37" spans="1:20">
+      <c r="A37" s="228"/>
+      <c r="B37" s="203"/>
+      <c r="C37" s="200"/>
+      <c r="D37" s="229"/>
+      <c r="E37" s="203"/>
+      <c r="F37" s="203"/>
+      <c r="G37" s="228"/>
+      <c r="H37" s="229"/>
+      <c r="I37" s="229"/>
+      <c r="J37" s="229"/>
+      <c r="K37" s="233"/>
+      <c r="L37" s="234"/>
+      <c r="M37" s="232"/>
+      <c r="N37" s="202"/>
+      <c r="O37" s="232"/>
+      <c r="P37" s="202"/>
+      <c r="Q37" s="202"/>
+      <c r="R37" s="202"/>
+      <c r="S37" s="202"/>
+      <c r="T37" s="232"/>
+    </row>
+    <row r="38" spans="1:20">
+      <c r="A38" s="228"/>
+      <c r="B38" s="203"/>
+      <c r="C38" s="200"/>
+      <c r="D38" s="229"/>
+      <c r="E38" s="203"/>
+      <c r="F38" s="203"/>
+      <c r="G38" s="228"/>
+      <c r="H38" s="229"/>
+      <c r="I38" s="229"/>
+      <c r="J38" s="229"/>
+      <c r="K38" s="233"/>
+      <c r="L38" s="234"/>
+      <c r="M38" s="232"/>
+      <c r="N38" s="202"/>
+      <c r="O38" s="232"/>
+      <c r="P38" s="202"/>
+      <c r="Q38" s="202"/>
+      <c r="R38" s="202"/>
+      <c r="S38" s="202"/>
+      <c r="T38" s="232"/>
+    </row>
+  </sheetData>
+  <mergeCells count="15">
+    <mergeCell ref="A5:B7"/>
+    <mergeCell ref="D5:K5"/>
+    <mergeCell ref="Q5:R5"/>
+    <mergeCell ref="D6:E6"/>
+    <mergeCell ref="F6:G6"/>
+    <mergeCell ref="Q7:R7"/>
+    <mergeCell ref="A1:T1"/>
+    <mergeCell ref="A2:B4"/>
+    <mergeCell ref="D2:K2"/>
+    <mergeCell ref="Q2:R2"/>
+    <mergeCell ref="D3:K3"/>
+    <mergeCell ref="Q3:R3"/>
+    <mergeCell ref="S3:T3"/>
+    <mergeCell ref="D4:K4"/>
+    <mergeCell ref="Q4:R4"/>
+  </mergeCells>
+  <phoneticPr fontId="3"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="ドキュメント" ma:contentTypeID="0x0101004898E95636345E4BA9B7207E304FF02A" ma:contentTypeVersion="2" ma:contentTypeDescription="新しいドキュメントを作成します。" ma:contentTypeScope="" ma:versionID="e6657f86184e1adae710471a336ec2c4">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="b2741836-0272-4e3d-8a51-652512547cb8" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="d912bc3cb6261775c946887a713654e5" ns2:_="">
     <xsd:import namespace="b2741836-0272-4e3d-8a51-652512547cb8"/>
@@ -20604,24 +26308,22 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3FDCC704-205F-4C5B-9088-5EACD9F142A9}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{89594FAD-DF06-408B-9A6A-7BEE91B4DB24}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E33909B5-25CC-4867-9A29-2DCE8D35E477}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -20637,4 +26339,21 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{89594FAD-DF06-408B-9A6A-7BEE91B4DB24}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3FDCC704-205F-4C5B-9088-5EACD9F142A9}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/document/01_画面設計書.xlsx
+++ b/document/01_画面設計書.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dorae/Develop/school_develop_1/document/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{434D8331-43CD-5847-A766-7547CCF785E5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA4F2C39-8D8B-9B4F-929B-A7A980DF8F7D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="740" windowWidth="29400" windowHeight="17040" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="740" windowWidth="29400" windowHeight="17040" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="表紙" sheetId="3" r:id="rId1"/>
@@ -20,8 +20,7 @@
     <sheet name="画面遷移図 (2)" sheetId="76" r:id="rId5"/>
     <sheet name="(Gxx)PC画面フォーム" sheetId="72" r:id="rId6"/>
     <sheet name="(Gxx)モバイル画面フォーム" sheetId="73" r:id="rId7"/>
-    <sheet name="sample" sheetId="77" r:id="rId8"/>
-    <sheet name="G6-1" sheetId="78" r:id="rId9"/>
+    <sheet name="G6-1" sheetId="78" r:id="rId8"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm.Print_Area" localSheetId="5">'(Gxx)PC画面フォーム'!$A$1:$T$38</definedName>
@@ -108,7 +107,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="332" uniqueCount="133">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="267" uniqueCount="155">
   <si>
     <t>作成日</t>
     <rPh sb="0" eb="3">
@@ -756,9 +755,6 @@
     <t>作成者</t>
   </si>
   <si>
-    <t>野中流斗</t>
-  </si>
-  <si>
     <t>工程名</t>
   </si>
   <si>
@@ -905,6 +901,115 @@
       <t>ウエ</t>
     </rPh>
     <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>しちゃっく</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>野中</t>
+    <rPh sb="0" eb="2">
+      <t>ノナカ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>システム設計</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>しちゃっく　画面レイアウト</t>
+    <rPh sb="6" eb="8">
+      <t>ガメンル</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>M-1-1</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>ログイン画面</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>ログインしてホーム画面に遷移する画面。</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>-</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>テキスト（メール）</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>メールアドレスを入力する</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>テキスト（パスワード）</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>パスワードを入力する</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>ログイン</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>ボタン</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>メールアドレスとパスワードがあっていればログインしホーム画面に遷移</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>会員登録</t>
+    <rPh sb="0" eb="4">
+      <t>カイイn</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>会員登録フォームに遷移</t>
+    <rPh sb="0" eb="4">
+      <t>カイイn</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>エラーメッセージ</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>メールアドレス、パスワードが間違っています。</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>エラーを表示</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>メールアドレスとパスワードを入力しログインする</t>
+    <rPh sb="14" eb="16">
+      <t>メールアドレストパスワードヲニュウリョク</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>ログイン時に保存されている情報と相違があった場合、</t>
+    <rPh sb="22" eb="24">
+      <t>ログインジニホゾ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>エラーメッセージを表示する</t>
   </si>
 </sst>
 </file>
@@ -1366,7 +1471,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="254">
+  <cellXfs count="255">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="4" applyFont="1"/>
@@ -2059,6 +2164,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="25" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -12493,33 +12601,25 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>546100</xdr:colOff>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
       <xdr:row>8</xdr:row>
-      <xdr:rowOff>88900</xdr:rowOff>
+      <xdr:rowOff>12700</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>546100</xdr:colOff>
-      <xdr:row>28</xdr:row>
-      <xdr:rowOff>77391</xdr:rowOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>647700</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="図 1">
+        <xdr:cNvPr id="5" name="図 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0ED3B2BD-BA7A-ADE7-2526-085372F0F6D4}"/>
-            </a:ext>
-            <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
-              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{E9B53DC1-7B20-431A-A054-98CFF993FC02}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8F41710A-225B-5547-AC9C-11C8E34A44F3}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -12535,8 +12635,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2197100" y="1524000"/>
-          <a:ext cx="4953000" cy="3544491"/>
+          <a:off x="0" y="1536700"/>
+          <a:ext cx="3619500" cy="7759700"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -12545,28 +12645,28 @@
     </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
+  <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>114300</xdr:colOff>
-      <xdr:row>13</xdr:row>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>368300</xdr:colOff>
+      <xdr:row>20</xdr:row>
       <xdr:rowOff>127000</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>257175</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>41275</xdr:rowOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>279400</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="3" name="四角形 8">
+        <xdr:cNvPr id="6" name="四角形 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C28CC1F3-A2E8-45E5-A3BF-D42A026D5A83}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C62AAEA3-3D46-ED41-8C29-D0291F2F2CB6}"/>
             </a:ext>
             <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
-              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{0ED3B2BD-BA7A-ADE7-2526-085372F0F6D4}"/>
+              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{673554EA-DC85-1399-9984-2AFD890111C6}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -12574,8 +12674,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3416300" y="2451100"/>
-          <a:ext cx="2619375" cy="447675"/>
+          <a:off x="368300" y="3937000"/>
+          <a:ext cx="2882900" cy="482600"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -12699,100 +12799,34 @@
           </a:lvl9pPr>
         </a:lstStyle>
         <a:p>
-          <a:pPr marL="0" indent="0"/>
-          <a:endParaRPr lang="en-US" sz="1100">
-            <a:solidFill>
-              <a:schemeClr val="lt1"/>
-            </a:solidFill>
-            <a:latin typeface="+mn-lt"/>
-            <a:ea typeface="+mn-lt"/>
-            <a:cs typeface="+mn-lt"/>
-          </a:endParaRPr>
+          <a:endParaRPr lang="ja-JP" altLang="en-US"/>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
+  <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>292100</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>393700</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>165100</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>256099</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>81357</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="4" name="直線コネクタ 3">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F60E3DE6-D874-4F15-92B7-7E3BA49F5545}"/>
-            </a:ext>
-            <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
-              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{C28CC1F3-A2E8-45E5-A3BF-D42A026D5A83}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm flipV="1">
-          <a:off x="6070600" y="2184400"/>
-          <a:ext cx="789499" cy="576657"/>
-        </a:xfrm>
-        <a:prstGeom prst="line">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln w="19050" cmpd="sng">
-          <a:solidFill>
-            <a:srgbClr val="FF0000"/>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>63500</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>25400</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>609624</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>67061</xdr:rowOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>292100</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>63500</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="5" name="四角形 11">
+        <xdr:cNvPr id="7" name="四角形 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2095A9A2-545E-45DA-A3E2-0CEA0EC7632B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{259A6B40-63A1-9147-8559-815581C486EC}"/>
             </a:ext>
             <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
-              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{F60E3DE6-D874-4F15-92B7-7E3BA49F5545}"/>
+              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{673554EA-DC85-1399-9984-2AFD890111C6}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -12800,173 +12834,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6667500" y="1816100"/>
-          <a:ext cx="546124" cy="575061"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln w="12700">
-          <a:noFill/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr rtlCol="0" anchor="ctr"/>
-        <a:lstStyle>
-          <a:lvl1pPr marL="0" indent="0">
-            <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl1pPr>
-          <a:lvl2pPr marL="457200" indent="0">
-            <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl2pPr>
-          <a:lvl3pPr marL="914400" indent="0">
-            <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl3pPr>
-          <a:lvl4pPr marL="1371600" indent="0">
-            <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl4pPr>
-          <a:lvl5pPr marL="1828800" indent="0">
-            <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl5pPr>
-          <a:lvl6pPr marL="2286000" indent="0">
-            <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl6pPr>
-          <a:lvl7pPr marL="2743200" indent="0">
-            <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl7pPr>
-          <a:lvl8pPr marL="3200400" indent="0">
-            <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl8pPr>
-          <a:lvl9pPr marL="3657600" indent="0">
-            <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl9pPr>
-        </a:lstStyle>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2000" b="1">
-              <a:solidFill>
-                <a:srgbClr val="FF0000"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>①</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>101600</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>215900</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="6" name="四角形 15">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{132277A0-1663-4024-93BA-69707A28E990}"/>
-            </a:ext>
-            <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
-              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{2095A9A2-545E-45DA-A3E2-0CEA0EC7632B}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="3403600" y="3009900"/>
-          <a:ext cx="2590800" cy="400050"/>
+          <a:off x="393700" y="4927600"/>
+          <a:ext cx="2870200" cy="469900"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -13096,86 +12965,28 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
+  <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>228600</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>127000</xdr:rowOff>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>368300</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>192599</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>170257</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="7" name="直線コネクタ 6">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F161B678-E64C-4954-93A4-424BE35FA8AC}"/>
-            </a:ext>
-            <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
-              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{132277A0-1663-4024-93BA-69707A28E990}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm flipV="1">
-          <a:off x="6007100" y="2628900"/>
-          <a:ext cx="789499" cy="576657"/>
-        </a:xfrm>
-        <a:prstGeom prst="line">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln w="19050" cmpd="sng">
-          <a:solidFill>
-            <a:srgbClr val="FF0000"/>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>127000</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>127000</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>146050</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
+      <xdr:colOff>317500</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="8" name="四角形 29">
+        <xdr:cNvPr id="8" name="四角形 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{94E4614B-F2ED-45C1-97C2-98573290A6B8}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B1E5CA51-688E-E149-87AE-252DE003710E}"/>
             </a:ext>
             <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
-              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{F161B678-E64C-4954-93A4-424BE35FA8AC}"/>
+              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{673554EA-DC85-1399-9984-2AFD890111C6}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -13183,8 +12994,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3429000" y="3517900"/>
-          <a:ext cx="2495550" cy="381000"/>
+          <a:off x="368300" y="5803900"/>
+          <a:ext cx="2921000" cy="533400"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -13314,28 +13125,28 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
+  <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>88900</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>342900</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>127000</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>107950</xdr:colOff>
-      <xdr:row>27</xdr:row>
-      <xdr:rowOff>63500</xdr:rowOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>317500</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>139700</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="9" name="四角形 6">
+        <xdr:cNvPr id="9" name="四角形 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1E56E5F2-849F-4CFB-A36C-59B32E6D2275}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{53D93152-CA9B-0044-B3C2-E36304559E31}"/>
             </a:ext>
             <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
-              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{94E4614B-F2ED-45C1-97C2-98573290A6B8}"/>
+              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{673554EA-DC85-1399-9984-2AFD890111C6}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -13343,8 +13154,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3390900" y="4495800"/>
-          <a:ext cx="2495550" cy="381000"/>
+          <a:off x="342900" y="7366000"/>
+          <a:ext cx="2946400" cy="584200"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -13474,37 +13285,39 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
+  <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>203200</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>266700</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>165100</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>167199</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>43257</xdr:rowOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>660400</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
         <xdr:cNvPr id="10" name="直線コネクタ 9">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{801B4EE0-9285-4F5A-A530-73309E300B8A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F99D3B2F-25BC-F04B-BA6A-008A8E5B31DB}"/>
             </a:ext>
             <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
-              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{1E56E5F2-849F-4CFB-A36C-59B32E6D2275}"/>
+              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{55A7D8D0-1088-47E9-B287-7E9BE2CEF35E}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
-        <xdr:cNvCxnSpPr/>
+        <xdr:cNvCxnSpPr>
+          <a:cxnSpLocks/>
+        </xdr:cNvCxnSpPr>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
-        <a:xfrm flipV="1">
-          <a:off x="5981700" y="3213100"/>
-          <a:ext cx="789499" cy="576657"/>
+        <a:xfrm>
+          <a:off x="3238500" y="3975100"/>
+          <a:ext cx="393700" cy="228600"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -13532,37 +13345,39 @@
     </xdr:cxnSp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
+  <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>127000</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>50800</xdr:rowOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>266700</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>90999</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>94057</xdr:rowOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>25400</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>165100</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
         <xdr:cNvPr id="11" name="直線コネクタ 10">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AEB07FD8-A439-479A-8F27-4F46FFCDC3A7}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{92D24496-A2C4-E344-B304-0A483EA1E480}"/>
             </a:ext>
             <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
-              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{801B4EE0-9285-4F5A-A530-73309E300B8A}"/>
+              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{55A7D8D0-1088-47E9-B287-7E9BE2CEF35E}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
-        <xdr:cNvCxnSpPr/>
+        <xdr:cNvCxnSpPr>
+          <a:cxnSpLocks/>
+        </xdr:cNvCxnSpPr>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
-        <a:xfrm flipV="1">
-          <a:off x="5905500" y="4152900"/>
-          <a:ext cx="789499" cy="576657"/>
+        <a:xfrm>
+          <a:off x="3238500" y="5803900"/>
+          <a:ext cx="431800" cy="50800"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -13590,70 +13405,177 @@
     </xdr:cxnSp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
+  <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>25400</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>279400</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>571524</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>16261</xdr:rowOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>63500</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="12" name="四角形 4">
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="12" name="直線コネクタ 11">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EC438E9C-6F0A-4C8C-B55A-CC4824F2D3DF}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4B1A60D1-536B-854D-A6AA-35BADB985603}"/>
             </a:ext>
             <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
-              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{AEB07FD8-A439-479A-8F27-4F46FFCDC3A7}"/>
+              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{55A7D8D0-1088-47E9-B287-7E9BE2CEF35E}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
+        <xdr:cNvCxnSpPr>
+          <a:cxnSpLocks/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6629400" y="2298700"/>
-          <a:ext cx="546124" cy="575061"/>
+          <a:off x="3251200" y="4965700"/>
+          <a:ext cx="431800" cy="50800"/>
         </a:xfrm>
-        <a:prstGeom prst="rect">
+        <a:prstGeom prst="line">
           <a:avLst/>
         </a:prstGeom>
-        <a:noFill/>
-        <a:ln w="12700">
-          <a:noFill/>
+        <a:ln w="19050" cmpd="sng">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
         </a:ln>
       </xdr:spPr>
       <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
         </a:lnRef>
-        <a:fillRef idx="1">
+        <a:fillRef idx="0">
           <a:schemeClr val="accent1"/>
         </a:fillRef>
         <a:effectRef idx="0">
           <a:schemeClr val="accent1"/>
         </a:effectRef>
         <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
+          <a:schemeClr val="tx1"/>
         </a:fontRef>
       </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>165100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="13" name="直線コネクタ 12">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E7E8A431-D084-CE45-8E5F-B42B398AC6F3}"/>
+            </a:ext>
+            <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
+              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{55A7D8D0-1088-47E9-B287-7E9BE2CEF35E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:cxnSpLocks/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="3276600" y="7404100"/>
+          <a:ext cx="406400" cy="25400"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="19050" cmpd="sng">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>520700</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>50800</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>266700</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>50800</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="15" name="テキスト ボックス 14">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7F25216C-873A-4A4B-8E97-3A49A8A4B454}"/>
+            </a:ext>
+            <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
+              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{038AAD56-1B54-4A2A-883B-499D8F8BF8BA}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3492500" y="4051300"/>
+          <a:ext cx="419100" cy="381000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
       <xdr:txBody>
-        <a:bodyPr rtlCol="0" anchor="ctr"/>
+        <a:bodyPr spcFirstLastPara="0" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" rtlCol="0" anchor="t">
+          <a:noAutofit/>
+        </a:bodyPr>
         <a:lstStyle>
           <a:lvl1pPr marL="0" indent="0">
             <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
               <a:latin typeface="+mn-lt"/>
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="+mn-cs"/>
@@ -13661,9 +13583,6 @@
           </a:lvl1pPr>
           <a:lvl2pPr marL="457200" indent="0">
             <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
               <a:latin typeface="+mn-lt"/>
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="+mn-cs"/>
@@ -13671,9 +13590,6 @@
           </a:lvl2pPr>
           <a:lvl3pPr marL="914400" indent="0">
             <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
               <a:latin typeface="+mn-lt"/>
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="+mn-cs"/>
@@ -13681,9 +13597,6 @@
           </a:lvl3pPr>
           <a:lvl4pPr marL="1371600" indent="0">
             <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
               <a:latin typeface="+mn-lt"/>
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="+mn-cs"/>
@@ -13691,9 +13604,6 @@
           </a:lvl4pPr>
           <a:lvl5pPr marL="1828800" indent="0">
             <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
               <a:latin typeface="+mn-lt"/>
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="+mn-cs"/>
@@ -13701,9 +13611,6 @@
           </a:lvl5pPr>
           <a:lvl6pPr marL="2286000" indent="0">
             <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
               <a:latin typeface="+mn-lt"/>
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="+mn-cs"/>
@@ -13711,9 +13618,6 @@
           </a:lvl6pPr>
           <a:lvl7pPr marL="2743200" indent="0">
             <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
               <a:latin typeface="+mn-lt"/>
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="+mn-cs"/>
@@ -13721,9 +13625,6 @@
           </a:lvl7pPr>
           <a:lvl8pPr marL="3200400" indent="0">
             <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
               <a:latin typeface="+mn-lt"/>
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="+mn-cs"/>
@@ -13731,9 +13632,6 @@
           </a:lvl8pPr>
           <a:lvl9pPr marL="3657600" indent="0">
             <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
               <a:latin typeface="+mn-lt"/>
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="+mn-cs"/>
@@ -13741,84 +13639,74 @@
           </a:lvl9pPr>
         </a:lstStyle>
         <a:p>
-          <a:pPr algn="ctr"/>
+          <a:pPr marL="0" indent="0" algn="l"/>
           <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2000" b="1">
+            <a:rPr lang="en-US" sz="2000" b="1">
               <a:solidFill>
                 <a:srgbClr val="FF0000"/>
               </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-lt"/>
+              <a:cs typeface="+mn-lt"/>
             </a:rPr>
-            <a:t>②</a:t>
+            <a:t>①</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
+  <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>812800</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>25400</xdr:rowOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>558800</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>165100</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>525046</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>67061</xdr:rowOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>165100</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="13" name="四角形 5">
+        <xdr:cNvPr id="17" name="テキスト ボックス 14">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00796423-FA91-451E-8159-C73D85ACC259}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BDBEC058-8B51-FE40-B1D4-B60D5721221D}"/>
             </a:ext>
             <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
-              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{EC438E9C-6F0A-4C8C-B55A-CC4824F2D3DF}"/>
+              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{038AAD56-1B54-4A2A-883B-499D8F8BF8BA}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
-        <xdr:cNvSpPr/>
+        <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6591300" y="2882900"/>
-          <a:ext cx="537746" cy="575061"/>
+          <a:off x="3530600" y="7213600"/>
+          <a:ext cx="419100" cy="381000"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
         <a:noFill/>
-        <a:ln w="12700">
-          <a:noFill/>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
         </a:ln>
       </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
       <xdr:txBody>
-        <a:bodyPr rtlCol="0" anchor="ctr"/>
+        <a:bodyPr spcFirstLastPara="0" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" rtlCol="0" anchor="t">
+          <a:noAutofit/>
+        </a:bodyPr>
         <a:lstStyle>
           <a:lvl1pPr marL="0" indent="0">
             <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
               <a:latin typeface="+mn-lt"/>
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="+mn-cs"/>
@@ -13826,9 +13714,6 @@
           </a:lvl1pPr>
           <a:lvl2pPr marL="457200" indent="0">
             <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
               <a:latin typeface="+mn-lt"/>
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="+mn-cs"/>
@@ -13836,9 +13721,6 @@
           </a:lvl2pPr>
           <a:lvl3pPr marL="914400" indent="0">
             <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
               <a:latin typeface="+mn-lt"/>
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="+mn-cs"/>
@@ -13846,9 +13728,6 @@
           </a:lvl3pPr>
           <a:lvl4pPr marL="1371600" indent="0">
             <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
               <a:latin typeface="+mn-lt"/>
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="+mn-cs"/>
@@ -13856,9 +13735,6 @@
           </a:lvl4pPr>
           <a:lvl5pPr marL="1828800" indent="0">
             <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
               <a:latin typeface="+mn-lt"/>
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="+mn-cs"/>
@@ -13866,9 +13742,6 @@
           </a:lvl5pPr>
           <a:lvl6pPr marL="2286000" indent="0">
             <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
               <a:latin typeface="+mn-lt"/>
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="+mn-cs"/>
@@ -13876,9 +13749,6 @@
           </a:lvl6pPr>
           <a:lvl7pPr marL="2743200" indent="0">
             <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
               <a:latin typeface="+mn-lt"/>
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="+mn-cs"/>
@@ -13886,9 +13756,6 @@
           </a:lvl7pPr>
           <a:lvl8pPr marL="3200400" indent="0">
             <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
               <a:latin typeface="+mn-lt"/>
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="+mn-cs"/>
@@ -13896,9 +13763,6 @@
           </a:lvl8pPr>
           <a:lvl9pPr marL="3657600" indent="0">
             <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
               <a:latin typeface="+mn-lt"/>
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="+mn-cs"/>
@@ -13906,12 +13770,146 @@
           </a:lvl9pPr>
         </a:lstStyle>
         <a:p>
-          <a:pPr algn="ctr"/>
+          <a:pPr marL="0" indent="0" algn="l"/>
           <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2000" b="1">
+            <a:rPr lang="en-US" sz="2000" b="1">
               <a:solidFill>
                 <a:srgbClr val="FF0000"/>
               </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-lt"/>
+              <a:cs typeface="+mn-lt"/>
+            </a:rPr>
+            <a:t>④</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>546100</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>25400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>292100</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>25400</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="18" name="テキスト ボックス 14">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{41BD5AEF-6FB5-FE46-9B0D-9988E8AC55A5}"/>
+            </a:ext>
+            <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
+              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{038AAD56-1B54-4A2A-883B-499D8F8BF8BA}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3517900" y="5715000"/>
+          <a:ext cx="419100" cy="355600"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr spcFirstLastPara="0" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" rtlCol="0" anchor="t">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle>
+          <a:lvl1pPr marL="0" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p>
+          <a:pPr marL="0" indent="0" algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="2000" b="1">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-lt"/>
+              <a:cs typeface="+mn-lt"/>
             </a:rPr>
             <a:t>③</a:t>
           </a:r>
@@ -13920,70 +13918,57 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
+  <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>749300</xdr:colOff>
-      <xdr:row>21</xdr:row>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>558800</xdr:colOff>
+      <xdr:row>25</xdr:row>
       <xdr:rowOff>88900</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>469924</xdr:colOff>
-      <xdr:row>24</xdr:row>
-      <xdr:rowOff>126328</xdr:rowOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>88900</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="14" name="四角形 6">
+        <xdr:cNvPr id="19" name="テキスト ボックス 14">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C3B191D6-D5A5-462B-8018-773B2F768DF8}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1EA12036-6440-7741-A5AF-4A03DB076C15}"/>
             </a:ext>
             <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
-              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{00796423-FA91-451E-8159-C73D85ACC259}"/>
+              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{038AAD56-1B54-4A2A-883B-499D8F8BF8BA}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
-        <xdr:cNvSpPr/>
+        <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6527800" y="3835400"/>
-          <a:ext cx="546124" cy="570828"/>
+          <a:off x="3530600" y="4851400"/>
+          <a:ext cx="419100" cy="381000"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
         <a:noFill/>
-        <a:ln w="12700">
-          <a:noFill/>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
         </a:ln>
       </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
       <xdr:txBody>
-        <a:bodyPr rtlCol="0" anchor="ctr"/>
+        <a:bodyPr spcFirstLastPara="0" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" rtlCol="0" anchor="t">
+          <a:noAutofit/>
+        </a:bodyPr>
         <a:lstStyle>
           <a:lvl1pPr marL="0" indent="0">
             <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
               <a:latin typeface="+mn-lt"/>
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="+mn-cs"/>
@@ -13991,9 +13976,6 @@
           </a:lvl1pPr>
           <a:lvl2pPr marL="457200" indent="0">
             <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
               <a:latin typeface="+mn-lt"/>
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="+mn-cs"/>
@@ -14001,9 +13983,6 @@
           </a:lvl2pPr>
           <a:lvl3pPr marL="914400" indent="0">
             <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
               <a:latin typeface="+mn-lt"/>
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="+mn-cs"/>
@@ -14011,9 +13990,6 @@
           </a:lvl3pPr>
           <a:lvl4pPr marL="1371600" indent="0">
             <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
               <a:latin typeface="+mn-lt"/>
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="+mn-cs"/>
@@ -14021,9 +13997,6 @@
           </a:lvl4pPr>
           <a:lvl5pPr marL="1828800" indent="0">
             <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
               <a:latin typeface="+mn-lt"/>
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="+mn-cs"/>
@@ -14031,9 +14004,6 @@
           </a:lvl5pPr>
           <a:lvl6pPr marL="2286000" indent="0">
             <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
               <a:latin typeface="+mn-lt"/>
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="+mn-cs"/>
@@ -14041,9 +14011,6 @@
           </a:lvl6pPr>
           <a:lvl7pPr marL="2743200" indent="0">
             <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
               <a:latin typeface="+mn-lt"/>
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="+mn-cs"/>
@@ -14051,9 +14018,6 @@
           </a:lvl7pPr>
           <a:lvl8pPr marL="3200400" indent="0">
             <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
               <a:latin typeface="+mn-lt"/>
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="+mn-cs"/>
@@ -14061,9 +14025,6 @@
           </a:lvl8pPr>
           <a:lvl9pPr marL="3657600" indent="0">
             <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
               <a:latin typeface="+mn-lt"/>
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="+mn-cs"/>
@@ -14071,14 +14032,17 @@
           </a:lvl9pPr>
         </a:lstStyle>
         <a:p>
-          <a:pPr algn="ctr"/>
+          <a:pPr marL="0" indent="0" algn="l"/>
           <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2000" b="1">
+            <a:rPr lang="en-US" sz="2000" b="1">
               <a:solidFill>
                 <a:srgbClr val="FF0000"/>
               </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-lt"/>
+              <a:cs typeface="+mn-lt"/>
             </a:rPr>
-            <a:t>④</a:t>
+            <a:t>②</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
@@ -14088,7 +14052,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -23337,18 +23301,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1200-000000000000}">
   <dimension ref="A1:K49"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" zoomScaleSheetLayoutView="25" workbookViewId="0">
-      <selection activeCell="H43" sqref="H43"/>
+    <sheetView tabSelected="1" topLeftCell="A8" zoomScaleNormal="100" zoomScaleSheetLayoutView="25" workbookViewId="0">
+      <selection activeCell="K39" sqref="K39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14"/>
   <cols>
-    <col min="1" max="1" width="11.1640625" customWidth="1"/>
-    <col min="2" max="7" width="13" customWidth="1"/>
-    <col min="8" max="8" width="26.83203125" customWidth="1"/>
-    <col min="9" max="9" width="18.1640625" customWidth="1"/>
-    <col min="10" max="10" width="15.5" customWidth="1"/>
-    <col min="11" max="11" width="43.1640625" customWidth="1"/>
+    <col min="2" max="2" width="12.5" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.83203125" customWidth="1"/>
+    <col min="9" max="9" width="40.1640625" customWidth="1"/>
+    <col min="11" max="11" width="18" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="15" customHeight="1">
@@ -23373,51 +23335,63 @@
       <c r="B2" s="25" t="s">
         <v>41</v>
       </c>
-      <c r="C2" s="91"/>
-      <c r="D2" s="92"/>
-      <c r="E2" s="92"/>
-      <c r="F2" s="92"/>
-      <c r="G2" s="92"/>
-      <c r="H2" s="92"/>
-      <c r="I2" s="92"/>
+      <c r="C2" s="194" t="s">
+        <v>132</v>
+      </c>
+      <c r="D2" s="254"/>
+      <c r="E2" s="254"/>
+      <c r="F2" s="254"/>
+      <c r="G2" s="254"/>
+      <c r="H2" s="254"/>
+      <c r="I2" s="195"/>
       <c r="J2" s="80" t="s">
         <v>42</v>
       </c>
-      <c r="K2" s="81"/>
+      <c r="K2" s="81" t="s">
+        <v>133</v>
+      </c>
     </row>
     <row r="3" spans="1:11" ht="15" customHeight="1">
       <c r="A3" s="82"/>
       <c r="B3" s="25" t="s">
         <v>43</v>
       </c>
-      <c r="C3" s="91"/>
-      <c r="D3" s="92"/>
-      <c r="E3" s="92"/>
-      <c r="F3" s="92"/>
-      <c r="G3" s="92"/>
-      <c r="H3" s="92"/>
-      <c r="I3" s="92"/>
+      <c r="C3" s="194" t="s">
+        <v>134</v>
+      </c>
+      <c r="D3" s="254"/>
+      <c r="E3" s="254"/>
+      <c r="F3" s="254"/>
+      <c r="G3" s="254"/>
+      <c r="H3" s="254"/>
+      <c r="I3" s="195"/>
       <c r="J3" s="80" t="s">
         <v>44</v>
       </c>
-      <c r="K3" s="83"/>
+      <c r="K3" s="83">
+        <v>44856</v>
+      </c>
     </row>
     <row r="4" spans="1:11" ht="15" customHeight="1">
       <c r="A4" s="82"/>
       <c r="B4" s="25" t="s">
         <v>45</v>
       </c>
-      <c r="C4" s="91"/>
-      <c r="D4" s="92"/>
-      <c r="E4" s="92"/>
-      <c r="F4" s="92"/>
-      <c r="G4" s="92"/>
-      <c r="H4" s="92"/>
-      <c r="I4" s="92"/>
+      <c r="C4" s="194" t="s">
+        <v>75</v>
+      </c>
+      <c r="D4" s="254"/>
+      <c r="E4" s="254"/>
+      <c r="F4" s="254"/>
+      <c r="G4" s="254"/>
+      <c r="H4" s="254"/>
+      <c r="I4" s="195"/>
       <c r="J4" s="80" t="s">
         <v>12</v>
       </c>
-      <c r="K4" s="81"/>
+      <c r="K4" s="81" t="s">
+        <v>76</v>
+      </c>
     </row>
     <row r="5" spans="1:11" ht="15" customHeight="1">
       <c r="A5" s="84" t="s">
@@ -23426,7 +23400,9 @@
       <c r="B5" s="25" t="s">
         <v>47</v>
       </c>
-      <c r="C5" s="175"/>
+      <c r="C5" s="175" t="s">
+        <v>135</v>
+      </c>
       <c r="D5" s="176"/>
       <c r="E5" s="176"/>
       <c r="F5" s="176"/>
@@ -23443,15 +23419,19 @@
       <c r="B6" s="25" t="s">
         <v>49</v>
       </c>
-      <c r="C6" s="175"/>
+      <c r="C6" s="175" t="s">
+        <v>136</v>
+      </c>
       <c r="D6" s="177"/>
       <c r="E6" s="30" t="s">
         <v>50</v>
       </c>
-      <c r="F6" s="92"/>
-      <c r="G6" s="92"/>
-      <c r="H6" s="92"/>
-      <c r="I6" s="92"/>
+      <c r="F6" s="194" t="s">
+        <v>137</v>
+      </c>
+      <c r="G6" s="254"/>
+      <c r="H6" s="254"/>
+      <c r="I6" s="195"/>
       <c r="J6" s="80" t="s">
         <v>51</v>
       </c>
@@ -23462,13 +23442,15 @@
       <c r="B7" s="25" t="s">
         <v>52</v>
       </c>
-      <c r="C7" s="91"/>
-      <c r="D7" s="92"/>
-      <c r="E7" s="92"/>
-      <c r="F7" s="92"/>
-      <c r="G7" s="92"/>
-      <c r="H7" s="92"/>
-      <c r="I7" s="92"/>
+      <c r="C7" s="194" t="s">
+        <v>138</v>
+      </c>
+      <c r="D7" s="254"/>
+      <c r="E7" s="254"/>
+      <c r="F7" s="254"/>
+      <c r="G7" s="254"/>
+      <c r="H7" s="254"/>
+      <c r="I7" s="195"/>
       <c r="J7" s="80"/>
       <c r="K7" s="85"/>
     </row>
@@ -23504,11 +23486,21 @@
       <c r="D9" s="96"/>
       <c r="E9" s="96"/>
       <c r="F9" s="96"/>
-      <c r="G9" s="25"/>
-      <c r="H9" s="38"/>
-      <c r="I9" s="38"/>
-      <c r="J9" s="38"/>
-      <c r="K9" s="38"/>
+      <c r="G9" s="25">
+        <v>1</v>
+      </c>
+      <c r="H9" s="30" t="s">
+        <v>139</v>
+      </c>
+      <c r="I9" s="38" t="s">
+        <v>140</v>
+      </c>
+      <c r="J9" s="30" t="s">
+        <v>139</v>
+      </c>
+      <c r="K9" s="38" t="s">
+        <v>141</v>
+      </c>
     </row>
     <row r="10" spans="1:11" ht="15" customHeight="1">
       <c r="A10" s="97"/>
@@ -23517,11 +23509,21 @@
       <c r="D10" s="24"/>
       <c r="E10" s="24"/>
       <c r="F10" s="24"/>
-      <c r="G10" s="25"/>
-      <c r="H10" s="38"/>
-      <c r="I10" s="38"/>
-      <c r="J10" s="38"/>
-      <c r="K10" s="38"/>
+      <c r="G10" s="25">
+        <v>2</v>
+      </c>
+      <c r="H10" s="30" t="s">
+        <v>139</v>
+      </c>
+      <c r="I10" s="38" t="s">
+        <v>142</v>
+      </c>
+      <c r="J10" s="30" t="s">
+        <v>139</v>
+      </c>
+      <c r="K10" s="38" t="s">
+        <v>143</v>
+      </c>
     </row>
     <row r="11" spans="1:11" ht="15" customHeight="1">
       <c r="A11" s="97"/>
@@ -23530,11 +23532,21 @@
       <c r="D11" s="24"/>
       <c r="E11" s="24"/>
       <c r="F11" s="24"/>
-      <c r="G11" s="25"/>
-      <c r="H11" s="38"/>
-      <c r="I11" s="38"/>
-      <c r="J11" s="38"/>
-      <c r="K11" s="38"/>
+      <c r="G11" s="25">
+        <v>3</v>
+      </c>
+      <c r="H11" s="38" t="s">
+        <v>144</v>
+      </c>
+      <c r="I11" s="38" t="s">
+        <v>145</v>
+      </c>
+      <c r="J11" s="30" t="s">
+        <v>139</v>
+      </c>
+      <c r="K11" s="38" t="s">
+        <v>146</v>
+      </c>
     </row>
     <row r="12" spans="1:11" ht="15" customHeight="1">
       <c r="A12" s="97"/>
@@ -23543,11 +23555,21 @@
       <c r="D12" s="24"/>
       <c r="E12" s="24"/>
       <c r="F12" s="24"/>
-      <c r="G12" s="25"/>
-      <c r="H12" s="38"/>
-      <c r="I12" s="38"/>
-      <c r="J12" s="38"/>
-      <c r="K12" s="38"/>
+      <c r="G12" s="25">
+        <v>4</v>
+      </c>
+      <c r="H12" s="38" t="s">
+        <v>147</v>
+      </c>
+      <c r="I12" s="38" t="s">
+        <v>145</v>
+      </c>
+      <c r="J12" s="30" t="s">
+        <v>139</v>
+      </c>
+      <c r="K12" s="38" t="s">
+        <v>148</v>
+      </c>
     </row>
     <row r="13" spans="1:11" ht="15" customHeight="1">
       <c r="A13" s="97"/>
@@ -23556,11 +23578,21 @@
       <c r="D13" s="24"/>
       <c r="E13" s="24"/>
       <c r="F13" s="24"/>
-      <c r="G13" s="25"/>
-      <c r="H13" s="38"/>
-      <c r="I13" s="38"/>
-      <c r="J13" s="38"/>
-      <c r="K13" s="38"/>
+      <c r="G13" s="25">
+        <v>5</v>
+      </c>
+      <c r="H13" s="38" t="s">
+        <v>149</v>
+      </c>
+      <c r="I13" s="38" t="s">
+        <v>150</v>
+      </c>
+      <c r="J13" s="30" t="s">
+        <v>139</v>
+      </c>
+      <c r="K13" s="38" t="s">
+        <v>151</v>
+      </c>
     </row>
     <row r="14" spans="1:11" ht="15" customHeight="1">
       <c r="A14" s="97"/>
@@ -23792,8 +23824,12 @@
       <c r="D31" s="24"/>
       <c r="E31" s="24"/>
       <c r="F31" s="24"/>
-      <c r="G31" s="118"/>
-      <c r="H31" s="113"/>
+      <c r="G31" s="118">
+        <v>1</v>
+      </c>
+      <c r="H31" s="113" t="s">
+        <v>152</v>
+      </c>
       <c r="I31" s="113"/>
       <c r="J31" s="113"/>
       <c r="K31" s="114"/>
@@ -23818,8 +23854,12 @@
       <c r="D33" s="24"/>
       <c r="E33" s="24"/>
       <c r="F33" s="24"/>
-      <c r="G33" s="118"/>
-      <c r="H33" s="113"/>
+      <c r="G33" s="118">
+        <v>2</v>
+      </c>
+      <c r="H33" s="113" t="s">
+        <v>153</v>
+      </c>
       <c r="I33" s="113"/>
       <c r="J33" s="113"/>
       <c r="K33" s="114"/>
@@ -23832,7 +23872,9 @@
       <c r="E34" s="24"/>
       <c r="F34" s="24"/>
       <c r="G34" s="118"/>
-      <c r="H34" s="113"/>
+      <c r="H34" s="113" t="s">
+        <v>154</v>
+      </c>
       <c r="I34" s="113"/>
       <c r="J34" s="113"/>
       <c r="K34" s="114"/>
@@ -24033,9 +24075,14 @@
       <c r="K49" s="116"/>
     </row>
   </sheetData>
-  <mergeCells count="2">
+  <mergeCells count="7">
+    <mergeCell ref="C7:I7"/>
     <mergeCell ref="C5:I5"/>
     <mergeCell ref="C6:D6"/>
+    <mergeCell ref="C2:I2"/>
+    <mergeCell ref="C3:I3"/>
+    <mergeCell ref="C4:I4"/>
+    <mergeCell ref="F6:I6"/>
   </mergeCells>
   <phoneticPr fontId="3"/>
   <pageMargins left="0.9055118110236221" right="0.51181102362204722" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
@@ -24045,7 +24092,7 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{87F9F930-303C-0545-B3CE-AEFB6954AFBB}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{01B61871-50B0-514C-B040-A24D9240679B}">
   <dimension ref="A1:T38"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -24106,7 +24153,7 @@
       </c>
       <c r="R2" s="247"/>
       <c r="S2" s="206" t="s">
-        <v>84</v>
+        <v>131</v>
       </c>
       <c r="T2" s="207"/>
     </row>
@@ -24114,7 +24161,7 @@
       <c r="A3" s="240"/>
       <c r="B3" s="241"/>
       <c r="C3" s="200" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D3" s="245" t="s">
         <v>74</v>
@@ -24132,7 +24179,7 @@
       <c r="O3" s="203"/>
       <c r="P3" s="203"/>
       <c r="Q3" s="246" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="R3" s="247"/>
       <c r="S3" s="248">
@@ -24144,7 +24191,7 @@
       <c r="A4" s="242"/>
       <c r="B4" s="243"/>
       <c r="C4" s="200" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D4" s="245" t="s">
         <v>75</v>
@@ -24162,7 +24209,7 @@
       <c r="O4" s="203"/>
       <c r="P4" s="203"/>
       <c r="Q4" s="246" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="R4" s="247"/>
       <c r="S4" s="203" t="s">
@@ -24172,11 +24219,11 @@
     </row>
     <row r="5" spans="1:20">
       <c r="A5" s="238" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B5" s="239"/>
       <c r="C5" s="200" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D5" s="245" t="s">
         <v>77</v>
@@ -24194,7 +24241,7 @@
       <c r="O5" s="203"/>
       <c r="P5" s="203"/>
       <c r="Q5" s="246" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="R5" s="247"/>
       <c r="S5" s="203"/>
@@ -24204,18 +24251,18 @@
       <c r="A6" s="240"/>
       <c r="B6" s="241"/>
       <c r="C6" s="200" t="s">
+        <v>91</v>
+      </c>
+      <c r="D6" s="250" t="s">
         <v>92</v>
-      </c>
-      <c r="D6" s="250" t="s">
-        <v>93</v>
       </c>
       <c r="E6" s="251"/>
       <c r="F6" s="252" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="G6" s="253"/>
       <c r="H6" s="206" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="I6" s="206"/>
       <c r="J6" s="203"/>
@@ -24226,7 +24273,7 @@
       <c r="O6" s="203"/>
       <c r="P6" s="203"/>
       <c r="Q6" s="204" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="R6" s="208"/>
       <c r="S6" s="203"/>
@@ -24236,10 +24283,10 @@
       <c r="A7" s="242"/>
       <c r="B7" s="243"/>
       <c r="C7" s="200" t="s">
+        <v>96</v>
+      </c>
+      <c r="D7" s="209" t="s">
         <v>97</v>
-      </c>
-      <c r="D7" s="209" t="s">
-        <v>98</v>
       </c>
       <c r="E7" s="206"/>
       <c r="F7" s="206"/>
@@ -24260,7 +24307,7 @@
     </row>
     <row r="8" spans="1:20">
       <c r="A8" s="210" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B8" s="211"/>
       <c r="C8" s="212"/>
@@ -24274,7 +24321,7 @@
       <c r="K8" s="212"/>
       <c r="L8" s="212"/>
       <c r="M8" s="213" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="N8" s="212"/>
       <c r="O8" s="212"/>
@@ -24387,7 +24434,7 @@
       <c r="L13" s="205"/>
       <c r="M13" s="215"/>
       <c r="N13" s="205" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="O13" s="205"/>
       <c r="P13" s="205"/>
@@ -24411,7 +24458,7 @@
       <c r="L14" s="205"/>
       <c r="M14" s="215"/>
       <c r="N14" s="205" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="O14" s="205"/>
       <c r="P14" s="205"/>
@@ -24435,7 +24482,7 @@
       <c r="L15" s="205"/>
       <c r="M15" s="215"/>
       <c r="N15" s="205" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="O15" s="205"/>
       <c r="P15" s="205"/>
@@ -24459,7 +24506,7 @@
       <c r="L16" s="205"/>
       <c r="M16" s="215"/>
       <c r="N16" s="205" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="O16" s="205"/>
       <c r="P16" s="205"/>
@@ -24756,7 +24803,7 @@
     </row>
     <row r="30" spans="1:20">
       <c r="A30" s="218" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B30" s="219"/>
       <c r="C30" s="220"/>
@@ -24780,33 +24827,33 @@
     </row>
     <row r="31" spans="1:20">
       <c r="A31" s="222" t="s">
+        <v>105</v>
+      </c>
+      <c r="B31" s="223" t="s">
         <v>106</v>
-      </c>
-      <c r="B31" s="223" t="s">
-        <v>107</v>
       </c>
       <c r="C31" s="224"/>
       <c r="D31" s="224" t="s">
+        <v>107</v>
+      </c>
+      <c r="E31" s="225" t="s">
         <v>108</v>
-      </c>
-      <c r="E31" s="225" t="s">
-        <v>109</v>
       </c>
       <c r="F31" s="226"/>
       <c r="G31" s="222" t="s">
+        <v>109</v>
+      </c>
+      <c r="H31" s="224" t="s">
         <v>110</v>
       </c>
-      <c r="H31" s="224" t="s">
+      <c r="I31" s="223" t="s">
         <v>111</v>
       </c>
-      <c r="I31" s="223" t="s">
+      <c r="J31" s="227" t="s">
         <v>112</v>
       </c>
-      <c r="J31" s="227" t="s">
+      <c r="K31" s="227" t="s">
         <v>113</v>
-      </c>
-      <c r="K31" s="227" t="s">
-        <v>114</v>
       </c>
       <c r="L31" s="227" t="s">
         <v>65</v>
@@ -24817,7 +24864,7 @@
       </c>
       <c r="O31" s="224"/>
       <c r="P31" s="223" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="Q31" s="223"/>
       <c r="R31" s="223"/>
@@ -24826,48 +24873,48 @@
     </row>
     <row r="32" spans="1:20">
       <c r="A32" s="228" t="s">
+        <v>115</v>
+      </c>
+      <c r="B32" s="209" t="s">
         <v>116</v>
-      </c>
-      <c r="B32" s="209" t="s">
-        <v>117</v>
       </c>
       <c r="C32" s="207"/>
       <c r="D32" s="229" t="s">
+        <v>117</v>
+      </c>
+      <c r="E32" s="209" t="s">
         <v>118</v>
-      </c>
-      <c r="E32" s="209" t="s">
-        <v>119</v>
       </c>
       <c r="F32" s="206"/>
       <c r="G32" s="228" t="s">
+        <v>119</v>
+      </c>
+      <c r="H32" s="229" t="s">
+        <v>119</v>
+      </c>
+      <c r="I32" s="229" t="s">
+        <v>119</v>
+      </c>
+      <c r="J32" s="229" t="s">
+        <v>119</v>
+      </c>
+      <c r="K32" s="229" t="s">
+        <v>119</v>
+      </c>
+      <c r="L32" s="229" t="s">
+        <v>119</v>
+      </c>
+      <c r="M32" s="229" t="s">
+        <v>119</v>
+      </c>
+      <c r="N32" s="229" t="s">
+        <v>119</v>
+      </c>
+      <c r="O32" s="229" t="s">
+        <v>119</v>
+      </c>
+      <c r="P32" s="230" t="s">
         <v>120</v>
-      </c>
-      <c r="H32" s="229" t="s">
-        <v>120</v>
-      </c>
-      <c r="I32" s="229" t="s">
-        <v>120</v>
-      </c>
-      <c r="J32" s="229" t="s">
-        <v>120</v>
-      </c>
-      <c r="K32" s="229" t="s">
-        <v>120</v>
-      </c>
-      <c r="L32" s="229" t="s">
-        <v>120</v>
-      </c>
-      <c r="M32" s="229" t="s">
-        <v>120</v>
-      </c>
-      <c r="N32" s="229" t="s">
-        <v>120</v>
-      </c>
-      <c r="O32" s="229" t="s">
-        <v>120</v>
-      </c>
-      <c r="P32" s="230" t="s">
-        <v>121</v>
       </c>
       <c r="Q32" s="201"/>
       <c r="R32" s="201"/>
@@ -24876,48 +24923,48 @@
     </row>
     <row r="33" spans="1:20">
       <c r="A33" s="228" t="s">
+        <v>121</v>
+      </c>
+      <c r="B33" s="209" t="s">
         <v>122</v>
-      </c>
-      <c r="B33" s="209" t="s">
-        <v>123</v>
       </c>
       <c r="C33" s="207"/>
       <c r="D33" s="229" t="s">
+        <v>117</v>
+      </c>
+      <c r="E33" s="209" t="s">
         <v>118</v>
-      </c>
-      <c r="E33" s="209" t="s">
-        <v>119</v>
       </c>
       <c r="F33" s="206"/>
       <c r="G33" s="228" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="H33" s="229" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="I33" s="229" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="J33" s="229" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="K33" s="229" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="L33" s="229" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="M33" s="229" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="N33" s="229" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="O33" s="229" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="P33" s="230" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="Q33" s="201"/>
       <c r="R33" s="201"/>
@@ -24926,46 +24973,46 @@
     </row>
     <row r="34" spans="1:20">
       <c r="A34" s="228" t="s">
+        <v>124</v>
+      </c>
+      <c r="B34" s="209" t="s">
         <v>125</v>
-      </c>
-      <c r="B34" s="209" t="s">
-        <v>126</v>
       </c>
       <c r="C34" s="207"/>
       <c r="D34" s="229"/>
       <c r="E34" s="203" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="F34" s="203"/>
       <c r="G34" s="228" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="H34" s="229" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="I34" s="229" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="J34" s="229" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="K34" s="229" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="L34" s="229" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="M34" s="229" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="N34" s="229" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="O34" s="229" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="P34" s="230" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="Q34" s="201"/>
       <c r="R34" s="201"/>
@@ -24974,1112 +25021,46 @@
     </row>
     <row r="35" spans="1:20">
       <c r="A35" s="228" t="s">
+        <v>128</v>
+      </c>
+      <c r="B35" s="209" t="s">
         <v>129</v>
-      </c>
-      <c r="B35" s="209" t="s">
-        <v>130</v>
       </c>
       <c r="C35" s="207"/>
       <c r="D35" s="229"/>
       <c r="E35" s="203" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="F35" s="203"/>
       <c r="G35" s="228" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="H35" s="229" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="I35" s="229" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="J35" s="229" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="K35" s="229" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="L35" s="229" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="M35" s="229" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="N35" s="229" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="O35" s="229" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="P35" s="230" t="s">
-        <v>131</v>
-      </c>
-      <c r="Q35" s="201"/>
-      <c r="R35" s="201"/>
-      <c r="S35" s="201"/>
-      <c r="T35" s="232"/>
-    </row>
-    <row r="36" spans="1:20">
-      <c r="A36" s="228"/>
-      <c r="B36" s="203"/>
-      <c r="C36" s="200"/>
-      <c r="D36" s="229"/>
-      <c r="E36" s="203"/>
-      <c r="F36" s="203"/>
-      <c r="G36" s="228"/>
-      <c r="H36" s="229"/>
-      <c r="I36" s="229"/>
-      <c r="J36" s="229"/>
-      <c r="K36" s="233"/>
-      <c r="L36" s="234"/>
-      <c r="M36" s="232"/>
-      <c r="N36" s="202"/>
-      <c r="O36" s="232"/>
-      <c r="P36" s="202"/>
-      <c r="Q36" s="202"/>
-      <c r="R36" s="202"/>
-      <c r="S36" s="202"/>
-      <c r="T36" s="232"/>
-    </row>
-    <row r="37" spans="1:20">
-      <c r="A37" s="228"/>
-      <c r="B37" s="203"/>
-      <c r="C37" s="200"/>
-      <c r="D37" s="229"/>
-      <c r="E37" s="203"/>
-      <c r="F37" s="203"/>
-      <c r="G37" s="228"/>
-      <c r="H37" s="229"/>
-      <c r="I37" s="229"/>
-      <c r="J37" s="229"/>
-      <c r="K37" s="233"/>
-      <c r="L37" s="234"/>
-      <c r="M37" s="232"/>
-      <c r="N37" s="202"/>
-      <c r="O37" s="232"/>
-      <c r="P37" s="202"/>
-      <c r="Q37" s="202"/>
-      <c r="R37" s="202"/>
-      <c r="S37" s="202"/>
-      <c r="T37" s="232"/>
-    </row>
-    <row r="38" spans="1:20">
-      <c r="A38" s="228"/>
-      <c r="B38" s="203"/>
-      <c r="C38" s="200"/>
-      <c r="D38" s="229"/>
-      <c r="E38" s="203"/>
-      <c r="F38" s="203"/>
-      <c r="G38" s="228"/>
-      <c r="H38" s="229"/>
-      <c r="I38" s="229"/>
-      <c r="J38" s="229"/>
-      <c r="K38" s="233"/>
-      <c r="L38" s="234"/>
-      <c r="M38" s="232"/>
-      <c r="N38" s="202"/>
-      <c r="O38" s="232"/>
-      <c r="P38" s="202"/>
-      <c r="Q38" s="202"/>
-      <c r="R38" s="202"/>
-      <c r="S38" s="202"/>
-      <c r="T38" s="232"/>
-    </row>
-  </sheetData>
-  <mergeCells count="15">
-    <mergeCell ref="A5:B7"/>
-    <mergeCell ref="D5:K5"/>
-    <mergeCell ref="Q5:R5"/>
-    <mergeCell ref="D6:E6"/>
-    <mergeCell ref="F6:G6"/>
-    <mergeCell ref="Q7:R7"/>
-    <mergeCell ref="A1:T1"/>
-    <mergeCell ref="A2:B4"/>
-    <mergeCell ref="D2:K2"/>
-    <mergeCell ref="Q2:R2"/>
-    <mergeCell ref="D3:K3"/>
-    <mergeCell ref="Q3:R3"/>
-    <mergeCell ref="S3:T3"/>
-    <mergeCell ref="D4:K4"/>
-    <mergeCell ref="Q4:R4"/>
-  </mergeCells>
-  <phoneticPr fontId="3"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{01B61871-50B0-514C-B040-A24D9240679B}">
-  <dimension ref="A1:T38"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K18" sqref="K18"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14"/>
-  <sheetData>
-    <row r="1" spans="1:20" ht="15">
-      <c r="A1" s="235" t="s">
-        <v>80</v>
-      </c>
-      <c r="B1" s="236"/>
-      <c r="C1" s="236"/>
-      <c r="D1" s="236"/>
-      <c r="E1" s="236"/>
-      <c r="F1" s="236"/>
-      <c r="G1" s="236"/>
-      <c r="H1" s="236"/>
-      <c r="I1" s="236"/>
-      <c r="J1" s="236"/>
-      <c r="K1" s="236"/>
-      <c r="L1" s="236"/>
-      <c r="M1" s="236"/>
-      <c r="N1" s="236"/>
-      <c r="O1" s="236"/>
-      <c r="P1" s="236"/>
-      <c r="Q1" s="236"/>
-      <c r="R1" s="236"/>
-      <c r="S1" s="236"/>
-      <c r="T1" s="237"/>
-    </row>
-    <row r="2" spans="1:20">
-      <c r="A2" s="238" t="s">
-        <v>81</v>
-      </c>
-      <c r="B2" s="239"/>
-      <c r="C2" s="200" t="s">
-        <v>82</v>
-      </c>
-      <c r="D2" s="245" t="s">
-        <v>72</v>
-      </c>
-      <c r="E2" s="244"/>
-      <c r="F2" s="244"/>
-      <c r="G2" s="244"/>
-      <c r="H2" s="244"/>
-      <c r="I2" s="244"/>
-      <c r="J2" s="244"/>
-      <c r="K2" s="244"/>
-      <c r="L2" s="202"/>
-      <c r="M2" s="203"/>
-      <c r="N2" s="203"/>
-      <c r="O2" s="203"/>
-      <c r="P2" s="203"/>
-      <c r="Q2" s="246" t="s">
-        <v>83</v>
-      </c>
-      <c r="R2" s="247"/>
-      <c r="S2" s="206" t="s">
-        <v>132</v>
-      </c>
-      <c r="T2" s="207"/>
-    </row>
-    <row r="3" spans="1:20">
-      <c r="A3" s="240"/>
-      <c r="B3" s="241"/>
-      <c r="C3" s="200" t="s">
-        <v>85</v>
-      </c>
-      <c r="D3" s="245" t="s">
-        <v>74</v>
-      </c>
-      <c r="E3" s="244"/>
-      <c r="F3" s="244"/>
-      <c r="G3" s="244"/>
-      <c r="H3" s="244"/>
-      <c r="I3" s="244"/>
-      <c r="J3" s="244"/>
-      <c r="K3" s="244"/>
-      <c r="L3" s="202"/>
-      <c r="M3" s="203"/>
-      <c r="N3" s="203"/>
-      <c r="O3" s="203"/>
-      <c r="P3" s="203"/>
-      <c r="Q3" s="246" t="s">
-        <v>86</v>
-      </c>
-      <c r="R3" s="247"/>
-      <c r="S3" s="248">
-        <v>45204</v>
-      </c>
-      <c r="T3" s="249"/>
-    </row>
-    <row r="4" spans="1:20">
-      <c r="A4" s="242"/>
-      <c r="B4" s="243"/>
-      <c r="C4" s="200" t="s">
-        <v>87</v>
-      </c>
-      <c r="D4" s="245" t="s">
-        <v>75</v>
-      </c>
-      <c r="E4" s="244"/>
-      <c r="F4" s="244"/>
-      <c r="G4" s="244"/>
-      <c r="H4" s="244"/>
-      <c r="I4" s="244"/>
-      <c r="J4" s="244"/>
-      <c r="K4" s="244"/>
-      <c r="L4" s="202"/>
-      <c r="M4" s="203"/>
-      <c r="N4" s="203"/>
-      <c r="O4" s="203"/>
-      <c r="P4" s="203"/>
-      <c r="Q4" s="246" t="s">
-        <v>88</v>
-      </c>
-      <c r="R4" s="247"/>
-      <c r="S4" s="203" t="s">
-        <v>76</v>
-      </c>
-      <c r="T4" s="200"/>
-    </row>
-    <row r="5" spans="1:20">
-      <c r="A5" s="238" t="s">
-        <v>89</v>
-      </c>
-      <c r="B5" s="239"/>
-      <c r="C5" s="200" t="s">
-        <v>90</v>
-      </c>
-      <c r="D5" s="245" t="s">
-        <v>77</v>
-      </c>
-      <c r="E5" s="244"/>
-      <c r="F5" s="244"/>
-      <c r="G5" s="244"/>
-      <c r="H5" s="244"/>
-      <c r="I5" s="244"/>
-      <c r="J5" s="244"/>
-      <c r="K5" s="244"/>
-      <c r="L5" s="202"/>
-      <c r="M5" s="203"/>
-      <c r="N5" s="203"/>
-      <c r="O5" s="203"/>
-      <c r="P5" s="203"/>
-      <c r="Q5" s="246" t="s">
-        <v>91</v>
-      </c>
-      <c r="R5" s="247"/>
-      <c r="S5" s="203"/>
-      <c r="T5" s="200"/>
-    </row>
-    <row r="6" spans="1:20">
-      <c r="A6" s="240"/>
-      <c r="B6" s="241"/>
-      <c r="C6" s="200" t="s">
-        <v>92</v>
-      </c>
-      <c r="D6" s="250" t="s">
-        <v>93</v>
-      </c>
-      <c r="E6" s="251"/>
-      <c r="F6" s="252" t="s">
-        <v>94</v>
-      </c>
-      <c r="G6" s="253"/>
-      <c r="H6" s="206" t="s">
-        <v>95</v>
-      </c>
-      <c r="I6" s="206"/>
-      <c r="J6" s="203"/>
-      <c r="K6" s="203"/>
-      <c r="L6" s="202"/>
-      <c r="M6" s="203"/>
-      <c r="N6" s="203"/>
-      <c r="O6" s="203"/>
-      <c r="P6" s="203"/>
-      <c r="Q6" s="204" t="s">
-        <v>96</v>
-      </c>
-      <c r="R6" s="208"/>
-      <c r="S6" s="203"/>
-      <c r="T6" s="200"/>
-    </row>
-    <row r="7" spans="1:20">
-      <c r="A7" s="242"/>
-      <c r="B7" s="243"/>
-      <c r="C7" s="200" t="s">
-        <v>97</v>
-      </c>
-      <c r="D7" s="209" t="s">
-        <v>98</v>
-      </c>
-      <c r="E7" s="206"/>
-      <c r="F7" s="206"/>
-      <c r="G7" s="206"/>
-      <c r="H7" s="206"/>
-      <c r="I7" s="206"/>
-      <c r="J7" s="203"/>
-      <c r="K7" s="203"/>
-      <c r="L7" s="203"/>
-      <c r="M7" s="203"/>
-      <c r="N7" s="203"/>
-      <c r="O7" s="203"/>
-      <c r="P7" s="203"/>
-      <c r="Q7" s="246"/>
-      <c r="R7" s="247"/>
-      <c r="S7" s="203"/>
-      <c r="T7" s="200"/>
-    </row>
-    <row r="8" spans="1:20">
-      <c r="A8" s="210" t="s">
-        <v>99</v>
-      </c>
-      <c r="B8" s="211"/>
-      <c r="C8" s="212"/>
-      <c r="D8" s="212"/>
-      <c r="E8" s="212"/>
-      <c r="F8" s="212"/>
-      <c r="G8" s="212"/>
-      <c r="H8" s="212"/>
-      <c r="I8" s="212"/>
-      <c r="J8" s="212"/>
-      <c r="K8" s="212"/>
-      <c r="L8" s="212"/>
-      <c r="M8" s="213" t="s">
-        <v>100</v>
-      </c>
-      <c r="N8" s="212"/>
-      <c r="O8" s="212"/>
-      <c r="P8" s="212"/>
-      <c r="Q8" s="212"/>
-      <c r="R8" s="212"/>
-      <c r="S8" s="212"/>
-      <c r="T8" s="214"/>
-    </row>
-    <row r="9" spans="1:20">
-      <c r="A9" s="215"/>
-      <c r="B9" s="205"/>
-      <c r="C9" s="205"/>
-      <c r="D9" s="205"/>
-      <c r="E9" s="205"/>
-      <c r="F9" s="205"/>
-      <c r="G9" s="205"/>
-      <c r="H9" s="205"/>
-      <c r="I9" s="205"/>
-      <c r="J9" s="205"/>
-      <c r="K9" s="205"/>
-      <c r="L9" s="205"/>
-      <c r="M9" s="215"/>
-      <c r="N9" s="205"/>
-      <c r="O9" s="205"/>
-      <c r="P9" s="205"/>
-      <c r="Q9" s="205"/>
-      <c r="R9" s="205"/>
-      <c r="S9" s="205"/>
-      <c r="T9" s="216"/>
-    </row>
-    <row r="10" spans="1:20">
-      <c r="A10" s="215"/>
-      <c r="B10" s="205"/>
-      <c r="C10" s="205"/>
-      <c r="D10" s="205"/>
-      <c r="E10" s="205"/>
-      <c r="F10" s="205"/>
-      <c r="G10" s="205"/>
-      <c r="H10" s="205"/>
-      <c r="I10" s="205"/>
-      <c r="J10" s="205"/>
-      <c r="K10" s="205"/>
-      <c r="L10" s="205"/>
-      <c r="M10" s="215"/>
-      <c r="N10" s="205"/>
-      <c r="O10" s="205"/>
-      <c r="P10" s="205"/>
-      <c r="Q10" s="205"/>
-      <c r="R10" s="205"/>
-      <c r="S10" s="205"/>
-      <c r="T10" s="216"/>
-    </row>
-    <row r="11" spans="1:20">
-      <c r="A11" s="215"/>
-      <c r="B11" s="205"/>
-      <c r="C11" s="205"/>
-      <c r="D11" s="205"/>
-      <c r="E11" s="205"/>
-      <c r="F11" s="205"/>
-      <c r="G11" s="205"/>
-      <c r="H11" s="205"/>
-      <c r="I11" s="205"/>
-      <c r="J11" s="205"/>
-      <c r="K11" s="205"/>
-      <c r="L11" s="205"/>
-      <c r="M11" s="215"/>
-      <c r="N11" s="205"/>
-      <c r="O11" s="205"/>
-      <c r="P11" s="205"/>
-      <c r="Q11" s="205"/>
-      <c r="R11" s="205"/>
-      <c r="S11" s="205"/>
-      <c r="T11" s="216"/>
-    </row>
-    <row r="12" spans="1:20">
-      <c r="A12" s="215"/>
-      <c r="B12" s="205"/>
-      <c r="C12" s="205"/>
-      <c r="D12" s="205"/>
-      <c r="E12" s="205"/>
-      <c r="F12" s="205"/>
-      <c r="G12" s="205"/>
-      <c r="H12" s="205"/>
-      <c r="I12" s="205"/>
-      <c r="J12" s="205"/>
-      <c r="K12" s="205"/>
-      <c r="L12" s="205"/>
-      <c r="M12" s="215"/>
-      <c r="N12" s="205"/>
-      <c r="O12" s="205"/>
-      <c r="P12" s="205"/>
-      <c r="Q12" s="205"/>
-      <c r="R12" s="205"/>
-      <c r="S12" s="205"/>
-      <c r="T12" s="216"/>
-    </row>
-    <row r="13" spans="1:20">
-      <c r="A13" s="215"/>
-      <c r="B13" s="205"/>
-      <c r="C13" s="205"/>
-      <c r="D13" s="205"/>
-      <c r="E13" s="205"/>
-      <c r="F13" s="205"/>
-      <c r="G13" s="205"/>
-      <c r="H13" s="205"/>
-      <c r="I13" s="205"/>
-      <c r="J13" s="205"/>
-      <c r="K13" s="205"/>
-      <c r="L13" s="205"/>
-      <c r="M13" s="215"/>
-      <c r="N13" s="205" t="s">
-        <v>101</v>
-      </c>
-      <c r="O13" s="205"/>
-      <c r="P13" s="205"/>
-      <c r="Q13" s="205"/>
-      <c r="R13" s="205"/>
-      <c r="S13" s="205"/>
-      <c r="T13" s="216"/>
-    </row>
-    <row r="14" spans="1:20">
-      <c r="A14" s="215"/>
-      <c r="B14" s="205"/>
-      <c r="C14" s="205"/>
-      <c r="D14" s="205"/>
-      <c r="E14" s="205"/>
-      <c r="F14" s="205"/>
-      <c r="G14" s="205"/>
-      <c r="H14" s="205"/>
-      <c r="I14" s="205"/>
-      <c r="J14" s="205"/>
-      <c r="K14" s="205"/>
-      <c r="L14" s="205"/>
-      <c r="M14" s="215"/>
-      <c r="N14" s="205" t="s">
-        <v>102</v>
-      </c>
-      <c r="O14" s="205"/>
-      <c r="P14" s="205"/>
-      <c r="Q14" s="205"/>
-      <c r="R14" s="205"/>
-      <c r="S14" s="205"/>
-      <c r="T14" s="216"/>
-    </row>
-    <row r="15" spans="1:20">
-      <c r="A15" s="215"/>
-      <c r="B15" s="205"/>
-      <c r="C15" s="205"/>
-      <c r="D15" s="205"/>
-      <c r="E15" s="205"/>
-      <c r="F15" s="205"/>
-      <c r="G15" s="205"/>
-      <c r="H15" s="205"/>
-      <c r="I15" s="205"/>
-      <c r="J15" s="205"/>
-      <c r="K15" s="205"/>
-      <c r="L15" s="205"/>
-      <c r="M15" s="215"/>
-      <c r="N15" s="205" t="s">
-        <v>103</v>
-      </c>
-      <c r="O15" s="205"/>
-      <c r="P15" s="205"/>
-      <c r="Q15" s="205"/>
-      <c r="R15" s="205"/>
-      <c r="S15" s="205"/>
-      <c r="T15" s="216"/>
-    </row>
-    <row r="16" spans="1:20">
-      <c r="A16" s="215"/>
-      <c r="B16" s="205"/>
-      <c r="C16" s="205"/>
-      <c r="D16" s="205"/>
-      <c r="E16" s="205"/>
-      <c r="F16" s="205"/>
-      <c r="G16" s="205"/>
-      <c r="H16" s="205"/>
-      <c r="I16" s="205"/>
-      <c r="J16" s="205"/>
-      <c r="K16" s="205"/>
-      <c r="L16" s="205"/>
-      <c r="M16" s="215"/>
-      <c r="N16" s="205" t="s">
-        <v>104</v>
-      </c>
-      <c r="O16" s="205"/>
-      <c r="P16" s="205"/>
-      <c r="Q16" s="205"/>
-      <c r="R16" s="205"/>
-      <c r="S16" s="205"/>
-      <c r="T16" s="216"/>
-    </row>
-    <row r="17" spans="1:20">
-      <c r="A17" s="215"/>
-      <c r="B17" s="205"/>
-      <c r="C17" s="205"/>
-      <c r="D17" s="205"/>
-      <c r="E17" s="205"/>
-      <c r="F17" s="205"/>
-      <c r="G17" s="205"/>
-      <c r="H17" s="205"/>
-      <c r="I17" s="205"/>
-      <c r="J17" s="205"/>
-      <c r="K17" s="205"/>
-      <c r="L17" s="205"/>
-      <c r="M17" s="215"/>
-      <c r="N17" s="205"/>
-      <c r="O17" s="205"/>
-      <c r="P17" s="205"/>
-      <c r="Q17" s="205"/>
-      <c r="R17" s="205"/>
-      <c r="S17" s="205"/>
-      <c r="T17" s="216"/>
-    </row>
-    <row r="18" spans="1:20">
-      <c r="A18" s="215"/>
-      <c r="B18" s="205"/>
-      <c r="C18" s="205"/>
-      <c r="D18" s="205"/>
-      <c r="E18" s="205"/>
-      <c r="F18" s="205"/>
-      <c r="G18" s="205"/>
-      <c r="H18" s="205"/>
-      <c r="I18" s="205"/>
-      <c r="J18" s="205"/>
-      <c r="K18" s="205"/>
-      <c r="L18" s="205"/>
-      <c r="M18" s="215"/>
-      <c r="N18" s="205"/>
-      <c r="O18" s="205"/>
-      <c r="P18" s="205"/>
-      <c r="Q18" s="205"/>
-      <c r="R18" s="205"/>
-      <c r="S18" s="205"/>
-      <c r="T18" s="216"/>
-    </row>
-    <row r="19" spans="1:20">
-      <c r="A19" s="215"/>
-      <c r="B19" s="205"/>
-      <c r="C19" s="205"/>
-      <c r="D19" s="205"/>
-      <c r="E19" s="205"/>
-      <c r="F19" s="205"/>
-      <c r="G19" s="205"/>
-      <c r="H19" s="205"/>
-      <c r="I19" s="205"/>
-      <c r="J19" s="205"/>
-      <c r="K19" s="205"/>
-      <c r="L19" s="205"/>
-      <c r="M19" s="215"/>
-      <c r="N19" s="205"/>
-      <c r="O19" s="205"/>
-      <c r="P19" s="205"/>
-      <c r="Q19" s="205"/>
-      <c r="R19" s="205"/>
-      <c r="S19" s="205"/>
-      <c r="T19" s="216"/>
-    </row>
-    <row r="20" spans="1:20">
-      <c r="A20" s="215"/>
-      <c r="B20" s="205"/>
-      <c r="C20" s="205"/>
-      <c r="D20" s="205"/>
-      <c r="E20" s="205"/>
-      <c r="F20" s="205"/>
-      <c r="G20" s="205"/>
-      <c r="H20" s="205"/>
-      <c r="I20" s="205"/>
-      <c r="J20" s="205"/>
-      <c r="K20" s="205"/>
-      <c r="L20" s="205"/>
-      <c r="M20" s="215"/>
-      <c r="N20" s="205"/>
-      <c r="O20" s="205"/>
-      <c r="P20" s="205"/>
-      <c r="Q20" s="205"/>
-      <c r="R20" s="205"/>
-      <c r="S20" s="205"/>
-      <c r="T20" s="216"/>
-    </row>
-    <row r="21" spans="1:20">
-      <c r="A21" s="215"/>
-      <c r="B21" s="205"/>
-      <c r="C21" s="205"/>
-      <c r="D21" s="205"/>
-      <c r="E21" s="205"/>
-      <c r="F21" s="205"/>
-      <c r="G21" s="205"/>
-      <c r="H21" s="205"/>
-      <c r="I21" s="205"/>
-      <c r="J21" s="205"/>
-      <c r="K21" s="205"/>
-      <c r="L21" s="205"/>
-      <c r="M21" s="215"/>
-      <c r="N21" s="205"/>
-      <c r="O21" s="205"/>
-      <c r="P21" s="205"/>
-      <c r="Q21" s="205"/>
-      <c r="R21" s="205"/>
-      <c r="S21" s="205"/>
-      <c r="T21" s="216"/>
-    </row>
-    <row r="22" spans="1:20">
-      <c r="A22" s="215"/>
-      <c r="B22" s="205"/>
-      <c r="C22" s="205"/>
-      <c r="D22" s="205"/>
-      <c r="E22" s="205"/>
-      <c r="F22" s="205"/>
-      <c r="G22" s="205"/>
-      <c r="H22" s="205"/>
-      <c r="I22" s="205"/>
-      <c r="J22" s="205"/>
-      <c r="K22" s="205"/>
-      <c r="L22" s="205"/>
-      <c r="M22" s="215"/>
-      <c r="N22" s="205"/>
-      <c r="O22" s="205"/>
-      <c r="P22" s="205"/>
-      <c r="Q22" s="205"/>
-      <c r="R22" s="205"/>
-      <c r="S22" s="205"/>
-      <c r="T22" s="216"/>
-    </row>
-    <row r="23" spans="1:20">
-      <c r="A23" s="215"/>
-      <c r="B23" s="205"/>
-      <c r="C23" s="205"/>
-      <c r="D23" s="205"/>
-      <c r="E23" s="205"/>
-      <c r="F23" s="205"/>
-      <c r="G23" s="205"/>
-      <c r="H23" s="205"/>
-      <c r="I23" s="205"/>
-      <c r="J23" s="205"/>
-      <c r="K23" s="205"/>
-      <c r="L23" s="205"/>
-      <c r="M23" s="215"/>
-      <c r="N23" s="205"/>
-      <c r="O23" s="205"/>
-      <c r="P23" s="205"/>
-      <c r="Q23" s="205"/>
-      <c r="R23" s="205"/>
-      <c r="S23" s="205"/>
-      <c r="T23" s="216"/>
-    </row>
-    <row r="24" spans="1:20">
-      <c r="A24" s="215"/>
-      <c r="B24" s="205"/>
-      <c r="C24" s="205"/>
-      <c r="D24" s="205"/>
-      <c r="E24" s="205"/>
-      <c r="F24" s="205"/>
-      <c r="G24" s="205"/>
-      <c r="H24" s="205"/>
-      <c r="I24" s="205"/>
-      <c r="J24" s="205"/>
-      <c r="K24" s="205"/>
-      <c r="L24" s="205"/>
-      <c r="M24" s="215"/>
-      <c r="N24" s="205"/>
-      <c r="O24" s="205"/>
-      <c r="P24" s="205"/>
-      <c r="Q24" s="205"/>
-      <c r="R24" s="205"/>
-      <c r="S24" s="205"/>
-      <c r="T24" s="216"/>
-    </row>
-    <row r="25" spans="1:20">
-      <c r="A25" s="215"/>
-      <c r="B25" s="205"/>
-      <c r="C25" s="205"/>
-      <c r="D25" s="205"/>
-      <c r="E25" s="205"/>
-      <c r="F25" s="205"/>
-      <c r="G25" s="205"/>
-      <c r="H25" s="205"/>
-      <c r="I25" s="205"/>
-      <c r="J25" s="205"/>
-      <c r="K25" s="205"/>
-      <c r="L25" s="205"/>
-      <c r="M25" s="215"/>
-      <c r="N25" s="205"/>
-      <c r="O25" s="205"/>
-      <c r="P25" s="205"/>
-      <c r="Q25" s="205"/>
-      <c r="R25" s="205"/>
-      <c r="S25" s="205"/>
-      <c r="T25" s="216"/>
-    </row>
-    <row r="26" spans="1:20">
-      <c r="A26" s="215"/>
-      <c r="B26" s="205"/>
-      <c r="C26" s="205"/>
-      <c r="D26" s="205"/>
-      <c r="E26" s="205"/>
-      <c r="F26" s="205"/>
-      <c r="G26" s="205"/>
-      <c r="H26" s="205"/>
-      <c r="I26" s="205"/>
-      <c r="J26" s="205"/>
-      <c r="K26" s="205"/>
-      <c r="L26" s="205"/>
-      <c r="M26" s="215"/>
-      <c r="N26" s="205"/>
-      <c r="O26" s="205"/>
-      <c r="P26" s="205"/>
-      <c r="Q26" s="205"/>
-      <c r="R26" s="205"/>
-      <c r="S26" s="205"/>
-      <c r="T26" s="216"/>
-    </row>
-    <row r="27" spans="1:20">
-      <c r="A27" s="215"/>
-      <c r="B27" s="205"/>
-      <c r="C27" s="205"/>
-      <c r="D27" s="205"/>
-      <c r="E27" s="205"/>
-      <c r="F27" s="205"/>
-      <c r="G27" s="205"/>
-      <c r="H27" s="205"/>
-      <c r="I27" s="205"/>
-      <c r="J27" s="205"/>
-      <c r="K27" s="205"/>
-      <c r="L27" s="205"/>
-      <c r="M27" s="215"/>
-      <c r="N27" s="205"/>
-      <c r="O27" s="205"/>
-      <c r="P27" s="205"/>
-      <c r="Q27" s="205"/>
-      <c r="R27" s="205"/>
-      <c r="S27" s="205"/>
-      <c r="T27" s="216"/>
-    </row>
-    <row r="28" spans="1:20">
-      <c r="A28" s="215"/>
-      <c r="B28" s="205"/>
-      <c r="C28" s="205"/>
-      <c r="D28" s="205"/>
-      <c r="E28" s="205"/>
-      <c r="F28" s="205"/>
-      <c r="G28" s="205"/>
-      <c r="H28" s="205"/>
-      <c r="I28" s="205"/>
-      <c r="J28" s="205"/>
-      <c r="K28" s="205"/>
-      <c r="L28" s="205"/>
-      <c r="M28" s="215"/>
-      <c r="N28" s="205"/>
-      <c r="O28" s="205"/>
-      <c r="P28" s="205"/>
-      <c r="Q28" s="205"/>
-      <c r="R28" s="205"/>
-      <c r="S28" s="205"/>
-      <c r="T28" s="216"/>
-    </row>
-    <row r="29" spans="1:20">
-      <c r="A29" s="217"/>
-      <c r="B29" s="203"/>
-      <c r="C29" s="203"/>
-      <c r="D29" s="203"/>
-      <c r="E29" s="203"/>
-      <c r="F29" s="203"/>
-      <c r="G29" s="203"/>
-      <c r="H29" s="203"/>
-      <c r="I29" s="203"/>
-      <c r="J29" s="203"/>
-      <c r="K29" s="203"/>
-      <c r="L29" s="203"/>
-      <c r="M29" s="217"/>
-      <c r="N29" s="203"/>
-      <c r="O29" s="203"/>
-      <c r="P29" s="203"/>
-      <c r="Q29" s="203"/>
-      <c r="R29" s="203"/>
-      <c r="S29" s="203"/>
-      <c r="T29" s="200"/>
-    </row>
-    <row r="30" spans="1:20">
-      <c r="A30" s="218" t="s">
-        <v>105</v>
-      </c>
-      <c r="B30" s="219"/>
-      <c r="C30" s="220"/>
-      <c r="D30" s="220"/>
-      <c r="E30" s="220"/>
-      <c r="F30" s="220"/>
-      <c r="G30" s="220"/>
-      <c r="H30" s="220"/>
-      <c r="I30" s="220"/>
-      <c r="J30" s="220"/>
-      <c r="K30" s="220"/>
-      <c r="L30" s="220"/>
-      <c r="M30" s="220"/>
-      <c r="N30" s="220"/>
-      <c r="O30" s="220"/>
-      <c r="P30" s="220"/>
-      <c r="Q30" s="220"/>
-      <c r="R30" s="220"/>
-      <c r="S30" s="220"/>
-      <c r="T30" s="221"/>
-    </row>
-    <row r="31" spans="1:20">
-      <c r="A31" s="222" t="s">
-        <v>106</v>
-      </c>
-      <c r="B31" s="223" t="s">
-        <v>107</v>
-      </c>
-      <c r="C31" s="224"/>
-      <c r="D31" s="224" t="s">
-        <v>108</v>
-      </c>
-      <c r="E31" s="225" t="s">
-        <v>109</v>
-      </c>
-      <c r="F31" s="226"/>
-      <c r="G31" s="222" t="s">
-        <v>110</v>
-      </c>
-      <c r="H31" s="224" t="s">
-        <v>111</v>
-      </c>
-      <c r="I31" s="223" t="s">
-        <v>112</v>
-      </c>
-      <c r="J31" s="227" t="s">
-        <v>113</v>
-      </c>
-      <c r="K31" s="227" t="s">
-        <v>114</v>
-      </c>
-      <c r="L31" s="227" t="s">
-        <v>65</v>
-      </c>
-      <c r="M31" s="224"/>
-      <c r="N31" s="223" t="s">
-        <v>66</v>
-      </c>
-      <c r="O31" s="224"/>
-      <c r="P31" s="223" t="s">
-        <v>115</v>
-      </c>
-      <c r="Q31" s="223"/>
-      <c r="R31" s="223"/>
-      <c r="S31" s="223"/>
-      <c r="T31" s="224"/>
-    </row>
-    <row r="32" spans="1:20">
-      <c r="A32" s="228" t="s">
-        <v>116</v>
-      </c>
-      <c r="B32" s="209" t="s">
-        <v>117</v>
-      </c>
-      <c r="C32" s="207"/>
-      <c r="D32" s="229" t="s">
-        <v>118</v>
-      </c>
-      <c r="E32" s="209" t="s">
-        <v>119</v>
-      </c>
-      <c r="F32" s="206"/>
-      <c r="G32" s="228" t="s">
-        <v>120</v>
-      </c>
-      <c r="H32" s="229" t="s">
-        <v>120</v>
-      </c>
-      <c r="I32" s="229" t="s">
-        <v>120</v>
-      </c>
-      <c r="J32" s="229" t="s">
-        <v>120</v>
-      </c>
-      <c r="K32" s="229" t="s">
-        <v>120</v>
-      </c>
-      <c r="L32" s="229" t="s">
-        <v>120</v>
-      </c>
-      <c r="M32" s="229" t="s">
-        <v>120</v>
-      </c>
-      <c r="N32" s="229" t="s">
-        <v>120</v>
-      </c>
-      <c r="O32" s="229" t="s">
-        <v>120</v>
-      </c>
-      <c r="P32" s="230" t="s">
-        <v>121</v>
-      </c>
-      <c r="Q32" s="201"/>
-      <c r="R32" s="201"/>
-      <c r="S32" s="201"/>
-      <c r="T32" s="231"/>
-    </row>
-    <row r="33" spans="1:20">
-      <c r="A33" s="228" t="s">
-        <v>122</v>
-      </c>
-      <c r="B33" s="209" t="s">
-        <v>123</v>
-      </c>
-      <c r="C33" s="207"/>
-      <c r="D33" s="229" t="s">
-        <v>118</v>
-      </c>
-      <c r="E33" s="209" t="s">
-        <v>119</v>
-      </c>
-      <c r="F33" s="206"/>
-      <c r="G33" s="228" t="s">
-        <v>120</v>
-      </c>
-      <c r="H33" s="229" t="s">
-        <v>120</v>
-      </c>
-      <c r="I33" s="229" t="s">
-        <v>120</v>
-      </c>
-      <c r="J33" s="229" t="s">
-        <v>120</v>
-      </c>
-      <c r="K33" s="229" t="s">
-        <v>120</v>
-      </c>
-      <c r="L33" s="229" t="s">
-        <v>120</v>
-      </c>
-      <c r="M33" s="229" t="s">
-        <v>120</v>
-      </c>
-      <c r="N33" s="229" t="s">
-        <v>120</v>
-      </c>
-      <c r="O33" s="229" t="s">
-        <v>120</v>
-      </c>
-      <c r="P33" s="230" t="s">
-        <v>124</v>
-      </c>
-      <c r="Q33" s="201"/>
-      <c r="R33" s="201"/>
-      <c r="S33" s="201"/>
-      <c r="T33" s="232"/>
-    </row>
-    <row r="34" spans="1:20">
-      <c r="A34" s="228" t="s">
-        <v>125</v>
-      </c>
-      <c r="B34" s="209" t="s">
-        <v>126</v>
-      </c>
-      <c r="C34" s="207"/>
-      <c r="D34" s="229"/>
-      <c r="E34" s="203" t="s">
-        <v>127</v>
-      </c>
-      <c r="F34" s="203"/>
-      <c r="G34" s="228" t="s">
-        <v>120</v>
-      </c>
-      <c r="H34" s="229" t="s">
-        <v>120</v>
-      </c>
-      <c r="I34" s="229" t="s">
-        <v>120</v>
-      </c>
-      <c r="J34" s="229" t="s">
-        <v>120</v>
-      </c>
-      <c r="K34" s="229" t="s">
-        <v>120</v>
-      </c>
-      <c r="L34" s="229" t="s">
-        <v>120</v>
-      </c>
-      <c r="M34" s="229" t="s">
-        <v>120</v>
-      </c>
-      <c r="N34" s="229" t="s">
-        <v>120</v>
-      </c>
-      <c r="O34" s="229" t="s">
-        <v>120</v>
-      </c>
-      <c r="P34" s="230" t="s">
-        <v>128</v>
-      </c>
-      <c r="Q34" s="201"/>
-      <c r="R34" s="201"/>
-      <c r="S34" s="202"/>
-      <c r="T34" s="232"/>
-    </row>
-    <row r="35" spans="1:20">
-      <c r="A35" s="228" t="s">
-        <v>129</v>
-      </c>
-      <c r="B35" s="209" t="s">
         <v>130</v>
-      </c>
-      <c r="C35" s="207"/>
-      <c r="D35" s="229"/>
-      <c r="E35" s="203" t="s">
-        <v>127</v>
-      </c>
-      <c r="F35" s="203"/>
-      <c r="G35" s="228" t="s">
-        <v>120</v>
-      </c>
-      <c r="H35" s="229" t="s">
-        <v>120</v>
-      </c>
-      <c r="I35" s="229" t="s">
-        <v>120</v>
-      </c>
-      <c r="J35" s="229" t="s">
-        <v>120</v>
-      </c>
-      <c r="K35" s="229" t="s">
-        <v>120</v>
-      </c>
-      <c r="L35" s="229" t="s">
-        <v>120</v>
-      </c>
-      <c r="M35" s="229" t="s">
-        <v>120</v>
-      </c>
-      <c r="N35" s="229" t="s">
-        <v>120</v>
-      </c>
-      <c r="O35" s="229" t="s">
-        <v>120</v>
-      </c>
-      <c r="P35" s="230" t="s">
-        <v>131</v>
       </c>
       <c r="Q35" s="201"/>
       <c r="R35" s="201"/>

--- a/document/01_画面設計書.xlsx
+++ b/document/01_画面設計書.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dorae/Develop/school_develop_1/document/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA4F2C39-8D8B-9B4F-929B-A7A980DF8F7D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C805D7BA-A673-AB4B-B752-1CF8108D7B40}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="740" windowWidth="29400" windowHeight="17040" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="740" windowWidth="29400" windowHeight="17040" firstSheet="1" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="表紙" sheetId="3" r:id="rId1"/>
@@ -20,11 +20,16 @@
     <sheet name="画面遷移図 (2)" sheetId="76" r:id="rId5"/>
     <sheet name="(Gxx)PC画面フォーム" sheetId="72" r:id="rId6"/>
     <sheet name="(Gxx)モバイル画面フォーム" sheetId="73" r:id="rId7"/>
-    <sheet name="G6-1" sheetId="78" r:id="rId8"/>
+    <sheet name="G6-1" sheetId="79" r:id="rId8"/>
+    <sheet name="G6-2" sheetId="80" r:id="rId9"/>
+    <sheet name="G6-3-1" sheetId="81" r:id="rId10"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm.Print_Area" localSheetId="5">'(Gxx)PC画面フォーム'!$A$1:$T$38</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="6">'(Gxx)モバイル画面フォーム'!$A$1:$K$49</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="7">'G6-1'!$A$1:$K$49</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="8">'G6-2'!$A$1:$K$49</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="9">'G6-3-1'!$A$1:$K$49</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="1">サイトマップ構造図!$A$1:$AG$45</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="3">画面遷移図!$A$1:$AG$45</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="4">'画面遷移図 (2)'!$A$1:$AK$75</definedName>
@@ -107,7 +112,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="267" uniqueCount="155">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="313" uniqueCount="137">
   <si>
     <t>作成日</t>
     <rPh sb="0" eb="3">
@@ -743,166 +748,6 @@
     </r>
   </si>
   <si>
-    <t>画面レイアウト定義</t>
-  </si>
-  <si>
-    <t>共通情報</t>
-  </si>
-  <si>
-    <t>システム名</t>
-  </si>
-  <si>
-    <t>作成者</t>
-  </si>
-  <si>
-    <t>工程名</t>
-  </si>
-  <si>
-    <t>作成日付</t>
-  </si>
-  <si>
-    <t>ドキュメント名</t>
-  </si>
-  <si>
-    <t>バージョン</t>
-  </si>
-  <si>
-    <t>書誌情報</t>
-  </si>
-  <si>
-    <t>書誌名</t>
-  </si>
-  <si>
-    <t>更新者</t>
-  </si>
-  <si>
-    <t>画面ID</t>
-  </si>
-  <si>
-    <t>G-1-1</t>
-  </si>
-  <si>
-    <t>画面の名称</t>
-  </si>
-  <si>
-    <t>ログイン画面</t>
-  </si>
-  <si>
-    <t>更新日付</t>
-  </si>
-  <si>
-    <t>概要</t>
-  </si>
-  <si>
-    <t>アカウントを持ってる人がサイトにログインするための画面</t>
-  </si>
-  <si>
-    <t>レイアウト図</t>
-  </si>
-  <si>
-    <t>操作手順</t>
-  </si>
-  <si>
-    <t>①アカウントのメールアドレスを入力する</t>
-  </si>
-  <si>
-    <t>②アカウントのパスワードを入力する</t>
-  </si>
-  <si>
-    <t>③ログインを確定する</t>
-  </si>
-  <si>
-    <t>④アカウントを持ってなければ新規登録画面に移動する</t>
-  </si>
-  <si>
-    <t>使用する部品</t>
-  </si>
-  <si>
-    <t>識別ID</t>
-  </si>
-  <si>
-    <t>ラベル</t>
-  </si>
-  <si>
-    <t>入力／表示</t>
-  </si>
-  <si>
-    <t>部品の種類</t>
-  </si>
-  <si>
-    <t>表示桁数</t>
-  </si>
-  <si>
-    <t>入力桁数</t>
-  </si>
-  <si>
-    <t>データ型</t>
-  </si>
-  <si>
-    <t>文字種</t>
-  </si>
-  <si>
-    <t>初期表示</t>
-  </si>
-  <si>
-    <t>説明</t>
-  </si>
-  <si>
-    <t>①</t>
-  </si>
-  <si>
-    <t>メールアドレス入力</t>
-  </si>
-  <si>
-    <t>入力</t>
-  </si>
-  <si>
-    <t>テキストボックス</t>
-  </si>
-  <si>
-    <t>ー</t>
-  </si>
-  <si>
-    <t>メールアドレスを入力するテキストボックス</t>
-  </si>
-  <si>
-    <t>②</t>
-  </si>
-  <si>
-    <t>パスワード入力</t>
-  </si>
-  <si>
-    <t>パスワードを入力するテキストボックス</t>
-  </si>
-  <si>
-    <t>③</t>
-  </si>
-  <si>
-    <t>ログイン</t>
-  </si>
-  <si>
-    <t>ボタン</t>
-  </si>
-  <si>
-    <t>ログインを確定するボタン</t>
-  </si>
-  <si>
-    <t>④</t>
-  </si>
-  <si>
-    <t>新規登録</t>
-  </si>
-  <si>
-    <t>新規登録画面へ移動するボタン</t>
-  </si>
-  <si>
-    <t>上田匡成</t>
-    <rPh sb="0" eb="4">
-      <t>ウエ</t>
-    </rPh>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
     <t>しちゃっく</t>
     <phoneticPr fontId="3"/>
   </si>
@@ -1011,6 +856,214 @@
   <si>
     <t>エラーメッセージを表示する</t>
   </si>
+  <si>
+    <t>上田</t>
+    <rPh sb="0" eb="2">
+      <t>ウエ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>コーデクラウド</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>コーデクラウド　画面設計書</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>G6-1</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>GPT画面</t>
+    <rPh sb="3" eb="5">
+      <t>ガメn</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>GPTのトップ画面</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>テキスト（GPTコメント）</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>GPTが喋るコメント欄</t>
+    <rPh sb="4" eb="5">
+      <t>シャベル</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>画像</t>
+    <rPh sb="0" eb="2">
+      <t>ガゾウ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>画像アップロード</t>
+    <rPh sb="0" eb="1">
+      <t>ガゾウ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>画像をアップロードする場所</t>
+    <rPh sb="0" eb="1">
+      <t>ガゾウウ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>送信</t>
+    <rPh sb="0" eb="2">
+      <t>ソウシn</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>GPTに聞きたいことを選択するボタン</t>
+    <rPh sb="11" eb="13">
+      <t>センタク</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>画像のアップロードが必要な場合はアップロードする</t>
+    <rPh sb="0" eb="2">
+      <t>ガゾウ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>GPTに聞きたいことを選択する</t>
+    <rPh sb="4" eb="5">
+      <t>キキタ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>センタク</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>テキスト</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>GPTレスポンス</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>GPTに聞いたことの返信を表示する画面</t>
+    <rPh sb="10" eb="12">
+      <t>ヘンシn</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>G6-2</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>G6-3-1</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>GPTの画像レスポンス画面</t>
+    <rPh sb="4" eb="6">
+      <t>ガゾウ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>GPTのテキスト入力画面</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>画像</t>
+    <rPh sb="0" eb="1">
+      <t>ガゾウ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>画像の返信が来る場所。アップロード操作はしない</t>
+    <rPh sb="0" eb="1">
+      <t>ガゾウウ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>GPTに聞きたいことを入力する画面</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>テキスト入力</t>
+    <rPh sb="0" eb="1">
+      <t>（GPTコメント）</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>インプット</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>質問の内容が表示される</t>
+    <rPh sb="0" eb="2">
+      <t>シツモn</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>ヒョウ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>他の質問を続ける場合は「他の質問」ボタンを押す</t>
+    <rPh sb="0" eb="1">
+      <t>ホカ</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>ホカ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>遷移するボタン</t>
+    <rPh sb="0" eb="2">
+      <t>センイ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>G6-1へ遷移するボタン</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>GPTに聞きたいことを入力する</t>
+    <rPh sb="4" eb="5">
+      <t>キキタ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>質問ボタンを押下しG6-3-2へ遷移</t>
+    <rPh sb="0" eb="2">
+      <t>シツモn</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>セn</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>G6-3-2へ遷移するボタン</t>
+    <phoneticPr fontId="3"/>
+  </si>
 </sst>
 </file>
 
@@ -1020,7 +1073,7 @@
     <numFmt numFmtId="176" formatCode="m&quot;月&quot;d&quot;日&quot;;@"/>
     <numFmt numFmtId="177" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
   </numFmts>
-  <fonts count="26">
+  <fonts count="24">
     <font>
       <sz val="11"/>
       <name val="ＭＳ Ｐゴシック"/>
@@ -1180,21 +1233,8 @@
       <family val="2"/>
       <charset val="128"/>
     </font>
-    <font>
-      <b/>
-      <sz val="12"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <family val="2"/>
-      <charset val="128"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <family val="2"/>
-      <charset val="128"/>
-    </font>
   </fonts>
-  <fills count="6">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1219,14 +1259,8 @@
         <bgColor rgb="FF000000"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF92CDDC"/>
-        <bgColor rgb="FF000000"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="21">
+  <borders count="16">
     <border>
       <left/>
       <right/>
@@ -1403,63 +1437,6 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -1471,7 +1448,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="255">
+  <cellXfs count="201">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="4" applyFont="1"/>
@@ -2003,168 +1980,6 @@
     </xf>
     <xf numFmtId="0" fontId="13" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="5" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="5" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="5" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="5" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="5" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="5" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="56" fontId="25" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="56" fontId="25" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -14056,26 +13871,23 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>546100</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>88900</xdr:rowOff>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>342900</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>546100</xdr:colOff>
-      <xdr:row>28</xdr:row>
-      <xdr:rowOff>77391</xdr:rowOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>25400</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>100584</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="図 1">
+        <xdr:cNvPr id="19" name="図 18">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1F19EFEE-7CC8-A541-AB8D-856DFAECE169}"/>
-            </a:ext>
-            <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
-              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{E9B53DC1-7B20-431A-A054-98CFF993FC02}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{87C72613-59D7-65DB-4BCD-D21E9E5F2F74}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -14084,15 +13896,21 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2197100" y="1524000"/>
-          <a:ext cx="4953000" cy="3544491"/>
+          <a:off x="342900" y="1866900"/>
+          <a:ext cx="3327400" cy="7187184"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -14101,28 +13919,25 @@
     </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
+  <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>114300</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>127000</xdr:rowOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>140910</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>257175</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>41275</xdr:rowOff>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>401562</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>95163</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="3" name="四角形 8">
+        <xdr:cNvPr id="2" name="正方形/長方形 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F279265F-20D0-AF49-925C-284E72B51D3A}"/>
-            </a:ext>
-            <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
-              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{0ED3B2BD-BA7A-ADE7-2526-085372F0F6D4}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{02C816F3-BF30-E840-80B2-0E54E61C7FE1}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -14130,8 +13945,203 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3416300" y="2451100"/>
-          <a:ext cx="2619375" cy="447675"/>
+          <a:off x="11823700" y="1474410"/>
+          <a:ext cx="1747762" cy="525753"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="28575" cmpd="sng">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+          <a:prstDash val="dash"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="ja-JP" altLang="en-US"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>418495</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>21771</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>509454</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>143378</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="3" name="直線コネクタ 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6AEE0885-1B86-A54E-AC47-EB7B9C12F297}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="13588395" y="974271"/>
+          <a:ext cx="764059" cy="502607"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="19050" cmpd="sng">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>462643</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>348367</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>128006</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="4" name="正方形/長方形 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4D015C0D-09BD-B04D-B6EE-C2E1C4F275B8}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="14305643" y="571500"/>
+          <a:ext cx="558824" cy="509006"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="12700">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2000" b="1">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>①</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>482600</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>228600</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>50800</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="6" name="四角形 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{62C94CF2-7395-CA4C-BA27-29BD395D7883}"/>
+            </a:ext>
+            <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
+              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{673554EA-DC85-1399-9984-2AFD890111C6}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="482600" y="2895600"/>
+          <a:ext cx="2044700" cy="965200"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -14255,100 +14265,34 @@
           </a:lvl9pPr>
         </a:lstStyle>
         <a:p>
-          <a:pPr marL="0" indent="0"/>
-          <a:endParaRPr lang="en-US" sz="1100">
-            <a:solidFill>
-              <a:schemeClr val="lt1"/>
-            </a:solidFill>
-            <a:latin typeface="+mn-lt"/>
-            <a:ea typeface="+mn-lt"/>
-            <a:cs typeface="+mn-lt"/>
-          </a:endParaRPr>
+          <a:endParaRPr lang="ja-JP" altLang="en-US"/>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
+  <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>292100</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>256099</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>81357</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="4" name="直線コネクタ 3">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0B114F5A-9FE7-3142-9889-CFFB2963904D}"/>
-            </a:ext>
-            <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
-              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{C28CC1F3-A2E8-45E5-A3BF-D42A026D5A83}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm flipV="1">
-          <a:off x="6070600" y="2184400"/>
-          <a:ext cx="789499" cy="576657"/>
-        </a:xfrm>
-        <a:prstGeom prst="line">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln w="19050" cmpd="sng">
-          <a:solidFill>
-            <a:srgbClr val="FF0000"/>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>63500</xdr:colOff>
-      <xdr:row>10</xdr:row>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>393700</xdr:colOff>
+      <xdr:row>22</xdr:row>
       <xdr:rowOff>25400</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>609624</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>67061</xdr:rowOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>622300</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="5" name="四角形 11">
+        <xdr:cNvPr id="7" name="四角形 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8F7E056B-F16C-744C-BE61-C68AF71080CE}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{029F327E-173E-FE44-AB22-21233A638AC7}"/>
             </a:ext>
             <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
-              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{F60E3DE6-D874-4F15-92B7-7E3BA49F5545}"/>
+              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{673554EA-DC85-1399-9984-2AFD890111C6}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -14356,173 +14300,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6667500" y="1816100"/>
-          <a:ext cx="546124" cy="575061"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln w="12700">
-          <a:noFill/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr rtlCol="0" anchor="ctr"/>
-        <a:lstStyle>
-          <a:lvl1pPr marL="0" indent="0">
-            <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl1pPr>
-          <a:lvl2pPr marL="457200" indent="0">
-            <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl2pPr>
-          <a:lvl3pPr marL="914400" indent="0">
-            <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl3pPr>
-          <a:lvl4pPr marL="1371600" indent="0">
-            <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl4pPr>
-          <a:lvl5pPr marL="1828800" indent="0">
-            <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl5pPr>
-          <a:lvl6pPr marL="2286000" indent="0">
-            <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl6pPr>
-          <a:lvl7pPr marL="2743200" indent="0">
-            <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl7pPr>
-          <a:lvl8pPr marL="3200400" indent="0">
-            <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl8pPr>
-          <a:lvl9pPr marL="3657600" indent="0">
-            <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl9pPr>
-        </a:lstStyle>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2000" b="1">
-              <a:solidFill>
-                <a:srgbClr val="FF0000"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>①</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>101600</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>215900</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="6" name="四角形 15">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E9337118-666C-5445-9F07-048B24A385AF}"/>
-            </a:ext>
-            <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
-              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{2095A9A2-545E-45DA-A3E2-0CEA0EC7632B}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="3403600" y="3009900"/>
-          <a:ext cx="2590800" cy="400050"/>
+          <a:off x="393700" y="4216400"/>
+          <a:ext cx="3200400" cy="1460500"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -14652,86 +14431,28 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
+  <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>228600</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>127000</xdr:rowOff>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>393700</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>192599</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>170257</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="7" name="直線コネクタ 6">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7838E937-E744-0944-B13F-804179BFD4B5}"/>
-            </a:ext>
-            <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
-              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{132277A0-1663-4024-93BA-69707A28E990}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm flipV="1">
-          <a:off x="6007100" y="2628900"/>
-          <a:ext cx="789499" cy="576657"/>
-        </a:xfrm>
-        <a:prstGeom prst="line">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln w="19050" cmpd="sng">
-          <a:solidFill>
-            <a:srgbClr val="FF0000"/>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>127000</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>127000</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>146050</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
+      <xdr:colOff>609600</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>165100</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="8" name="四角形 29">
+        <xdr:cNvPr id="8" name="四角形 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0E51647B-D8C6-0344-991C-640C2DFC6666}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A11732AE-A43A-FB43-BDD2-ED89A586A583}"/>
             </a:ext>
             <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
-              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{F161B678-E64C-4954-93A4-424BE35FA8AC}"/>
+              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{673554EA-DC85-1399-9984-2AFD890111C6}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -14739,8 +14460,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3429000" y="3517900"/>
-          <a:ext cx="2495550" cy="381000"/>
+          <a:off x="393700" y="5943600"/>
+          <a:ext cx="3187700" cy="1841500"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -14870,28 +14591,473 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
+  <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>88900</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>228600</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>88900</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>107950</xdr:colOff>
-      <xdr:row>27</xdr:row>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>647700</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>88900</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="14" name="テキスト ボックス 13">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1FC015CE-4F03-3847-9770-D316B30C805B}"/>
+            </a:ext>
+            <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
+              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{038AAD56-1B54-4A2A-883B-499D8F8BF8BA}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="228600" y="2565400"/>
+          <a:ext cx="419100" cy="381000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr spcFirstLastPara="0" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" rtlCol="0" anchor="t">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle>
+          <a:lvl1pPr marL="0" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p>
+          <a:pPr marL="0" indent="0" algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="2000" b="1">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-lt"/>
+              <a:cs typeface="+mn-lt"/>
+            </a:rPr>
+            <a:t>①</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>177800</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>457200</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>177800</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="16" name="テキスト ボックス 14">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{856BFF91-F4F6-D743-B217-6B4F40A2CA38}"/>
+            </a:ext>
+            <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
+              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{038AAD56-1B54-4A2A-883B-499D8F8BF8BA}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="38100" y="5702300"/>
+          <a:ext cx="419100" cy="381000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr spcFirstLastPara="0" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" rtlCol="0" anchor="t">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle>
+          <a:lvl1pPr marL="0" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p>
+          <a:pPr marL="0" indent="0" algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="2000" b="1">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-lt"/>
+              <a:cs typeface="+mn-lt"/>
+            </a:rPr>
+            <a:t>③</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>114300</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>63500</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>533400</xdr:colOff>
+      <xdr:row>22</xdr:row>
       <xdr:rowOff>63500</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="9" name="四角形 6">
+        <xdr:cNvPr id="17" name="テキスト ボックス 14">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{912F6388-A69C-E74C-8CC7-157FE64BA42B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A1C5E65E-B4B9-0249-AD6B-869F8F9490C1}"/>
             </a:ext>
             <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
-              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{94E4614B-F2ED-45C1-97C2-98573290A6B8}"/>
+              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{038AAD56-1B54-4A2A-883B-499D8F8BF8BA}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="114300" y="3873500"/>
+          <a:ext cx="419100" cy="381000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr spcFirstLastPara="0" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" rtlCol="0" anchor="t">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle>
+          <a:lvl1pPr marL="0" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p>
+          <a:pPr marL="0" indent="0" algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="2000" b="1">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-lt"/>
+              <a:cs typeface="+mn-lt"/>
+            </a:rPr>
+            <a:t>②</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>342900</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>37650</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>101600</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="13" name="図 12">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D7B9C3E4-A621-7DF4-E430-D3B349CF1740}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="342900" y="1866900"/>
+          <a:ext cx="3339650" cy="7188200"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>140910</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>401562</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>95163</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="正方形/長方形 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8574793E-2204-4047-9CC0-282450BD6B3B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -14899,8 +15065,203 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3390900" y="4495800"/>
-          <a:ext cx="2495550" cy="381000"/>
+          <a:off x="12661900" y="1474410"/>
+          <a:ext cx="1747762" cy="525753"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="28575" cmpd="sng">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+          <a:prstDash val="dash"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="ja-JP" altLang="en-US"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>418495</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>21771</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>509454</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>143378</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="4" name="直線コネクタ 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5320346F-4618-704C-A337-F9C7D8674732}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="14426595" y="974271"/>
+          <a:ext cx="764059" cy="502607"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="19050" cmpd="sng">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>462643</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>348367</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>128006</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="5" name="正方形/長方形 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5FE85BEA-DC5F-8C41-A686-55C2AFF099A9}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="15143843" y="571500"/>
+          <a:ext cx="558824" cy="509006"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="12700">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2000" b="1">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>①</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>482600</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>228600</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>50800</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="6" name="四角形 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{670DEA7C-D037-B04A-A591-97668BF9BFEC}"/>
+            </a:ext>
+            <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
+              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{673554EA-DC85-1399-9984-2AFD890111C6}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="482600" y="2895600"/>
+          <a:ext cx="2044700" cy="965200"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -15030,28 +15391,1150 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>393700</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>25400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>622300</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="7" name="四角形 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3768B0D3-0364-D14B-BB05-D2965EBF07E2}"/>
+            </a:ext>
+            <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
+              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{673554EA-DC85-1399-9984-2AFD890111C6}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="393700" y="4216400"/>
+          <a:ext cx="3200400" cy="1460500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="28575" cmpd="sng">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+          <a:prstDash val="dash"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rtlCol="0" anchor="ctr"/>
+        <a:lstStyle>
+          <a:lvl1pPr marL="0" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p>
+          <a:endParaRPr lang="ja-JP" altLang="en-US"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>393700</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>609600</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>165100</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="8" name="四角形 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{47BBA590-B15C-CD44-87BD-3980FAF0924B}"/>
+            </a:ext>
+            <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
+              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{673554EA-DC85-1399-9984-2AFD890111C6}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="393700" y="5943600"/>
+          <a:ext cx="3187700" cy="1841500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="28575" cmpd="sng">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+          <a:prstDash val="dash"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rtlCol="0" anchor="ctr"/>
+        <a:lstStyle>
+          <a:lvl1pPr marL="0" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p>
+          <a:endParaRPr lang="ja-JP" altLang="en-US"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>228600</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>88900</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>647700</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>88900</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="9" name="テキスト ボックス 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{37B029F4-8D42-5A49-B90D-CB33FC557F8A}"/>
+            </a:ext>
+            <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
+              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{038AAD56-1B54-4A2A-883B-499D8F8BF8BA}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="228600" y="2565400"/>
+          <a:ext cx="419100" cy="381000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr spcFirstLastPara="0" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" rtlCol="0" anchor="t">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle>
+          <a:lvl1pPr marL="0" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p>
+          <a:pPr marL="0" indent="0" algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="2000" b="1">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-lt"/>
+              <a:cs typeface="+mn-lt"/>
+            </a:rPr>
+            <a:t>①</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>177800</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>457200</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>177800</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="10" name="テキスト ボックス 14">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EEC66752-0950-0644-B6A0-5F275E43EC34}"/>
+            </a:ext>
+            <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
+              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{038AAD56-1B54-4A2A-883B-499D8F8BF8BA}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="38100" y="5702300"/>
+          <a:ext cx="419100" cy="381000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr spcFirstLastPara="0" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" rtlCol="0" anchor="t">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle>
+          <a:lvl1pPr marL="0" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p>
+          <a:pPr marL="0" indent="0" algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="2000" b="1">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-lt"/>
+              <a:cs typeface="+mn-lt"/>
+            </a:rPr>
+            <a:t>③</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>114300</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>63500</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>533400</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>63500</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="11" name="テキスト ボックス 14">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{40DB30B8-234F-F240-85F8-0ADC9BC2FD0D}"/>
+            </a:ext>
+            <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
+              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{038AAD56-1B54-4A2A-883B-499D8F8BF8BA}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="114300" y="3873500"/>
+          <a:ext cx="419100" cy="381000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr spcFirstLastPara="0" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" rtlCol="0" anchor="t">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle>
+          <a:lvl1pPr marL="0" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p>
+          <a:pPr marL="0" indent="0" algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="2000" b="1">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-lt"/>
+              <a:cs typeface="+mn-lt"/>
+            </a:rPr>
+            <a:t>②</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>762000</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>63500</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>254000</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>88900</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="14" name="四角形 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F15DD7E8-60F3-7F43-BD53-5E6C285C8F2E}"/>
+            </a:ext>
+            <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
+              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{673554EA-DC85-1399-9984-2AFD890111C6}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1435100" y="7874000"/>
+          <a:ext cx="1117600" cy="406400"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="28575" cmpd="sng">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+          <a:prstDash val="dash"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rtlCol="0" anchor="ctr"/>
+        <a:lstStyle>
+          <a:lvl1pPr marL="0" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p>
+          <a:endParaRPr lang="ja-JP" altLang="en-US"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>381000</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>177800</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>800100</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>177800</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="15" name="テキスト ボックス 14">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2C9E38BA-4B40-0F49-BF98-310F8013F271}"/>
+            </a:ext>
+            <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
+              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{038AAD56-1B54-4A2A-883B-499D8F8BF8BA}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1054100" y="7797800"/>
+          <a:ext cx="419100" cy="381000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr spcFirstLastPara="0" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" rtlCol="0" anchor="t">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle>
+          <a:lvl1pPr marL="0" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p>
+          <a:pPr marL="0" indent="0" algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="2000" b="1">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-lt"/>
+              <a:cs typeface="+mn-lt"/>
+            </a:rPr>
+            <a:t>④</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>203200</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>330200</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>139700</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>167199</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>43257</xdr:rowOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>25400</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>89868</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="13" name="図 12">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8B58E1CC-C3B1-6C91-E967-0D002510A846}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="330200" y="1854200"/>
+          <a:ext cx="3340100" cy="7189168"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>140910</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>401562</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>95163</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="正方形/長方形 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{ECB18F1D-809C-CF41-8959-17BCAF74968B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12928600" y="1474410"/>
+          <a:ext cx="1747762" cy="525753"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="28575" cmpd="sng">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+          <a:prstDash val="dash"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="ja-JP" altLang="en-US"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>418495</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>21771</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>509454</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>143378</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="10" name="直線コネクタ 9">
+        <xdr:cNvPr id="4" name="直線コネクタ 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FE7F3610-DAD1-7949-9FBF-A4362B005753}"/>
-            </a:ext>
-            <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
-              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{1E56E5F2-849F-4CFB-A36C-59B32E6D2275}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B8E8566B-3BCD-0043-8652-1B1D8A894663}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -15059,8 +16542,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipV="1">
-          <a:off x="5981700" y="3213100"/>
-          <a:ext cx="789499" cy="576657"/>
+          <a:off x="14693295" y="974271"/>
+          <a:ext cx="764059" cy="502607"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -15088,86 +16571,25 @@
     </xdr:cxnSp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
+  <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>127000</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>50800</xdr:rowOff>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>462643</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>90999</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>94057</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="11" name="直線コネクタ 10">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CB41E9C1-AA84-274D-8C98-946CC25A4EA0}"/>
-            </a:ext>
-            <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
-              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{801B4EE0-9285-4F5A-A530-73309E300B8A}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm flipV="1">
-          <a:off x="5905500" y="4152900"/>
-          <a:ext cx="789499" cy="576657"/>
-        </a:xfrm>
-        <a:prstGeom prst="line">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln w="19050" cmpd="sng">
-          <a:solidFill>
-            <a:srgbClr val="FF0000"/>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>25400</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>571524</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>16261</xdr:rowOff>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>348367</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>128006</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="12" name="四角形 4">
+        <xdr:cNvPr id="5" name="正方形/長方形 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{245D14F0-EE31-CA4B-8A93-25A107F9A406}"/>
-            </a:ext>
-            <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
-              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{AEB07FD8-A439-479A-8F27-4F46FFCDC3A7}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C3659073-9B1E-5B41-A505-F68148163F31}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -15175,8 +16597,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6629400" y="2298700"/>
-          <a:ext cx="546124" cy="575061"/>
+          <a:off x="15410543" y="571500"/>
+          <a:ext cx="558824" cy="509006"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -15203,99 +16625,8 @@
         </a:fontRef>
       </xdr:style>
       <xdr:txBody>
-        <a:bodyPr rtlCol="0" anchor="ctr"/>
-        <a:lstStyle>
-          <a:lvl1pPr marL="0" indent="0">
-            <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl1pPr>
-          <a:lvl2pPr marL="457200" indent="0">
-            <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl2pPr>
-          <a:lvl3pPr marL="914400" indent="0">
-            <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl3pPr>
-          <a:lvl4pPr marL="1371600" indent="0">
-            <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl4pPr>
-          <a:lvl5pPr marL="1828800" indent="0">
-            <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl5pPr>
-          <a:lvl6pPr marL="2286000" indent="0">
-            <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl6pPr>
-          <a:lvl7pPr marL="2743200" indent="0">
-            <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl7pPr>
-          <a:lvl8pPr marL="3200400" indent="0">
-            <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl8pPr>
-          <a:lvl9pPr marL="3657600" indent="0">
-            <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl9pPr>
-        </a:lstStyle>
+        <a:bodyPr vertOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
         <a:p>
           <a:pPr algn="ctr"/>
           <a:r>
@@ -15304,35 +16635,35 @@
                 <a:srgbClr val="FF0000"/>
               </a:solidFill>
             </a:rPr>
-            <a:t>②</a:t>
+            <a:t>①</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
+  <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>812800</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>25400</xdr:rowOff>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>482600</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>525046</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>67061</xdr:rowOff>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>228600</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>50800</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="13" name="四角形 5">
+        <xdr:cNvPr id="6" name="四角形 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{04820264-E947-8E48-91FD-D5F74DD1A62C}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3DD1196D-970F-874D-BF43-85FCFD878710}"/>
             </a:ext>
             <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
-              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{EC438E9C-6F0A-4C8C-B55A-CC4824F2D3DF}"/>
+              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{673554EA-DC85-1399-9984-2AFD890111C6}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -15340,15 +16671,18 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6591300" y="2882900"/>
-          <a:ext cx="537746" cy="575061"/>
+          <a:off x="482600" y="2895600"/>
+          <a:ext cx="2044700" cy="965200"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
         <a:noFill/>
-        <a:ln w="12700">
-          <a:noFill/>
+        <a:ln w="28575" cmpd="sng">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+          <a:prstDash val="dash"/>
         </a:ln>
       </xdr:spPr>
       <xdr:style>
@@ -15462,42 +16796,34 @@
           </a:lvl9pPr>
         </a:lstStyle>
         <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2000" b="1">
-              <a:solidFill>
-                <a:srgbClr val="FF0000"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>③</a:t>
-          </a:r>
+          <a:endParaRPr lang="ja-JP" altLang="en-US"/>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
+  <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>749300</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>88900</xdr:rowOff>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>393700</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>25400</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>469924</xdr:colOff>
-      <xdr:row>24</xdr:row>
-      <xdr:rowOff>126328</xdr:rowOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>622300</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="14" name="四角形 6">
+        <xdr:cNvPr id="7" name="四角形 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9AFDF8E0-FF10-B445-9C3F-83EC7AA8A719}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{31A1A32B-DBB2-9A48-8B5F-39B3FE9018D2}"/>
             </a:ext>
             <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
-              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{00796423-FA91-451E-8159-C73D85ACC259}"/>
+              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{673554EA-DC85-1399-9984-2AFD890111C6}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -15505,15 +16831,18 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6527800" y="3835400"/>
-          <a:ext cx="546124" cy="570828"/>
+          <a:off x="393700" y="4216400"/>
+          <a:ext cx="3200400" cy="1460500"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
         <a:noFill/>
-        <a:ln w="12700">
-          <a:noFill/>
+        <a:ln w="28575" cmpd="sng">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+          <a:prstDash val="dash"/>
         </a:ln>
       </xdr:spPr>
       <xdr:style>
@@ -15627,12 +16956,848 @@
           </a:lvl9pPr>
         </a:lstStyle>
         <a:p>
-          <a:pPr algn="ctr"/>
+          <a:endParaRPr lang="ja-JP" altLang="en-US"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>393700</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>609600</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>165100</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="8" name="四角形 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5A354CFB-4020-9644-A085-F36A2886B88A}"/>
+            </a:ext>
+            <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
+              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{673554EA-DC85-1399-9984-2AFD890111C6}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="393700" y="5943600"/>
+          <a:ext cx="3187700" cy="1841500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="28575" cmpd="sng">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+          <a:prstDash val="dash"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rtlCol="0" anchor="ctr"/>
+        <a:lstStyle>
+          <a:lvl1pPr marL="0" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p>
+          <a:endParaRPr lang="ja-JP" altLang="en-US"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>228600</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>88900</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>647700</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>88900</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="9" name="テキスト ボックス 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{01F95C23-8B9F-7C41-A611-7C9319C4658A}"/>
+            </a:ext>
+            <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
+              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{038AAD56-1B54-4A2A-883B-499D8F8BF8BA}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="228600" y="2565400"/>
+          <a:ext cx="419100" cy="381000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr spcFirstLastPara="0" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" rtlCol="0" anchor="t">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle>
+          <a:lvl1pPr marL="0" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p>
+          <a:pPr marL="0" indent="0" algn="l"/>
           <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2000" b="1">
+            <a:rPr lang="en-US" sz="2000" b="1">
               <a:solidFill>
                 <a:srgbClr val="FF0000"/>
               </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-lt"/>
+              <a:cs typeface="+mn-lt"/>
+            </a:rPr>
+            <a:t>①</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>177800</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>457200</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>177800</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="10" name="テキスト ボックス 14">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DACF6A5F-3D0F-7D40-A9B5-ED8FD18B2270}"/>
+            </a:ext>
+            <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
+              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{038AAD56-1B54-4A2A-883B-499D8F8BF8BA}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="38100" y="5702300"/>
+          <a:ext cx="419100" cy="381000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr spcFirstLastPara="0" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" rtlCol="0" anchor="t">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle>
+          <a:lvl1pPr marL="0" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p>
+          <a:pPr marL="0" indent="0" algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="2000" b="1">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-lt"/>
+              <a:cs typeface="+mn-lt"/>
+            </a:rPr>
+            <a:t>③</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>114300</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>63500</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>533400</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>63500</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="11" name="テキスト ボックス 14">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EFAF6949-7510-C848-B64F-4AF49D103BE9}"/>
+            </a:ext>
+            <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
+              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{038AAD56-1B54-4A2A-883B-499D8F8BF8BA}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="114300" y="3873500"/>
+          <a:ext cx="419100" cy="381000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr spcFirstLastPara="0" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" rtlCol="0" anchor="t">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle>
+          <a:lvl1pPr marL="0" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p>
+          <a:pPr marL="0" indent="0" algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="2000" b="1">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-lt"/>
+              <a:cs typeface="+mn-lt"/>
+            </a:rPr>
+            <a:t>②</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>762000</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>50800</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>254000</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="15" name="四角形 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8F66523E-DB14-C24D-9403-2C84BEE5BA49}"/>
+            </a:ext>
+            <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
+              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{673554EA-DC85-1399-9984-2AFD890111C6}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1435100" y="7861300"/>
+          <a:ext cx="1117600" cy="406400"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="28575" cmpd="sng">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+          <a:prstDash val="dash"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rtlCol="0" anchor="ctr"/>
+        <a:lstStyle>
+          <a:lvl1pPr marL="0" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p>
+          <a:endParaRPr lang="ja-JP" altLang="en-US"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>381000</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>165100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>800100</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>165100</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="16" name="テキスト ボックス 15">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8E5DC4E4-91F2-624A-BC6F-87F0E347F54E}"/>
+            </a:ext>
+            <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
+              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{038AAD56-1B54-4A2A-883B-499D8F8BF8BA}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1054100" y="7785100"/>
+          <a:ext cx="419100" cy="381000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr spcFirstLastPara="0" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" rtlCol="0" anchor="t">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle>
+          <a:lvl1pPr marL="0" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p>
+          <a:pPr marL="0" indent="0" algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="2000" b="1">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-lt"/>
+              <a:cs typeface="+mn-lt"/>
             </a:rPr>
             <a:t>④</a:t>
           </a:r>
@@ -17236,6 +19401,787 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EDA88973-714F-874D-A144-58EBD5686637}">
+  <dimension ref="A1:K49"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScaleNormal="100" zoomScaleSheetLayoutView="25" workbookViewId="0">
+      <selection activeCell="K27" sqref="K27"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14"/>
+  <cols>
+    <col min="2" max="2" width="12.5" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.83203125" customWidth="1"/>
+    <col min="9" max="9" width="40.1640625" customWidth="1"/>
+    <col min="11" max="11" width="41" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" ht="15" customHeight="1">
+      <c r="A1" s="88" t="s">
+        <v>39</v>
+      </c>
+      <c r="B1" s="77"/>
+      <c r="C1" s="77"/>
+      <c r="D1" s="77"/>
+      <c r="E1" s="77"/>
+      <c r="F1" s="77"/>
+      <c r="G1" s="77"/>
+      <c r="H1" s="77"/>
+      <c r="I1" s="77"/>
+      <c r="J1" s="77"/>
+      <c r="K1" s="78"/>
+    </row>
+    <row r="2" spans="1:11" ht="15" customHeight="1">
+      <c r="A2" s="79" t="s">
+        <v>40</v>
+      </c>
+      <c r="B2" s="25" t="s">
+        <v>41</v>
+      </c>
+      <c r="C2" s="194" t="s">
+        <v>104</v>
+      </c>
+      <c r="D2" s="200"/>
+      <c r="E2" s="200"/>
+      <c r="F2" s="200"/>
+      <c r="G2" s="200"/>
+      <c r="H2" s="200"/>
+      <c r="I2" s="195"/>
+      <c r="J2" s="80" t="s">
+        <v>42</v>
+      </c>
+      <c r="K2" s="81" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" ht="15" customHeight="1">
+      <c r="A3" s="82"/>
+      <c r="B3" s="25" t="s">
+        <v>43</v>
+      </c>
+      <c r="C3" s="194" t="s">
+        <v>82</v>
+      </c>
+      <c r="D3" s="200"/>
+      <c r="E3" s="200"/>
+      <c r="F3" s="200"/>
+      <c r="G3" s="200"/>
+      <c r="H3" s="200"/>
+      <c r="I3" s="195"/>
+      <c r="J3" s="80" t="s">
+        <v>44</v>
+      </c>
+      <c r="K3" s="83">
+        <v>44675</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" ht="15" customHeight="1">
+      <c r="A4" s="82"/>
+      <c r="B4" s="25" t="s">
+        <v>45</v>
+      </c>
+      <c r="C4" s="194" t="s">
+        <v>105</v>
+      </c>
+      <c r="D4" s="200"/>
+      <c r="E4" s="200"/>
+      <c r="F4" s="200"/>
+      <c r="G4" s="200"/>
+      <c r="H4" s="200"/>
+      <c r="I4" s="195"/>
+      <c r="J4" s="80" t="s">
+        <v>12</v>
+      </c>
+      <c r="K4" s="81" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" ht="15" customHeight="1">
+      <c r="A5" s="84" t="s">
+        <v>46</v>
+      </c>
+      <c r="B5" s="25" t="s">
+        <v>47</v>
+      </c>
+      <c r="C5" s="175" t="s">
+        <v>83</v>
+      </c>
+      <c r="D5" s="176"/>
+      <c r="E5" s="176"/>
+      <c r="F5" s="176"/>
+      <c r="G5" s="176"/>
+      <c r="H5" s="176"/>
+      <c r="I5" s="177"/>
+      <c r="J5" s="80" t="s">
+        <v>48</v>
+      </c>
+      <c r="K5" s="85"/>
+    </row>
+    <row r="6" spans="1:11" ht="15" customHeight="1">
+      <c r="A6" s="86"/>
+      <c r="B6" s="25" t="s">
+        <v>49</v>
+      </c>
+      <c r="C6" s="175" t="s">
+        <v>122</v>
+      </c>
+      <c r="D6" s="177"/>
+      <c r="E6" s="30" t="s">
+        <v>50</v>
+      </c>
+      <c r="F6" s="194" t="s">
+        <v>107</v>
+      </c>
+      <c r="G6" s="200"/>
+      <c r="H6" s="200"/>
+      <c r="I6" s="195"/>
+      <c r="J6" s="80" t="s">
+        <v>51</v>
+      </c>
+      <c r="K6" s="85"/>
+    </row>
+    <row r="7" spans="1:11" ht="15" customHeight="1">
+      <c r="A7" s="87"/>
+      <c r="B7" s="25" t="s">
+        <v>52</v>
+      </c>
+      <c r="C7" s="194" t="s">
+        <v>124</v>
+      </c>
+      <c r="D7" s="200"/>
+      <c r="E7" s="200"/>
+      <c r="F7" s="200"/>
+      <c r="G7" s="200"/>
+      <c r="H7" s="200"/>
+      <c r="I7" s="195"/>
+      <c r="J7" s="80"/>
+      <c r="K7" s="85"/>
+    </row>
+    <row r="8" spans="1:11" ht="15" customHeight="1">
+      <c r="A8" s="94" t="s">
+        <v>53</v>
+      </c>
+      <c r="B8" s="56"/>
+      <c r="C8" s="56"/>
+      <c r="D8" s="56"/>
+      <c r="E8" s="56"/>
+      <c r="F8" s="56"/>
+      <c r="G8" s="26" t="s">
+        <v>56</v>
+      </c>
+      <c r="H8" s="26" t="s">
+        <v>57</v>
+      </c>
+      <c r="I8" s="26" t="s">
+        <v>68</v>
+      </c>
+      <c r="J8" s="26" t="s">
+        <v>69</v>
+      </c>
+      <c r="K8" s="26" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" ht="15" customHeight="1">
+      <c r="A9" s="95"/>
+      <c r="B9" s="96"/>
+      <c r="C9" s="96"/>
+      <c r="D9" s="96"/>
+      <c r="E9" s="96"/>
+      <c r="F9" s="96"/>
+      <c r="G9" s="25">
+        <v>1</v>
+      </c>
+      <c r="H9" s="30" t="s">
+        <v>118</v>
+      </c>
+      <c r="I9" s="38" t="s">
+        <v>109</v>
+      </c>
+      <c r="J9" s="30" t="s">
+        <v>87</v>
+      </c>
+      <c r="K9" s="38" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" ht="15" customHeight="1">
+      <c r="A10" s="97"/>
+      <c r="B10" s="24"/>
+      <c r="C10" s="24"/>
+      <c r="D10" s="24"/>
+      <c r="E10" s="24"/>
+      <c r="F10" s="24"/>
+      <c r="G10" s="25">
+        <v>2</v>
+      </c>
+      <c r="H10" s="30" t="s">
+        <v>111</v>
+      </c>
+      <c r="I10" s="38" t="s">
+        <v>125</v>
+      </c>
+      <c r="J10" s="30" t="s">
+        <v>87</v>
+      </c>
+      <c r="K10" s="38" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" ht="15" customHeight="1">
+      <c r="A11" s="97"/>
+      <c r="B11" s="24"/>
+      <c r="C11" s="24"/>
+      <c r="D11" s="24"/>
+      <c r="E11" s="24"/>
+      <c r="F11" s="24"/>
+      <c r="G11" s="25">
+        <v>3</v>
+      </c>
+      <c r="H11" s="30" t="s">
+        <v>129</v>
+      </c>
+      <c r="I11" s="38" t="s">
+        <v>128</v>
+      </c>
+      <c r="J11" s="30" t="s">
+        <v>87</v>
+      </c>
+      <c r="K11" s="38" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" ht="15" customHeight="1">
+      <c r="A12" s="97"/>
+      <c r="B12" s="24"/>
+      <c r="C12" s="24"/>
+      <c r="D12" s="24"/>
+      <c r="E12" s="24"/>
+      <c r="F12" s="24"/>
+      <c r="G12" s="25">
+        <v>4</v>
+      </c>
+      <c r="H12" s="30" t="s">
+        <v>93</v>
+      </c>
+      <c r="I12" s="38" t="s">
+        <v>132</v>
+      </c>
+      <c r="J12" s="30" t="s">
+        <v>87</v>
+      </c>
+      <c r="K12" s="38" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" ht="15" customHeight="1">
+      <c r="A13" s="97"/>
+      <c r="B13" s="24"/>
+      <c r="C13" s="24"/>
+      <c r="D13" s="24"/>
+      <c r="E13" s="24"/>
+      <c r="F13" s="24"/>
+      <c r="G13" s="25"/>
+      <c r="H13" s="38"/>
+      <c r="I13" s="38"/>
+      <c r="J13" s="30"/>
+      <c r="K13" s="38"/>
+    </row>
+    <row r="14" spans="1:11" ht="15" customHeight="1">
+      <c r="A14" s="97"/>
+      <c r="B14" s="24"/>
+      <c r="C14" s="24"/>
+      <c r="D14" s="24"/>
+      <c r="E14" s="24"/>
+      <c r="F14" s="24"/>
+      <c r="G14" s="25"/>
+      <c r="H14" s="38"/>
+      <c r="I14" s="38"/>
+      <c r="J14" s="38"/>
+      <c r="K14" s="38"/>
+    </row>
+    <row r="15" spans="1:11" ht="15" customHeight="1">
+      <c r="A15" s="97"/>
+      <c r="B15" s="24"/>
+      <c r="C15" s="24"/>
+      <c r="D15" s="24"/>
+      <c r="E15" s="24"/>
+      <c r="F15" s="24"/>
+      <c r="G15" s="25"/>
+      <c r="H15" s="38"/>
+      <c r="I15" s="38"/>
+      <c r="J15" s="38"/>
+      <c r="K15" s="38"/>
+    </row>
+    <row r="16" spans="1:11" ht="15" customHeight="1">
+      <c r="A16" s="97"/>
+      <c r="B16" s="24"/>
+      <c r="C16" s="24"/>
+      <c r="D16" s="24"/>
+      <c r="E16" s="24"/>
+      <c r="F16" s="24"/>
+      <c r="G16" s="25"/>
+      <c r="H16" s="38"/>
+      <c r="I16" s="38"/>
+      <c r="J16" s="38"/>
+      <c r="K16" s="38"/>
+    </row>
+    <row r="17" spans="1:11" ht="15" customHeight="1">
+      <c r="A17" s="97"/>
+      <c r="B17" s="24"/>
+      <c r="C17" s="24"/>
+      <c r="D17" s="24"/>
+      <c r="E17" s="24"/>
+      <c r="F17" s="24"/>
+      <c r="G17" s="25"/>
+      <c r="H17" s="38"/>
+      <c r="I17" s="38"/>
+      <c r="J17" s="38"/>
+      <c r="K17" s="38"/>
+    </row>
+    <row r="18" spans="1:11" ht="15" customHeight="1">
+      <c r="A18" s="97"/>
+      <c r="B18" s="24"/>
+      <c r="C18" s="24"/>
+      <c r="D18" s="24"/>
+      <c r="E18" s="24"/>
+      <c r="F18" s="24"/>
+      <c r="G18" s="25"/>
+      <c r="H18" s="38"/>
+      <c r="I18" s="38"/>
+      <c r="J18" s="38"/>
+      <c r="K18" s="38"/>
+    </row>
+    <row r="19" spans="1:11" ht="15" customHeight="1">
+      <c r="A19" s="97"/>
+      <c r="B19" s="24"/>
+      <c r="C19" s="24"/>
+      <c r="D19" s="24"/>
+      <c r="E19" s="24"/>
+      <c r="F19" s="24"/>
+      <c r="G19" s="25"/>
+      <c r="H19" s="38"/>
+      <c r="I19" s="38"/>
+      <c r="J19" s="38"/>
+      <c r="K19" s="38"/>
+    </row>
+    <row r="20" spans="1:11" ht="15" customHeight="1">
+      <c r="A20" s="97"/>
+      <c r="B20" s="24"/>
+      <c r="C20" s="24"/>
+      <c r="D20" s="24"/>
+      <c r="E20" s="24"/>
+      <c r="G20" s="25"/>
+      <c r="H20" s="38"/>
+      <c r="I20" s="38"/>
+      <c r="J20" s="38"/>
+      <c r="K20" s="38"/>
+    </row>
+    <row r="21" spans="1:11" ht="15" customHeight="1">
+      <c r="A21" s="97"/>
+      <c r="B21" s="24"/>
+      <c r="C21" s="24"/>
+      <c r="D21" s="24"/>
+      <c r="E21" s="24"/>
+      <c r="F21" s="24"/>
+      <c r="G21" s="25"/>
+      <c r="H21" s="38"/>
+      <c r="I21" s="38"/>
+      <c r="J21" s="38"/>
+      <c r="K21" s="38"/>
+    </row>
+    <row r="22" spans="1:11" ht="15" customHeight="1">
+      <c r="A22" s="97"/>
+      <c r="B22" s="24"/>
+      <c r="C22" s="24"/>
+      <c r="D22" s="24"/>
+      <c r="E22" s="24"/>
+      <c r="F22" s="24"/>
+      <c r="G22" s="25"/>
+      <c r="H22" s="38"/>
+      <c r="I22" s="38"/>
+      <c r="J22" s="38"/>
+      <c r="K22" s="38"/>
+    </row>
+    <row r="23" spans="1:11" ht="15" customHeight="1">
+      <c r="A23" s="97"/>
+      <c r="B23" s="24"/>
+      <c r="C23" s="24"/>
+      <c r="D23" s="24"/>
+      <c r="E23" s="24"/>
+      <c r="F23" s="24"/>
+      <c r="G23" s="25"/>
+      <c r="H23" s="38"/>
+      <c r="I23" s="38"/>
+      <c r="J23" s="38"/>
+      <c r="K23" s="38"/>
+    </row>
+    <row r="24" spans="1:11" ht="15" customHeight="1">
+      <c r="A24" s="97"/>
+      <c r="B24" s="24"/>
+      <c r="C24" s="24"/>
+      <c r="D24" s="24"/>
+      <c r="E24" s="24"/>
+      <c r="F24" s="24"/>
+      <c r="G24" s="25"/>
+      <c r="H24" s="38"/>
+      <c r="I24" s="38"/>
+      <c r="J24" s="38"/>
+      <c r="K24" s="38"/>
+    </row>
+    <row r="25" spans="1:11" ht="15" customHeight="1">
+      <c r="A25" s="97"/>
+      <c r="B25" s="24"/>
+      <c r="C25" s="24"/>
+      <c r="D25" s="24"/>
+      <c r="E25" s="24"/>
+      <c r="F25" s="24"/>
+      <c r="G25" s="25"/>
+      <c r="H25" s="38"/>
+      <c r="I25" s="38"/>
+      <c r="J25" s="38"/>
+      <c r="K25" s="38"/>
+    </row>
+    <row r="26" spans="1:11" ht="15" customHeight="1">
+      <c r="A26" s="97"/>
+      <c r="B26" s="24"/>
+      <c r="C26" s="24"/>
+      <c r="D26" s="24"/>
+      <c r="E26" s="24"/>
+      <c r="F26" s="24"/>
+      <c r="G26" s="25"/>
+      <c r="H26" s="38"/>
+      <c r="I26" s="38"/>
+      <c r="J26" s="38"/>
+      <c r="K26" s="38"/>
+    </row>
+    <row r="27" spans="1:11" ht="15" customHeight="1">
+      <c r="A27" s="97"/>
+      <c r="B27" s="24"/>
+      <c r="C27" s="24"/>
+      <c r="D27" s="24"/>
+      <c r="E27" s="24"/>
+      <c r="F27" s="24"/>
+      <c r="G27" s="25"/>
+      <c r="H27" s="38"/>
+      <c r="I27" s="38"/>
+      <c r="J27" s="38"/>
+      <c r="K27" s="38"/>
+    </row>
+    <row r="28" spans="1:11" ht="15" customHeight="1">
+      <c r="A28" s="97"/>
+      <c r="B28" s="24"/>
+      <c r="C28" s="24"/>
+      <c r="D28" s="24"/>
+      <c r="E28" s="24"/>
+      <c r="F28" s="24"/>
+      <c r="G28" s="25"/>
+      <c r="H28" s="38"/>
+      <c r="I28" s="38"/>
+      <c r="J28" s="38"/>
+      <c r="K28" s="38"/>
+    </row>
+    <row r="29" spans="1:11" ht="15" customHeight="1">
+      <c r="A29" s="97"/>
+      <c r="B29" s="24"/>
+      <c r="C29" s="24"/>
+      <c r="D29" s="24"/>
+      <c r="E29" s="24"/>
+      <c r="F29" s="24"/>
+      <c r="G29" s="98" t="s">
+        <v>71</v>
+      </c>
+      <c r="H29" s="99"/>
+      <c r="I29" s="99"/>
+      <c r="J29" s="99"/>
+      <c r="K29" s="100"/>
+    </row>
+    <row r="30" spans="1:11" ht="15" customHeight="1">
+      <c r="A30" s="97"/>
+      <c r="B30" s="24"/>
+      <c r="C30" s="24"/>
+      <c r="D30" s="24"/>
+      <c r="E30" s="24"/>
+      <c r="F30" s="24"/>
+      <c r="G30" s="117"/>
+      <c r="H30" s="120"/>
+      <c r="I30" s="120"/>
+      <c r="J30" s="120"/>
+      <c r="K30" s="121"/>
+    </row>
+    <row r="31" spans="1:11" ht="15" customHeight="1">
+      <c r="A31" s="97"/>
+      <c r="B31" s="24"/>
+      <c r="C31" s="24"/>
+      <c r="D31" s="24"/>
+      <c r="E31" s="24"/>
+      <c r="F31" s="24"/>
+      <c r="G31" s="118">
+        <v>1</v>
+      </c>
+      <c r="H31" s="113" t="s">
+        <v>134</v>
+      </c>
+      <c r="I31" s="113"/>
+      <c r="J31" s="113"/>
+      <c r="K31" s="114"/>
+    </row>
+    <row r="32" spans="1:11" ht="15" customHeight="1">
+      <c r="A32" s="97"/>
+      <c r="B32" s="24"/>
+      <c r="C32" s="24"/>
+      <c r="D32" s="24"/>
+      <c r="E32" s="24"/>
+      <c r="F32" s="24"/>
+      <c r="G32" s="118"/>
+      <c r="H32" s="113"/>
+      <c r="I32" s="113"/>
+      <c r="J32" s="113"/>
+      <c r="K32" s="114"/>
+    </row>
+    <row r="33" spans="1:11" ht="15" customHeight="1">
+      <c r="A33" s="97"/>
+      <c r="B33" s="24"/>
+      <c r="C33" s="24"/>
+      <c r="D33" s="24"/>
+      <c r="E33" s="24"/>
+      <c r="F33" s="24"/>
+      <c r="G33" s="118">
+        <v>2</v>
+      </c>
+      <c r="H33" s="113" t="s">
+        <v>135</v>
+      </c>
+      <c r="I33" s="113"/>
+      <c r="J33" s="113"/>
+      <c r="K33" s="114"/>
+    </row>
+    <row r="34" spans="1:11" ht="15" customHeight="1">
+      <c r="A34" s="97"/>
+      <c r="B34" s="24"/>
+      <c r="C34" s="24"/>
+      <c r="D34" s="24"/>
+      <c r="E34" s="24"/>
+      <c r="F34" s="24"/>
+      <c r="G34" s="118"/>
+      <c r="H34" s="113"/>
+      <c r="I34" s="113"/>
+      <c r="J34" s="113"/>
+      <c r="K34" s="114"/>
+    </row>
+    <row r="35" spans="1:11" ht="15" customHeight="1">
+      <c r="A35" s="97"/>
+      <c r="B35" s="24"/>
+      <c r="C35" s="24"/>
+      <c r="D35" s="24"/>
+      <c r="E35" s="24"/>
+      <c r="F35" s="24"/>
+      <c r="G35" s="118"/>
+      <c r="H35" s="113"/>
+      <c r="I35" s="113"/>
+      <c r="J35" s="113"/>
+      <c r="K35" s="114"/>
+    </row>
+    <row r="36" spans="1:11" ht="15" customHeight="1">
+      <c r="A36" s="97"/>
+      <c r="B36" s="24"/>
+      <c r="C36" s="24"/>
+      <c r="D36" s="24"/>
+      <c r="E36" s="24"/>
+      <c r="F36" s="24"/>
+      <c r="G36" s="118"/>
+      <c r="H36" s="113"/>
+      <c r="I36" s="113"/>
+      <c r="J36" s="113"/>
+      <c r="K36" s="114"/>
+    </row>
+    <row r="37" spans="1:11" ht="15" customHeight="1">
+      <c r="A37" s="97"/>
+      <c r="B37" s="24"/>
+      <c r="C37" s="24"/>
+      <c r="D37" s="24"/>
+      <c r="E37" s="24"/>
+      <c r="F37" s="24"/>
+      <c r="G37" s="118"/>
+      <c r="H37" s="113"/>
+      <c r="I37" s="113"/>
+      <c r="J37" s="113"/>
+      <c r="K37" s="114"/>
+    </row>
+    <row r="38" spans="1:11" ht="15" customHeight="1">
+      <c r="A38" s="97"/>
+      <c r="B38" s="24"/>
+      <c r="C38" s="24"/>
+      <c r="D38" s="24"/>
+      <c r="E38" s="24"/>
+      <c r="F38" s="24"/>
+      <c r="G38" s="118"/>
+      <c r="H38" s="113"/>
+      <c r="I38" s="113"/>
+      <c r="J38" s="113"/>
+      <c r="K38" s="114"/>
+    </row>
+    <row r="39" spans="1:11" ht="15" customHeight="1">
+      <c r="A39" s="97"/>
+      <c r="B39" s="24"/>
+      <c r="C39" s="24"/>
+      <c r="D39" s="24"/>
+      <c r="E39" s="24"/>
+      <c r="F39" s="24"/>
+      <c r="G39" s="118"/>
+      <c r="H39" s="113"/>
+      <c r="I39" s="113"/>
+      <c r="J39" s="113"/>
+      <c r="K39" s="114"/>
+    </row>
+    <row r="40" spans="1:11" ht="15" customHeight="1">
+      <c r="A40" s="97"/>
+      <c r="B40" s="24"/>
+      <c r="C40" s="24"/>
+      <c r="D40" s="24"/>
+      <c r="E40" s="24"/>
+      <c r="F40" s="24"/>
+      <c r="G40" s="118"/>
+      <c r="H40" s="113"/>
+      <c r="I40" s="113"/>
+      <c r="J40" s="113"/>
+      <c r="K40" s="114"/>
+    </row>
+    <row r="41" spans="1:11" ht="15" customHeight="1">
+      <c r="A41" s="97"/>
+      <c r="B41" s="24"/>
+      <c r="C41" s="24"/>
+      <c r="D41" s="24"/>
+      <c r="E41" s="24"/>
+      <c r="F41" s="24"/>
+      <c r="G41" s="118"/>
+      <c r="H41" s="113"/>
+      <c r="I41" s="113"/>
+      <c r="J41" s="113"/>
+      <c r="K41" s="114"/>
+    </row>
+    <row r="42" spans="1:11" ht="15" customHeight="1">
+      <c r="A42" s="97"/>
+      <c r="B42" s="24"/>
+      <c r="C42" s="24"/>
+      <c r="D42" s="24"/>
+      <c r="E42" s="24"/>
+      <c r="F42" s="24"/>
+      <c r="G42" s="118"/>
+      <c r="H42" s="113"/>
+      <c r="I42" s="113"/>
+      <c r="J42" s="113"/>
+      <c r="K42" s="114"/>
+    </row>
+    <row r="43" spans="1:11" ht="15" customHeight="1">
+      <c r="A43" s="97"/>
+      <c r="B43" s="24"/>
+      <c r="C43" s="24"/>
+      <c r="D43" s="24"/>
+      <c r="E43" s="24"/>
+      <c r="F43" s="24"/>
+      <c r="G43" s="118"/>
+      <c r="H43" s="113"/>
+      <c r="I43" s="113"/>
+      <c r="J43" s="113"/>
+      <c r="K43" s="114"/>
+    </row>
+    <row r="44" spans="1:11" ht="15" customHeight="1">
+      <c r="A44" s="97"/>
+      <c r="B44" s="24"/>
+      <c r="C44" s="24"/>
+      <c r="D44" s="24"/>
+      <c r="E44" s="24"/>
+      <c r="F44" s="24"/>
+      <c r="G44" s="118"/>
+      <c r="H44" s="113"/>
+      <c r="I44" s="113"/>
+      <c r="J44" s="113"/>
+      <c r="K44" s="114"/>
+    </row>
+    <row r="45" spans="1:11" ht="15" customHeight="1">
+      <c r="A45" s="97"/>
+      <c r="B45" s="24"/>
+      <c r="C45" s="24"/>
+      <c r="D45" s="24"/>
+      <c r="E45" s="24"/>
+      <c r="F45" s="24"/>
+      <c r="G45" s="118"/>
+      <c r="H45" s="113"/>
+      <c r="I45" s="113"/>
+      <c r="J45" s="113"/>
+      <c r="K45" s="114"/>
+    </row>
+    <row r="46" spans="1:11" ht="15" customHeight="1">
+      <c r="A46" s="97"/>
+      <c r="B46" s="24"/>
+      <c r="C46" s="24"/>
+      <c r="D46" s="24"/>
+      <c r="E46" s="24"/>
+      <c r="F46" s="24"/>
+      <c r="G46" s="118"/>
+      <c r="H46" s="113"/>
+      <c r="I46" s="113"/>
+      <c r="J46" s="113"/>
+      <c r="K46" s="114"/>
+    </row>
+    <row r="47" spans="1:11" ht="15" customHeight="1">
+      <c r="A47" s="97"/>
+      <c r="B47" s="24"/>
+      <c r="C47" s="24"/>
+      <c r="D47" s="24"/>
+      <c r="E47" s="24"/>
+      <c r="F47" s="24"/>
+      <c r="G47" s="118"/>
+      <c r="H47" s="113"/>
+      <c r="I47" s="113"/>
+      <c r="J47" s="113"/>
+      <c r="K47" s="114"/>
+    </row>
+    <row r="48" spans="1:11" ht="15" customHeight="1">
+      <c r="A48" s="97"/>
+      <c r="B48" s="24"/>
+      <c r="C48" s="24"/>
+      <c r="D48" s="24"/>
+      <c r="E48" s="24"/>
+      <c r="F48" s="24"/>
+      <c r="G48" s="118"/>
+      <c r="H48" s="113"/>
+      <c r="I48" s="113"/>
+      <c r="J48" s="113"/>
+      <c r="K48" s="114"/>
+    </row>
+    <row r="49" spans="1:11" ht="15" customHeight="1">
+      <c r="A49" s="103"/>
+      <c r="B49" s="104"/>
+      <c r="C49" s="104"/>
+      <c r="D49" s="104"/>
+      <c r="E49" s="104"/>
+      <c r="F49" s="104"/>
+      <c r="G49" s="119"/>
+      <c r="H49" s="115"/>
+      <c r="I49" s="115"/>
+      <c r="J49" s="115"/>
+      <c r="K49" s="116"/>
+    </row>
+  </sheetData>
+  <mergeCells count="7">
+    <mergeCell ref="C7:I7"/>
+    <mergeCell ref="C2:I2"/>
+    <mergeCell ref="C3:I3"/>
+    <mergeCell ref="C4:I4"/>
+    <mergeCell ref="C5:I5"/>
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="F6:I6"/>
+  </mergeCells>
+  <phoneticPr fontId="3"/>
+  <pageMargins left="0.9055118110236221" right="0.51181102362204722" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
+  <pageSetup paperSize="9" scale="68" orientation="landscape" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BC2FA301-F346-4BB4-A6BC-EB44CCEDDEA4}">
   <dimension ref="A1:AG45"/>
@@ -23301,8 +26247,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1200-000000000000}">
   <dimension ref="A1:K49"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A8" zoomScaleNormal="100" zoomScaleSheetLayoutView="25" workbookViewId="0">
-      <selection activeCell="K39" sqref="K39"/>
+    <sheetView zoomScaleNormal="100" zoomScaleSheetLayoutView="25" workbookViewId="0">
+      <selection activeCell="M23" sqref="M23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14"/>
@@ -23336,19 +26282,19 @@
         <v>41</v>
       </c>
       <c r="C2" s="194" t="s">
-        <v>132</v>
-      </c>
-      <c r="D2" s="254"/>
-      <c r="E2" s="254"/>
-      <c r="F2" s="254"/>
-      <c r="G2" s="254"/>
-      <c r="H2" s="254"/>
+        <v>80</v>
+      </c>
+      <c r="D2" s="200"/>
+      <c r="E2" s="200"/>
+      <c r="F2" s="200"/>
+      <c r="G2" s="200"/>
+      <c r="H2" s="200"/>
       <c r="I2" s="195"/>
       <c r="J2" s="80" t="s">
         <v>42</v>
       </c>
       <c r="K2" s="81" t="s">
-        <v>133</v>
+        <v>81</v>
       </c>
     </row>
     <row r="3" spans="1:11" ht="15" customHeight="1">
@@ -23357,13 +26303,13 @@
         <v>43</v>
       </c>
       <c r="C3" s="194" t="s">
-        <v>134</v>
-      </c>
-      <c r="D3" s="254"/>
-      <c r="E3" s="254"/>
-      <c r="F3" s="254"/>
-      <c r="G3" s="254"/>
-      <c r="H3" s="254"/>
+        <v>82</v>
+      </c>
+      <c r="D3" s="200"/>
+      <c r="E3" s="200"/>
+      <c r="F3" s="200"/>
+      <c r="G3" s="200"/>
+      <c r="H3" s="200"/>
       <c r="I3" s="195"/>
       <c r="J3" s="80" t="s">
         <v>44</v>
@@ -23380,11 +26326,11 @@
       <c r="C4" s="194" t="s">
         <v>75</v>
       </c>
-      <c r="D4" s="254"/>
-      <c r="E4" s="254"/>
-      <c r="F4" s="254"/>
-      <c r="G4" s="254"/>
-      <c r="H4" s="254"/>
+      <c r="D4" s="200"/>
+      <c r="E4" s="200"/>
+      <c r="F4" s="200"/>
+      <c r="G4" s="200"/>
+      <c r="H4" s="200"/>
       <c r="I4" s="195"/>
       <c r="J4" s="80" t="s">
         <v>12</v>
@@ -23401,7 +26347,7 @@
         <v>47</v>
       </c>
       <c r="C5" s="175" t="s">
-        <v>135</v>
+        <v>83</v>
       </c>
       <c r="D5" s="176"/>
       <c r="E5" s="176"/>
@@ -23420,17 +26366,17 @@
         <v>49</v>
       </c>
       <c r="C6" s="175" t="s">
-        <v>136</v>
+        <v>84</v>
       </c>
       <c r="D6" s="177"/>
       <c r="E6" s="30" t="s">
         <v>50</v>
       </c>
       <c r="F6" s="194" t="s">
-        <v>137</v>
-      </c>
-      <c r="G6" s="254"/>
-      <c r="H6" s="254"/>
+        <v>85</v>
+      </c>
+      <c r="G6" s="200"/>
+      <c r="H6" s="200"/>
       <c r="I6" s="195"/>
       <c r="J6" s="80" t="s">
         <v>51</v>
@@ -23443,13 +26389,13 @@
         <v>52</v>
       </c>
       <c r="C7" s="194" t="s">
-        <v>138</v>
-      </c>
-      <c r="D7" s="254"/>
-      <c r="E7" s="254"/>
-      <c r="F7" s="254"/>
-      <c r="G7" s="254"/>
-      <c r="H7" s="254"/>
+        <v>86</v>
+      </c>
+      <c r="D7" s="200"/>
+      <c r="E7" s="200"/>
+      <c r="F7" s="200"/>
+      <c r="G7" s="200"/>
+      <c r="H7" s="200"/>
       <c r="I7" s="195"/>
       <c r="J7" s="80"/>
       <c r="K7" s="85"/>
@@ -23490,16 +26436,16 @@
         <v>1</v>
       </c>
       <c r="H9" s="30" t="s">
-        <v>139</v>
+        <v>87</v>
       </c>
       <c r="I9" s="38" t="s">
-        <v>140</v>
+        <v>88</v>
       </c>
       <c r="J9" s="30" t="s">
-        <v>139</v>
+        <v>87</v>
       </c>
       <c r="K9" s="38" t="s">
-        <v>141</v>
+        <v>89</v>
       </c>
     </row>
     <row r="10" spans="1:11" ht="15" customHeight="1">
@@ -23513,16 +26459,16 @@
         <v>2</v>
       </c>
       <c r="H10" s="30" t="s">
-        <v>139</v>
+        <v>87</v>
       </c>
       <c r="I10" s="38" t="s">
-        <v>142</v>
+        <v>90</v>
       </c>
       <c r="J10" s="30" t="s">
-        <v>139</v>
+        <v>87</v>
       </c>
       <c r="K10" s="38" t="s">
-        <v>143</v>
+        <v>91</v>
       </c>
     </row>
     <row r="11" spans="1:11" ht="15" customHeight="1">
@@ -23536,16 +26482,16 @@
         <v>3</v>
       </c>
       <c r="H11" s="38" t="s">
-        <v>144</v>
+        <v>92</v>
       </c>
       <c r="I11" s="38" t="s">
-        <v>145</v>
+        <v>93</v>
       </c>
       <c r="J11" s="30" t="s">
-        <v>139</v>
+        <v>87</v>
       </c>
       <c r="K11" s="38" t="s">
-        <v>146</v>
+        <v>94</v>
       </c>
     </row>
     <row r="12" spans="1:11" ht="15" customHeight="1">
@@ -23559,16 +26505,16 @@
         <v>4</v>
       </c>
       <c r="H12" s="38" t="s">
-        <v>147</v>
+        <v>95</v>
       </c>
       <c r="I12" s="38" t="s">
-        <v>145</v>
+        <v>93</v>
       </c>
       <c r="J12" s="30" t="s">
-        <v>139</v>
+        <v>87</v>
       </c>
       <c r="K12" s="38" t="s">
-        <v>148</v>
+        <v>96</v>
       </c>
     </row>
     <row r="13" spans="1:11" ht="15" customHeight="1">
@@ -23582,16 +26528,16 @@
         <v>5</v>
       </c>
       <c r="H13" s="38" t="s">
-        <v>149</v>
+        <v>97</v>
       </c>
       <c r="I13" s="38" t="s">
-        <v>150</v>
+        <v>98</v>
       </c>
       <c r="J13" s="30" t="s">
-        <v>139</v>
+        <v>87</v>
       </c>
       <c r="K13" s="38" t="s">
-        <v>151</v>
+        <v>99</v>
       </c>
     </row>
     <row r="14" spans="1:11" ht="15" customHeight="1">
@@ -23828,7 +26774,7 @@
         <v>1</v>
       </c>
       <c r="H31" s="113" t="s">
-        <v>152</v>
+        <v>100</v>
       </c>
       <c r="I31" s="113"/>
       <c r="J31" s="113"/>
@@ -23858,7 +26804,7 @@
         <v>2</v>
       </c>
       <c r="H33" s="113" t="s">
-        <v>153</v>
+        <v>101</v>
       </c>
       <c r="I33" s="113"/>
       <c r="J33" s="113"/>
@@ -23873,7 +26819,7 @@
       <c r="F34" s="24"/>
       <c r="G34" s="118"/>
       <c r="H34" s="113" t="s">
-        <v>154</v>
+        <v>102</v>
       </c>
       <c r="I34" s="113"/>
       <c r="J34" s="113"/>
@@ -24092,1068 +27038,1554 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{01B61871-50B0-514C-B040-A24D9240679B}">
-  <dimension ref="A1:T38"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DBA21412-5207-DD4D-AEA3-572E7D4C1CAE}">
+  <dimension ref="A1:K49"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="K18" sqref="K18"/>
+    <sheetView zoomScaleNormal="100" zoomScaleSheetLayoutView="25" workbookViewId="0">
+      <selection activeCell="I37" sqref="I37"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14"/>
+  <cols>
+    <col min="2" max="2" width="12.5" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.83203125" customWidth="1"/>
+    <col min="9" max="9" width="40.1640625" customWidth="1"/>
+    <col min="11" max="11" width="29" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:20" ht="15">
-      <c r="A1" s="235" t="s">
-        <v>80</v>
-      </c>
-      <c r="B1" s="236"/>
-      <c r="C1" s="236"/>
-      <c r="D1" s="236"/>
-      <c r="E1" s="236"/>
-      <c r="F1" s="236"/>
-      <c r="G1" s="236"/>
-      <c r="H1" s="236"/>
-      <c r="I1" s="236"/>
-      <c r="J1" s="236"/>
-      <c r="K1" s="236"/>
-      <c r="L1" s="236"/>
-      <c r="M1" s="236"/>
-      <c r="N1" s="236"/>
-      <c r="O1" s="236"/>
-      <c r="P1" s="236"/>
-      <c r="Q1" s="236"/>
-      <c r="R1" s="236"/>
-      <c r="S1" s="236"/>
-      <c r="T1" s="237"/>
-    </row>
-    <row r="2" spans="1:20">
-      <c r="A2" s="238" t="s">
-        <v>81</v>
-      </c>
-      <c r="B2" s="239"/>
-      <c r="C2" s="200" t="s">
+    <row r="1" spans="1:11" ht="15" customHeight="1">
+      <c r="A1" s="88" t="s">
+        <v>39</v>
+      </c>
+      <c r="B1" s="77"/>
+      <c r="C1" s="77"/>
+      <c r="D1" s="77"/>
+      <c r="E1" s="77"/>
+      <c r="F1" s="77"/>
+      <c r="G1" s="77"/>
+      <c r="H1" s="77"/>
+      <c r="I1" s="77"/>
+      <c r="J1" s="77"/>
+      <c r="K1" s="78"/>
+    </row>
+    <row r="2" spans="1:11" ht="15" customHeight="1">
+      <c r="A2" s="79" t="s">
+        <v>40</v>
+      </c>
+      <c r="B2" s="25" t="s">
+        <v>41</v>
+      </c>
+      <c r="C2" s="194" t="s">
+        <v>104</v>
+      </c>
+      <c r="D2" s="200"/>
+      <c r="E2" s="200"/>
+      <c r="F2" s="200"/>
+      <c r="G2" s="200"/>
+      <c r="H2" s="200"/>
+      <c r="I2" s="195"/>
+      <c r="J2" s="80" t="s">
+        <v>42</v>
+      </c>
+      <c r="K2" s="81" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" ht="15" customHeight="1">
+      <c r="A3" s="82"/>
+      <c r="B3" s="25" t="s">
+        <v>43</v>
+      </c>
+      <c r="C3" s="194" t="s">
         <v>82</v>
       </c>
-      <c r="D2" s="245" t="s">
-        <v>72</v>
-      </c>
-      <c r="E2" s="244"/>
-      <c r="F2" s="244"/>
-      <c r="G2" s="244"/>
-      <c r="H2" s="244"/>
-      <c r="I2" s="244"/>
-      <c r="J2" s="244"/>
-      <c r="K2" s="244"/>
-      <c r="L2" s="202"/>
-      <c r="M2" s="203"/>
-      <c r="N2" s="203"/>
-      <c r="O2" s="203"/>
-      <c r="P2" s="203"/>
-      <c r="Q2" s="246" t="s">
+      <c r="D3" s="200"/>
+      <c r="E3" s="200"/>
+      <c r="F3" s="200"/>
+      <c r="G3" s="200"/>
+      <c r="H3" s="200"/>
+      <c r="I3" s="195"/>
+      <c r="J3" s="80" t="s">
+        <v>44</v>
+      </c>
+      <c r="K3" s="83">
+        <v>44675</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" ht="15" customHeight="1">
+      <c r="A4" s="82"/>
+      <c r="B4" s="25" t="s">
+        <v>45</v>
+      </c>
+      <c r="C4" s="194" t="s">
+        <v>105</v>
+      </c>
+      <c r="D4" s="200"/>
+      <c r="E4" s="200"/>
+      <c r="F4" s="200"/>
+      <c r="G4" s="200"/>
+      <c r="H4" s="200"/>
+      <c r="I4" s="195"/>
+      <c r="J4" s="80" t="s">
+        <v>12</v>
+      </c>
+      <c r="K4" s="81" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" ht="15" customHeight="1">
+      <c r="A5" s="84" t="s">
+        <v>46</v>
+      </c>
+      <c r="B5" s="25" t="s">
+        <v>47</v>
+      </c>
+      <c r="C5" s="175" t="s">
         <v>83</v>
       </c>
-      <c r="R2" s="247"/>
-      <c r="S2" s="206" t="s">
-        <v>131</v>
-      </c>
-      <c r="T2" s="207"/>
-    </row>
-    <row r="3" spans="1:20">
-      <c r="A3" s="240"/>
-      <c r="B3" s="241"/>
-      <c r="C3" s="200" t="s">
-        <v>84</v>
-      </c>
-      <c r="D3" s="245" t="s">
-        <v>74</v>
-      </c>
-      <c r="E3" s="244"/>
-      <c r="F3" s="244"/>
-      <c r="G3" s="244"/>
-      <c r="H3" s="244"/>
-      <c r="I3" s="244"/>
-      <c r="J3" s="244"/>
-      <c r="K3" s="244"/>
-      <c r="L3" s="202"/>
-      <c r="M3" s="203"/>
-      <c r="N3" s="203"/>
-      <c r="O3" s="203"/>
-      <c r="P3" s="203"/>
-      <c r="Q3" s="246" t="s">
-        <v>85</v>
-      </c>
-      <c r="R3" s="247"/>
-      <c r="S3" s="248">
-        <v>45204</v>
-      </c>
-      <c r="T3" s="249"/>
-    </row>
-    <row r="4" spans="1:20">
-      <c r="A4" s="242"/>
-      <c r="B4" s="243"/>
-      <c r="C4" s="200" t="s">
-        <v>86</v>
-      </c>
-      <c r="D4" s="245" t="s">
-        <v>75</v>
-      </c>
-      <c r="E4" s="244"/>
-      <c r="F4" s="244"/>
-      <c r="G4" s="244"/>
-      <c r="H4" s="244"/>
-      <c r="I4" s="244"/>
-      <c r="J4" s="244"/>
-      <c r="K4" s="244"/>
-      <c r="L4" s="202"/>
-      <c r="M4" s="203"/>
-      <c r="N4" s="203"/>
-      <c r="O4" s="203"/>
-      <c r="P4" s="203"/>
-      <c r="Q4" s="246" t="s">
+      <c r="D5" s="176"/>
+      <c r="E5" s="176"/>
+      <c r="F5" s="176"/>
+      <c r="G5" s="176"/>
+      <c r="H5" s="176"/>
+      <c r="I5" s="177"/>
+      <c r="J5" s="80" t="s">
+        <v>48</v>
+      </c>
+      <c r="K5" s="85"/>
+    </row>
+    <row r="6" spans="1:11" ht="15" customHeight="1">
+      <c r="A6" s="86"/>
+      <c r="B6" s="25" t="s">
+        <v>49</v>
+      </c>
+      <c r="C6" s="175" t="s">
+        <v>106</v>
+      </c>
+      <c r="D6" s="177"/>
+      <c r="E6" s="30" t="s">
+        <v>50</v>
+      </c>
+      <c r="F6" s="194" t="s">
+        <v>107</v>
+      </c>
+      <c r="G6" s="200"/>
+      <c r="H6" s="200"/>
+      <c r="I6" s="195"/>
+      <c r="J6" s="80" t="s">
+        <v>51</v>
+      </c>
+      <c r="K6" s="85"/>
+    </row>
+    <row r="7" spans="1:11" ht="15" customHeight="1">
+      <c r="A7" s="87"/>
+      <c r="B7" s="25" t="s">
+        <v>52</v>
+      </c>
+      <c r="C7" s="194" t="s">
+        <v>108</v>
+      </c>
+      <c r="D7" s="200"/>
+      <c r="E7" s="200"/>
+      <c r="F7" s="200"/>
+      <c r="G7" s="200"/>
+      <c r="H7" s="200"/>
+      <c r="I7" s="195"/>
+      <c r="J7" s="80"/>
+      <c r="K7" s="85"/>
+    </row>
+    <row r="8" spans="1:11" ht="15" customHeight="1">
+      <c r="A8" s="94" t="s">
+        <v>53</v>
+      </c>
+      <c r="B8" s="56"/>
+      <c r="C8" s="56"/>
+      <c r="D8" s="56"/>
+      <c r="E8" s="56"/>
+      <c r="F8" s="56"/>
+      <c r="G8" s="26" t="s">
+        <v>56</v>
+      </c>
+      <c r="H8" s="26" t="s">
+        <v>57</v>
+      </c>
+      <c r="I8" s="26" t="s">
+        <v>68</v>
+      </c>
+      <c r="J8" s="26" t="s">
+        <v>69</v>
+      </c>
+      <c r="K8" s="26" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" ht="15" customHeight="1">
+      <c r="A9" s="95"/>
+      <c r="B9" s="96"/>
+      <c r="C9" s="96"/>
+      <c r="D9" s="96"/>
+      <c r="E9" s="96"/>
+      <c r="F9" s="96"/>
+      <c r="G9" s="25">
+        <v>1</v>
+      </c>
+      <c r="H9" s="30" t="s">
         <v>87</v>
       </c>
-      <c r="R4" s="247"/>
-      <c r="S4" s="203" t="s">
-        <v>76</v>
-      </c>
-      <c r="T4" s="200"/>
-    </row>
-    <row r="5" spans="1:20">
-      <c r="A5" s="238" t="s">
-        <v>88</v>
-      </c>
-      <c r="B5" s="239"/>
-      <c r="C5" s="200" t="s">
-        <v>89</v>
-      </c>
-      <c r="D5" s="245" t="s">
-        <v>77</v>
-      </c>
-      <c r="E5" s="244"/>
-      <c r="F5" s="244"/>
-      <c r="G5" s="244"/>
-      <c r="H5" s="244"/>
-      <c r="I5" s="244"/>
-      <c r="J5" s="244"/>
-      <c r="K5" s="244"/>
-      <c r="L5" s="202"/>
-      <c r="M5" s="203"/>
-      <c r="N5" s="203"/>
-      <c r="O5" s="203"/>
-      <c r="P5" s="203"/>
-      <c r="Q5" s="246" t="s">
-        <v>90</v>
-      </c>
-      <c r="R5" s="247"/>
-      <c r="S5" s="203"/>
-      <c r="T5" s="200"/>
-    </row>
-    <row r="6" spans="1:20">
-      <c r="A6" s="240"/>
-      <c r="B6" s="241"/>
-      <c r="C6" s="200" t="s">
-        <v>91</v>
-      </c>
-      <c r="D6" s="250" t="s">
-        <v>92</v>
-      </c>
-      <c r="E6" s="251"/>
-      <c r="F6" s="252" t="s">
+      <c r="I9" s="38" t="s">
+        <v>109</v>
+      </c>
+      <c r="J9" s="30" t="s">
+        <v>87</v>
+      </c>
+      <c r="K9" s="38" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" ht="15" customHeight="1">
+      <c r="A10" s="97"/>
+      <c r="B10" s="24"/>
+      <c r="C10" s="24"/>
+      <c r="D10" s="24"/>
+      <c r="E10" s="24"/>
+      <c r="F10" s="24"/>
+      <c r="G10" s="25">
+        <v>2</v>
+      </c>
+      <c r="H10" s="30" t="s">
+        <v>111</v>
+      </c>
+      <c r="I10" s="38" t="s">
+        <v>112</v>
+      </c>
+      <c r="J10" s="30" t="s">
+        <v>87</v>
+      </c>
+      <c r="K10" s="38" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" ht="15" customHeight="1">
+      <c r="A11" s="97"/>
+      <c r="B11" s="24"/>
+      <c r="C11" s="24"/>
+      <c r="D11" s="24"/>
+      <c r="E11" s="24"/>
+      <c r="F11" s="24"/>
+      <c r="G11" s="25">
+        <v>3</v>
+      </c>
+      <c r="H11" s="38" t="s">
+        <v>114</v>
+      </c>
+      <c r="I11" s="38" t="s">
         <v>93</v>
       </c>
-      <c r="G6" s="253"/>
-      <c r="H6" s="206" t="s">
-        <v>94</v>
-      </c>
-      <c r="I6" s="206"/>
-      <c r="J6" s="203"/>
-      <c r="K6" s="203"/>
-      <c r="L6" s="202"/>
-      <c r="M6" s="203"/>
-      <c r="N6" s="203"/>
-      <c r="O6" s="203"/>
-      <c r="P6" s="203"/>
-      <c r="Q6" s="204" t="s">
-        <v>95</v>
-      </c>
-      <c r="R6" s="208"/>
-      <c r="S6" s="203"/>
-      <c r="T6" s="200"/>
-    </row>
-    <row r="7" spans="1:20">
-      <c r="A7" s="242"/>
-      <c r="B7" s="243"/>
-      <c r="C7" s="200" t="s">
-        <v>96</v>
-      </c>
-      <c r="D7" s="209" t="s">
-        <v>97</v>
-      </c>
-      <c r="E7" s="206"/>
-      <c r="F7" s="206"/>
-      <c r="G7" s="206"/>
-      <c r="H7" s="206"/>
-      <c r="I7" s="206"/>
-      <c r="J7" s="203"/>
-      <c r="K7" s="203"/>
-      <c r="L7" s="203"/>
-      <c r="M7" s="203"/>
-      <c r="N7" s="203"/>
-      <c r="O7" s="203"/>
-      <c r="P7" s="203"/>
-      <c r="Q7" s="246"/>
-      <c r="R7" s="247"/>
-      <c r="S7" s="203"/>
-      <c r="T7" s="200"/>
-    </row>
-    <row r="8" spans="1:20">
-      <c r="A8" s="210" t="s">
-        <v>98</v>
-      </c>
-      <c r="B8" s="211"/>
-      <c r="C8" s="212"/>
-      <c r="D8" s="212"/>
-      <c r="E8" s="212"/>
-      <c r="F8" s="212"/>
-      <c r="G8" s="212"/>
-      <c r="H8" s="212"/>
-      <c r="I8" s="212"/>
-      <c r="J8" s="212"/>
-      <c r="K8" s="212"/>
-      <c r="L8" s="212"/>
-      <c r="M8" s="213" t="s">
-        <v>99</v>
-      </c>
-      <c r="N8" s="212"/>
-      <c r="O8" s="212"/>
-      <c r="P8" s="212"/>
-      <c r="Q8" s="212"/>
-      <c r="R8" s="212"/>
-      <c r="S8" s="212"/>
-      <c r="T8" s="214"/>
-    </row>
-    <row r="9" spans="1:20">
-      <c r="A9" s="215"/>
-      <c r="B9" s="205"/>
-      <c r="C9" s="205"/>
-      <c r="D9" s="205"/>
-      <c r="E9" s="205"/>
-      <c r="F9" s="205"/>
-      <c r="G9" s="205"/>
-      <c r="H9" s="205"/>
-      <c r="I9" s="205"/>
-      <c r="J9" s="205"/>
-      <c r="K9" s="205"/>
-      <c r="L9" s="205"/>
-      <c r="M9" s="215"/>
-      <c r="N9" s="205"/>
-      <c r="O9" s="205"/>
-      <c r="P9" s="205"/>
-      <c r="Q9" s="205"/>
-      <c r="R9" s="205"/>
-      <c r="S9" s="205"/>
-      <c r="T9" s="216"/>
-    </row>
-    <row r="10" spans="1:20">
-      <c r="A10" s="215"/>
-      <c r="B10" s="205"/>
-      <c r="C10" s="205"/>
-      <c r="D10" s="205"/>
-      <c r="E10" s="205"/>
-      <c r="F10" s="205"/>
-      <c r="G10" s="205"/>
-      <c r="H10" s="205"/>
-      <c r="I10" s="205"/>
-      <c r="J10" s="205"/>
-      <c r="K10" s="205"/>
-      <c r="L10" s="205"/>
-      <c r="M10" s="215"/>
-      <c r="N10" s="205"/>
-      <c r="O10" s="205"/>
-      <c r="P10" s="205"/>
-      <c r="Q10" s="205"/>
-      <c r="R10" s="205"/>
-      <c r="S10" s="205"/>
-      <c r="T10" s="216"/>
-    </row>
-    <row r="11" spans="1:20">
-      <c r="A11" s="215"/>
-      <c r="B11" s="205"/>
-      <c r="C11" s="205"/>
-      <c r="D11" s="205"/>
-      <c r="E11" s="205"/>
-      <c r="F11" s="205"/>
-      <c r="G11" s="205"/>
-      <c r="H11" s="205"/>
-      <c r="I11" s="205"/>
-      <c r="J11" s="205"/>
-      <c r="K11" s="205"/>
-      <c r="L11" s="205"/>
-      <c r="M11" s="215"/>
-      <c r="N11" s="205"/>
-      <c r="O11" s="205"/>
-      <c r="P11" s="205"/>
-      <c r="Q11" s="205"/>
-      <c r="R11" s="205"/>
-      <c r="S11" s="205"/>
-      <c r="T11" s="216"/>
-    </row>
-    <row r="12" spans="1:20">
-      <c r="A12" s="215"/>
-      <c r="B12" s="205"/>
-      <c r="C12" s="205"/>
-      <c r="D12" s="205"/>
-      <c r="E12" s="205"/>
-      <c r="F12" s="205"/>
-      <c r="G12" s="205"/>
-      <c r="H12" s="205"/>
-      <c r="I12" s="205"/>
-      <c r="J12" s="205"/>
-      <c r="K12" s="205"/>
-      <c r="L12" s="205"/>
-      <c r="M12" s="215"/>
-      <c r="N12" s="205"/>
-      <c r="O12" s="205"/>
-      <c r="P12" s="205"/>
-      <c r="Q12" s="205"/>
-      <c r="R12" s="205"/>
-      <c r="S12" s="205"/>
-      <c r="T12" s="216"/>
-    </row>
-    <row r="13" spans="1:20">
-      <c r="A13" s="215"/>
-      <c r="B13" s="205"/>
-      <c r="C13" s="205"/>
-      <c r="D13" s="205"/>
-      <c r="E13" s="205"/>
-      <c r="F13" s="205"/>
-      <c r="G13" s="205"/>
-      <c r="H13" s="205"/>
-      <c r="I13" s="205"/>
-      <c r="J13" s="205"/>
-      <c r="K13" s="205"/>
-      <c r="L13" s="205"/>
-      <c r="M13" s="215"/>
-      <c r="N13" s="205" t="s">
-        <v>100</v>
-      </c>
-      <c r="O13" s="205"/>
-      <c r="P13" s="205"/>
-      <c r="Q13" s="205"/>
-      <c r="R13" s="205"/>
-      <c r="S13" s="205"/>
-      <c r="T13" s="216"/>
-    </row>
-    <row r="14" spans="1:20">
-      <c r="A14" s="215"/>
-      <c r="B14" s="205"/>
-      <c r="C14" s="205"/>
-      <c r="D14" s="205"/>
-      <c r="E14" s="205"/>
-      <c r="F14" s="205"/>
-      <c r="G14" s="205"/>
-      <c r="H14" s="205"/>
-      <c r="I14" s="205"/>
-      <c r="J14" s="205"/>
-      <c r="K14" s="205"/>
-      <c r="L14" s="205"/>
-      <c r="M14" s="215"/>
-      <c r="N14" s="205" t="s">
-        <v>101</v>
-      </c>
-      <c r="O14" s="205"/>
-      <c r="P14" s="205"/>
-      <c r="Q14" s="205"/>
-      <c r="R14" s="205"/>
-      <c r="S14" s="205"/>
-      <c r="T14" s="216"/>
-    </row>
-    <row r="15" spans="1:20">
-      <c r="A15" s="215"/>
-      <c r="B15" s="205"/>
-      <c r="C15" s="205"/>
-      <c r="D15" s="205"/>
-      <c r="E15" s="205"/>
-      <c r="F15" s="205"/>
-      <c r="G15" s="205"/>
-      <c r="H15" s="205"/>
-      <c r="I15" s="205"/>
-      <c r="J15" s="205"/>
-      <c r="K15" s="205"/>
-      <c r="L15" s="205"/>
-      <c r="M15" s="215"/>
-      <c r="N15" s="205" t="s">
-        <v>102</v>
-      </c>
-      <c r="O15" s="205"/>
-      <c r="P15" s="205"/>
-      <c r="Q15" s="205"/>
-      <c r="R15" s="205"/>
-      <c r="S15" s="205"/>
-      <c r="T15" s="216"/>
-    </row>
-    <row r="16" spans="1:20">
-      <c r="A16" s="215"/>
-      <c r="B16" s="205"/>
-      <c r="C16" s="205"/>
-      <c r="D16" s="205"/>
-      <c r="E16" s="205"/>
-      <c r="F16" s="205"/>
-      <c r="G16" s="205"/>
-      <c r="H16" s="205"/>
-      <c r="I16" s="205"/>
-      <c r="J16" s="205"/>
-      <c r="K16" s="205"/>
-      <c r="L16" s="205"/>
-      <c r="M16" s="215"/>
-      <c r="N16" s="205" t="s">
-        <v>103</v>
-      </c>
-      <c r="O16" s="205"/>
-      <c r="P16" s="205"/>
-      <c r="Q16" s="205"/>
-      <c r="R16" s="205"/>
-      <c r="S16" s="205"/>
-      <c r="T16" s="216"/>
-    </row>
-    <row r="17" spans="1:20">
-      <c r="A17" s="215"/>
-      <c r="B17" s="205"/>
-      <c r="C17" s="205"/>
-      <c r="D17" s="205"/>
-      <c r="E17" s="205"/>
-      <c r="F17" s="205"/>
-      <c r="G17" s="205"/>
-      <c r="H17" s="205"/>
-      <c r="I17" s="205"/>
-      <c r="J17" s="205"/>
-      <c r="K17" s="205"/>
-      <c r="L17" s="205"/>
-      <c r="M17" s="215"/>
-      <c r="N17" s="205"/>
-      <c r="O17" s="205"/>
-      <c r="P17" s="205"/>
-      <c r="Q17" s="205"/>
-      <c r="R17" s="205"/>
-      <c r="S17" s="205"/>
-      <c r="T17" s="216"/>
-    </row>
-    <row r="18" spans="1:20">
-      <c r="A18" s="215"/>
-      <c r="B18" s="205"/>
-      <c r="C18" s="205"/>
-      <c r="D18" s="205"/>
-      <c r="E18" s="205"/>
-      <c r="F18" s="205"/>
-      <c r="G18" s="205"/>
-      <c r="H18" s="205"/>
-      <c r="I18" s="205"/>
-      <c r="J18" s="205"/>
-      <c r="K18" s="205"/>
-      <c r="L18" s="205"/>
-      <c r="M18" s="215"/>
-      <c r="N18" s="205"/>
-      <c r="O18" s="205"/>
-      <c r="P18" s="205"/>
-      <c r="Q18" s="205"/>
-      <c r="R18" s="205"/>
-      <c r="S18" s="205"/>
-      <c r="T18" s="216"/>
-    </row>
-    <row r="19" spans="1:20">
-      <c r="A19" s="215"/>
-      <c r="B19" s="205"/>
-      <c r="C19" s="205"/>
-      <c r="D19" s="205"/>
-      <c r="E19" s="205"/>
-      <c r="F19" s="205"/>
-      <c r="G19" s="205"/>
-      <c r="H19" s="205"/>
-      <c r="I19" s="205"/>
-      <c r="J19" s="205"/>
-      <c r="K19" s="205"/>
-      <c r="L19" s="205"/>
-      <c r="M19" s="215"/>
-      <c r="N19" s="205"/>
-      <c r="O19" s="205"/>
-      <c r="P19" s="205"/>
-      <c r="Q19" s="205"/>
-      <c r="R19" s="205"/>
-      <c r="S19" s="205"/>
-      <c r="T19" s="216"/>
-    </row>
-    <row r="20" spans="1:20">
-      <c r="A20" s="215"/>
-      <c r="B20" s="205"/>
-      <c r="C20" s="205"/>
-      <c r="D20" s="205"/>
-      <c r="E20" s="205"/>
-      <c r="F20" s="205"/>
-      <c r="G20" s="205"/>
-      <c r="H20" s="205"/>
-      <c r="I20" s="205"/>
-      <c r="J20" s="205"/>
-      <c r="K20" s="205"/>
-      <c r="L20" s="205"/>
-      <c r="M20" s="215"/>
-      <c r="N20" s="205"/>
-      <c r="O20" s="205"/>
-      <c r="P20" s="205"/>
-      <c r="Q20" s="205"/>
-      <c r="R20" s="205"/>
-      <c r="S20" s="205"/>
-      <c r="T20" s="216"/>
-    </row>
-    <row r="21" spans="1:20">
-      <c r="A21" s="215"/>
-      <c r="B21" s="205"/>
-      <c r="C21" s="205"/>
-      <c r="D21" s="205"/>
-      <c r="E21" s="205"/>
-      <c r="F21" s="205"/>
-      <c r="G21" s="205"/>
-      <c r="H21" s="205"/>
-      <c r="I21" s="205"/>
-      <c r="J21" s="205"/>
-      <c r="K21" s="205"/>
-      <c r="L21" s="205"/>
-      <c r="M21" s="215"/>
-      <c r="N21" s="205"/>
-      <c r="O21" s="205"/>
-      <c r="P21" s="205"/>
-      <c r="Q21" s="205"/>
-      <c r="R21" s="205"/>
-      <c r="S21" s="205"/>
-      <c r="T21" s="216"/>
-    </row>
-    <row r="22" spans="1:20">
-      <c r="A22" s="215"/>
-      <c r="B22" s="205"/>
-      <c r="C22" s="205"/>
-      <c r="D22" s="205"/>
-      <c r="E22" s="205"/>
-      <c r="F22" s="205"/>
-      <c r="G22" s="205"/>
-      <c r="H22" s="205"/>
-      <c r="I22" s="205"/>
-      <c r="J22" s="205"/>
-      <c r="K22" s="205"/>
-      <c r="L22" s="205"/>
-      <c r="M22" s="215"/>
-      <c r="N22" s="205"/>
-      <c r="O22" s="205"/>
-      <c r="P22" s="205"/>
-      <c r="Q22" s="205"/>
-      <c r="R22" s="205"/>
-      <c r="S22" s="205"/>
-      <c r="T22" s="216"/>
-    </row>
-    <row r="23" spans="1:20">
-      <c r="A23" s="215"/>
-      <c r="B23" s="205"/>
-      <c r="C23" s="205"/>
-      <c r="D23" s="205"/>
-      <c r="E23" s="205"/>
-      <c r="F23" s="205"/>
-      <c r="G23" s="205"/>
-      <c r="H23" s="205"/>
-      <c r="I23" s="205"/>
-      <c r="J23" s="205"/>
-      <c r="K23" s="205"/>
-      <c r="L23" s="205"/>
-      <c r="M23" s="215"/>
-      <c r="N23" s="205"/>
-      <c r="O23" s="205"/>
-      <c r="P23" s="205"/>
-      <c r="Q23" s="205"/>
-      <c r="R23" s="205"/>
-      <c r="S23" s="205"/>
-      <c r="T23" s="216"/>
-    </row>
-    <row r="24" spans="1:20">
-      <c r="A24" s="215"/>
-      <c r="B24" s="205"/>
-      <c r="C24" s="205"/>
-      <c r="D24" s="205"/>
-      <c r="E24" s="205"/>
-      <c r="F24" s="205"/>
-      <c r="G24" s="205"/>
-      <c r="H24" s="205"/>
-      <c r="I24" s="205"/>
-      <c r="J24" s="205"/>
-      <c r="K24" s="205"/>
-      <c r="L24" s="205"/>
-      <c r="M24" s="215"/>
-      <c r="N24" s="205"/>
-      <c r="O24" s="205"/>
-      <c r="P24" s="205"/>
-      <c r="Q24" s="205"/>
-      <c r="R24" s="205"/>
-      <c r="S24" s="205"/>
-      <c r="T24" s="216"/>
-    </row>
-    <row r="25" spans="1:20">
-      <c r="A25" s="215"/>
-      <c r="B25" s="205"/>
-      <c r="C25" s="205"/>
-      <c r="D25" s="205"/>
-      <c r="E25" s="205"/>
-      <c r="F25" s="205"/>
-      <c r="G25" s="205"/>
-      <c r="H25" s="205"/>
-      <c r="I25" s="205"/>
-      <c r="J25" s="205"/>
-      <c r="K25" s="205"/>
-      <c r="L25" s="205"/>
-      <c r="M25" s="215"/>
-      <c r="N25" s="205"/>
-      <c r="O25" s="205"/>
-      <c r="P25" s="205"/>
-      <c r="Q25" s="205"/>
-      <c r="R25" s="205"/>
-      <c r="S25" s="205"/>
-      <c r="T25" s="216"/>
-    </row>
-    <row r="26" spans="1:20">
-      <c r="A26" s="215"/>
-      <c r="B26" s="205"/>
-      <c r="C26" s="205"/>
-      <c r="D26" s="205"/>
-      <c r="E26" s="205"/>
-      <c r="F26" s="205"/>
-      <c r="G26" s="205"/>
-      <c r="H26" s="205"/>
-      <c r="I26" s="205"/>
-      <c r="J26" s="205"/>
-      <c r="K26" s="205"/>
-      <c r="L26" s="205"/>
-      <c r="M26" s="215"/>
-      <c r="N26" s="205"/>
-      <c r="O26" s="205"/>
-      <c r="P26" s="205"/>
-      <c r="Q26" s="205"/>
-      <c r="R26" s="205"/>
-      <c r="S26" s="205"/>
-      <c r="T26" s="216"/>
-    </row>
-    <row r="27" spans="1:20">
-      <c r="A27" s="215"/>
-      <c r="B27" s="205"/>
-      <c r="C27" s="205"/>
-      <c r="D27" s="205"/>
-      <c r="E27" s="205"/>
-      <c r="F27" s="205"/>
-      <c r="G27" s="205"/>
-      <c r="H27" s="205"/>
-      <c r="I27" s="205"/>
-      <c r="J27" s="205"/>
-      <c r="K27" s="205"/>
-      <c r="L27" s="205"/>
-      <c r="M27" s="215"/>
-      <c r="N27" s="205"/>
-      <c r="O27" s="205"/>
-      <c r="P27" s="205"/>
-      <c r="Q27" s="205"/>
-      <c r="R27" s="205"/>
-      <c r="S27" s="205"/>
-      <c r="T27" s="216"/>
-    </row>
-    <row r="28" spans="1:20">
-      <c r="A28" s="215"/>
-      <c r="B28" s="205"/>
-      <c r="C28" s="205"/>
-      <c r="D28" s="205"/>
-      <c r="E28" s="205"/>
-      <c r="F28" s="205"/>
-      <c r="G28" s="205"/>
-      <c r="H28" s="205"/>
-      <c r="I28" s="205"/>
-      <c r="J28" s="205"/>
-      <c r="K28" s="205"/>
-      <c r="L28" s="205"/>
-      <c r="M28" s="215"/>
-      <c r="N28" s="205"/>
-      <c r="O28" s="205"/>
-      <c r="P28" s="205"/>
-      <c r="Q28" s="205"/>
-      <c r="R28" s="205"/>
-      <c r="S28" s="205"/>
-      <c r="T28" s="216"/>
-    </row>
-    <row r="29" spans="1:20">
-      <c r="A29" s="217"/>
-      <c r="B29" s="203"/>
-      <c r="C29" s="203"/>
-      <c r="D29" s="203"/>
-      <c r="E29" s="203"/>
-      <c r="F29" s="203"/>
-      <c r="G29" s="203"/>
-      <c r="H29" s="203"/>
-      <c r="I29" s="203"/>
-      <c r="J29" s="203"/>
-      <c r="K29" s="203"/>
-      <c r="L29" s="203"/>
-      <c r="M29" s="217"/>
-      <c r="N29" s="203"/>
-      <c r="O29" s="203"/>
-      <c r="P29" s="203"/>
-      <c r="Q29" s="203"/>
-      <c r="R29" s="203"/>
-      <c r="S29" s="203"/>
-      <c r="T29" s="200"/>
-    </row>
-    <row r="30" spans="1:20">
-      <c r="A30" s="218" t="s">
-        <v>104</v>
-      </c>
-      <c r="B30" s="219"/>
-      <c r="C30" s="220"/>
-      <c r="D30" s="220"/>
-      <c r="E30" s="220"/>
-      <c r="F30" s="220"/>
-      <c r="G30" s="220"/>
-      <c r="H30" s="220"/>
-      <c r="I30" s="220"/>
-      <c r="J30" s="220"/>
-      <c r="K30" s="220"/>
-      <c r="L30" s="220"/>
-      <c r="M30" s="220"/>
-      <c r="N30" s="220"/>
-      <c r="O30" s="220"/>
-      <c r="P30" s="220"/>
-      <c r="Q30" s="220"/>
-      <c r="R30" s="220"/>
-      <c r="S30" s="220"/>
-      <c r="T30" s="221"/>
-    </row>
-    <row r="31" spans="1:20">
-      <c r="A31" s="222" t="s">
-        <v>105</v>
-      </c>
-      <c r="B31" s="223" t="s">
-        <v>106</v>
-      </c>
-      <c r="C31" s="224"/>
-      <c r="D31" s="224" t="s">
-        <v>107</v>
-      </c>
-      <c r="E31" s="225" t="s">
-        <v>108</v>
-      </c>
-      <c r="F31" s="226"/>
-      <c r="G31" s="222" t="s">
-        <v>109</v>
-      </c>
-      <c r="H31" s="224" t="s">
-        <v>110</v>
-      </c>
-      <c r="I31" s="223" t="s">
-        <v>111</v>
-      </c>
-      <c r="J31" s="227" t="s">
-        <v>112</v>
-      </c>
-      <c r="K31" s="227" t="s">
-        <v>113</v>
-      </c>
-      <c r="L31" s="227" t="s">
-        <v>65</v>
-      </c>
-      <c r="M31" s="224"/>
-      <c r="N31" s="223" t="s">
-        <v>66</v>
-      </c>
-      <c r="O31" s="224"/>
-      <c r="P31" s="223" t="s">
-        <v>114</v>
-      </c>
-      <c r="Q31" s="223"/>
-      <c r="R31" s="223"/>
-      <c r="S31" s="223"/>
-      <c r="T31" s="224"/>
-    </row>
-    <row r="32" spans="1:20">
-      <c r="A32" s="228" t="s">
+      <c r="J11" s="30" t="s">
+        <v>87</v>
+      </c>
+      <c r="K11" s="38" t="s">
         <v>115</v>
       </c>
-      <c r="B32" s="209" t="s">
+    </row>
+    <row r="12" spans="1:11" ht="15" customHeight="1">
+      <c r="A12" s="97"/>
+      <c r="B12" s="24"/>
+      <c r="C12" s="24"/>
+      <c r="D12" s="24"/>
+      <c r="E12" s="24"/>
+      <c r="F12" s="24"/>
+      <c r="G12" s="25"/>
+      <c r="H12" s="38"/>
+      <c r="I12" s="38"/>
+      <c r="J12" s="30"/>
+      <c r="K12" s="38"/>
+    </row>
+    <row r="13" spans="1:11" ht="15" customHeight="1">
+      <c r="A13" s="97"/>
+      <c r="B13" s="24"/>
+      <c r="C13" s="24"/>
+      <c r="D13" s="24"/>
+      <c r="E13" s="24"/>
+      <c r="F13" s="24"/>
+      <c r="G13" s="25"/>
+      <c r="H13" s="38"/>
+      <c r="I13" s="38"/>
+      <c r="J13" s="30"/>
+      <c r="K13" s="38"/>
+    </row>
+    <row r="14" spans="1:11" ht="15" customHeight="1">
+      <c r="A14" s="97"/>
+      <c r="B14" s="24"/>
+      <c r="C14" s="24"/>
+      <c r="D14" s="24"/>
+      <c r="E14" s="24"/>
+      <c r="F14" s="24"/>
+      <c r="G14" s="25"/>
+      <c r="H14" s="38"/>
+      <c r="I14" s="38"/>
+      <c r="J14" s="38"/>
+      <c r="K14" s="38"/>
+    </row>
+    <row r="15" spans="1:11" ht="15" customHeight="1">
+      <c r="A15" s="97"/>
+      <c r="B15" s="24"/>
+      <c r="C15" s="24"/>
+      <c r="D15" s="24"/>
+      <c r="E15" s="24"/>
+      <c r="F15" s="24"/>
+      <c r="G15" s="25"/>
+      <c r="H15" s="38"/>
+      <c r="I15" s="38"/>
+      <c r="J15" s="38"/>
+      <c r="K15" s="38"/>
+    </row>
+    <row r="16" spans="1:11" ht="15" customHeight="1">
+      <c r="A16" s="97"/>
+      <c r="B16" s="24"/>
+      <c r="C16" s="24"/>
+      <c r="D16" s="24"/>
+      <c r="E16" s="24"/>
+      <c r="F16" s="24"/>
+      <c r="G16" s="25"/>
+      <c r="H16" s="38"/>
+      <c r="I16" s="38"/>
+      <c r="J16" s="38"/>
+      <c r="K16" s="38"/>
+    </row>
+    <row r="17" spans="1:11" ht="15" customHeight="1">
+      <c r="A17" s="97"/>
+      <c r="B17" s="24"/>
+      <c r="C17" s="24"/>
+      <c r="D17" s="24"/>
+      <c r="E17" s="24"/>
+      <c r="F17" s="24"/>
+      <c r="G17" s="25"/>
+      <c r="H17" s="38"/>
+      <c r="I17" s="38"/>
+      <c r="J17" s="38"/>
+      <c r="K17" s="38"/>
+    </row>
+    <row r="18" spans="1:11" ht="15" customHeight="1">
+      <c r="A18" s="97"/>
+      <c r="B18" s="24"/>
+      <c r="C18" s="24"/>
+      <c r="D18" s="24"/>
+      <c r="E18" s="24"/>
+      <c r="F18" s="24"/>
+      <c r="G18" s="25"/>
+      <c r="H18" s="38"/>
+      <c r="I18" s="38"/>
+      <c r="J18" s="38"/>
+      <c r="K18" s="38"/>
+    </row>
+    <row r="19" spans="1:11" ht="15" customHeight="1">
+      <c r="A19" s="97"/>
+      <c r="B19" s="24"/>
+      <c r="C19" s="24"/>
+      <c r="D19" s="24"/>
+      <c r="E19" s="24"/>
+      <c r="F19" s="24"/>
+      <c r="G19" s="25"/>
+      <c r="H19" s="38"/>
+      <c r="I19" s="38"/>
+      <c r="J19" s="38"/>
+      <c r="K19" s="38"/>
+    </row>
+    <row r="20" spans="1:11" ht="15" customHeight="1">
+      <c r="A20" s="97"/>
+      <c r="B20" s="24"/>
+      <c r="C20" s="24"/>
+      <c r="D20" s="24"/>
+      <c r="E20" s="24"/>
+      <c r="G20" s="25"/>
+      <c r="H20" s="38"/>
+      <c r="I20" s="38"/>
+      <c r="J20" s="38"/>
+      <c r="K20" s="38"/>
+    </row>
+    <row r="21" spans="1:11" ht="15" customHeight="1">
+      <c r="A21" s="97"/>
+      <c r="B21" s="24"/>
+      <c r="C21" s="24"/>
+      <c r="D21" s="24"/>
+      <c r="E21" s="24"/>
+      <c r="F21" s="24"/>
+      <c r="G21" s="25"/>
+      <c r="H21" s="38"/>
+      <c r="I21" s="38"/>
+      <c r="J21" s="38"/>
+      <c r="K21" s="38"/>
+    </row>
+    <row r="22" spans="1:11" ht="15" customHeight="1">
+      <c r="A22" s="97"/>
+      <c r="B22" s="24"/>
+      <c r="C22" s="24"/>
+      <c r="D22" s="24"/>
+      <c r="E22" s="24"/>
+      <c r="F22" s="24"/>
+      <c r="G22" s="25"/>
+      <c r="H22" s="38"/>
+      <c r="I22" s="38"/>
+      <c r="J22" s="38"/>
+      <c r="K22" s="38"/>
+    </row>
+    <row r="23" spans="1:11" ht="15" customHeight="1">
+      <c r="A23" s="97"/>
+      <c r="B23" s="24"/>
+      <c r="C23" s="24"/>
+      <c r="D23" s="24"/>
+      <c r="E23" s="24"/>
+      <c r="F23" s="24"/>
+      <c r="G23" s="25"/>
+      <c r="H23" s="38"/>
+      <c r="I23" s="38"/>
+      <c r="J23" s="38"/>
+      <c r="K23" s="38"/>
+    </row>
+    <row r="24" spans="1:11" ht="15" customHeight="1">
+      <c r="A24" s="97"/>
+      <c r="B24" s="24"/>
+      <c r="C24" s="24"/>
+      <c r="D24" s="24"/>
+      <c r="E24" s="24"/>
+      <c r="F24" s="24"/>
+      <c r="G24" s="25"/>
+      <c r="H24" s="38"/>
+      <c r="I24" s="38"/>
+      <c r="J24" s="38"/>
+      <c r="K24" s="38"/>
+    </row>
+    <row r="25" spans="1:11" ht="15" customHeight="1">
+      <c r="A25" s="97"/>
+      <c r="B25" s="24"/>
+      <c r="C25" s="24"/>
+      <c r="D25" s="24"/>
+      <c r="E25" s="24"/>
+      <c r="F25" s="24"/>
+      <c r="G25" s="25"/>
+      <c r="H25" s="38"/>
+      <c r="I25" s="38"/>
+      <c r="J25" s="38"/>
+      <c r="K25" s="38"/>
+    </row>
+    <row r="26" spans="1:11" ht="15" customHeight="1">
+      <c r="A26" s="97"/>
+      <c r="B26" s="24"/>
+      <c r="C26" s="24"/>
+      <c r="D26" s="24"/>
+      <c r="E26" s="24"/>
+      <c r="F26" s="24"/>
+      <c r="G26" s="25"/>
+      <c r="H26" s="38"/>
+      <c r="I26" s="38"/>
+      <c r="J26" s="38"/>
+      <c r="K26" s="38"/>
+    </row>
+    <row r="27" spans="1:11" ht="15" customHeight="1">
+      <c r="A27" s="97"/>
+      <c r="B27" s="24"/>
+      <c r="C27" s="24"/>
+      <c r="D27" s="24"/>
+      <c r="E27" s="24"/>
+      <c r="F27" s="24"/>
+      <c r="G27" s="25"/>
+      <c r="H27" s="38"/>
+      <c r="I27" s="38"/>
+      <c r="J27" s="38"/>
+      <c r="K27" s="38"/>
+    </row>
+    <row r="28" spans="1:11" ht="15" customHeight="1">
+      <c r="A28" s="97"/>
+      <c r="B28" s="24"/>
+      <c r="C28" s="24"/>
+      <c r="D28" s="24"/>
+      <c r="E28" s="24"/>
+      <c r="F28" s="24"/>
+      <c r="G28" s="25"/>
+      <c r="H28" s="38"/>
+      <c r="I28" s="38"/>
+      <c r="J28" s="38"/>
+      <c r="K28" s="38"/>
+    </row>
+    <row r="29" spans="1:11" ht="15" customHeight="1">
+      <c r="A29" s="97"/>
+      <c r="B29" s="24"/>
+      <c r="C29" s="24"/>
+      <c r="D29" s="24"/>
+      <c r="E29" s="24"/>
+      <c r="F29" s="24"/>
+      <c r="G29" s="98" t="s">
+        <v>71</v>
+      </c>
+      <c r="H29" s="99"/>
+      <c r="I29" s="99"/>
+      <c r="J29" s="99"/>
+      <c r="K29" s="100"/>
+    </row>
+    <row r="30" spans="1:11" ht="15" customHeight="1">
+      <c r="A30" s="97"/>
+      <c r="B30" s="24"/>
+      <c r="C30" s="24"/>
+      <c r="D30" s="24"/>
+      <c r="E30" s="24"/>
+      <c r="F30" s="24"/>
+      <c r="G30" s="117"/>
+      <c r="H30" s="120"/>
+      <c r="I30" s="120"/>
+      <c r="J30" s="120"/>
+      <c r="K30" s="121"/>
+    </row>
+    <row r="31" spans="1:11" ht="15" customHeight="1">
+      <c r="A31" s="97"/>
+      <c r="B31" s="24"/>
+      <c r="C31" s="24"/>
+      <c r="D31" s="24"/>
+      <c r="E31" s="24"/>
+      <c r="F31" s="24"/>
+      <c r="G31" s="118">
+        <v>1</v>
+      </c>
+      <c r="H31" s="113" t="s">
         <v>116</v>
       </c>
-      <c r="C32" s="207"/>
-      <c r="D32" s="229" t="s">
+      <c r="I31" s="113"/>
+      <c r="J31" s="113"/>
+      <c r="K31" s="114"/>
+    </row>
+    <row r="32" spans="1:11" ht="15" customHeight="1">
+      <c r="A32" s="97"/>
+      <c r="B32" s="24"/>
+      <c r="C32" s="24"/>
+      <c r="D32" s="24"/>
+      <c r="E32" s="24"/>
+      <c r="F32" s="24"/>
+      <c r="G32" s="118"/>
+      <c r="H32" s="113"/>
+      <c r="I32" s="113"/>
+      <c r="J32" s="113"/>
+      <c r="K32" s="114"/>
+    </row>
+    <row r="33" spans="1:11" ht="15" customHeight="1">
+      <c r="A33" s="97"/>
+      <c r="B33" s="24"/>
+      <c r="C33" s="24"/>
+      <c r="D33" s="24"/>
+      <c r="E33" s="24"/>
+      <c r="F33" s="24"/>
+      <c r="G33" s="118">
+        <v>2</v>
+      </c>
+      <c r="H33" s="113" t="s">
         <v>117</v>
       </c>
-      <c r="E32" s="209" t="s">
-        <v>118</v>
-      </c>
-      <c r="F32" s="206"/>
-      <c r="G32" s="228" t="s">
-        <v>119</v>
-      </c>
-      <c r="H32" s="229" t="s">
-        <v>119</v>
-      </c>
-      <c r="I32" s="229" t="s">
-        <v>119</v>
-      </c>
-      <c r="J32" s="229" t="s">
-        <v>119</v>
-      </c>
-      <c r="K32" s="229" t="s">
-        <v>119</v>
-      </c>
-      <c r="L32" s="229" t="s">
-        <v>119</v>
-      </c>
-      <c r="M32" s="229" t="s">
-        <v>119</v>
-      </c>
-      <c r="N32" s="229" t="s">
-        <v>119</v>
-      </c>
-      <c r="O32" s="229" t="s">
-        <v>119</v>
-      </c>
-      <c r="P32" s="230" t="s">
-        <v>120</v>
-      </c>
-      <c r="Q32" s="201"/>
-      <c r="R32" s="201"/>
-      <c r="S32" s="201"/>
-      <c r="T32" s="231"/>
-    </row>
-    <row r="33" spans="1:20">
-      <c r="A33" s="228" t="s">
-        <v>121</v>
-      </c>
-      <c r="B33" s="209" t="s">
-        <v>122</v>
-      </c>
-      <c r="C33" s="207"/>
-      <c r="D33" s="229" t="s">
-        <v>117</v>
-      </c>
-      <c r="E33" s="209" t="s">
-        <v>118</v>
-      </c>
-      <c r="F33" s="206"/>
-      <c r="G33" s="228" t="s">
-        <v>119</v>
-      </c>
-      <c r="H33" s="229" t="s">
-        <v>119</v>
-      </c>
-      <c r="I33" s="229" t="s">
-        <v>119</v>
-      </c>
-      <c r="J33" s="229" t="s">
-        <v>119</v>
-      </c>
-      <c r="K33" s="229" t="s">
-        <v>119</v>
-      </c>
-      <c r="L33" s="229" t="s">
-        <v>119</v>
-      </c>
-      <c r="M33" s="229" t="s">
-        <v>119</v>
-      </c>
-      <c r="N33" s="229" t="s">
-        <v>119</v>
-      </c>
-      <c r="O33" s="229" t="s">
-        <v>119</v>
-      </c>
-      <c r="P33" s="230" t="s">
-        <v>123</v>
-      </c>
-      <c r="Q33" s="201"/>
-      <c r="R33" s="201"/>
-      <c r="S33" s="201"/>
-      <c r="T33" s="232"/>
-    </row>
-    <row r="34" spans="1:20">
-      <c r="A34" s="228" t="s">
-        <v>124</v>
-      </c>
-      <c r="B34" s="209" t="s">
-        <v>125</v>
-      </c>
-      <c r="C34" s="207"/>
-      <c r="D34" s="229"/>
-      <c r="E34" s="203" t="s">
-        <v>126</v>
-      </c>
-      <c r="F34" s="203"/>
-      <c r="G34" s="228" t="s">
-        <v>119</v>
-      </c>
-      <c r="H34" s="229" t="s">
-        <v>119</v>
-      </c>
-      <c r="I34" s="229" t="s">
-        <v>119</v>
-      </c>
-      <c r="J34" s="229" t="s">
-        <v>119</v>
-      </c>
-      <c r="K34" s="229" t="s">
-        <v>119</v>
-      </c>
-      <c r="L34" s="229" t="s">
-        <v>119</v>
-      </c>
-      <c r="M34" s="229" t="s">
-        <v>119</v>
-      </c>
-      <c r="N34" s="229" t="s">
-        <v>119</v>
-      </c>
-      <c r="O34" s="229" t="s">
-        <v>119</v>
-      </c>
-      <c r="P34" s="230" t="s">
-        <v>127</v>
-      </c>
-      <c r="Q34" s="201"/>
-      <c r="R34" s="201"/>
-      <c r="S34" s="202"/>
-      <c r="T34" s="232"/>
-    </row>
-    <row r="35" spans="1:20">
-      <c r="A35" s="228" t="s">
-        <v>128</v>
-      </c>
-      <c r="B35" s="209" t="s">
-        <v>129</v>
-      </c>
-      <c r="C35" s="207"/>
-      <c r="D35" s="229"/>
-      <c r="E35" s="203" t="s">
-        <v>126</v>
-      </c>
-      <c r="F35" s="203"/>
-      <c r="G35" s="228" t="s">
-        <v>119</v>
-      </c>
-      <c r="H35" s="229" t="s">
-        <v>119</v>
-      </c>
-      <c r="I35" s="229" t="s">
-        <v>119</v>
-      </c>
-      <c r="J35" s="229" t="s">
-        <v>119</v>
-      </c>
-      <c r="K35" s="229" t="s">
-        <v>119</v>
-      </c>
-      <c r="L35" s="229" t="s">
-        <v>119</v>
-      </c>
-      <c r="M35" s="229" t="s">
-        <v>119</v>
-      </c>
-      <c r="N35" s="229" t="s">
-        <v>119</v>
-      </c>
-      <c r="O35" s="229" t="s">
-        <v>119</v>
-      </c>
-      <c r="P35" s="230" t="s">
-        <v>130</v>
-      </c>
-      <c r="Q35" s="201"/>
-      <c r="R35" s="201"/>
-      <c r="S35" s="201"/>
-      <c r="T35" s="232"/>
-    </row>
-    <row r="36" spans="1:20">
-      <c r="A36" s="228"/>
-      <c r="B36" s="203"/>
-      <c r="C36" s="200"/>
-      <c r="D36" s="229"/>
-      <c r="E36" s="203"/>
-      <c r="F36" s="203"/>
-      <c r="G36" s="228"/>
-      <c r="H36" s="229"/>
-      <c r="I36" s="229"/>
-      <c r="J36" s="229"/>
-      <c r="K36" s="233"/>
-      <c r="L36" s="234"/>
-      <c r="M36" s="232"/>
-      <c r="N36" s="202"/>
-      <c r="O36" s="232"/>
-      <c r="P36" s="202"/>
-      <c r="Q36" s="202"/>
-      <c r="R36" s="202"/>
-      <c r="S36" s="202"/>
-      <c r="T36" s="232"/>
-    </row>
-    <row r="37" spans="1:20">
-      <c r="A37" s="228"/>
-      <c r="B37" s="203"/>
-      <c r="C37" s="200"/>
-      <c r="D37" s="229"/>
-      <c r="E37" s="203"/>
-      <c r="F37" s="203"/>
-      <c r="G37" s="228"/>
-      <c r="H37" s="229"/>
-      <c r="I37" s="229"/>
-      <c r="J37" s="229"/>
-      <c r="K37" s="233"/>
-      <c r="L37" s="234"/>
-      <c r="M37" s="232"/>
-      <c r="N37" s="202"/>
-      <c r="O37" s="232"/>
-      <c r="P37" s="202"/>
-      <c r="Q37" s="202"/>
-      <c r="R37" s="202"/>
-      <c r="S37" s="202"/>
-      <c r="T37" s="232"/>
-    </row>
-    <row r="38" spans="1:20">
-      <c r="A38" s="228"/>
-      <c r="B38" s="203"/>
-      <c r="C38" s="200"/>
-      <c r="D38" s="229"/>
-      <c r="E38" s="203"/>
-      <c r="F38" s="203"/>
-      <c r="G38" s="228"/>
-      <c r="H38" s="229"/>
-      <c r="I38" s="229"/>
-      <c r="J38" s="229"/>
-      <c r="K38" s="233"/>
-      <c r="L38" s="234"/>
-      <c r="M38" s="232"/>
-      <c r="N38" s="202"/>
-      <c r="O38" s="232"/>
-      <c r="P38" s="202"/>
-      <c r="Q38" s="202"/>
-      <c r="R38" s="202"/>
-      <c r="S38" s="202"/>
-      <c r="T38" s="232"/>
+      <c r="I33" s="113"/>
+      <c r="J33" s="113"/>
+      <c r="K33" s="114"/>
+    </row>
+    <row r="34" spans="1:11" ht="15" customHeight="1">
+      <c r="A34" s="97"/>
+      <c r="B34" s="24"/>
+      <c r="C34" s="24"/>
+      <c r="D34" s="24"/>
+      <c r="E34" s="24"/>
+      <c r="F34" s="24"/>
+      <c r="G34" s="118"/>
+      <c r="H34" s="113"/>
+      <c r="I34" s="113"/>
+      <c r="J34" s="113"/>
+      <c r="K34" s="114"/>
+    </row>
+    <row r="35" spans="1:11" ht="15" customHeight="1">
+      <c r="A35" s="97"/>
+      <c r="B35" s="24"/>
+      <c r="C35" s="24"/>
+      <c r="D35" s="24"/>
+      <c r="E35" s="24"/>
+      <c r="F35" s="24"/>
+      <c r="G35" s="118"/>
+      <c r="H35" s="113"/>
+      <c r="I35" s="113"/>
+      <c r="J35" s="113"/>
+      <c r="K35" s="114"/>
+    </row>
+    <row r="36" spans="1:11" ht="15" customHeight="1">
+      <c r="A36" s="97"/>
+      <c r="B36" s="24"/>
+      <c r="C36" s="24"/>
+      <c r="D36" s="24"/>
+      <c r="E36" s="24"/>
+      <c r="F36" s="24"/>
+      <c r="G36" s="118"/>
+      <c r="H36" s="113"/>
+      <c r="I36" s="113"/>
+      <c r="J36" s="113"/>
+      <c r="K36" s="114"/>
+    </row>
+    <row r="37" spans="1:11" ht="15" customHeight="1">
+      <c r="A37" s="97"/>
+      <c r="B37" s="24"/>
+      <c r="C37" s="24"/>
+      <c r="D37" s="24"/>
+      <c r="E37" s="24"/>
+      <c r="F37" s="24"/>
+      <c r="G37" s="118"/>
+      <c r="H37" s="113"/>
+      <c r="I37" s="113"/>
+      <c r="J37" s="113"/>
+      <c r="K37" s="114"/>
+    </row>
+    <row r="38" spans="1:11" ht="15" customHeight="1">
+      <c r="A38" s="97"/>
+      <c r="B38" s="24"/>
+      <c r="C38" s="24"/>
+      <c r="D38" s="24"/>
+      <c r="E38" s="24"/>
+      <c r="F38" s="24"/>
+      <c r="G38" s="118"/>
+      <c r="H38" s="113"/>
+      <c r="I38" s="113"/>
+      <c r="J38" s="113"/>
+      <c r="K38" s="114"/>
+    </row>
+    <row r="39" spans="1:11" ht="15" customHeight="1">
+      <c r="A39" s="97"/>
+      <c r="B39" s="24"/>
+      <c r="C39" s="24"/>
+      <c r="D39" s="24"/>
+      <c r="E39" s="24"/>
+      <c r="F39" s="24"/>
+      <c r="G39" s="118"/>
+      <c r="H39" s="113"/>
+      <c r="I39" s="113"/>
+      <c r="J39" s="113"/>
+      <c r="K39" s="114"/>
+    </row>
+    <row r="40" spans="1:11" ht="15" customHeight="1">
+      <c r="A40" s="97"/>
+      <c r="B40" s="24"/>
+      <c r="C40" s="24"/>
+      <c r="D40" s="24"/>
+      <c r="E40" s="24"/>
+      <c r="F40" s="24"/>
+      <c r="G40" s="118"/>
+      <c r="H40" s="113"/>
+      <c r="I40" s="113"/>
+      <c r="J40" s="113"/>
+      <c r="K40" s="114"/>
+    </row>
+    <row r="41" spans="1:11" ht="15" customHeight="1">
+      <c r="A41" s="97"/>
+      <c r="B41" s="24"/>
+      <c r="C41" s="24"/>
+      <c r="D41" s="24"/>
+      <c r="E41" s="24"/>
+      <c r="F41" s="24"/>
+      <c r="G41" s="118"/>
+      <c r="H41" s="113"/>
+      <c r="I41" s="113"/>
+      <c r="J41" s="113"/>
+      <c r="K41" s="114"/>
+    </row>
+    <row r="42" spans="1:11" ht="15" customHeight="1">
+      <c r="A42" s="97"/>
+      <c r="B42" s="24"/>
+      <c r="C42" s="24"/>
+      <c r="D42" s="24"/>
+      <c r="E42" s="24"/>
+      <c r="F42" s="24"/>
+      <c r="G42" s="118"/>
+      <c r="H42" s="113"/>
+      <c r="I42" s="113"/>
+      <c r="J42" s="113"/>
+      <c r="K42" s="114"/>
+    </row>
+    <row r="43" spans="1:11" ht="15" customHeight="1">
+      <c r="A43" s="97"/>
+      <c r="B43" s="24"/>
+      <c r="C43" s="24"/>
+      <c r="D43" s="24"/>
+      <c r="E43" s="24"/>
+      <c r="F43" s="24"/>
+      <c r="G43" s="118"/>
+      <c r="H43" s="113"/>
+      <c r="I43" s="113"/>
+      <c r="J43" s="113"/>
+      <c r="K43" s="114"/>
+    </row>
+    <row r="44" spans="1:11" ht="15" customHeight="1">
+      <c r="A44" s="97"/>
+      <c r="B44" s="24"/>
+      <c r="C44" s="24"/>
+      <c r="D44" s="24"/>
+      <c r="E44" s="24"/>
+      <c r="F44" s="24"/>
+      <c r="G44" s="118"/>
+      <c r="H44" s="113"/>
+      <c r="I44" s="113"/>
+      <c r="J44" s="113"/>
+      <c r="K44" s="114"/>
+    </row>
+    <row r="45" spans="1:11" ht="15" customHeight="1">
+      <c r="A45" s="97"/>
+      <c r="B45" s="24"/>
+      <c r="C45" s="24"/>
+      <c r="D45" s="24"/>
+      <c r="E45" s="24"/>
+      <c r="F45" s="24"/>
+      <c r="G45" s="118"/>
+      <c r="H45" s="113"/>
+      <c r="I45" s="113"/>
+      <c r="J45" s="113"/>
+      <c r="K45" s="114"/>
+    </row>
+    <row r="46" spans="1:11" ht="15" customHeight="1">
+      <c r="A46" s="97"/>
+      <c r="B46" s="24"/>
+      <c r="C46" s="24"/>
+      <c r="D46" s="24"/>
+      <c r="E46" s="24"/>
+      <c r="F46" s="24"/>
+      <c r="G46" s="118"/>
+      <c r="H46" s="113"/>
+      <c r="I46" s="113"/>
+      <c r="J46" s="113"/>
+      <c r="K46" s="114"/>
+    </row>
+    <row r="47" spans="1:11" ht="15" customHeight="1">
+      <c r="A47" s="97"/>
+      <c r="B47" s="24"/>
+      <c r="C47" s="24"/>
+      <c r="D47" s="24"/>
+      <c r="E47" s="24"/>
+      <c r="F47" s="24"/>
+      <c r="G47" s="118"/>
+      <c r="H47" s="113"/>
+      <c r="I47" s="113"/>
+      <c r="J47" s="113"/>
+      <c r="K47" s="114"/>
+    </row>
+    <row r="48" spans="1:11" ht="15" customHeight="1">
+      <c r="A48" s="97"/>
+      <c r="B48" s="24"/>
+      <c r="C48" s="24"/>
+      <c r="D48" s="24"/>
+      <c r="E48" s="24"/>
+      <c r="F48" s="24"/>
+      <c r="G48" s="118"/>
+      <c r="H48" s="113"/>
+      <c r="I48" s="113"/>
+      <c r="J48" s="113"/>
+      <c r="K48" s="114"/>
+    </row>
+    <row r="49" spans="1:11" ht="15" customHeight="1">
+      <c r="A49" s="103"/>
+      <c r="B49" s="104"/>
+      <c r="C49" s="104"/>
+      <c r="D49" s="104"/>
+      <c r="E49" s="104"/>
+      <c r="F49" s="104"/>
+      <c r="G49" s="119"/>
+      <c r="H49" s="115"/>
+      <c r="I49" s="115"/>
+      <c r="J49" s="115"/>
+      <c r="K49" s="116"/>
     </row>
   </sheetData>
-  <mergeCells count="15">
-    <mergeCell ref="A5:B7"/>
-    <mergeCell ref="D5:K5"/>
-    <mergeCell ref="Q5:R5"/>
-    <mergeCell ref="D6:E6"/>
-    <mergeCell ref="F6:G6"/>
-    <mergeCell ref="Q7:R7"/>
-    <mergeCell ref="A1:T1"/>
-    <mergeCell ref="A2:B4"/>
-    <mergeCell ref="D2:K2"/>
-    <mergeCell ref="Q2:R2"/>
-    <mergeCell ref="D3:K3"/>
-    <mergeCell ref="Q3:R3"/>
-    <mergeCell ref="S3:T3"/>
-    <mergeCell ref="D4:K4"/>
-    <mergeCell ref="Q4:R4"/>
+  <mergeCells count="7">
+    <mergeCell ref="C7:I7"/>
+    <mergeCell ref="C2:I2"/>
+    <mergeCell ref="C3:I3"/>
+    <mergeCell ref="C4:I4"/>
+    <mergeCell ref="C5:I5"/>
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="F6:I6"/>
   </mergeCells>
   <phoneticPr fontId="3"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageMargins left="0.9055118110236221" right="0.51181102362204722" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
+  <pageSetup paperSize="9" scale="68" orientation="landscape" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FC5210F4-A783-594D-8A2A-BF8D2EF1559F}">
+  <dimension ref="A1:K49"/>
+  <sheetViews>
+    <sheetView topLeftCell="A8" zoomScaleNormal="100" zoomScaleSheetLayoutView="25" workbookViewId="0">
+      <selection activeCell="G12" sqref="G12:K12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14"/>
+  <cols>
+    <col min="2" max="2" width="12.5" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.83203125" customWidth="1"/>
+    <col min="9" max="9" width="40.1640625" customWidth="1"/>
+    <col min="11" max="11" width="32.5" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" ht="15" customHeight="1">
+      <c r="A1" s="88" t="s">
+        <v>39</v>
+      </c>
+      <c r="B1" s="77"/>
+      <c r="C1" s="77"/>
+      <c r="D1" s="77"/>
+      <c r="E1" s="77"/>
+      <c r="F1" s="77"/>
+      <c r="G1" s="77"/>
+      <c r="H1" s="77"/>
+      <c r="I1" s="77"/>
+      <c r="J1" s="77"/>
+      <c r="K1" s="78"/>
+    </row>
+    <row r="2" spans="1:11" ht="15" customHeight="1">
+      <c r="A2" s="79" t="s">
+        <v>40</v>
+      </c>
+      <c r="B2" s="25" t="s">
+        <v>41</v>
+      </c>
+      <c r="C2" s="194" t="s">
+        <v>104</v>
+      </c>
+      <c r="D2" s="200"/>
+      <c r="E2" s="200"/>
+      <c r="F2" s="200"/>
+      <c r="G2" s="200"/>
+      <c r="H2" s="200"/>
+      <c r="I2" s="195"/>
+      <c r="J2" s="80" t="s">
+        <v>42</v>
+      </c>
+      <c r="K2" s="81" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" ht="15" customHeight="1">
+      <c r="A3" s="82"/>
+      <c r="B3" s="25" t="s">
+        <v>43</v>
+      </c>
+      <c r="C3" s="194" t="s">
+        <v>82</v>
+      </c>
+      <c r="D3" s="200"/>
+      <c r="E3" s="200"/>
+      <c r="F3" s="200"/>
+      <c r="G3" s="200"/>
+      <c r="H3" s="200"/>
+      <c r="I3" s="195"/>
+      <c r="J3" s="80" t="s">
+        <v>44</v>
+      </c>
+      <c r="K3" s="83">
+        <v>44675</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" ht="15" customHeight="1">
+      <c r="A4" s="82"/>
+      <c r="B4" s="25" t="s">
+        <v>45</v>
+      </c>
+      <c r="C4" s="194" t="s">
+        <v>105</v>
+      </c>
+      <c r="D4" s="200"/>
+      <c r="E4" s="200"/>
+      <c r="F4" s="200"/>
+      <c r="G4" s="200"/>
+      <c r="H4" s="200"/>
+      <c r="I4" s="195"/>
+      <c r="J4" s="80" t="s">
+        <v>12</v>
+      </c>
+      <c r="K4" s="81" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" ht="15" customHeight="1">
+      <c r="A5" s="84" t="s">
+        <v>46</v>
+      </c>
+      <c r="B5" s="25" t="s">
+        <v>47</v>
+      </c>
+      <c r="C5" s="175" t="s">
+        <v>83</v>
+      </c>
+      <c r="D5" s="176"/>
+      <c r="E5" s="176"/>
+      <c r="F5" s="176"/>
+      <c r="G5" s="176"/>
+      <c r="H5" s="176"/>
+      <c r="I5" s="177"/>
+      <c r="J5" s="80" t="s">
+        <v>48</v>
+      </c>
+      <c r="K5" s="85"/>
+    </row>
+    <row r="6" spans="1:11" ht="15" customHeight="1">
+      <c r="A6" s="86"/>
+      <c r="B6" s="25" t="s">
+        <v>49</v>
+      </c>
+      <c r="C6" s="175" t="s">
+        <v>121</v>
+      </c>
+      <c r="D6" s="177"/>
+      <c r="E6" s="30" t="s">
+        <v>50</v>
+      </c>
+      <c r="F6" s="194" t="s">
+        <v>107</v>
+      </c>
+      <c r="G6" s="200"/>
+      <c r="H6" s="200"/>
+      <c r="I6" s="195"/>
+      <c r="J6" s="80" t="s">
+        <v>51</v>
+      </c>
+      <c r="K6" s="85"/>
+    </row>
+    <row r="7" spans="1:11" ht="15" customHeight="1">
+      <c r="A7" s="87"/>
+      <c r="B7" s="25" t="s">
+        <v>52</v>
+      </c>
+      <c r="C7" s="194" t="s">
+        <v>123</v>
+      </c>
+      <c r="D7" s="200"/>
+      <c r="E7" s="200"/>
+      <c r="F7" s="200"/>
+      <c r="G7" s="200"/>
+      <c r="H7" s="200"/>
+      <c r="I7" s="195"/>
+      <c r="J7" s="80"/>
+      <c r="K7" s="85"/>
+    </row>
+    <row r="8" spans="1:11" ht="15" customHeight="1">
+      <c r="A8" s="94" t="s">
+        <v>53</v>
+      </c>
+      <c r="B8" s="56"/>
+      <c r="C8" s="56"/>
+      <c r="D8" s="56"/>
+      <c r="E8" s="56"/>
+      <c r="F8" s="56"/>
+      <c r="G8" s="26" t="s">
+        <v>56</v>
+      </c>
+      <c r="H8" s="26" t="s">
+        <v>57</v>
+      </c>
+      <c r="I8" s="26" t="s">
+        <v>68</v>
+      </c>
+      <c r="J8" s="26" t="s">
+        <v>69</v>
+      </c>
+      <c r="K8" s="26" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" ht="15" customHeight="1">
+      <c r="A9" s="95"/>
+      <c r="B9" s="96"/>
+      <c r="C9" s="96"/>
+      <c r="D9" s="96"/>
+      <c r="E9" s="96"/>
+      <c r="F9" s="96"/>
+      <c r="G9" s="25">
+        <v>1</v>
+      </c>
+      <c r="H9" s="30" t="s">
+        <v>118</v>
+      </c>
+      <c r="I9" s="38" t="s">
+        <v>109</v>
+      </c>
+      <c r="J9" s="30" t="s">
+        <v>87</v>
+      </c>
+      <c r="K9" s="38" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" ht="15" customHeight="1">
+      <c r="A10" s="97"/>
+      <c r="B10" s="24"/>
+      <c r="C10" s="24"/>
+      <c r="D10" s="24"/>
+      <c r="E10" s="24"/>
+      <c r="F10" s="24"/>
+      <c r="G10" s="25">
+        <v>2</v>
+      </c>
+      <c r="H10" s="30" t="s">
+        <v>111</v>
+      </c>
+      <c r="I10" s="38" t="s">
+        <v>112</v>
+      </c>
+      <c r="J10" s="30" t="s">
+        <v>87</v>
+      </c>
+      <c r="K10" s="38" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" ht="15" customHeight="1">
+      <c r="A11" s="97"/>
+      <c r="B11" s="24"/>
+      <c r="C11" s="24"/>
+      <c r="D11" s="24"/>
+      <c r="E11" s="24"/>
+      <c r="F11" s="24"/>
+      <c r="G11" s="25">
+        <v>3</v>
+      </c>
+      <c r="H11" s="30" t="s">
+        <v>118</v>
+      </c>
+      <c r="I11" s="38" t="s">
+        <v>119</v>
+      </c>
+      <c r="J11" s="30" t="s">
+        <v>87</v>
+      </c>
+      <c r="K11" s="38" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" ht="15" customHeight="1">
+      <c r="A12" s="97"/>
+      <c r="B12" s="24"/>
+      <c r="C12" s="24"/>
+      <c r="D12" s="24"/>
+      <c r="E12" s="24"/>
+      <c r="F12" s="24"/>
+      <c r="G12" s="25">
+        <v>4</v>
+      </c>
+      <c r="H12" s="30" t="s">
+        <v>93</v>
+      </c>
+      <c r="I12" s="38" t="s">
+        <v>132</v>
+      </c>
+      <c r="J12" s="30" t="s">
+        <v>87</v>
+      </c>
+      <c r="K12" s="38" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" ht="15" customHeight="1">
+      <c r="A13" s="97"/>
+      <c r="B13" s="24"/>
+      <c r="C13" s="24"/>
+      <c r="D13" s="24"/>
+      <c r="E13" s="24"/>
+      <c r="F13" s="24"/>
+      <c r="G13" s="25"/>
+      <c r="H13" s="38"/>
+      <c r="I13" s="38"/>
+      <c r="J13" s="30"/>
+      <c r="K13" s="38"/>
+    </row>
+    <row r="14" spans="1:11" ht="15" customHeight="1">
+      <c r="A14" s="97"/>
+      <c r="B14" s="24"/>
+      <c r="C14" s="24"/>
+      <c r="D14" s="24"/>
+      <c r="E14" s="24"/>
+      <c r="F14" s="24"/>
+      <c r="G14" s="25"/>
+      <c r="H14" s="38"/>
+      <c r="I14" s="38"/>
+      <c r="J14" s="38"/>
+      <c r="K14" s="38"/>
+    </row>
+    <row r="15" spans="1:11" ht="15" customHeight="1">
+      <c r="A15" s="97"/>
+      <c r="B15" s="24"/>
+      <c r="C15" s="24"/>
+      <c r="D15" s="24"/>
+      <c r="E15" s="24"/>
+      <c r="F15" s="24"/>
+      <c r="G15" s="25"/>
+      <c r="H15" s="38"/>
+      <c r="I15" s="38"/>
+      <c r="J15" s="38"/>
+      <c r="K15" s="38"/>
+    </row>
+    <row r="16" spans="1:11" ht="15" customHeight="1">
+      <c r="A16" s="97"/>
+      <c r="B16" s="24"/>
+      <c r="C16" s="24"/>
+      <c r="D16" s="24"/>
+      <c r="E16" s="24"/>
+      <c r="F16" s="24"/>
+      <c r="G16" s="25"/>
+      <c r="H16" s="38"/>
+      <c r="I16" s="38"/>
+      <c r="J16" s="38"/>
+      <c r="K16" s="38"/>
+    </row>
+    <row r="17" spans="1:11" ht="15" customHeight="1">
+      <c r="A17" s="97"/>
+      <c r="B17" s="24"/>
+      <c r="C17" s="24"/>
+      <c r="D17" s="24"/>
+      <c r="E17" s="24"/>
+      <c r="F17" s="24"/>
+      <c r="G17" s="25"/>
+      <c r="H17" s="38"/>
+      <c r="I17" s="38"/>
+      <c r="J17" s="38"/>
+      <c r="K17" s="38"/>
+    </row>
+    <row r="18" spans="1:11" ht="15" customHeight="1">
+      <c r="A18" s="97"/>
+      <c r="B18" s="24"/>
+      <c r="C18" s="24"/>
+      <c r="D18" s="24"/>
+      <c r="E18" s="24"/>
+      <c r="F18" s="24"/>
+      <c r="G18" s="25"/>
+      <c r="H18" s="38"/>
+      <c r="I18" s="38"/>
+      <c r="J18" s="38"/>
+      <c r="K18" s="38"/>
+    </row>
+    <row r="19" spans="1:11" ht="15" customHeight="1">
+      <c r="A19" s="97"/>
+      <c r="B19" s="24"/>
+      <c r="C19" s="24"/>
+      <c r="D19" s="24"/>
+      <c r="E19" s="24"/>
+      <c r="F19" s="24"/>
+      <c r="G19" s="25"/>
+      <c r="H19" s="38"/>
+      <c r="I19" s="38"/>
+      <c r="J19" s="38"/>
+      <c r="K19" s="38"/>
+    </row>
+    <row r="20" spans="1:11" ht="15" customHeight="1">
+      <c r="A20" s="97"/>
+      <c r="B20" s="24"/>
+      <c r="C20" s="24"/>
+      <c r="D20" s="24"/>
+      <c r="E20" s="24"/>
+      <c r="G20" s="25"/>
+      <c r="H20" s="38"/>
+      <c r="I20" s="38"/>
+      <c r="J20" s="38"/>
+      <c r="K20" s="38"/>
+    </row>
+    <row r="21" spans="1:11" ht="15" customHeight="1">
+      <c r="A21" s="97"/>
+      <c r="B21" s="24"/>
+      <c r="C21" s="24"/>
+      <c r="D21" s="24"/>
+      <c r="E21" s="24"/>
+      <c r="F21" s="24"/>
+      <c r="G21" s="25"/>
+      <c r="H21" s="38"/>
+      <c r="I21" s="38"/>
+      <c r="J21" s="38"/>
+      <c r="K21" s="38"/>
+    </row>
+    <row r="22" spans="1:11" ht="15" customHeight="1">
+      <c r="A22" s="97"/>
+      <c r="B22" s="24"/>
+      <c r="C22" s="24"/>
+      <c r="D22" s="24"/>
+      <c r="E22" s="24"/>
+      <c r="F22" s="24"/>
+      <c r="G22" s="25"/>
+      <c r="H22" s="38"/>
+      <c r="I22" s="38"/>
+      <c r="J22" s="38"/>
+      <c r="K22" s="38"/>
+    </row>
+    <row r="23" spans="1:11" ht="15" customHeight="1">
+      <c r="A23" s="97"/>
+      <c r="B23" s="24"/>
+      <c r="C23" s="24"/>
+      <c r="D23" s="24"/>
+      <c r="E23" s="24"/>
+      <c r="F23" s="24"/>
+      <c r="G23" s="25"/>
+      <c r="H23" s="38"/>
+      <c r="I23" s="38"/>
+      <c r="J23" s="38"/>
+      <c r="K23" s="38"/>
+    </row>
+    <row r="24" spans="1:11" ht="15" customHeight="1">
+      <c r="A24" s="97"/>
+      <c r="B24" s="24"/>
+      <c r="C24" s="24"/>
+      <c r="D24" s="24"/>
+      <c r="E24" s="24"/>
+      <c r="F24" s="24"/>
+      <c r="G24" s="25"/>
+      <c r="H24" s="38"/>
+      <c r="I24" s="38"/>
+      <c r="J24" s="38"/>
+      <c r="K24" s="38"/>
+    </row>
+    <row r="25" spans="1:11" ht="15" customHeight="1">
+      <c r="A25" s="97"/>
+      <c r="B25" s="24"/>
+      <c r="C25" s="24"/>
+      <c r="D25" s="24"/>
+      <c r="E25" s="24"/>
+      <c r="F25" s="24"/>
+      <c r="G25" s="25"/>
+      <c r="H25" s="38"/>
+      <c r="I25" s="38"/>
+      <c r="J25" s="38"/>
+      <c r="K25" s="38"/>
+    </row>
+    <row r="26" spans="1:11" ht="15" customHeight="1">
+      <c r="A26" s="97"/>
+      <c r="B26" s="24"/>
+      <c r="C26" s="24"/>
+      <c r="D26" s="24"/>
+      <c r="E26" s="24"/>
+      <c r="F26" s="24"/>
+      <c r="G26" s="25"/>
+      <c r="H26" s="38"/>
+      <c r="I26" s="38"/>
+      <c r="J26" s="38"/>
+      <c r="K26" s="38"/>
+    </row>
+    <row r="27" spans="1:11" ht="15" customHeight="1">
+      <c r="A27" s="97"/>
+      <c r="B27" s="24"/>
+      <c r="C27" s="24"/>
+      <c r="D27" s="24"/>
+      <c r="E27" s="24"/>
+      <c r="F27" s="24"/>
+      <c r="G27" s="25"/>
+      <c r="H27" s="38"/>
+      <c r="I27" s="38"/>
+      <c r="J27" s="38"/>
+      <c r="K27" s="38"/>
+    </row>
+    <row r="28" spans="1:11" ht="15" customHeight="1">
+      <c r="A28" s="97"/>
+      <c r="B28" s="24"/>
+      <c r="C28" s="24"/>
+      <c r="D28" s="24"/>
+      <c r="E28" s="24"/>
+      <c r="F28" s="24"/>
+      <c r="G28" s="25"/>
+      <c r="H28" s="38"/>
+      <c r="I28" s="38"/>
+      <c r="J28" s="38"/>
+      <c r="K28" s="38"/>
+    </row>
+    <row r="29" spans="1:11" ht="15" customHeight="1">
+      <c r="A29" s="97"/>
+      <c r="B29" s="24"/>
+      <c r="C29" s="24"/>
+      <c r="D29" s="24"/>
+      <c r="E29" s="24"/>
+      <c r="F29" s="24"/>
+      <c r="G29" s="98" t="s">
+        <v>71</v>
+      </c>
+      <c r="H29" s="99"/>
+      <c r="I29" s="99"/>
+      <c r="J29" s="99"/>
+      <c r="K29" s="100"/>
+    </row>
+    <row r="30" spans="1:11" ht="15" customHeight="1">
+      <c r="A30" s="97"/>
+      <c r="B30" s="24"/>
+      <c r="C30" s="24"/>
+      <c r="D30" s="24"/>
+      <c r="E30" s="24"/>
+      <c r="F30" s="24"/>
+      <c r="G30" s="117"/>
+      <c r="H30" s="120"/>
+      <c r="I30" s="120"/>
+      <c r="J30" s="120"/>
+      <c r="K30" s="121"/>
+    </row>
+    <row r="31" spans="1:11" ht="15" customHeight="1">
+      <c r="A31" s="97"/>
+      <c r="B31" s="24"/>
+      <c r="C31" s="24"/>
+      <c r="D31" s="24"/>
+      <c r="E31" s="24"/>
+      <c r="F31" s="24"/>
+      <c r="G31" s="118">
+        <v>1</v>
+      </c>
+      <c r="H31" s="113" t="s">
+        <v>130</v>
+      </c>
+      <c r="I31" s="113"/>
+      <c r="J31" s="113"/>
+      <c r="K31" s="114"/>
+    </row>
+    <row r="32" spans="1:11" ht="15" customHeight="1">
+      <c r="A32" s="97"/>
+      <c r="B32" s="24"/>
+      <c r="C32" s="24"/>
+      <c r="D32" s="24"/>
+      <c r="E32" s="24"/>
+      <c r="F32" s="24"/>
+      <c r="G32" s="118"/>
+      <c r="H32" s="113"/>
+      <c r="I32" s="113"/>
+      <c r="J32" s="113"/>
+      <c r="K32" s="114"/>
+    </row>
+    <row r="33" spans="1:11" ht="15" customHeight="1">
+      <c r="A33" s="97"/>
+      <c r="B33" s="24"/>
+      <c r="C33" s="24"/>
+      <c r="D33" s="24"/>
+      <c r="E33" s="24"/>
+      <c r="F33" s="24"/>
+      <c r="G33" s="118">
+        <v>2</v>
+      </c>
+      <c r="H33" s="113" t="s">
+        <v>131</v>
+      </c>
+      <c r="I33" s="113"/>
+      <c r="J33" s="113"/>
+      <c r="K33" s="114"/>
+    </row>
+    <row r="34" spans="1:11" ht="15" customHeight="1">
+      <c r="A34" s="97"/>
+      <c r="B34" s="24"/>
+      <c r="C34" s="24"/>
+      <c r="D34" s="24"/>
+      <c r="E34" s="24"/>
+      <c r="F34" s="24"/>
+      <c r="G34" s="118"/>
+      <c r="H34" s="113"/>
+      <c r="I34" s="113"/>
+      <c r="J34" s="113"/>
+      <c r="K34" s="114"/>
+    </row>
+    <row r="35" spans="1:11" ht="15" customHeight="1">
+      <c r="A35" s="97"/>
+      <c r="B35" s="24"/>
+      <c r="C35" s="24"/>
+      <c r="D35" s="24"/>
+      <c r="E35" s="24"/>
+      <c r="F35" s="24"/>
+      <c r="G35" s="118"/>
+      <c r="H35" s="113"/>
+      <c r="I35" s="113"/>
+      <c r="J35" s="113"/>
+      <c r="K35" s="114"/>
+    </row>
+    <row r="36" spans="1:11" ht="15" customHeight="1">
+      <c r="A36" s="97"/>
+      <c r="B36" s="24"/>
+      <c r="C36" s="24"/>
+      <c r="D36" s="24"/>
+      <c r="E36" s="24"/>
+      <c r="F36" s="24"/>
+      <c r="G36" s="118"/>
+      <c r="H36" s="113"/>
+      <c r="I36" s="113"/>
+      <c r="J36" s="113"/>
+      <c r="K36" s="114"/>
+    </row>
+    <row r="37" spans="1:11" ht="15" customHeight="1">
+      <c r="A37" s="97"/>
+      <c r="B37" s="24"/>
+      <c r="C37" s="24"/>
+      <c r="D37" s="24"/>
+      <c r="E37" s="24"/>
+      <c r="F37" s="24"/>
+      <c r="G37" s="118"/>
+      <c r="H37" s="113"/>
+      <c r="I37" s="113"/>
+      <c r="J37" s="113"/>
+      <c r="K37" s="114"/>
+    </row>
+    <row r="38" spans="1:11" ht="15" customHeight="1">
+      <c r="A38" s="97"/>
+      <c r="B38" s="24"/>
+      <c r="C38" s="24"/>
+      <c r="D38" s="24"/>
+      <c r="E38" s="24"/>
+      <c r="F38" s="24"/>
+      <c r="G38" s="118"/>
+      <c r="H38" s="113"/>
+      <c r="I38" s="113"/>
+      <c r="J38" s="113"/>
+      <c r="K38" s="114"/>
+    </row>
+    <row r="39" spans="1:11" ht="15" customHeight="1">
+      <c r="A39" s="97"/>
+      <c r="B39" s="24"/>
+      <c r="C39" s="24"/>
+      <c r="D39" s="24"/>
+      <c r="E39" s="24"/>
+      <c r="F39" s="24"/>
+      <c r="G39" s="118"/>
+      <c r="H39" s="113"/>
+      <c r="I39" s="113"/>
+      <c r="J39" s="113"/>
+      <c r="K39" s="114"/>
+    </row>
+    <row r="40" spans="1:11" ht="15" customHeight="1">
+      <c r="A40" s="97"/>
+      <c r="B40" s="24"/>
+      <c r="C40" s="24"/>
+      <c r="D40" s="24"/>
+      <c r="E40" s="24"/>
+      <c r="F40" s="24"/>
+      <c r="G40" s="118"/>
+      <c r="H40" s="113"/>
+      <c r="I40" s="113"/>
+      <c r="J40" s="113"/>
+      <c r="K40" s="114"/>
+    </row>
+    <row r="41" spans="1:11" ht="15" customHeight="1">
+      <c r="A41" s="97"/>
+      <c r="B41" s="24"/>
+      <c r="C41" s="24"/>
+      <c r="D41" s="24"/>
+      <c r="E41" s="24"/>
+      <c r="F41" s="24"/>
+      <c r="G41" s="118"/>
+      <c r="H41" s="113"/>
+      <c r="I41" s="113"/>
+      <c r="J41" s="113"/>
+      <c r="K41" s="114"/>
+    </row>
+    <row r="42" spans="1:11" ht="15" customHeight="1">
+      <c r="A42" s="97"/>
+      <c r="B42" s="24"/>
+      <c r="C42" s="24"/>
+      <c r="D42" s="24"/>
+      <c r="E42" s="24"/>
+      <c r="F42" s="24"/>
+      <c r="G42" s="118"/>
+      <c r="H42" s="113"/>
+      <c r="I42" s="113"/>
+      <c r="J42" s="113"/>
+      <c r="K42" s="114"/>
+    </row>
+    <row r="43" spans="1:11" ht="15" customHeight="1">
+      <c r="A43" s="97"/>
+      <c r="B43" s="24"/>
+      <c r="C43" s="24"/>
+      <c r="D43" s="24"/>
+      <c r="E43" s="24"/>
+      <c r="F43" s="24"/>
+      <c r="G43" s="118"/>
+      <c r="H43" s="113"/>
+      <c r="I43" s="113"/>
+      <c r="J43" s="113"/>
+      <c r="K43" s="114"/>
+    </row>
+    <row r="44" spans="1:11" ht="15" customHeight="1">
+      <c r="A44" s="97"/>
+      <c r="B44" s="24"/>
+      <c r="C44" s="24"/>
+      <c r="D44" s="24"/>
+      <c r="E44" s="24"/>
+      <c r="F44" s="24"/>
+      <c r="G44" s="118"/>
+      <c r="H44" s="113"/>
+      <c r="I44" s="113"/>
+      <c r="J44" s="113"/>
+      <c r="K44" s="114"/>
+    </row>
+    <row r="45" spans="1:11" ht="15" customHeight="1">
+      <c r="A45" s="97"/>
+      <c r="B45" s="24"/>
+      <c r="C45" s="24"/>
+      <c r="D45" s="24"/>
+      <c r="E45" s="24"/>
+      <c r="F45" s="24"/>
+      <c r="G45" s="118"/>
+      <c r="H45" s="113"/>
+      <c r="I45" s="113"/>
+      <c r="J45" s="113"/>
+      <c r="K45" s="114"/>
+    </row>
+    <row r="46" spans="1:11" ht="15" customHeight="1">
+      <c r="A46" s="97"/>
+      <c r="B46" s="24"/>
+      <c r="C46" s="24"/>
+      <c r="D46" s="24"/>
+      <c r="E46" s="24"/>
+      <c r="F46" s="24"/>
+      <c r="G46" s="118"/>
+      <c r="H46" s="113"/>
+      <c r="I46" s="113"/>
+      <c r="J46" s="113"/>
+      <c r="K46" s="114"/>
+    </row>
+    <row r="47" spans="1:11" ht="15" customHeight="1">
+      <c r="A47" s="97"/>
+      <c r="B47" s="24"/>
+      <c r="C47" s="24"/>
+      <c r="D47" s="24"/>
+      <c r="E47" s="24"/>
+      <c r="F47" s="24"/>
+      <c r="G47" s="118"/>
+      <c r="H47" s="113"/>
+      <c r="I47" s="113"/>
+      <c r="J47" s="113"/>
+      <c r="K47" s="114"/>
+    </row>
+    <row r="48" spans="1:11" ht="15" customHeight="1">
+      <c r="A48" s="97"/>
+      <c r="B48" s="24"/>
+      <c r="C48" s="24"/>
+      <c r="D48" s="24"/>
+      <c r="E48" s="24"/>
+      <c r="F48" s="24"/>
+      <c r="G48" s="118"/>
+      <c r="H48" s="113"/>
+      <c r="I48" s="113"/>
+      <c r="J48" s="113"/>
+      <c r="K48" s="114"/>
+    </row>
+    <row r="49" spans="1:11" ht="15" customHeight="1">
+      <c r="A49" s="103"/>
+      <c r="B49" s="104"/>
+      <c r="C49" s="104"/>
+      <c r="D49" s="104"/>
+      <c r="E49" s="104"/>
+      <c r="F49" s="104"/>
+      <c r="G49" s="119"/>
+      <c r="H49" s="115"/>
+      <c r="I49" s="115"/>
+      <c r="J49" s="115"/>
+      <c r="K49" s="116"/>
+    </row>
+  </sheetData>
+  <mergeCells count="7">
+    <mergeCell ref="C7:I7"/>
+    <mergeCell ref="C2:I2"/>
+    <mergeCell ref="C3:I3"/>
+    <mergeCell ref="C4:I4"/>
+    <mergeCell ref="C5:I5"/>
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="F6:I6"/>
+  </mergeCells>
+  <phoneticPr fontId="3"/>
+  <pageMargins left="0.9055118110236221" right="0.51181102362204722" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
+  <pageSetup paperSize="9" scale="68" orientation="landscape" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 

--- a/document/01_画面設計書.xlsx
+++ b/document/01_画面設計書.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dorae/Develop/school_develop_1/document/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C805D7BA-A673-AB4B-B752-1CF8108D7B40}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{14DDB169-5BD5-684E-85FC-1E73FB216A18}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="740" windowWidth="29400" windowHeight="17040" firstSheet="1" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="740" windowWidth="29400" windowHeight="17040" firstSheet="1" activeTab="10" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="表紙" sheetId="3" r:id="rId1"/>
@@ -23,6 +23,7 @@
     <sheet name="G6-1" sheetId="79" r:id="rId8"/>
     <sheet name="G6-2" sheetId="80" r:id="rId9"/>
     <sheet name="G6-3-1" sheetId="81" r:id="rId10"/>
+    <sheet name="G6-3-2" sheetId="83" r:id="rId11"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm.Print_Area" localSheetId="5">'(Gxx)PC画面フォーム'!$A$1:$T$38</definedName>
@@ -30,6 +31,7 @@
     <definedName name="_xlnm.Print_Area" localSheetId="7">'G6-1'!$A$1:$K$49</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="8">'G6-2'!$A$1:$K$49</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="9">'G6-3-1'!$A$1:$K$49</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="10">'G6-3-2'!$A$1:$K$49</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="1">サイトマップ構造図!$A$1:$AG$45</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="3">画面遷移図!$A$1:$AG$45</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="4">'画面遷移図 (2)'!$A$1:$AK$75</definedName>
@@ -112,7 +114,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="313" uniqueCount="137">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="362" uniqueCount="141">
   <si>
     <t>作成日</t>
     <rPh sb="0" eb="3">
@@ -1064,6 +1066,37 @@
     <t>G6-3-2へ遷移するボタン</t>
     <phoneticPr fontId="3"/>
   </si>
+  <si>
+    <t>G6-3-2</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>GPTが喋るコメント欄</t>
+    <rPh sb="3" eb="4">
+      <t>ガ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>GPTに聞いたことを確認する</t>
+    <rPh sb="4" eb="5">
+      <t>キイタ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>カクニn</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>他の質問を押下し、G6-1に戻る</t>
+    <rPh sb="0" eb="1">
+      <t>ホカ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t xml:space="preserve">オウカシ </t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
 </sst>
 </file>
 
@@ -1765,44 +1798,23 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="177" fontId="4" fillId="0" borderId="11" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="4" fillId="0" borderId="7" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="4" fillId="0" borderId="6" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="13" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1828,6 +1840,24 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="4" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1840,23 +1870,26 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="4" fillId="0" borderId="11" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="13" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="4" fillId="0" borderId="7" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="4" fillId="0" borderId="6" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1939,6 +1972,15 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -1971,15 +2013,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -17809,6 +17842,1417 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/drawings/drawing7.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>368300</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>139699</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>50800</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>132248</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="15" name="図 14">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C33058D8-7EEC-C346-BB82-57B729A3ADE5}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="368300" y="1854199"/>
+          <a:ext cx="3327400" cy="7231549"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>140910</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>401562</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>95163</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="正方形/長方形 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C0AF195A-8868-EC46-9C7C-65B37BA78643}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="13576300" y="1474410"/>
+          <a:ext cx="1747762" cy="525753"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="28575" cmpd="sng">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+          <a:prstDash val="dash"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="ja-JP" altLang="en-US"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>418495</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>21771</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>509454</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>143378</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="4" name="直線コネクタ 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D65B1E35-6CF7-CB4C-955F-81A949C0E30E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="15340995" y="974271"/>
+          <a:ext cx="764059" cy="502607"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="19050" cmpd="sng">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>462643</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>348367</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>128006</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="5" name="正方形/長方形 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9012B14C-B643-C84D-8D20-592F1069AADB}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="16058243" y="571500"/>
+          <a:ext cx="558824" cy="509006"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="12700">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2000" b="1">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>①</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>482600</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>228600</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>50800</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="6" name="四角形 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{785299AD-787E-CD4F-B0AE-BEC03F2BEE04}"/>
+            </a:ext>
+            <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
+              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{673554EA-DC85-1399-9984-2AFD890111C6}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="482600" y="2895600"/>
+          <a:ext cx="2044700" cy="965200"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="28575" cmpd="sng">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+          <a:prstDash val="dash"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rtlCol="0" anchor="ctr"/>
+        <a:lstStyle>
+          <a:lvl1pPr marL="0" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p>
+          <a:endParaRPr lang="ja-JP" altLang="en-US"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>393700</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>25400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>622300</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="7" name="四角形 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1270B319-E8DE-1448-9F42-EAC64761DF6A}"/>
+            </a:ext>
+            <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
+              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{673554EA-DC85-1399-9984-2AFD890111C6}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="393700" y="4216400"/>
+          <a:ext cx="3200400" cy="1460500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="28575" cmpd="sng">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+          <a:prstDash val="dash"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rtlCol="0" anchor="ctr"/>
+        <a:lstStyle>
+          <a:lvl1pPr marL="0" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p>
+          <a:endParaRPr lang="ja-JP" altLang="en-US"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>393700</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>609600</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>165100</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="8" name="四角形 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{33B263D6-B721-2649-9DE6-E18AB4B460E9}"/>
+            </a:ext>
+            <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
+              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{673554EA-DC85-1399-9984-2AFD890111C6}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="393700" y="5943600"/>
+          <a:ext cx="3187700" cy="1841500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="28575" cmpd="sng">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+          <a:prstDash val="dash"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rtlCol="0" anchor="ctr"/>
+        <a:lstStyle>
+          <a:lvl1pPr marL="0" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p>
+          <a:endParaRPr lang="ja-JP" altLang="en-US"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>228600</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>88900</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>647700</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>88900</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="9" name="テキスト ボックス 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8104508E-60F0-854A-86A5-0C9820C46349}"/>
+            </a:ext>
+            <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
+              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{038AAD56-1B54-4A2A-883B-499D8F8BF8BA}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="228600" y="2565400"/>
+          <a:ext cx="419100" cy="381000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr spcFirstLastPara="0" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" rtlCol="0" anchor="t">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle>
+          <a:lvl1pPr marL="0" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p>
+          <a:pPr marL="0" indent="0" algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="2000" b="1">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-lt"/>
+              <a:cs typeface="+mn-lt"/>
+            </a:rPr>
+            <a:t>①</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>177800</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>457200</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>177800</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="10" name="テキスト ボックス 14">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B240848D-6D47-B448-A184-B634CB42E6F1}"/>
+            </a:ext>
+            <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
+              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{038AAD56-1B54-4A2A-883B-499D8F8BF8BA}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="38100" y="5702300"/>
+          <a:ext cx="419100" cy="381000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr spcFirstLastPara="0" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" rtlCol="0" anchor="t">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle>
+          <a:lvl1pPr marL="0" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p>
+          <a:pPr marL="0" indent="0" algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="2000" b="1">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-lt"/>
+              <a:cs typeface="+mn-lt"/>
+            </a:rPr>
+            <a:t>③</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>114300</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>63500</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>533400</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>63500</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="11" name="テキスト ボックス 14">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5B4E1219-15CD-F946-8B28-C3596B4D292D}"/>
+            </a:ext>
+            <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
+              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{038AAD56-1B54-4A2A-883B-499D8F8BF8BA}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="114300" y="3873500"/>
+          <a:ext cx="419100" cy="381000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr spcFirstLastPara="0" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" rtlCol="0" anchor="t">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle>
+          <a:lvl1pPr marL="0" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p>
+          <a:pPr marL="0" indent="0" algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="2000" b="1">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-lt"/>
+              <a:cs typeface="+mn-lt"/>
+            </a:rPr>
+            <a:t>②</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>762000</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>50800</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>254000</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="12" name="四角形 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{668BDB35-6B28-6D40-9F42-C837E30B406C}"/>
+            </a:ext>
+            <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
+              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{673554EA-DC85-1399-9984-2AFD890111C6}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1435100" y="7861300"/>
+          <a:ext cx="1117600" cy="406400"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="28575" cmpd="sng">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+          <a:prstDash val="dash"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rtlCol="0" anchor="ctr"/>
+        <a:lstStyle>
+          <a:lvl1pPr marL="0" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p>
+          <a:endParaRPr lang="ja-JP" altLang="en-US"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>381000</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>165100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>800100</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>165100</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="13" name="テキスト ボックス 12">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F48331BD-5923-AA46-A40D-E65754F9F221}"/>
+            </a:ext>
+            <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
+              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{038AAD56-1B54-4A2A-883B-499D8F8BF8BA}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1054100" y="7785100"/>
+          <a:ext cx="419100" cy="381000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr spcFirstLastPara="0" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" rtlCol="0" anchor="t">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle>
+          <a:lvl1pPr marL="0" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p>
+          <a:pPr marL="0" indent="0" algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="2000" b="1">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-lt"/>
+              <a:cs typeface="+mn-lt"/>
+            </a:rPr>
+            <a:t>④</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="ホワイト">
   <a:themeElements>
@@ -18352,10 +19796,10 @@
       <c r="V2" s="2"/>
       <c r="W2" s="2"/>
       <c r="X2" s="2"/>
-      <c r="Y2" s="141" t="s">
+      <c r="Y2" s="134" t="s">
         <v>0</v>
       </c>
-      <c r="Z2" s="142"/>
+      <c r="Z2" s="135"/>
       <c r="AA2" s="64" t="s">
         <v>1</v>
       </c>
@@ -18481,16 +19925,16 @@
       <c r="C6" s="73"/>
       <c r="D6" s="73"/>
       <c r="E6" s="74"/>
-      <c r="F6" s="150" t="s">
+      <c r="F6" s="149" t="s">
         <v>5</v>
       </c>
-      <c r="G6" s="151"/>
-      <c r="H6" s="151"/>
-      <c r="I6" s="152"/>
-      <c r="J6" s="152"/>
-      <c r="K6" s="152"/>
-      <c r="L6" s="152"/>
-      <c r="M6" s="152"/>
+      <c r="G6" s="150"/>
+      <c r="H6" s="150"/>
+      <c r="I6" s="151"/>
+      <c r="J6" s="151"/>
+      <c r="K6" s="151"/>
+      <c r="L6" s="151"/>
+      <c r="M6" s="151"/>
       <c r="N6" s="75"/>
       <c r="O6" s="75"/>
       <c r="P6" s="75"/>
@@ -18513,24 +19957,24 @@
     </row>
     <row r="7" spans="1:176" ht="15" customHeight="1">
       <c r="A7" s="2"/>
-      <c r="B7" s="134" t="s">
+      <c r="B7" s="152" t="s">
         <v>6</v>
       </c>
-      <c r="C7" s="135"/>
-      <c r="D7" s="136"/>
-      <c r="E7" s="137"/>
-      <c r="F7" s="143"/>
-      <c r="G7" s="144"/>
-      <c r="H7" s="144"/>
-      <c r="I7" s="144"/>
-      <c r="J7" s="144"/>
-      <c r="K7" s="144"/>
-      <c r="L7" s="144"/>
-      <c r="M7" s="144"/>
-      <c r="N7" s="144"/>
-      <c r="O7" s="144"/>
-      <c r="P7" s="144"/>
-      <c r="Q7" s="145"/>
+      <c r="C7" s="153"/>
+      <c r="D7" s="154"/>
+      <c r="E7" s="155"/>
+      <c r="F7" s="136"/>
+      <c r="G7" s="137"/>
+      <c r="H7" s="137"/>
+      <c r="I7" s="137"/>
+      <c r="J7" s="137"/>
+      <c r="K7" s="137"/>
+      <c r="L7" s="137"/>
+      <c r="M7" s="137"/>
+      <c r="N7" s="137"/>
+      <c r="O7" s="137"/>
+      <c r="P7" s="137"/>
+      <c r="Q7" s="138"/>
       <c r="R7" s="2"/>
       <c r="S7" s="2"/>
       <c r="T7" s="2"/>
@@ -18538,40 +19982,40 @@
       <c r="V7" s="2"/>
       <c r="W7" s="2"/>
       <c r="X7" s="2"/>
-      <c r="Y7" s="141" t="s">
+      <c r="Y7" s="134" t="s">
         <v>7</v>
       </c>
-      <c r="Z7" s="142"/>
-      <c r="AA7" s="141" t="s">
+      <c r="Z7" s="135"/>
+      <c r="AA7" s="134" t="s">
         <v>8</v>
       </c>
-      <c r="AB7" s="142"/>
-      <c r="AC7" s="141" t="s">
+      <c r="AB7" s="135"/>
+      <c r="AC7" s="134" t="s">
         <v>9</v>
       </c>
-      <c r="AD7" s="142"/>
+      <c r="AD7" s="135"/>
       <c r="AE7" s="23"/>
       <c r="AF7" s="71"/>
       <c r="AG7" s="2"/>
     </row>
     <row r="8" spans="1:176" ht="15" customHeight="1">
       <c r="A8" s="2"/>
-      <c r="B8" s="138"/>
-      <c r="C8" s="139"/>
-      <c r="D8" s="139"/>
-      <c r="E8" s="140"/>
-      <c r="F8" s="146"/>
-      <c r="G8" s="147"/>
-      <c r="H8" s="147"/>
-      <c r="I8" s="147"/>
-      <c r="J8" s="147"/>
-      <c r="K8" s="147"/>
-      <c r="L8" s="147"/>
-      <c r="M8" s="147"/>
-      <c r="N8" s="147"/>
-      <c r="O8" s="147"/>
-      <c r="P8" s="147"/>
-      <c r="Q8" s="148"/>
+      <c r="B8" s="156"/>
+      <c r="C8" s="157"/>
+      <c r="D8" s="157"/>
+      <c r="E8" s="158"/>
+      <c r="F8" s="139"/>
+      <c r="G8" s="140"/>
+      <c r="H8" s="140"/>
+      <c r="I8" s="140"/>
+      <c r="J8" s="140"/>
+      <c r="K8" s="140"/>
+      <c r="L8" s="140"/>
+      <c r="M8" s="140"/>
+      <c r="N8" s="140"/>
+      <c r="O8" s="140"/>
+      <c r="P8" s="140"/>
+      <c r="Q8" s="141"/>
       <c r="R8" s="2"/>
       <c r="S8" s="2"/>
       <c r="T8" s="2"/>
@@ -18579,12 +20023,12 @@
       <c r="V8" s="2"/>
       <c r="W8" s="2"/>
       <c r="X8" s="2"/>
-      <c r="Y8" s="128"/>
-      <c r="Z8" s="129"/>
-      <c r="AA8" s="128"/>
-      <c r="AB8" s="129"/>
-      <c r="AC8" s="128"/>
-      <c r="AD8" s="129"/>
+      <c r="Y8" s="142"/>
+      <c r="Z8" s="143"/>
+      <c r="AA8" s="142"/>
+      <c r="AB8" s="143"/>
+      <c r="AC8" s="142"/>
+      <c r="AD8" s="143"/>
       <c r="AE8" s="21"/>
       <c r="AF8" s="71"/>
       <c r="AG8" s="2"/>
@@ -18614,12 +20058,12 @@
       <c r="V9" s="2"/>
       <c r="W9" s="2"/>
       <c r="X9" s="2"/>
-      <c r="Y9" s="130"/>
-      <c r="Z9" s="131"/>
-      <c r="AA9" s="130"/>
-      <c r="AB9" s="131"/>
-      <c r="AC9" s="130"/>
-      <c r="AD9" s="131"/>
+      <c r="Y9" s="144"/>
+      <c r="Z9" s="145"/>
+      <c r="AA9" s="144"/>
+      <c r="AB9" s="145"/>
+      <c r="AC9" s="144"/>
+      <c r="AD9" s="145"/>
       <c r="AE9" s="21"/>
       <c r="AF9" s="71"/>
       <c r="AG9" s="2"/>
@@ -18649,12 +20093,12 @@
       <c r="V10" s="12"/>
       <c r="W10" s="12"/>
       <c r="X10" s="12"/>
-      <c r="Y10" s="132"/>
-      <c r="Z10" s="133"/>
-      <c r="AA10" s="132"/>
-      <c r="AB10" s="133"/>
-      <c r="AC10" s="132"/>
-      <c r="AD10" s="133"/>
+      <c r="Y10" s="146"/>
+      <c r="Z10" s="147"/>
+      <c r="AA10" s="146"/>
+      <c r="AB10" s="147"/>
+      <c r="AC10" s="146"/>
+      <c r="AD10" s="147"/>
       <c r="AE10" s="21"/>
       <c r="AF10" s="71"/>
       <c r="AG10" s="12"/>
@@ -18695,105 +20139,105 @@
     </row>
     <row r="12" spans="1:176" ht="15" customHeight="1">
       <c r="A12" s="2"/>
-      <c r="B12" s="149" t="s">
+      <c r="B12" s="148" t="s">
         <v>10</v>
       </c>
-      <c r="C12" s="149"/>
-      <c r="D12" s="149"/>
-      <c r="E12" s="149"/>
-      <c r="F12" s="149"/>
-      <c r="G12" s="149"/>
-      <c r="H12" s="149"/>
-      <c r="I12" s="149"/>
-      <c r="J12" s="149"/>
-      <c r="K12" s="149"/>
-      <c r="L12" s="149"/>
-      <c r="M12" s="149"/>
-      <c r="N12" s="149"/>
-      <c r="O12" s="149"/>
-      <c r="P12" s="149"/>
-      <c r="Q12" s="149"/>
-      <c r="R12" s="149"/>
-      <c r="S12" s="149"/>
-      <c r="T12" s="149"/>
-      <c r="U12" s="149"/>
-      <c r="V12" s="149"/>
-      <c r="W12" s="149"/>
-      <c r="X12" s="149"/>
-      <c r="Y12" s="149"/>
-      <c r="Z12" s="149"/>
-      <c r="AA12" s="149"/>
-      <c r="AB12" s="149"/>
-      <c r="AC12" s="149"/>
-      <c r="AD12" s="149"/>
+      <c r="C12" s="148"/>
+      <c r="D12" s="148"/>
+      <c r="E12" s="148"/>
+      <c r="F12" s="148"/>
+      <c r="G12" s="148"/>
+      <c r="H12" s="148"/>
+      <c r="I12" s="148"/>
+      <c r="J12" s="148"/>
+      <c r="K12" s="148"/>
+      <c r="L12" s="148"/>
+      <c r="M12" s="148"/>
+      <c r="N12" s="148"/>
+      <c r="O12" s="148"/>
+      <c r="P12" s="148"/>
+      <c r="Q12" s="148"/>
+      <c r="R12" s="148"/>
+      <c r="S12" s="148"/>
+      <c r="T12" s="148"/>
+      <c r="U12" s="148"/>
+      <c r="V12" s="148"/>
+      <c r="W12" s="148"/>
+      <c r="X12" s="148"/>
+      <c r="Y12" s="148"/>
+      <c r="Z12" s="148"/>
+      <c r="AA12" s="148"/>
+      <c r="AB12" s="148"/>
+      <c r="AC12" s="148"/>
+      <c r="AD12" s="148"/>
       <c r="AE12" s="17"/>
       <c r="AF12" s="2"/>
     </row>
     <row r="13" spans="1:176" ht="15" customHeight="1">
       <c r="A13" s="2"/>
-      <c r="B13" s="149"/>
-      <c r="C13" s="149"/>
-      <c r="D13" s="149"/>
-      <c r="E13" s="149"/>
-      <c r="F13" s="149"/>
-      <c r="G13" s="149"/>
-      <c r="H13" s="149"/>
-      <c r="I13" s="149"/>
-      <c r="J13" s="149"/>
-      <c r="K13" s="149"/>
-      <c r="L13" s="149"/>
-      <c r="M13" s="149"/>
-      <c r="N13" s="149"/>
-      <c r="O13" s="149"/>
-      <c r="P13" s="149"/>
-      <c r="Q13" s="149"/>
-      <c r="R13" s="149"/>
-      <c r="S13" s="149"/>
-      <c r="T13" s="149"/>
-      <c r="U13" s="149"/>
-      <c r="V13" s="149"/>
-      <c r="W13" s="149"/>
-      <c r="X13" s="149"/>
-      <c r="Y13" s="149"/>
-      <c r="Z13" s="149"/>
-      <c r="AA13" s="149"/>
-      <c r="AB13" s="149"/>
-      <c r="AC13" s="149"/>
-      <c r="AD13" s="149"/>
+      <c r="B13" s="148"/>
+      <c r="C13" s="148"/>
+      <c r="D13" s="148"/>
+      <c r="E13" s="148"/>
+      <c r="F13" s="148"/>
+      <c r="G13" s="148"/>
+      <c r="H13" s="148"/>
+      <c r="I13" s="148"/>
+      <c r="J13" s="148"/>
+      <c r="K13" s="148"/>
+      <c r="L13" s="148"/>
+      <c r="M13" s="148"/>
+      <c r="N13" s="148"/>
+      <c r="O13" s="148"/>
+      <c r="P13" s="148"/>
+      <c r="Q13" s="148"/>
+      <c r="R13" s="148"/>
+      <c r="S13" s="148"/>
+      <c r="T13" s="148"/>
+      <c r="U13" s="148"/>
+      <c r="V13" s="148"/>
+      <c r="W13" s="148"/>
+      <c r="X13" s="148"/>
+      <c r="Y13" s="148"/>
+      <c r="Z13" s="148"/>
+      <c r="AA13" s="148"/>
+      <c r="AB13" s="148"/>
+      <c r="AC13" s="148"/>
+      <c r="AD13" s="148"/>
       <c r="AE13" s="17"/>
       <c r="AF13" s="2"/>
     </row>
     <row r="14" spans="1:176" ht="15" customHeight="1">
       <c r="A14" s="2"/>
-      <c r="B14" s="149"/>
-      <c r="C14" s="149"/>
-      <c r="D14" s="149"/>
-      <c r="E14" s="149"/>
-      <c r="F14" s="149"/>
-      <c r="G14" s="149"/>
-      <c r="H14" s="149"/>
-      <c r="I14" s="149"/>
-      <c r="J14" s="149"/>
-      <c r="K14" s="149"/>
-      <c r="L14" s="149"/>
-      <c r="M14" s="149"/>
-      <c r="N14" s="149"/>
-      <c r="O14" s="149"/>
-      <c r="P14" s="149"/>
-      <c r="Q14" s="149"/>
-      <c r="R14" s="149"/>
-      <c r="S14" s="149"/>
-      <c r="T14" s="149"/>
-      <c r="U14" s="149"/>
-      <c r="V14" s="149"/>
-      <c r="W14" s="149"/>
-      <c r="X14" s="149"/>
-      <c r="Y14" s="149"/>
-      <c r="Z14" s="149"/>
-      <c r="AA14" s="149"/>
-      <c r="AB14" s="149"/>
-      <c r="AC14" s="149"/>
-      <c r="AD14" s="149"/>
+      <c r="B14" s="148"/>
+      <c r="C14" s="148"/>
+      <c r="D14" s="148"/>
+      <c r="E14" s="148"/>
+      <c r="F14" s="148"/>
+      <c r="G14" s="148"/>
+      <c r="H14" s="148"/>
+      <c r="I14" s="148"/>
+      <c r="J14" s="148"/>
+      <c r="K14" s="148"/>
+      <c r="L14" s="148"/>
+      <c r="M14" s="148"/>
+      <c r="N14" s="148"/>
+      <c r="O14" s="148"/>
+      <c r="P14" s="148"/>
+      <c r="Q14" s="148"/>
+      <c r="R14" s="148"/>
+      <c r="S14" s="148"/>
+      <c r="T14" s="148"/>
+      <c r="U14" s="148"/>
+      <c r="V14" s="148"/>
+      <c r="W14" s="148"/>
+      <c r="X14" s="148"/>
+      <c r="Y14" s="148"/>
+      <c r="Z14" s="148"/>
+      <c r="AA14" s="148"/>
+      <c r="AB14" s="148"/>
+      <c r="AC14" s="148"/>
+      <c r="AD14" s="148"/>
       <c r="AE14" s="17"/>
       <c r="AF14" s="2"/>
     </row>
@@ -19051,28 +20495,28 @@
       <c r="C22" s="126"/>
       <c r="D22" s="126"/>
       <c r="E22" s="127"/>
-      <c r="F22" s="156"/>
-      <c r="G22" s="157"/>
-      <c r="H22" s="157"/>
-      <c r="I22" s="157"/>
-      <c r="J22" s="158"/>
-      <c r="K22" s="153"/>
-      <c r="L22" s="154"/>
-      <c r="M22" s="154"/>
-      <c r="N22" s="154"/>
-      <c r="O22" s="154"/>
-      <c r="P22" s="154"/>
-      <c r="Q22" s="154"/>
-      <c r="R22" s="154"/>
-      <c r="S22" s="154"/>
-      <c r="T22" s="154"/>
-      <c r="U22" s="154"/>
-      <c r="V22" s="154"/>
-      <c r="W22" s="154"/>
-      <c r="X22" s="154"/>
-      <c r="Y22" s="154"/>
-      <c r="Z22" s="154"/>
-      <c r="AA22" s="155"/>
+      <c r="F22" s="131"/>
+      <c r="G22" s="132"/>
+      <c r="H22" s="132"/>
+      <c r="I22" s="132"/>
+      <c r="J22" s="133"/>
+      <c r="K22" s="128"/>
+      <c r="L22" s="129"/>
+      <c r="M22" s="129"/>
+      <c r="N22" s="129"/>
+      <c r="O22" s="129"/>
+      <c r="P22" s="129"/>
+      <c r="Q22" s="129"/>
+      <c r="R22" s="129"/>
+      <c r="S22" s="129"/>
+      <c r="T22" s="129"/>
+      <c r="U22" s="129"/>
+      <c r="V22" s="129"/>
+      <c r="W22" s="129"/>
+      <c r="X22" s="129"/>
+      <c r="Y22" s="129"/>
+      <c r="Z22" s="129"/>
+      <c r="AA22" s="130"/>
       <c r="AB22" s="125"/>
       <c r="AC22" s="126"/>
       <c r="AD22" s="127"/>
@@ -19085,28 +20529,28 @@
       <c r="C23" s="126"/>
       <c r="D23" s="126"/>
       <c r="E23" s="127"/>
-      <c r="F23" s="156"/>
-      <c r="G23" s="157"/>
-      <c r="H23" s="157"/>
-      <c r="I23" s="157"/>
-      <c r="J23" s="158"/>
-      <c r="K23" s="153"/>
-      <c r="L23" s="154"/>
-      <c r="M23" s="154"/>
-      <c r="N23" s="154"/>
-      <c r="O23" s="154"/>
-      <c r="P23" s="154"/>
-      <c r="Q23" s="154"/>
-      <c r="R23" s="154"/>
-      <c r="S23" s="154"/>
-      <c r="T23" s="154"/>
-      <c r="U23" s="154"/>
-      <c r="V23" s="154"/>
-      <c r="W23" s="154"/>
-      <c r="X23" s="154"/>
-      <c r="Y23" s="154"/>
-      <c r="Z23" s="154"/>
-      <c r="AA23" s="155"/>
+      <c r="F23" s="131"/>
+      <c r="G23" s="132"/>
+      <c r="H23" s="132"/>
+      <c r="I23" s="132"/>
+      <c r="J23" s="133"/>
+      <c r="K23" s="128"/>
+      <c r="L23" s="129"/>
+      <c r="M23" s="129"/>
+      <c r="N23" s="129"/>
+      <c r="O23" s="129"/>
+      <c r="P23" s="129"/>
+      <c r="Q23" s="129"/>
+      <c r="R23" s="129"/>
+      <c r="S23" s="129"/>
+      <c r="T23" s="129"/>
+      <c r="U23" s="129"/>
+      <c r="V23" s="129"/>
+      <c r="W23" s="129"/>
+      <c r="X23" s="129"/>
+      <c r="Y23" s="129"/>
+      <c r="Z23" s="129"/>
+      <c r="AA23" s="130"/>
       <c r="AB23" s="125"/>
       <c r="AC23" s="126"/>
       <c r="AD23" s="127"/>
@@ -19119,28 +20563,28 @@
       <c r="C24" s="126"/>
       <c r="D24" s="126"/>
       <c r="E24" s="127"/>
-      <c r="F24" s="156"/>
-      <c r="G24" s="157"/>
-      <c r="H24" s="157"/>
-      <c r="I24" s="157"/>
-      <c r="J24" s="158"/>
-      <c r="K24" s="153"/>
-      <c r="L24" s="154"/>
-      <c r="M24" s="154"/>
-      <c r="N24" s="154"/>
-      <c r="O24" s="154"/>
-      <c r="P24" s="154"/>
-      <c r="Q24" s="154"/>
-      <c r="R24" s="154"/>
-      <c r="S24" s="154"/>
-      <c r="T24" s="154"/>
-      <c r="U24" s="154"/>
-      <c r="V24" s="154"/>
-      <c r="W24" s="154"/>
-      <c r="X24" s="154"/>
-      <c r="Y24" s="154"/>
-      <c r="Z24" s="154"/>
-      <c r="AA24" s="155"/>
+      <c r="F24" s="131"/>
+      <c r="G24" s="132"/>
+      <c r="H24" s="132"/>
+      <c r="I24" s="132"/>
+      <c r="J24" s="133"/>
+      <c r="K24" s="128"/>
+      <c r="L24" s="129"/>
+      <c r="M24" s="129"/>
+      <c r="N24" s="129"/>
+      <c r="O24" s="129"/>
+      <c r="P24" s="129"/>
+      <c r="Q24" s="129"/>
+      <c r="R24" s="129"/>
+      <c r="S24" s="129"/>
+      <c r="T24" s="129"/>
+      <c r="U24" s="129"/>
+      <c r="V24" s="129"/>
+      <c r="W24" s="129"/>
+      <c r="X24" s="129"/>
+      <c r="Y24" s="129"/>
+      <c r="Z24" s="129"/>
+      <c r="AA24" s="130"/>
       <c r="AB24" s="125"/>
       <c r="AC24" s="126"/>
       <c r="AD24" s="127"/>
@@ -19153,28 +20597,28 @@
       <c r="C25" s="126"/>
       <c r="D25" s="126"/>
       <c r="E25" s="127"/>
-      <c r="F25" s="156"/>
-      <c r="G25" s="157"/>
-      <c r="H25" s="157"/>
-      <c r="I25" s="157"/>
-      <c r="J25" s="158"/>
-      <c r="K25" s="153"/>
-      <c r="L25" s="154"/>
-      <c r="M25" s="154"/>
-      <c r="N25" s="154"/>
-      <c r="O25" s="154"/>
-      <c r="P25" s="154"/>
-      <c r="Q25" s="154"/>
-      <c r="R25" s="154"/>
-      <c r="S25" s="154"/>
-      <c r="T25" s="154"/>
-      <c r="U25" s="154"/>
-      <c r="V25" s="154"/>
-      <c r="W25" s="154"/>
-      <c r="X25" s="154"/>
-      <c r="Y25" s="154"/>
-      <c r="Z25" s="154"/>
-      <c r="AA25" s="155"/>
+      <c r="F25" s="131"/>
+      <c r="G25" s="132"/>
+      <c r="H25" s="132"/>
+      <c r="I25" s="132"/>
+      <c r="J25" s="133"/>
+      <c r="K25" s="128"/>
+      <c r="L25" s="129"/>
+      <c r="M25" s="129"/>
+      <c r="N25" s="129"/>
+      <c r="O25" s="129"/>
+      <c r="P25" s="129"/>
+      <c r="Q25" s="129"/>
+      <c r="R25" s="129"/>
+      <c r="S25" s="129"/>
+      <c r="T25" s="129"/>
+      <c r="U25" s="129"/>
+      <c r="V25" s="129"/>
+      <c r="W25" s="129"/>
+      <c r="X25" s="129"/>
+      <c r="Y25" s="129"/>
+      <c r="Z25" s="129"/>
+      <c r="AA25" s="130"/>
       <c r="AB25" s="125"/>
       <c r="AC25" s="126"/>
       <c r="AD25" s="127"/>
@@ -19187,28 +20631,28 @@
       <c r="C26" s="126"/>
       <c r="D26" s="126"/>
       <c r="E26" s="127"/>
-      <c r="F26" s="156"/>
-      <c r="G26" s="157"/>
-      <c r="H26" s="157"/>
-      <c r="I26" s="157"/>
-      <c r="J26" s="158"/>
-      <c r="K26" s="153"/>
-      <c r="L26" s="154"/>
-      <c r="M26" s="154"/>
-      <c r="N26" s="154"/>
-      <c r="O26" s="154"/>
-      <c r="P26" s="154"/>
-      <c r="Q26" s="154"/>
-      <c r="R26" s="154"/>
-      <c r="S26" s="154"/>
-      <c r="T26" s="154"/>
-      <c r="U26" s="154"/>
-      <c r="V26" s="154"/>
-      <c r="W26" s="154"/>
-      <c r="X26" s="154"/>
-      <c r="Y26" s="154"/>
-      <c r="Z26" s="154"/>
-      <c r="AA26" s="155"/>
+      <c r="F26" s="131"/>
+      <c r="G26" s="132"/>
+      <c r="H26" s="132"/>
+      <c r="I26" s="132"/>
+      <c r="J26" s="133"/>
+      <c r="K26" s="128"/>
+      <c r="L26" s="129"/>
+      <c r="M26" s="129"/>
+      <c r="N26" s="129"/>
+      <c r="O26" s="129"/>
+      <c r="P26" s="129"/>
+      <c r="Q26" s="129"/>
+      <c r="R26" s="129"/>
+      <c r="S26" s="129"/>
+      <c r="T26" s="129"/>
+      <c r="U26" s="129"/>
+      <c r="V26" s="129"/>
+      <c r="W26" s="129"/>
+      <c r="X26" s="129"/>
+      <c r="Y26" s="129"/>
+      <c r="Z26" s="129"/>
+      <c r="AA26" s="130"/>
       <c r="AB26" s="125"/>
       <c r="AC26" s="126"/>
       <c r="AD26" s="127"/>
@@ -19221,28 +20665,28 @@
       <c r="C27" s="126"/>
       <c r="D27" s="126"/>
       <c r="E27" s="127"/>
-      <c r="F27" s="156"/>
-      <c r="G27" s="157"/>
-      <c r="H27" s="157"/>
-      <c r="I27" s="157"/>
-      <c r="J27" s="158"/>
-      <c r="K27" s="153"/>
-      <c r="L27" s="154"/>
-      <c r="M27" s="154"/>
-      <c r="N27" s="154"/>
-      <c r="O27" s="154"/>
-      <c r="P27" s="154"/>
-      <c r="Q27" s="154"/>
-      <c r="R27" s="154"/>
-      <c r="S27" s="154"/>
-      <c r="T27" s="154"/>
-      <c r="U27" s="154"/>
-      <c r="V27" s="154"/>
-      <c r="W27" s="154"/>
-      <c r="X27" s="154"/>
-      <c r="Y27" s="154"/>
-      <c r="Z27" s="154"/>
-      <c r="AA27" s="155"/>
+      <c r="F27" s="131"/>
+      <c r="G27" s="132"/>
+      <c r="H27" s="132"/>
+      <c r="I27" s="132"/>
+      <c r="J27" s="133"/>
+      <c r="K27" s="128"/>
+      <c r="L27" s="129"/>
+      <c r="M27" s="129"/>
+      <c r="N27" s="129"/>
+      <c r="O27" s="129"/>
+      <c r="P27" s="129"/>
+      <c r="Q27" s="129"/>
+      <c r="R27" s="129"/>
+      <c r="S27" s="129"/>
+      <c r="T27" s="129"/>
+      <c r="U27" s="129"/>
+      <c r="V27" s="129"/>
+      <c r="W27" s="129"/>
+      <c r="X27" s="129"/>
+      <c r="Y27" s="129"/>
+      <c r="Z27" s="129"/>
+      <c r="AA27" s="130"/>
       <c r="AB27" s="125"/>
       <c r="AC27" s="126"/>
       <c r="AD27" s="127"/>
@@ -19353,15 +20797,20 @@
     </row>
   </sheetData>
   <mergeCells count="39">
-    <mergeCell ref="B25:E25"/>
-    <mergeCell ref="K21:AA21"/>
-    <mergeCell ref="K22:AA22"/>
-    <mergeCell ref="F23:J23"/>
-    <mergeCell ref="F25:J25"/>
-    <mergeCell ref="K25:AA25"/>
-    <mergeCell ref="F21:J21"/>
-    <mergeCell ref="B22:E22"/>
-    <mergeCell ref="F22:J22"/>
+    <mergeCell ref="AB22:AD22"/>
+    <mergeCell ref="AC8:AD10"/>
+    <mergeCell ref="B7:E8"/>
+    <mergeCell ref="AA7:AB7"/>
+    <mergeCell ref="AA8:AB10"/>
+    <mergeCell ref="AC7:AD7"/>
+    <mergeCell ref="Y7:Z7"/>
+    <mergeCell ref="Y2:Z2"/>
+    <mergeCell ref="F7:Q8"/>
+    <mergeCell ref="Y8:Z10"/>
+    <mergeCell ref="B12:AD14"/>
+    <mergeCell ref="AB21:AD21"/>
+    <mergeCell ref="B21:E21"/>
+    <mergeCell ref="F6:M6"/>
     <mergeCell ref="AB27:AD27"/>
     <mergeCell ref="B26:E26"/>
     <mergeCell ref="K23:AA23"/>
@@ -19378,20 +20827,15 @@
     <mergeCell ref="K27:AA27"/>
     <mergeCell ref="B24:E24"/>
     <mergeCell ref="F24:J24"/>
-    <mergeCell ref="Y2:Z2"/>
-    <mergeCell ref="F7:Q8"/>
-    <mergeCell ref="Y8:Z10"/>
-    <mergeCell ref="B12:AD14"/>
-    <mergeCell ref="AB21:AD21"/>
-    <mergeCell ref="B21:E21"/>
-    <mergeCell ref="F6:M6"/>
-    <mergeCell ref="AB22:AD22"/>
-    <mergeCell ref="AC8:AD10"/>
-    <mergeCell ref="B7:E8"/>
-    <mergeCell ref="AA7:AB7"/>
-    <mergeCell ref="AA8:AB10"/>
-    <mergeCell ref="AC7:AD7"/>
-    <mergeCell ref="Y7:Z7"/>
+    <mergeCell ref="B25:E25"/>
+    <mergeCell ref="K21:AA21"/>
+    <mergeCell ref="K22:AA22"/>
+    <mergeCell ref="F23:J23"/>
+    <mergeCell ref="F25:J25"/>
+    <mergeCell ref="K25:AA25"/>
+    <mergeCell ref="F21:J21"/>
+    <mergeCell ref="B22:E22"/>
+    <mergeCell ref="F22:J22"/>
   </mergeCells>
   <phoneticPr fontId="3"/>
   <printOptions horizontalCentered="1"/>
@@ -19405,8 +20849,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EDA88973-714F-874D-A144-58EBD5686637}">
   <dimension ref="A1:K49"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScaleNormal="100" zoomScaleSheetLayoutView="25" workbookViewId="0">
-      <selection activeCell="K27" sqref="K27"/>
+    <sheetView topLeftCell="A7" zoomScaleNormal="100" zoomScaleSheetLayoutView="25" workbookViewId="0">
+      <selection activeCell="H32" sqref="H32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14"/>
@@ -19439,7 +20883,7 @@
       <c r="B2" s="25" t="s">
         <v>41</v>
       </c>
-      <c r="C2" s="194" t="s">
+      <c r="C2" s="197" t="s">
         <v>104</v>
       </c>
       <c r="D2" s="200"/>
@@ -19447,7 +20891,7 @@
       <c r="F2" s="200"/>
       <c r="G2" s="200"/>
       <c r="H2" s="200"/>
-      <c r="I2" s="195"/>
+      <c r="I2" s="198"/>
       <c r="J2" s="80" t="s">
         <v>42</v>
       </c>
@@ -19460,7 +20904,7 @@
       <c r="B3" s="25" t="s">
         <v>43</v>
       </c>
-      <c r="C3" s="194" t="s">
+      <c r="C3" s="197" t="s">
         <v>82</v>
       </c>
       <c r="D3" s="200"/>
@@ -19468,7 +20912,7 @@
       <c r="F3" s="200"/>
       <c r="G3" s="200"/>
       <c r="H3" s="200"/>
-      <c r="I3" s="195"/>
+      <c r="I3" s="198"/>
       <c r="J3" s="80" t="s">
         <v>44</v>
       </c>
@@ -19481,7 +20925,7 @@
       <c r="B4" s="25" t="s">
         <v>45</v>
       </c>
-      <c r="C4" s="194" t="s">
+      <c r="C4" s="197" t="s">
         <v>105</v>
       </c>
       <c r="D4" s="200"/>
@@ -19489,7 +20933,7 @@
       <c r="F4" s="200"/>
       <c r="G4" s="200"/>
       <c r="H4" s="200"/>
-      <c r="I4" s="195"/>
+      <c r="I4" s="198"/>
       <c r="J4" s="80" t="s">
         <v>12</v>
       </c>
@@ -19530,12 +20974,12 @@
       <c r="E6" s="30" t="s">
         <v>50</v>
       </c>
-      <c r="F6" s="194" t="s">
+      <c r="F6" s="197" t="s">
         <v>107</v>
       </c>
       <c r="G6" s="200"/>
       <c r="H6" s="200"/>
-      <c r="I6" s="195"/>
+      <c r="I6" s="198"/>
       <c r="J6" s="80" t="s">
         <v>51</v>
       </c>
@@ -19546,7 +20990,7 @@
       <c r="B7" s="25" t="s">
         <v>52</v>
       </c>
-      <c r="C7" s="194" t="s">
+      <c r="C7" s="197" t="s">
         <v>124</v>
       </c>
       <c r="D7" s="200"/>
@@ -19554,7 +20998,7 @@
       <c r="F7" s="200"/>
       <c r="G7" s="200"/>
       <c r="H7" s="200"/>
-      <c r="I7" s="195"/>
+      <c r="I7" s="198"/>
       <c r="J7" s="80"/>
       <c r="K7" s="85"/>
     </row>
@@ -19952,6 +21396,787 @@
       </c>
       <c r="H33" s="113" t="s">
         <v>135</v>
+      </c>
+      <c r="I33" s="113"/>
+      <c r="J33" s="113"/>
+      <c r="K33" s="114"/>
+    </row>
+    <row r="34" spans="1:11" ht="15" customHeight="1">
+      <c r="A34" s="97"/>
+      <c r="B34" s="24"/>
+      <c r="C34" s="24"/>
+      <c r="D34" s="24"/>
+      <c r="E34" s="24"/>
+      <c r="F34" s="24"/>
+      <c r="G34" s="118"/>
+      <c r="H34" s="113"/>
+      <c r="I34" s="113"/>
+      <c r="J34" s="113"/>
+      <c r="K34" s="114"/>
+    </row>
+    <row r="35" spans="1:11" ht="15" customHeight="1">
+      <c r="A35" s="97"/>
+      <c r="B35" s="24"/>
+      <c r="C35" s="24"/>
+      <c r="D35" s="24"/>
+      <c r="E35" s="24"/>
+      <c r="F35" s="24"/>
+      <c r="G35" s="118"/>
+      <c r="H35" s="113"/>
+      <c r="I35" s="113"/>
+      <c r="J35" s="113"/>
+      <c r="K35" s="114"/>
+    </row>
+    <row r="36" spans="1:11" ht="15" customHeight="1">
+      <c r="A36" s="97"/>
+      <c r="B36" s="24"/>
+      <c r="C36" s="24"/>
+      <c r="D36" s="24"/>
+      <c r="E36" s="24"/>
+      <c r="F36" s="24"/>
+      <c r="G36" s="118"/>
+      <c r="H36" s="113"/>
+      <c r="I36" s="113"/>
+      <c r="J36" s="113"/>
+      <c r="K36" s="114"/>
+    </row>
+    <row r="37" spans="1:11" ht="15" customHeight="1">
+      <c r="A37" s="97"/>
+      <c r="B37" s="24"/>
+      <c r="C37" s="24"/>
+      <c r="D37" s="24"/>
+      <c r="E37" s="24"/>
+      <c r="F37" s="24"/>
+      <c r="G37" s="118"/>
+      <c r="H37" s="113"/>
+      <c r="I37" s="113"/>
+      <c r="J37" s="113"/>
+      <c r="K37" s="114"/>
+    </row>
+    <row r="38" spans="1:11" ht="15" customHeight="1">
+      <c r="A38" s="97"/>
+      <c r="B38" s="24"/>
+      <c r="C38" s="24"/>
+      <c r="D38" s="24"/>
+      <c r="E38" s="24"/>
+      <c r="F38" s="24"/>
+      <c r="G38" s="118"/>
+      <c r="H38" s="113"/>
+      <c r="I38" s="113"/>
+      <c r="J38" s="113"/>
+      <c r="K38" s="114"/>
+    </row>
+    <row r="39" spans="1:11" ht="15" customHeight="1">
+      <c r="A39" s="97"/>
+      <c r="B39" s="24"/>
+      <c r="C39" s="24"/>
+      <c r="D39" s="24"/>
+      <c r="E39" s="24"/>
+      <c r="F39" s="24"/>
+      <c r="G39" s="118"/>
+      <c r="H39" s="113"/>
+      <c r="I39" s="113"/>
+      <c r="J39" s="113"/>
+      <c r="K39" s="114"/>
+    </row>
+    <row r="40" spans="1:11" ht="15" customHeight="1">
+      <c r="A40" s="97"/>
+      <c r="B40" s="24"/>
+      <c r="C40" s="24"/>
+      <c r="D40" s="24"/>
+      <c r="E40" s="24"/>
+      <c r="F40" s="24"/>
+      <c r="G40" s="118"/>
+      <c r="H40" s="113"/>
+      <c r="I40" s="113"/>
+      <c r="J40" s="113"/>
+      <c r="K40" s="114"/>
+    </row>
+    <row r="41" spans="1:11" ht="15" customHeight="1">
+      <c r="A41" s="97"/>
+      <c r="B41" s="24"/>
+      <c r="C41" s="24"/>
+      <c r="D41" s="24"/>
+      <c r="E41" s="24"/>
+      <c r="F41" s="24"/>
+      <c r="G41" s="118"/>
+      <c r="H41" s="113"/>
+      <c r="I41" s="113"/>
+      <c r="J41" s="113"/>
+      <c r="K41" s="114"/>
+    </row>
+    <row r="42" spans="1:11" ht="15" customHeight="1">
+      <c r="A42" s="97"/>
+      <c r="B42" s="24"/>
+      <c r="C42" s="24"/>
+      <c r="D42" s="24"/>
+      <c r="E42" s="24"/>
+      <c r="F42" s="24"/>
+      <c r="G42" s="118"/>
+      <c r="H42" s="113"/>
+      <c r="I42" s="113"/>
+      <c r="J42" s="113"/>
+      <c r="K42" s="114"/>
+    </row>
+    <row r="43" spans="1:11" ht="15" customHeight="1">
+      <c r="A43" s="97"/>
+      <c r="B43" s="24"/>
+      <c r="C43" s="24"/>
+      <c r="D43" s="24"/>
+      <c r="E43" s="24"/>
+      <c r="F43" s="24"/>
+      <c r="G43" s="118"/>
+      <c r="H43" s="113"/>
+      <c r="I43" s="113"/>
+      <c r="J43" s="113"/>
+      <c r="K43" s="114"/>
+    </row>
+    <row r="44" spans="1:11" ht="15" customHeight="1">
+      <c r="A44" s="97"/>
+      <c r="B44" s="24"/>
+      <c r="C44" s="24"/>
+      <c r="D44" s="24"/>
+      <c r="E44" s="24"/>
+      <c r="F44" s="24"/>
+      <c r="G44" s="118"/>
+      <c r="H44" s="113"/>
+      <c r="I44" s="113"/>
+      <c r="J44" s="113"/>
+      <c r="K44" s="114"/>
+    </row>
+    <row r="45" spans="1:11" ht="15" customHeight="1">
+      <c r="A45" s="97"/>
+      <c r="B45" s="24"/>
+      <c r="C45" s="24"/>
+      <c r="D45" s="24"/>
+      <c r="E45" s="24"/>
+      <c r="F45" s="24"/>
+      <c r="G45" s="118"/>
+      <c r="H45" s="113"/>
+      <c r="I45" s="113"/>
+      <c r="J45" s="113"/>
+      <c r="K45" s="114"/>
+    </row>
+    <row r="46" spans="1:11" ht="15" customHeight="1">
+      <c r="A46" s="97"/>
+      <c r="B46" s="24"/>
+      <c r="C46" s="24"/>
+      <c r="D46" s="24"/>
+      <c r="E46" s="24"/>
+      <c r="F46" s="24"/>
+      <c r="G46" s="118"/>
+      <c r="H46" s="113"/>
+      <c r="I46" s="113"/>
+      <c r="J46" s="113"/>
+      <c r="K46" s="114"/>
+    </row>
+    <row r="47" spans="1:11" ht="15" customHeight="1">
+      <c r="A47" s="97"/>
+      <c r="B47" s="24"/>
+      <c r="C47" s="24"/>
+      <c r="D47" s="24"/>
+      <c r="E47" s="24"/>
+      <c r="F47" s="24"/>
+      <c r="G47" s="118"/>
+      <c r="H47" s="113"/>
+      <c r="I47" s="113"/>
+      <c r="J47" s="113"/>
+      <c r="K47" s="114"/>
+    </row>
+    <row r="48" spans="1:11" ht="15" customHeight="1">
+      <c r="A48" s="97"/>
+      <c r="B48" s="24"/>
+      <c r="C48" s="24"/>
+      <c r="D48" s="24"/>
+      <c r="E48" s="24"/>
+      <c r="F48" s="24"/>
+      <c r="G48" s="118"/>
+      <c r="H48" s="113"/>
+      <c r="I48" s="113"/>
+      <c r="J48" s="113"/>
+      <c r="K48" s="114"/>
+    </row>
+    <row r="49" spans="1:11" ht="15" customHeight="1">
+      <c r="A49" s="103"/>
+      <c r="B49" s="104"/>
+      <c r="C49" s="104"/>
+      <c r="D49" s="104"/>
+      <c r="E49" s="104"/>
+      <c r="F49" s="104"/>
+      <c r="G49" s="119"/>
+      <c r="H49" s="115"/>
+      <c r="I49" s="115"/>
+      <c r="J49" s="115"/>
+      <c r="K49" s="116"/>
+    </row>
+  </sheetData>
+  <mergeCells count="7">
+    <mergeCell ref="C7:I7"/>
+    <mergeCell ref="C2:I2"/>
+    <mergeCell ref="C3:I3"/>
+    <mergeCell ref="C4:I4"/>
+    <mergeCell ref="C5:I5"/>
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="F6:I6"/>
+  </mergeCells>
+  <phoneticPr fontId="3"/>
+  <pageMargins left="0.9055118110236221" right="0.51181102362204722" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
+  <pageSetup paperSize="9" scale="68" orientation="landscape" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6E6388BE-E5D1-424A-AA91-893AB94675E3}">
+  <dimension ref="A1:K49"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A8" zoomScaleNormal="100" zoomScaleSheetLayoutView="25" workbookViewId="0">
+      <selection activeCell="I31" sqref="A1:XFD1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14"/>
+  <cols>
+    <col min="2" max="2" width="12.5" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.83203125" customWidth="1"/>
+    <col min="9" max="9" width="40.1640625" customWidth="1"/>
+    <col min="11" max="11" width="41" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" ht="15" customHeight="1">
+      <c r="A1" s="88" t="s">
+        <v>39</v>
+      </c>
+      <c r="B1" s="77"/>
+      <c r="C1" s="77"/>
+      <c r="D1" s="77"/>
+      <c r="E1" s="77"/>
+      <c r="F1" s="77"/>
+      <c r="G1" s="77"/>
+      <c r="H1" s="77"/>
+      <c r="I1" s="77"/>
+      <c r="J1" s="77"/>
+      <c r="K1" s="78"/>
+    </row>
+    <row r="2" spans="1:11" ht="15" customHeight="1">
+      <c r="A2" s="79" t="s">
+        <v>40</v>
+      </c>
+      <c r="B2" s="25" t="s">
+        <v>41</v>
+      </c>
+      <c r="C2" s="197" t="s">
+        <v>104</v>
+      </c>
+      <c r="D2" s="200"/>
+      <c r="E2" s="200"/>
+      <c r="F2" s="200"/>
+      <c r="G2" s="200"/>
+      <c r="H2" s="200"/>
+      <c r="I2" s="198"/>
+      <c r="J2" s="80" t="s">
+        <v>42</v>
+      </c>
+      <c r="K2" s="81" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" ht="15" customHeight="1">
+      <c r="A3" s="82"/>
+      <c r="B3" s="25" t="s">
+        <v>43</v>
+      </c>
+      <c r="C3" s="197" t="s">
+        <v>82</v>
+      </c>
+      <c r="D3" s="200"/>
+      <c r="E3" s="200"/>
+      <c r="F3" s="200"/>
+      <c r="G3" s="200"/>
+      <c r="H3" s="200"/>
+      <c r="I3" s="198"/>
+      <c r="J3" s="80" t="s">
+        <v>44</v>
+      </c>
+      <c r="K3" s="83">
+        <v>44678</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" ht="15" customHeight="1">
+      <c r="A4" s="82"/>
+      <c r="B4" s="25" t="s">
+        <v>45</v>
+      </c>
+      <c r="C4" s="197" t="s">
+        <v>105</v>
+      </c>
+      <c r="D4" s="200"/>
+      <c r="E4" s="200"/>
+      <c r="F4" s="200"/>
+      <c r="G4" s="200"/>
+      <c r="H4" s="200"/>
+      <c r="I4" s="198"/>
+      <c r="J4" s="80" t="s">
+        <v>12</v>
+      </c>
+      <c r="K4" s="81" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" ht="15" customHeight="1">
+      <c r="A5" s="84" t="s">
+        <v>46</v>
+      </c>
+      <c r="B5" s="25" t="s">
+        <v>47</v>
+      </c>
+      <c r="C5" s="175" t="s">
+        <v>83</v>
+      </c>
+      <c r="D5" s="176"/>
+      <c r="E5" s="176"/>
+      <c r="F5" s="176"/>
+      <c r="G5" s="176"/>
+      <c r="H5" s="176"/>
+      <c r="I5" s="177"/>
+      <c r="J5" s="80" t="s">
+        <v>48</v>
+      </c>
+      <c r="K5" s="85"/>
+    </row>
+    <row r="6" spans="1:11" ht="15" customHeight="1">
+      <c r="A6" s="86"/>
+      <c r="B6" s="25" t="s">
+        <v>49</v>
+      </c>
+      <c r="C6" s="175" t="s">
+        <v>137</v>
+      </c>
+      <c r="D6" s="177"/>
+      <c r="E6" s="30" t="s">
+        <v>50</v>
+      </c>
+      <c r="F6" s="197" t="s">
+        <v>107</v>
+      </c>
+      <c r="G6" s="200"/>
+      <c r="H6" s="200"/>
+      <c r="I6" s="198"/>
+      <c r="J6" s="80" t="s">
+        <v>51</v>
+      </c>
+      <c r="K6" s="85"/>
+    </row>
+    <row r="7" spans="1:11" ht="15" customHeight="1">
+      <c r="A7" s="87"/>
+      <c r="B7" s="25" t="s">
+        <v>52</v>
+      </c>
+      <c r="C7" s="197" t="s">
+        <v>124</v>
+      </c>
+      <c r="D7" s="200"/>
+      <c r="E7" s="200"/>
+      <c r="F7" s="200"/>
+      <c r="G7" s="200"/>
+      <c r="H7" s="200"/>
+      <c r="I7" s="198"/>
+      <c r="J7" s="80"/>
+      <c r="K7" s="85"/>
+    </row>
+    <row r="8" spans="1:11" ht="15" customHeight="1">
+      <c r="A8" s="94" t="s">
+        <v>53</v>
+      </c>
+      <c r="B8" s="56"/>
+      <c r="C8" s="56"/>
+      <c r="D8" s="56"/>
+      <c r="E8" s="56"/>
+      <c r="F8" s="56"/>
+      <c r="G8" s="26" t="s">
+        <v>56</v>
+      </c>
+      <c r="H8" s="26" t="s">
+        <v>57</v>
+      </c>
+      <c r="I8" s="26" t="s">
+        <v>68</v>
+      </c>
+      <c r="J8" s="26" t="s">
+        <v>69</v>
+      </c>
+      <c r="K8" s="26" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" ht="15" customHeight="1">
+      <c r="A9" s="95"/>
+      <c r="B9" s="96"/>
+      <c r="C9" s="96"/>
+      <c r="D9" s="96"/>
+      <c r="E9" s="96"/>
+      <c r="F9" s="96"/>
+      <c r="G9" s="25">
+        <v>1</v>
+      </c>
+      <c r="H9" s="30" t="s">
+        <v>118</v>
+      </c>
+      <c r="I9" s="38" t="s">
+        <v>109</v>
+      </c>
+      <c r="J9" s="30" t="s">
+        <v>87</v>
+      </c>
+      <c r="K9" s="38" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" ht="15" customHeight="1">
+      <c r="A10" s="97"/>
+      <c r="B10" s="24"/>
+      <c r="C10" s="24"/>
+      <c r="D10" s="24"/>
+      <c r="E10" s="24"/>
+      <c r="F10" s="24"/>
+      <c r="G10" s="25">
+        <v>2</v>
+      </c>
+      <c r="H10" s="30" t="s">
+        <v>111</v>
+      </c>
+      <c r="I10" s="38" t="s">
+        <v>125</v>
+      </c>
+      <c r="J10" s="30" t="s">
+        <v>87</v>
+      </c>
+      <c r="K10" s="38" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" ht="15" customHeight="1">
+      <c r="A11" s="97"/>
+      <c r="B11" s="24"/>
+      <c r="C11" s="24"/>
+      <c r="D11" s="24"/>
+      <c r="E11" s="24"/>
+      <c r="F11" s="24"/>
+      <c r="G11" s="25">
+        <v>3</v>
+      </c>
+      <c r="H11" s="30" t="s">
+        <v>118</v>
+      </c>
+      <c r="I11" s="38" t="s">
+        <v>128</v>
+      </c>
+      <c r="J11" s="30" t="s">
+        <v>87</v>
+      </c>
+      <c r="K11" s="38" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" ht="15" customHeight="1">
+      <c r="A12" s="97"/>
+      <c r="B12" s="24"/>
+      <c r="C12" s="24"/>
+      <c r="D12" s="24"/>
+      <c r="E12" s="24"/>
+      <c r="F12" s="24"/>
+      <c r="G12" s="25">
+        <v>4</v>
+      </c>
+      <c r="H12" s="30" t="s">
+        <v>93</v>
+      </c>
+      <c r="I12" s="38" t="s">
+        <v>132</v>
+      </c>
+      <c r="J12" s="30" t="s">
+        <v>87</v>
+      </c>
+      <c r="K12" s="38" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" ht="15" customHeight="1">
+      <c r="A13" s="97"/>
+      <c r="B13" s="24"/>
+      <c r="C13" s="24"/>
+      <c r="D13" s="24"/>
+      <c r="E13" s="24"/>
+      <c r="F13" s="24"/>
+      <c r="G13" s="25"/>
+      <c r="H13" s="38"/>
+      <c r="I13" s="38"/>
+      <c r="J13" s="30"/>
+      <c r="K13" s="38"/>
+    </row>
+    <row r="14" spans="1:11" ht="15" customHeight="1">
+      <c r="A14" s="97"/>
+      <c r="B14" s="24"/>
+      <c r="C14" s="24"/>
+      <c r="D14" s="24"/>
+      <c r="E14" s="24"/>
+      <c r="F14" s="24"/>
+      <c r="G14" s="25"/>
+      <c r="H14" s="38"/>
+      <c r="I14" s="38"/>
+      <c r="J14" s="38"/>
+      <c r="K14" s="38"/>
+    </row>
+    <row r="15" spans="1:11" ht="15" customHeight="1">
+      <c r="A15" s="97"/>
+      <c r="B15" s="24"/>
+      <c r="C15" s="24"/>
+      <c r="D15" s="24"/>
+      <c r="E15" s="24"/>
+      <c r="F15" s="24"/>
+      <c r="G15" s="25"/>
+      <c r="H15" s="38"/>
+      <c r="I15" s="38"/>
+      <c r="J15" s="38"/>
+      <c r="K15" s="38"/>
+    </row>
+    <row r="16" spans="1:11" ht="15" customHeight="1">
+      <c r="A16" s="97"/>
+      <c r="B16" s="24"/>
+      <c r="C16" s="24"/>
+      <c r="D16" s="24"/>
+      <c r="E16" s="24"/>
+      <c r="F16" s="24"/>
+      <c r="G16" s="25"/>
+      <c r="H16" s="38"/>
+      <c r="I16" s="38"/>
+      <c r="J16" s="38"/>
+      <c r="K16" s="38"/>
+    </row>
+    <row r="17" spans="1:11" ht="15" customHeight="1">
+      <c r="A17" s="97"/>
+      <c r="B17" s="24"/>
+      <c r="C17" s="24"/>
+      <c r="D17" s="24"/>
+      <c r="E17" s="24"/>
+      <c r="F17" s="24"/>
+      <c r="G17" s="25"/>
+      <c r="H17" s="38"/>
+      <c r="I17" s="38"/>
+      <c r="J17" s="38"/>
+      <c r="K17" s="38"/>
+    </row>
+    <row r="18" spans="1:11" ht="15" customHeight="1">
+      <c r="A18" s="97"/>
+      <c r="B18" s="24"/>
+      <c r="C18" s="24"/>
+      <c r="D18" s="24"/>
+      <c r="E18" s="24"/>
+      <c r="F18" s="24"/>
+      <c r="G18" s="25"/>
+      <c r="H18" s="38"/>
+      <c r="I18" s="38"/>
+      <c r="J18" s="38"/>
+      <c r="K18" s="38"/>
+    </row>
+    <row r="19" spans="1:11" ht="15" customHeight="1">
+      <c r="A19" s="97"/>
+      <c r="B19" s="24"/>
+      <c r="C19" s="24"/>
+      <c r="D19" s="24"/>
+      <c r="E19" s="24"/>
+      <c r="F19" s="24"/>
+      <c r="G19" s="25"/>
+      <c r="H19" s="38"/>
+      <c r="I19" s="38"/>
+      <c r="J19" s="38"/>
+      <c r="K19" s="38"/>
+    </row>
+    <row r="20" spans="1:11" ht="15" customHeight="1">
+      <c r="A20" s="97"/>
+      <c r="B20" s="24"/>
+      <c r="C20" s="24"/>
+      <c r="D20" s="24"/>
+      <c r="E20" s="24"/>
+      <c r="G20" s="25"/>
+      <c r="H20" s="38"/>
+      <c r="I20" s="38"/>
+      <c r="J20" s="38"/>
+      <c r="K20" s="38"/>
+    </row>
+    <row r="21" spans="1:11" ht="15" customHeight="1">
+      <c r="A21" s="97"/>
+      <c r="B21" s="24"/>
+      <c r="C21" s="24"/>
+      <c r="D21" s="24"/>
+      <c r="E21" s="24"/>
+      <c r="F21" s="24"/>
+      <c r="G21" s="25"/>
+      <c r="H21" s="38"/>
+      <c r="I21" s="38"/>
+      <c r="J21" s="38"/>
+      <c r="K21" s="38"/>
+    </row>
+    <row r="22" spans="1:11" ht="15" customHeight="1">
+      <c r="A22" s="97"/>
+      <c r="B22" s="24"/>
+      <c r="C22" s="24"/>
+      <c r="D22" s="24"/>
+      <c r="E22" s="24"/>
+      <c r="F22" s="24"/>
+      <c r="G22" s="25"/>
+      <c r="H22" s="38"/>
+      <c r="I22" s="38"/>
+      <c r="J22" s="38"/>
+      <c r="K22" s="38"/>
+    </row>
+    <row r="23" spans="1:11" ht="15" customHeight="1">
+      <c r="A23" s="97"/>
+      <c r="B23" s="24"/>
+      <c r="C23" s="24"/>
+      <c r="D23" s="24"/>
+      <c r="E23" s="24"/>
+      <c r="F23" s="24"/>
+      <c r="G23" s="25"/>
+      <c r="H23" s="38"/>
+      <c r="I23" s="38"/>
+      <c r="J23" s="38"/>
+      <c r="K23" s="38"/>
+    </row>
+    <row r="24" spans="1:11" ht="15" customHeight="1">
+      <c r="A24" s="97"/>
+      <c r="B24" s="24"/>
+      <c r="C24" s="24"/>
+      <c r="D24" s="24"/>
+      <c r="E24" s="24"/>
+      <c r="F24" s="24"/>
+      <c r="G24" s="25"/>
+      <c r="H24" s="38"/>
+      <c r="I24" s="38"/>
+      <c r="J24" s="38"/>
+      <c r="K24" s="38"/>
+    </row>
+    <row r="25" spans="1:11" ht="15" customHeight="1">
+      <c r="A25" s="97"/>
+      <c r="B25" s="24"/>
+      <c r="C25" s="24"/>
+      <c r="D25" s="24"/>
+      <c r="E25" s="24"/>
+      <c r="F25" s="24"/>
+      <c r="G25" s="25"/>
+      <c r="H25" s="38"/>
+      <c r="I25" s="38"/>
+      <c r="J25" s="38"/>
+      <c r="K25" s="38"/>
+    </row>
+    <row r="26" spans="1:11" ht="15" customHeight="1">
+      <c r="A26" s="97"/>
+      <c r="B26" s="24"/>
+      <c r="C26" s="24"/>
+      <c r="D26" s="24"/>
+      <c r="E26" s="24"/>
+      <c r="F26" s="24"/>
+      <c r="G26" s="25"/>
+      <c r="H26" s="38"/>
+      <c r="I26" s="38"/>
+      <c r="J26" s="38"/>
+      <c r="K26" s="38"/>
+    </row>
+    <row r="27" spans="1:11" ht="15" customHeight="1">
+      <c r="A27" s="97"/>
+      <c r="B27" s="24"/>
+      <c r="C27" s="24"/>
+      <c r="D27" s="24"/>
+      <c r="E27" s="24"/>
+      <c r="F27" s="24"/>
+      <c r="G27" s="25"/>
+      <c r="H27" s="38"/>
+      <c r="I27" s="38"/>
+      <c r="J27" s="38"/>
+      <c r="K27" s="38"/>
+    </row>
+    <row r="28" spans="1:11" ht="15" customHeight="1">
+      <c r="A28" s="97"/>
+      <c r="B28" s="24"/>
+      <c r="C28" s="24"/>
+      <c r="D28" s="24"/>
+      <c r="E28" s="24"/>
+      <c r="F28" s="24"/>
+      <c r="G28" s="25"/>
+      <c r="H28" s="38"/>
+      <c r="I28" s="38"/>
+      <c r="J28" s="38"/>
+      <c r="K28" s="38"/>
+    </row>
+    <row r="29" spans="1:11" ht="15" customHeight="1">
+      <c r="A29" s="97"/>
+      <c r="B29" s="24"/>
+      <c r="C29" s="24"/>
+      <c r="D29" s="24"/>
+      <c r="E29" s="24"/>
+      <c r="F29" s="24"/>
+      <c r="G29" s="98" t="s">
+        <v>71</v>
+      </c>
+      <c r="H29" s="99"/>
+      <c r="I29" s="99"/>
+      <c r="J29" s="99"/>
+      <c r="K29" s="100"/>
+    </row>
+    <row r="30" spans="1:11" ht="15" customHeight="1">
+      <c r="A30" s="97"/>
+      <c r="B30" s="24"/>
+      <c r="C30" s="24"/>
+      <c r="D30" s="24"/>
+      <c r="E30" s="24"/>
+      <c r="F30" s="24"/>
+      <c r="G30" s="117"/>
+      <c r="H30" s="120"/>
+      <c r="I30" s="120"/>
+      <c r="J30" s="120"/>
+      <c r="K30" s="121"/>
+    </row>
+    <row r="31" spans="1:11" ht="15" customHeight="1">
+      <c r="A31" s="97"/>
+      <c r="B31" s="24"/>
+      <c r="C31" s="24"/>
+      <c r="D31" s="24"/>
+      <c r="E31" s="24"/>
+      <c r="F31" s="24"/>
+      <c r="G31" s="118">
+        <v>1</v>
+      </c>
+      <c r="H31" s="113" t="s">
+        <v>139</v>
+      </c>
+      <c r="I31" s="113"/>
+      <c r="J31" s="113"/>
+      <c r="K31" s="114"/>
+    </row>
+    <row r="32" spans="1:11" ht="15" customHeight="1">
+      <c r="A32" s="97"/>
+      <c r="B32" s="24"/>
+      <c r="C32" s="24"/>
+      <c r="D32" s="24"/>
+      <c r="E32" s="24"/>
+      <c r="F32" s="24"/>
+      <c r="G32" s="118"/>
+      <c r="H32" s="113"/>
+      <c r="I32" s="113"/>
+      <c r="J32" s="113"/>
+      <c r="K32" s="114"/>
+    </row>
+    <row r="33" spans="1:11" ht="15" customHeight="1">
+      <c r="A33" s="97"/>
+      <c r="B33" s="24"/>
+      <c r="C33" s="24"/>
+      <c r="D33" s="24"/>
+      <c r="E33" s="24"/>
+      <c r="F33" s="24"/>
+      <c r="G33" s="118">
+        <v>2</v>
+      </c>
+      <c r="H33" s="113" t="s">
+        <v>140</v>
       </c>
       <c r="I33" s="113"/>
       <c r="J33" s="113"/>
@@ -25324,34 +27549,34 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:20" s="44" customFormat="1" ht="18" customHeight="1">
-      <c r="A1" s="197" t="s">
+      <c r="A1" s="186" t="s">
         <v>39</v>
       </c>
-      <c r="B1" s="198"/>
-      <c r="C1" s="198"/>
-      <c r="D1" s="198"/>
-      <c r="E1" s="198"/>
-      <c r="F1" s="198"/>
-      <c r="G1" s="198"/>
-      <c r="H1" s="198"/>
-      <c r="I1" s="198"/>
-      <c r="J1" s="198"/>
-      <c r="K1" s="198"/>
-      <c r="L1" s="198"/>
-      <c r="M1" s="198"/>
-      <c r="N1" s="198"/>
-      <c r="O1" s="198"/>
-      <c r="P1" s="198"/>
-      <c r="Q1" s="198"/>
-      <c r="R1" s="198"/>
-      <c r="S1" s="198"/>
-      <c r="T1" s="199"/>
+      <c r="B1" s="187"/>
+      <c r="C1" s="187"/>
+      <c r="D1" s="187"/>
+      <c r="E1" s="187"/>
+      <c r="F1" s="187"/>
+      <c r="G1" s="187"/>
+      <c r="H1" s="187"/>
+      <c r="I1" s="187"/>
+      <c r="J1" s="187"/>
+      <c r="K1" s="187"/>
+      <c r="L1" s="187"/>
+      <c r="M1" s="187"/>
+      <c r="N1" s="187"/>
+      <c r="O1" s="187"/>
+      <c r="P1" s="187"/>
+      <c r="Q1" s="187"/>
+      <c r="R1" s="187"/>
+      <c r="S1" s="187"/>
+      <c r="T1" s="188"/>
     </row>
     <row r="2" spans="1:20" s="44" customFormat="1" ht="18" customHeight="1">
-      <c r="A2" s="186" t="s">
+      <c r="A2" s="189" t="s">
         <v>40</v>
       </c>
-      <c r="B2" s="187"/>
+      <c r="B2" s="190"/>
       <c r="C2" s="25" t="s">
         <v>41</v>
       </c>
@@ -25368,16 +27593,16 @@
       <c r="N2" s="92"/>
       <c r="O2" s="92"/>
       <c r="P2" s="92"/>
-      <c r="Q2" s="192" t="s">
+      <c r="Q2" s="195" t="s">
         <v>42</v>
       </c>
-      <c r="R2" s="193"/>
+      <c r="R2" s="196"/>
       <c r="S2" s="92"/>
       <c r="T2" s="93"/>
     </row>
     <row r="3" spans="1:20" s="44" customFormat="1" ht="18" customHeight="1">
-      <c r="A3" s="188"/>
-      <c r="B3" s="189"/>
+      <c r="A3" s="191"/>
+      <c r="B3" s="192"/>
       <c r="C3" s="25" t="s">
         <v>43</v>
       </c>
@@ -25394,16 +27619,16 @@
       <c r="N3" s="92"/>
       <c r="O3" s="92"/>
       <c r="P3" s="92"/>
-      <c r="Q3" s="192" t="s">
+      <c r="Q3" s="195" t="s">
         <v>44</v>
       </c>
-      <c r="R3" s="193"/>
+      <c r="R3" s="196"/>
       <c r="S3" s="92"/>
       <c r="T3" s="93"/>
     </row>
     <row r="4" spans="1:20" s="44" customFormat="1" ht="18" customHeight="1">
-      <c r="A4" s="190"/>
-      <c r="B4" s="191"/>
+      <c r="A4" s="193"/>
+      <c r="B4" s="194"/>
       <c r="C4" s="25" t="s">
         <v>45</v>
       </c>
@@ -25420,18 +27645,18 @@
       <c r="N4" s="92"/>
       <c r="O4" s="92"/>
       <c r="P4" s="92"/>
-      <c r="Q4" s="192" t="s">
+      <c r="Q4" s="195" t="s">
         <v>12</v>
       </c>
-      <c r="R4" s="193"/>
+      <c r="R4" s="196"/>
       <c r="S4" s="92"/>
       <c r="T4" s="93"/>
     </row>
     <row r="5" spans="1:20" s="44" customFormat="1" ht="18" customHeight="1">
-      <c r="A5" s="186" t="s">
+      <c r="A5" s="189" t="s">
         <v>46</v>
       </c>
-      <c r="B5" s="187"/>
+      <c r="B5" s="190"/>
       <c r="C5" s="25" t="s">
         <v>47</v>
       </c>
@@ -25448,25 +27673,25 @@
       <c r="N5" s="92"/>
       <c r="O5" s="92"/>
       <c r="P5" s="92"/>
-      <c r="Q5" s="192" t="s">
+      <c r="Q5" s="195" t="s">
         <v>48</v>
       </c>
-      <c r="R5" s="193"/>
+      <c r="R5" s="196"/>
       <c r="S5" s="92"/>
       <c r="T5" s="93"/>
     </row>
     <row r="6" spans="1:20" s="44" customFormat="1" ht="18" customHeight="1">
-      <c r="A6" s="188"/>
-      <c r="B6" s="189"/>
+      <c r="A6" s="191"/>
+      <c r="B6" s="192"/>
       <c r="C6" s="25" t="s">
         <v>49</v>
       </c>
-      <c r="D6" s="194"/>
-      <c r="E6" s="195"/>
-      <c r="F6" s="196" t="s">
+      <c r="D6" s="197"/>
+      <c r="E6" s="198"/>
+      <c r="F6" s="199" t="s">
         <v>50</v>
       </c>
-      <c r="G6" s="196"/>
+      <c r="G6" s="199"/>
       <c r="H6" s="92"/>
       <c r="I6" s="92"/>
       <c r="J6" s="92"/>
@@ -25484,8 +27709,8 @@
       <c r="T6" s="93"/>
     </row>
     <row r="7" spans="1:20" s="44" customFormat="1" ht="18" customHeight="1">
-      <c r="A7" s="190"/>
-      <c r="B7" s="191"/>
+      <c r="A7" s="193"/>
+      <c r="B7" s="194"/>
       <c r="C7" s="25" t="s">
         <v>52</v>
       </c>
@@ -25502,8 +27727,8 @@
       <c r="N7" s="92"/>
       <c r="O7" s="92"/>
       <c r="P7" s="92"/>
-      <c r="Q7" s="192"/>
-      <c r="R7" s="193"/>
+      <c r="Q7" s="195"/>
+      <c r="R7" s="196"/>
       <c r="S7" s="92"/>
       <c r="T7" s="93"/>
     </row>
@@ -26221,6 +28446,12 @@
     </row>
   </sheetData>
   <mergeCells count="14">
+    <mergeCell ref="A5:B7"/>
+    <mergeCell ref="D5:K5"/>
+    <mergeCell ref="Q5:R5"/>
+    <mergeCell ref="D6:E6"/>
+    <mergeCell ref="F6:G6"/>
+    <mergeCell ref="Q7:R7"/>
     <mergeCell ref="A1:T1"/>
     <mergeCell ref="A2:B4"/>
     <mergeCell ref="D2:K2"/>
@@ -26229,12 +28460,6 @@
     <mergeCell ref="Q3:R3"/>
     <mergeCell ref="D4:K4"/>
     <mergeCell ref="Q4:R4"/>
-    <mergeCell ref="A5:B7"/>
-    <mergeCell ref="D5:K5"/>
-    <mergeCell ref="Q5:R5"/>
-    <mergeCell ref="D6:E6"/>
-    <mergeCell ref="F6:G6"/>
-    <mergeCell ref="Q7:R7"/>
   </mergeCells>
   <phoneticPr fontId="3"/>
   <pageMargins left="0.74803149606299213" right="0.74803149606299213" top="0.78740157480314965" bottom="0.78740157480314965" header="0.31496062992125984" footer="0.31496062992125984"/>
@@ -26281,7 +28506,7 @@
       <c r="B2" s="25" t="s">
         <v>41</v>
       </c>
-      <c r="C2" s="194" t="s">
+      <c r="C2" s="197" t="s">
         <v>80</v>
       </c>
       <c r="D2" s="200"/>
@@ -26289,7 +28514,7 @@
       <c r="F2" s="200"/>
       <c r="G2" s="200"/>
       <c r="H2" s="200"/>
-      <c r="I2" s="195"/>
+      <c r="I2" s="198"/>
       <c r="J2" s="80" t="s">
         <v>42</v>
       </c>
@@ -26302,7 +28527,7 @@
       <c r="B3" s="25" t="s">
         <v>43</v>
       </c>
-      <c r="C3" s="194" t="s">
+      <c r="C3" s="197" t="s">
         <v>82</v>
       </c>
       <c r="D3" s="200"/>
@@ -26310,7 +28535,7 @@
       <c r="F3" s="200"/>
       <c r="G3" s="200"/>
       <c r="H3" s="200"/>
-      <c r="I3" s="195"/>
+      <c r="I3" s="198"/>
       <c r="J3" s="80" t="s">
         <v>44</v>
       </c>
@@ -26323,7 +28548,7 @@
       <c r="B4" s="25" t="s">
         <v>45</v>
       </c>
-      <c r="C4" s="194" t="s">
+      <c r="C4" s="197" t="s">
         <v>75</v>
       </c>
       <c r="D4" s="200"/>
@@ -26331,7 +28556,7 @@
       <c r="F4" s="200"/>
       <c r="G4" s="200"/>
       <c r="H4" s="200"/>
-      <c r="I4" s="195"/>
+      <c r="I4" s="198"/>
       <c r="J4" s="80" t="s">
         <v>12</v>
       </c>
@@ -26372,12 +28597,12 @@
       <c r="E6" s="30" t="s">
         <v>50</v>
       </c>
-      <c r="F6" s="194" t="s">
+      <c r="F6" s="197" t="s">
         <v>85</v>
       </c>
       <c r="G6" s="200"/>
       <c r="H6" s="200"/>
-      <c r="I6" s="195"/>
+      <c r="I6" s="198"/>
       <c r="J6" s="80" t="s">
         <v>51</v>
       </c>
@@ -26388,7 +28613,7 @@
       <c r="B7" s="25" t="s">
         <v>52</v>
       </c>
-      <c r="C7" s="194" t="s">
+      <c r="C7" s="197" t="s">
         <v>86</v>
       </c>
       <c r="D7" s="200"/>
@@ -26396,7 +28621,7 @@
       <c r="F7" s="200"/>
       <c r="G7" s="200"/>
       <c r="H7" s="200"/>
-      <c r="I7" s="195"/>
+      <c r="I7" s="198"/>
       <c r="J7" s="80"/>
       <c r="K7" s="85"/>
     </row>
@@ -27075,7 +29300,7 @@
       <c r="B2" s="25" t="s">
         <v>41</v>
       </c>
-      <c r="C2" s="194" t="s">
+      <c r="C2" s="197" t="s">
         <v>104</v>
       </c>
       <c r="D2" s="200"/>
@@ -27083,7 +29308,7 @@
       <c r="F2" s="200"/>
       <c r="G2" s="200"/>
       <c r="H2" s="200"/>
-      <c r="I2" s="195"/>
+      <c r="I2" s="198"/>
       <c r="J2" s="80" t="s">
         <v>42</v>
       </c>
@@ -27096,7 +29321,7 @@
       <c r="B3" s="25" t="s">
         <v>43</v>
       </c>
-      <c r="C3" s="194" t="s">
+      <c r="C3" s="197" t="s">
         <v>82</v>
       </c>
       <c r="D3" s="200"/>
@@ -27104,7 +29329,7 @@
       <c r="F3" s="200"/>
       <c r="G3" s="200"/>
       <c r="H3" s="200"/>
-      <c r="I3" s="195"/>
+      <c r="I3" s="198"/>
       <c r="J3" s="80" t="s">
         <v>44</v>
       </c>
@@ -27117,7 +29342,7 @@
       <c r="B4" s="25" t="s">
         <v>45</v>
       </c>
-      <c r="C4" s="194" t="s">
+      <c r="C4" s="197" t="s">
         <v>105</v>
       </c>
       <c r="D4" s="200"/>
@@ -27125,7 +29350,7 @@
       <c r="F4" s="200"/>
       <c r="G4" s="200"/>
       <c r="H4" s="200"/>
-      <c r="I4" s="195"/>
+      <c r="I4" s="198"/>
       <c r="J4" s="80" t="s">
         <v>12</v>
       </c>
@@ -27166,12 +29391,12 @@
       <c r="E6" s="30" t="s">
         <v>50</v>
       </c>
-      <c r="F6" s="194" t="s">
+      <c r="F6" s="197" t="s">
         <v>107</v>
       </c>
       <c r="G6" s="200"/>
       <c r="H6" s="200"/>
-      <c r="I6" s="195"/>
+      <c r="I6" s="198"/>
       <c r="J6" s="80" t="s">
         <v>51</v>
       </c>
@@ -27182,7 +29407,7 @@
       <c r="B7" s="25" t="s">
         <v>52</v>
       </c>
-      <c r="C7" s="194" t="s">
+      <c r="C7" s="197" t="s">
         <v>108</v>
       </c>
       <c r="D7" s="200"/>
@@ -27190,7 +29415,7 @@
       <c r="F7" s="200"/>
       <c r="G7" s="200"/>
       <c r="H7" s="200"/>
-      <c r="I7" s="195"/>
+      <c r="I7" s="198"/>
       <c r="J7" s="80"/>
       <c r="K7" s="85"/>
     </row>
@@ -27846,7 +30071,7 @@
       <c r="B2" s="25" t="s">
         <v>41</v>
       </c>
-      <c r="C2" s="194" t="s">
+      <c r="C2" s="197" t="s">
         <v>104</v>
       </c>
       <c r="D2" s="200"/>
@@ -27854,7 +30079,7 @@
       <c r="F2" s="200"/>
       <c r="G2" s="200"/>
       <c r="H2" s="200"/>
-      <c r="I2" s="195"/>
+      <c r="I2" s="198"/>
       <c r="J2" s="80" t="s">
         <v>42</v>
       </c>
@@ -27867,7 +30092,7 @@
       <c r="B3" s="25" t="s">
         <v>43</v>
       </c>
-      <c r="C3" s="194" t="s">
+      <c r="C3" s="197" t="s">
         <v>82</v>
       </c>
       <c r="D3" s="200"/>
@@ -27875,7 +30100,7 @@
       <c r="F3" s="200"/>
       <c r="G3" s="200"/>
       <c r="H3" s="200"/>
-      <c r="I3" s="195"/>
+      <c r="I3" s="198"/>
       <c r="J3" s="80" t="s">
         <v>44</v>
       </c>
@@ -27888,7 +30113,7 @@
       <c r="B4" s="25" t="s">
         <v>45</v>
       </c>
-      <c r="C4" s="194" t="s">
+      <c r="C4" s="197" t="s">
         <v>105</v>
       </c>
       <c r="D4" s="200"/>
@@ -27896,7 +30121,7 @@
       <c r="F4" s="200"/>
       <c r="G4" s="200"/>
       <c r="H4" s="200"/>
-      <c r="I4" s="195"/>
+      <c r="I4" s="198"/>
       <c r="J4" s="80" t="s">
         <v>12</v>
       </c>
@@ -27937,12 +30162,12 @@
       <c r="E6" s="30" t="s">
         <v>50</v>
       </c>
-      <c r="F6" s="194" t="s">
+      <c r="F6" s="197" t="s">
         <v>107</v>
       </c>
       <c r="G6" s="200"/>
       <c r="H6" s="200"/>
-      <c r="I6" s="195"/>
+      <c r="I6" s="198"/>
       <c r="J6" s="80" t="s">
         <v>51</v>
       </c>
@@ -27953,7 +30178,7 @@
       <c r="B7" s="25" t="s">
         <v>52</v>
       </c>
-      <c r="C7" s="194" t="s">
+      <c r="C7" s="197" t="s">
         <v>123</v>
       </c>
       <c r="D7" s="200"/>
@@ -27961,7 +30186,7 @@
       <c r="F7" s="200"/>
       <c r="G7" s="200"/>
       <c r="H7" s="200"/>
-      <c r="I7" s="195"/>
+      <c r="I7" s="198"/>
       <c r="J7" s="80"/>
       <c r="K7" s="85"/>
     </row>
@@ -28590,6 +30815,12 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="ドキュメント" ma:contentTypeID="0x0101004898E95636345E4BA9B7207E304FF02A" ma:contentTypeVersion="2" ma:contentTypeDescription="新しいドキュメントを作成します。" ma:contentTypeScope="" ma:versionID="e6657f86184e1adae710471a336ec2c4">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="b2741836-0272-4e3d-8a51-652512547cb8" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="d912bc3cb6261775c946887a713654e5" ns2:_="">
     <xsd:import namespace="b2741836-0272-4e3d-8a51-652512547cb8"/>
@@ -28721,12 +30952,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
@@ -28737,6 +30962,15 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{89594FAD-DF06-408B-9A6A-7BEE91B4DB24}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E33909B5-25CC-4867-9A29-2DCE8D35E477}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -28754,15 +30988,6 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{89594FAD-DF06-408B-9A6A-7BEE91B4DB24}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3FDCC704-205F-4C5B-9088-5EACD9F142A9}">
   <ds:schemaRefs>
